--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/浙江新能.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/浙江新能.xlsx
@@ -703,7 +703,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -733,47 +733,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -888,7 +851,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -921,7 +884,7 @@
     <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,19 +902,19 @@
     <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -987,7 +950,7 @@
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1005,13 +968,13 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1020,11 +983,11 @@
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1106,13 +1069,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1133,31 +1093,16 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1165,6 +1110,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2760,11 +2708,11 @@
   <dimension ref="A1:AI483"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH6" sqref="AH6"/>
+      <selection pane="bottomRight" activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2841,13 +2789,13 @@
       <c r="AD1" s="28"/>
       <c r="AE1" s="28"/>
       <c r="AF1" s="28"/>
-      <c r="AG1" s="36" t="s">
+      <c r="AG1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="37" t="s">
+      <c r="AH1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="38"/>
+      <c r="AI1" s="36"/>
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="5"/>
@@ -2871,24 +2819,24 @@
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="30" t="s">
+      <c r="V2" s="27"/>
+      <c r="W2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="34" t="s">
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="38"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="5"/>
@@ -2916,20 +2864,20 @@
       <c r="S3" s="24"/>
       <c r="T3" s="24"/>
       <c r="U3" s="24"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="38"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="5"/>
@@ -2991,38 +2939,38 @@
       <c r="U4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="V4" s="29"/>
-      <c r="W4" s="31" t="s">
+      <c r="V4" s="27"/>
+      <c r="W4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="31" t="s">
+      <c r="X4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="Y4" s="30" t="s">
+      <c r="Y4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="32" t="s">
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="AB4" s="30" t="s">
+      <c r="AB4" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="32" t="s">
+      <c r="AC4" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="AD4" s="32" t="s">
+      <c r="AD4" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AE4" s="34" t="s">
+      <c r="AE4" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="AF4" s="35" t="s">
+      <c r="AF4" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="38"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
     </row>
     <row r="5" ht="56" customHeight="1" spans="1:35">
       <c r="A5" s="5"/>
@@ -3050,26 +2998,26 @@
       <c r="S5" s="25"/>
       <c r="T5" s="25"/>
       <c r="U5" s="25"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="33" t="s">
+      <c r="V5" s="27"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="Z5" s="33" t="s">
+      <c r="Z5" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="41" t="s">
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="AI5" s="42" t="s">
+      <c r="AI5" s="37" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3157,19 +3105,19 @@
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
-      <c r="AG6" s="43">
+      <c r="AG6" s="4">
         <v>15.5</v>
       </c>
-      <c r="AH6" s="44">
+      <c r="AH6" s="4">
         <f>AG6-VLOOKUP([1]交易计划及执行表!$A$17,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
         <v>-1.51</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" s="38">
         <f>AG6-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
         <v>-1.69</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:35">
       <c r="A7" s="8">
         <v>44544</v>
       </c>
@@ -3204,9 +3152,10 @@
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
-      <c r="AG7" s="43"/>
-    </row>
-    <row r="8" spans="1:33">
+      <c r="AG7" s="4"/>
+      <c r="AI7" s="38"/>
+    </row>
+    <row r="8" spans="1:35">
       <c r="A8" s="8">
         <v>44545</v>
       </c>
@@ -3241,9 +3190,10 @@
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
-      <c r="AG8" s="43"/>
-    </row>
-    <row r="9" spans="1:33">
+      <c r="AG8" s="4"/>
+      <c r="AI8" s="38"/>
+    </row>
+    <row r="9" spans="1:35">
       <c r="A9" s="8">
         <v>44546</v>
       </c>
@@ -3278,9 +3228,10 @@
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
-      <c r="AG9" s="43"/>
-    </row>
-    <row r="10" spans="1:33">
+      <c r="AG9" s="4"/>
+      <c r="AI9" s="38"/>
+    </row>
+    <row r="10" spans="1:35">
       <c r="A10" s="8">
         <v>44547</v>
       </c>
@@ -3315,9 +3266,10 @@
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
-      <c r="AG10" s="43"/>
-    </row>
-    <row r="11" spans="1:33">
+      <c r="AG10" s="4"/>
+      <c r="AI10" s="38"/>
+    </row>
+    <row r="11" spans="1:35">
       <c r="A11" s="8">
         <v>44548</v>
       </c>
@@ -3352,9 +3304,10 @@
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
-      <c r="AG11" s="43"/>
-    </row>
-    <row r="12" spans="1:33">
+      <c r="AG11" s="4"/>
+      <c r="AI11" s="38"/>
+    </row>
+    <row r="12" spans="1:35">
       <c r="A12" s="8">
         <v>44549</v>
       </c>
@@ -3389,9 +3342,10 @@
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
-      <c r="AG12" s="43"/>
-    </row>
-    <row r="13" spans="1:33">
+      <c r="AG12" s="4"/>
+      <c r="AI12" s="38"/>
+    </row>
+    <row r="13" spans="1:35">
       <c r="A13" s="8">
         <v>44550</v>
       </c>
@@ -3426,9 +3380,10 @@
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
-      <c r="AG13" s="43"/>
-    </row>
-    <row r="14" spans="1:33">
+      <c r="AG13" s="4"/>
+      <c r="AI13" s="38"/>
+    </row>
+    <row r="14" spans="1:35">
       <c r="A14" s="8">
         <v>44551</v>
       </c>
@@ -3463,9 +3418,10 @@
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
-      <c r="AG14" s="43"/>
-    </row>
-    <row r="15" spans="1:33">
+      <c r="AG14" s="4"/>
+      <c r="AI14" s="38"/>
+    </row>
+    <row r="15" spans="1:35">
       <c r="A15" s="8">
         <v>44552</v>
       </c>
@@ -3500,9 +3456,10 @@
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
-      <c r="AG15" s="43"/>
-    </row>
-    <row r="16" spans="1:33">
+      <c r="AG15" s="4"/>
+      <c r="AI15" s="38"/>
+    </row>
+    <row r="16" spans="1:35">
       <c r="A16" s="8">
         <v>44553</v>
       </c>
@@ -3537,9 +3494,10 @@
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
-      <c r="AG16" s="43"/>
-    </row>
-    <row r="17" spans="1:33">
+      <c r="AG16" s="4"/>
+      <c r="AI16" s="38"/>
+    </row>
+    <row r="17" spans="1:35">
       <c r="A17" s="8">
         <v>44554</v>
       </c>
@@ -3574,9 +3532,10 @@
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
-      <c r="AG17" s="43"/>
-    </row>
-    <row r="18" spans="1:33">
+      <c r="AG17" s="4"/>
+      <c r="AI17" s="38"/>
+    </row>
+    <row r="18" spans="1:35">
       <c r="A18" s="8">
         <v>44555</v>
       </c>
@@ -3611,9 +3570,10 @@
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
-      <c r="AG18" s="43"/>
-    </row>
-    <row r="19" spans="1:33">
+      <c r="AG18" s="4"/>
+      <c r="AI18" s="38"/>
+    </row>
+    <row r="19" spans="1:35">
       <c r="A19" s="8">
         <v>44556</v>
       </c>
@@ -3648,9 +3608,10 @@
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
-      <c r="AG19" s="43"/>
-    </row>
-    <row r="20" spans="1:33">
+      <c r="AG19" s="4"/>
+      <c r="AI19" s="38"/>
+    </row>
+    <row r="20" spans="1:35">
       <c r="A20" s="8">
         <v>44557</v>
       </c>
@@ -3685,9 +3646,10 @@
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
-      <c r="AG20" s="43"/>
-    </row>
-    <row r="21" spans="1:33">
+      <c r="AG20" s="4"/>
+      <c r="AI20" s="38"/>
+    </row>
+    <row r="21" spans="1:35">
       <c r="A21" s="8">
         <v>44558</v>
       </c>
@@ -3722,9 +3684,10 @@
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
-      <c r="AG21" s="43"/>
-    </row>
-    <row r="22" spans="1:33">
+      <c r="AG21" s="4"/>
+      <c r="AI21" s="38"/>
+    </row>
+    <row r="22" spans="1:35">
       <c r="A22" s="8">
         <v>44559</v>
       </c>
@@ -3759,9 +3722,10 @@
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
-      <c r="AG22" s="43"/>
-    </row>
-    <row r="23" spans="1:33">
+      <c r="AG22" s="4"/>
+      <c r="AI22" s="38"/>
+    </row>
+    <row r="23" spans="1:35">
       <c r="A23" s="8">
         <v>44560</v>
       </c>
@@ -3796,9 +3760,10 @@
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
-      <c r="AG23" s="43"/>
-    </row>
-    <row r="24" spans="1:33">
+      <c r="AG23" s="4"/>
+      <c r="AI23" s="38"/>
+    </row>
+    <row r="24" spans="1:35">
       <c r="A24" s="8">
         <v>44561</v>
       </c>
@@ -3833,9 +3798,10 @@
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
-      <c r="AG24" s="43"/>
-    </row>
-    <row r="25" spans="1:33">
+      <c r="AG24" s="4"/>
+      <c r="AI24" s="38"/>
+    </row>
+    <row r="25" spans="1:35">
       <c r="A25" s="8">
         <v>44562</v>
       </c>
@@ -3870,9 +3836,10 @@
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
-      <c r="AG25" s="43"/>
-    </row>
-    <row r="26" spans="1:33">
+      <c r="AG25" s="4"/>
+      <c r="AI25" s="38"/>
+    </row>
+    <row r="26" spans="1:35">
       <c r="A26" s="8">
         <v>44563</v>
       </c>
@@ -3907,9 +3874,10 @@
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
-      <c r="AG26" s="43"/>
-    </row>
-    <row r="27" spans="1:33">
+      <c r="AG26" s="4"/>
+      <c r="AI26" s="38"/>
+    </row>
+    <row r="27" spans="1:35">
       <c r="A27" s="8">
         <v>44564</v>
       </c>
@@ -3944,9 +3912,10 @@
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
-      <c r="AG27" s="43"/>
-    </row>
-    <row r="28" spans="1:33">
+      <c r="AG27" s="4"/>
+      <c r="AI27" s="38"/>
+    </row>
+    <row r="28" spans="1:35">
       <c r="A28" s="8">
         <v>44565</v>
       </c>
@@ -3981,9 +3950,10 @@
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
-      <c r="AG28" s="43"/>
-    </row>
-    <row r="29" spans="1:33">
+      <c r="AG28" s="4"/>
+      <c r="AI28" s="38"/>
+    </row>
+    <row r="29" spans="1:35">
       <c r="A29" s="8">
         <v>44566</v>
       </c>
@@ -4018,9 +3988,10 @@
       <c r="AD29" s="4"/>
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
-      <c r="AG29" s="43"/>
-    </row>
-    <row r="30" spans="1:33">
+      <c r="AG29" s="4"/>
+      <c r="AI29" s="38"/>
+    </row>
+    <row r="30" spans="1:35">
       <c r="A30" s="8">
         <v>44567</v>
       </c>
@@ -4055,9 +4026,10 @@
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
-      <c r="AG30" s="43"/>
-    </row>
-    <row r="31" spans="1:33">
+      <c r="AG30" s="4"/>
+      <c r="AI30" s="38"/>
+    </row>
+    <row r="31" spans="1:35">
       <c r="A31" s="8">
         <v>44568</v>
       </c>
@@ -4092,9 +4064,10 @@
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
       <c r="AF31" s="4"/>
-      <c r="AG31" s="43"/>
-    </row>
-    <row r="32" spans="1:33">
+      <c r="AG31" s="4"/>
+      <c r="AI31" s="38"/>
+    </row>
+    <row r="32" spans="1:35">
       <c r="A32" s="8">
         <v>44569</v>
       </c>
@@ -4129,9 +4102,10 @@
       <c r="AD32" s="4"/>
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
-      <c r="AG32" s="43"/>
-    </row>
-    <row r="33" spans="1:33">
+      <c r="AG32" s="4"/>
+      <c r="AI32" s="38"/>
+    </row>
+    <row r="33" spans="1:35">
       <c r="A33" s="8">
         <v>44570</v>
       </c>
@@ -4166,9 +4140,10 @@
       <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
-      <c r="AG33" s="43"/>
-    </row>
-    <row r="34" spans="1:33">
+      <c r="AG33" s="4"/>
+      <c r="AI33" s="38"/>
+    </row>
+    <row r="34" spans="1:35">
       <c r="A34" s="8">
         <v>44571</v>
       </c>
@@ -4203,9 +4178,10 @@
       <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
-      <c r="AG34" s="43"/>
-    </row>
-    <row r="35" spans="1:33">
+      <c r="AG34" s="4"/>
+      <c r="AI34" s="38"/>
+    </row>
+    <row r="35" spans="1:35">
       <c r="A35" s="8">
         <v>44572</v>
       </c>
@@ -4240,9 +4216,10 @@
       <c r="AD35" s="4"/>
       <c r="AE35" s="4"/>
       <c r="AF35" s="4"/>
-      <c r="AG35" s="43"/>
-    </row>
-    <row r="36" spans="1:33">
+      <c r="AG35" s="4"/>
+      <c r="AI35" s="38"/>
+    </row>
+    <row r="36" spans="1:35">
       <c r="A36" s="8">
         <v>44573</v>
       </c>
@@ -4277,9 +4254,10 @@
       <c r="AD36" s="4"/>
       <c r="AE36" s="4"/>
       <c r="AF36" s="4"/>
-      <c r="AG36" s="43"/>
-    </row>
-    <row r="37" spans="1:33">
+      <c r="AG36" s="4"/>
+      <c r="AI36" s="38"/>
+    </row>
+    <row r="37" spans="1:35">
       <c r="A37" s="8">
         <v>44574</v>
       </c>
@@ -4314,9 +4292,10 @@
       <c r="AD37" s="4"/>
       <c r="AE37" s="4"/>
       <c r="AF37" s="4"/>
-      <c r="AG37" s="43"/>
-    </row>
-    <row r="38" spans="1:33">
+      <c r="AG37" s="4"/>
+      <c r="AI37" s="38"/>
+    </row>
+    <row r="38" spans="1:35">
       <c r="A38" s="8">
         <v>44575</v>
       </c>
@@ -4351,9 +4330,10 @@
       <c r="AD38" s="4"/>
       <c r="AE38" s="4"/>
       <c r="AF38" s="4"/>
-      <c r="AG38" s="43"/>
-    </row>
-    <row r="39" spans="1:33">
+      <c r="AG38" s="4"/>
+      <c r="AI38" s="38"/>
+    </row>
+    <row r="39" spans="1:35">
       <c r="A39" s="8">
         <v>44576</v>
       </c>
@@ -4388,9 +4368,10 @@
       <c r="AD39" s="4"/>
       <c r="AE39" s="4"/>
       <c r="AF39" s="4"/>
-      <c r="AG39" s="43"/>
-    </row>
-    <row r="40" spans="1:33">
+      <c r="AG39" s="4"/>
+      <c r="AI39" s="38"/>
+    </row>
+    <row r="40" spans="1:35">
       <c r="A40" s="8">
         <v>44577</v>
       </c>
@@ -4425,9 +4406,10 @@
       <c r="AD40" s="4"/>
       <c r="AE40" s="4"/>
       <c r="AF40" s="4"/>
-      <c r="AG40" s="43"/>
-    </row>
-    <row r="41" spans="1:33">
+      <c r="AG40" s="4"/>
+      <c r="AI40" s="38"/>
+    </row>
+    <row r="41" spans="1:35">
       <c r="A41" s="8">
         <v>44578</v>
       </c>
@@ -4462,9 +4444,10 @@
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
-      <c r="AG41" s="43"/>
-    </row>
-    <row r="42" spans="1:33">
+      <c r="AG41" s="4"/>
+      <c r="AI41" s="38"/>
+    </row>
+    <row r="42" spans="1:35">
       <c r="A42" s="8">
         <v>44579</v>
       </c>
@@ -4499,9 +4482,10 @@
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
-      <c r="AG42" s="43"/>
-    </row>
-    <row r="43" spans="1:33">
+      <c r="AG42" s="4"/>
+      <c r="AI42" s="38"/>
+    </row>
+    <row r="43" spans="1:35">
       <c r="A43" s="8">
         <v>44580</v>
       </c>
@@ -4536,9 +4520,10 @@
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
-      <c r="AG43" s="43"/>
-    </row>
-    <row r="44" spans="1:33">
+      <c r="AG43" s="4"/>
+      <c r="AI43" s="38"/>
+    </row>
+    <row r="44" spans="1:35">
       <c r="A44" s="8">
         <v>44581</v>
       </c>
@@ -4573,9 +4558,10 @@
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
       <c r="AF44" s="4"/>
-      <c r="AG44" s="43"/>
-    </row>
-    <row r="45" spans="1:33">
+      <c r="AG44" s="4"/>
+      <c r="AI44" s="38"/>
+    </row>
+    <row r="45" spans="1:35">
       <c r="A45" s="8">
         <v>44582</v>
       </c>
@@ -4610,9 +4596,10 @@
       <c r="AD45" s="4"/>
       <c r="AE45" s="4"/>
       <c r="AF45" s="4"/>
-      <c r="AG45" s="43"/>
-    </row>
-    <row r="46" spans="1:33">
+      <c r="AG45" s="4"/>
+      <c r="AI45" s="38"/>
+    </row>
+    <row r="46" spans="1:35">
       <c r="A46" s="8">
         <v>44583</v>
       </c>
@@ -4647,9 +4634,10 @@
       <c r="AD46" s="4"/>
       <c r="AE46" s="4"/>
       <c r="AF46" s="4"/>
-      <c r="AG46" s="43"/>
-    </row>
-    <row r="47" spans="1:33">
+      <c r="AG46" s="4"/>
+      <c r="AI46" s="38"/>
+    </row>
+    <row r="47" spans="1:35">
       <c r="A47" s="8">
         <v>44584</v>
       </c>
@@ -4684,9 +4672,10 @@
       <c r="AD47" s="4"/>
       <c r="AE47" s="4"/>
       <c r="AF47" s="4"/>
-      <c r="AG47" s="43"/>
-    </row>
-    <row r="48" spans="1:33">
+      <c r="AG47" s="4"/>
+      <c r="AI47" s="38"/>
+    </row>
+    <row r="48" spans="1:35">
       <c r="A48" s="8">
         <v>44585</v>
       </c>
@@ -4721,9 +4710,10 @@
       <c r="AD48" s="4"/>
       <c r="AE48" s="4"/>
       <c r="AF48" s="4"/>
-      <c r="AG48" s="43"/>
-    </row>
-    <row r="49" spans="1:33">
+      <c r="AG48" s="4"/>
+      <c r="AI48" s="38"/>
+    </row>
+    <row r="49" spans="1:35">
       <c r="A49" s="8">
         <v>44586</v>
       </c>
@@ -4758,9 +4748,10 @@
       <c r="AD49" s="4"/>
       <c r="AE49" s="4"/>
       <c r="AF49" s="4"/>
-      <c r="AG49" s="43"/>
-    </row>
-    <row r="50" spans="1:33">
+      <c r="AG49" s="4"/>
+      <c r="AI49" s="38"/>
+    </row>
+    <row r="50" spans="1:35">
       <c r="A50" s="8">
         <v>44587</v>
       </c>
@@ -4795,9 +4786,10 @@
       <c r="AD50" s="4"/>
       <c r="AE50" s="4"/>
       <c r="AF50" s="4"/>
-      <c r="AG50" s="43"/>
-    </row>
-    <row r="51" spans="1:33">
+      <c r="AG50" s="4"/>
+      <c r="AI50" s="38"/>
+    </row>
+    <row r="51" spans="1:35">
       <c r="A51" s="8">
         <v>44588</v>
       </c>
@@ -4832,9 +4824,10 @@
       <c r="AD51" s="4"/>
       <c r="AE51" s="4"/>
       <c r="AF51" s="4"/>
-      <c r="AG51" s="43"/>
-    </row>
-    <row r="52" spans="1:33">
+      <c r="AG51" s="4"/>
+      <c r="AI51" s="38"/>
+    </row>
+    <row r="52" spans="1:35">
       <c r="A52" s="8">
         <v>44589</v>
       </c>
@@ -4869,9 +4862,10 @@
       <c r="AD52" s="4"/>
       <c r="AE52" s="4"/>
       <c r="AF52" s="4"/>
-      <c r="AG52" s="43"/>
-    </row>
-    <row r="53" spans="1:33">
+      <c r="AG52" s="4"/>
+      <c r="AI52" s="38"/>
+    </row>
+    <row r="53" spans="1:35">
       <c r="A53" s="8">
         <v>44590</v>
       </c>
@@ -4906,9 +4900,10 @@
       <c r="AD53" s="4"/>
       <c r="AE53" s="4"/>
       <c r="AF53" s="4"/>
-      <c r="AG53" s="43"/>
-    </row>
-    <row r="54" spans="1:33">
+      <c r="AG53" s="4"/>
+      <c r="AI53" s="38"/>
+    </row>
+    <row r="54" spans="1:35">
       <c r="A54" s="8">
         <v>44591</v>
       </c>
@@ -4943,9 +4938,10 @@
       <c r="AD54" s="4"/>
       <c r="AE54" s="4"/>
       <c r="AF54" s="4"/>
-      <c r="AG54" s="43"/>
-    </row>
-    <row r="55" spans="1:33">
+      <c r="AG54" s="4"/>
+      <c r="AI54" s="38"/>
+    </row>
+    <row r="55" spans="1:35">
       <c r="A55" s="8">
         <v>44592</v>
       </c>
@@ -4980,9 +4976,10 @@
       <c r="AD55" s="4"/>
       <c r="AE55" s="4"/>
       <c r="AF55" s="4"/>
-      <c r="AG55" s="43"/>
-    </row>
-    <row r="56" spans="1:33">
+      <c r="AG55" s="4"/>
+      <c r="AI55" s="38"/>
+    </row>
+    <row r="56" spans="1:35">
       <c r="A56" s="8">
         <v>44593</v>
       </c>
@@ -5017,9 +5014,10 @@
       <c r="AD56" s="4"/>
       <c r="AE56" s="4"/>
       <c r="AF56" s="4"/>
-      <c r="AG56" s="43"/>
-    </row>
-    <row r="57" spans="1:33">
+      <c r="AG56" s="4"/>
+      <c r="AI56" s="38"/>
+    </row>
+    <row r="57" spans="1:35">
       <c r="A57" s="8">
         <v>44594</v>
       </c>
@@ -5054,9 +5052,10 @@
       <c r="AD57" s="4"/>
       <c r="AE57" s="4"/>
       <c r="AF57" s="4"/>
-      <c r="AG57" s="43"/>
-    </row>
-    <row r="58" spans="1:33">
+      <c r="AG57" s="4"/>
+      <c r="AI57" s="38"/>
+    </row>
+    <row r="58" spans="1:35">
       <c r="A58" s="8">
         <v>44595</v>
       </c>
@@ -5091,9 +5090,10 @@
       <c r="AD58" s="4"/>
       <c r="AE58" s="4"/>
       <c r="AF58" s="4"/>
-      <c r="AG58" s="43"/>
-    </row>
-    <row r="59" spans="1:33">
+      <c r="AG58" s="4"/>
+      <c r="AI58" s="38"/>
+    </row>
+    <row r="59" spans="1:35">
       <c r="A59" s="8">
         <v>44596</v>
       </c>
@@ -5128,9 +5128,10 @@
       <c r="AD59" s="4"/>
       <c r="AE59" s="4"/>
       <c r="AF59" s="4"/>
-      <c r="AG59" s="43"/>
-    </row>
-    <row r="60" spans="1:33">
+      <c r="AG59" s="4"/>
+      <c r="AI59" s="38"/>
+    </row>
+    <row r="60" spans="1:35">
       <c r="A60" s="8">
         <v>44597</v>
       </c>
@@ -5165,9 +5166,10 @@
       <c r="AD60" s="4"/>
       <c r="AE60" s="4"/>
       <c r="AF60" s="4"/>
-      <c r="AG60" s="43"/>
-    </row>
-    <row r="61" spans="1:33">
+      <c r="AG60" s="4"/>
+      <c r="AI60" s="38"/>
+    </row>
+    <row r="61" spans="1:35">
       <c r="A61" s="8">
         <v>44598</v>
       </c>
@@ -5202,9 +5204,10 @@
       <c r="AD61" s="4"/>
       <c r="AE61" s="4"/>
       <c r="AF61" s="4"/>
-      <c r="AG61" s="43"/>
-    </row>
-    <row r="62" spans="1:33">
+      <c r="AG61" s="4"/>
+      <c r="AI61" s="38"/>
+    </row>
+    <row r="62" spans="1:35">
       <c r="A62" s="8">
         <v>44599</v>
       </c>
@@ -5239,9 +5242,10 @@
       <c r="AD62" s="4"/>
       <c r="AE62" s="4"/>
       <c r="AF62" s="4"/>
-      <c r="AG62" s="43"/>
-    </row>
-    <row r="63" spans="1:33">
+      <c r="AG62" s="4"/>
+      <c r="AI62" s="38"/>
+    </row>
+    <row r="63" spans="1:35">
       <c r="A63" s="8">
         <v>44600</v>
       </c>
@@ -5276,9 +5280,10 @@
       <c r="AD63" s="4"/>
       <c r="AE63" s="4"/>
       <c r="AF63" s="4"/>
-      <c r="AG63" s="43"/>
-    </row>
-    <row r="64" spans="1:33">
+      <c r="AG63" s="4"/>
+      <c r="AI63" s="38"/>
+    </row>
+    <row r="64" spans="1:35">
       <c r="A64" s="8">
         <v>44601</v>
       </c>
@@ -5313,9 +5318,10 @@
       <c r="AD64" s="4"/>
       <c r="AE64" s="4"/>
       <c r="AF64" s="4"/>
-      <c r="AG64" s="43"/>
-    </row>
-    <row r="65" spans="1:33">
+      <c r="AG64" s="4"/>
+      <c r="AI64" s="38"/>
+    </row>
+    <row r="65" spans="1:35">
       <c r="A65" s="8">
         <v>44602</v>
       </c>
@@ -5350,9 +5356,10 @@
       <c r="AD65" s="4"/>
       <c r="AE65" s="4"/>
       <c r="AF65" s="4"/>
-      <c r="AG65" s="43"/>
-    </row>
-    <row r="66" spans="1:33">
+      <c r="AG65" s="4"/>
+      <c r="AI65" s="38"/>
+    </row>
+    <row r="66" spans="1:35">
       <c r="A66" s="8">
         <v>44603</v>
       </c>
@@ -5387,9 +5394,10 @@
       <c r="AD66" s="4"/>
       <c r="AE66" s="4"/>
       <c r="AF66" s="4"/>
-      <c r="AG66" s="43"/>
-    </row>
-    <row r="67" spans="1:33">
+      <c r="AG66" s="4"/>
+      <c r="AI66" s="38"/>
+    </row>
+    <row r="67" spans="1:35">
       <c r="A67" s="8">
         <v>44604</v>
       </c>
@@ -5424,9 +5432,10 @@
       <c r="AD67" s="4"/>
       <c r="AE67" s="4"/>
       <c r="AF67" s="4"/>
-      <c r="AG67" s="43"/>
-    </row>
-    <row r="68" spans="1:33">
+      <c r="AG67" s="4"/>
+      <c r="AI67" s="38"/>
+    </row>
+    <row r="68" spans="1:35">
       <c r="A68" s="8">
         <v>44605</v>
       </c>
@@ -5461,9 +5470,10 @@
       <c r="AD68" s="4"/>
       <c r="AE68" s="4"/>
       <c r="AF68" s="4"/>
-      <c r="AG68" s="43"/>
-    </row>
-    <row r="69" spans="1:33">
+      <c r="AG68" s="4"/>
+      <c r="AI68" s="38"/>
+    </row>
+    <row r="69" spans="1:35">
       <c r="A69" s="8">
         <v>44606</v>
       </c>
@@ -5498,9 +5508,10 @@
       <c r="AD69" s="4"/>
       <c r="AE69" s="4"/>
       <c r="AF69" s="4"/>
-      <c r="AG69" s="43"/>
-    </row>
-    <row r="70" spans="1:33">
+      <c r="AG69" s="4"/>
+      <c r="AI69" s="38"/>
+    </row>
+    <row r="70" spans="1:35">
       <c r="A70" s="8">
         <v>44607</v>
       </c>
@@ -5535,9 +5546,10 @@
       <c r="AD70" s="4"/>
       <c r="AE70" s="4"/>
       <c r="AF70" s="4"/>
-      <c r="AG70" s="43"/>
-    </row>
-    <row r="71" spans="1:33">
+      <c r="AG70" s="4"/>
+      <c r="AI70" s="38"/>
+    </row>
+    <row r="71" spans="1:35">
       <c r="A71" s="8">
         <v>44608</v>
       </c>
@@ -5572,9 +5584,10 @@
       <c r="AD71" s="4"/>
       <c r="AE71" s="4"/>
       <c r="AF71" s="4"/>
-      <c r="AG71" s="43"/>
-    </row>
-    <row r="72" spans="1:33">
+      <c r="AG71" s="4"/>
+      <c r="AI71" s="38"/>
+    </row>
+    <row r="72" spans="1:35">
       <c r="A72" s="8">
         <v>44609</v>
       </c>
@@ -5609,9 +5622,10 @@
       <c r="AD72" s="4"/>
       <c r="AE72" s="4"/>
       <c r="AF72" s="4"/>
-      <c r="AG72" s="43"/>
-    </row>
-    <row r="73" spans="1:33">
+      <c r="AG72" s="4"/>
+      <c r="AI72" s="38"/>
+    </row>
+    <row r="73" spans="1:35">
       <c r="A73" s="8">
         <v>44610</v>
       </c>
@@ -5646,9 +5660,10 @@
       <c r="AD73" s="4"/>
       <c r="AE73" s="4"/>
       <c r="AF73" s="4"/>
-      <c r="AG73" s="43"/>
-    </row>
-    <row r="74" spans="1:33">
+      <c r="AG73" s="4"/>
+      <c r="AI73" s="38"/>
+    </row>
+    <row r="74" spans="1:35">
       <c r="A74" s="8">
         <v>44611</v>
       </c>
@@ -5683,9 +5698,10 @@
       <c r="AD74" s="4"/>
       <c r="AE74" s="4"/>
       <c r="AF74" s="4"/>
-      <c r="AG74" s="43"/>
-    </row>
-    <row r="75" spans="1:33">
+      <c r="AG74" s="4"/>
+      <c r="AI74" s="38"/>
+    </row>
+    <row r="75" spans="1:35">
       <c r="A75" s="8">
         <v>44612</v>
       </c>
@@ -5720,9 +5736,10 @@
       <c r="AD75" s="4"/>
       <c r="AE75" s="4"/>
       <c r="AF75" s="4"/>
-      <c r="AG75" s="43"/>
-    </row>
-    <row r="76" spans="1:33">
+      <c r="AG75" s="4"/>
+      <c r="AI75" s="38"/>
+    </row>
+    <row r="76" spans="1:35">
       <c r="A76" s="8">
         <v>44613</v>
       </c>
@@ -5757,9 +5774,10 @@
       <c r="AD76" s="4"/>
       <c r="AE76" s="4"/>
       <c r="AF76" s="4"/>
-      <c r="AG76" s="43"/>
-    </row>
-    <row r="77" spans="1:33">
+      <c r="AG76" s="4"/>
+      <c r="AI76" s="38"/>
+    </row>
+    <row r="77" spans="1:35">
       <c r="A77" s="8">
         <v>44614</v>
       </c>
@@ -5794,9 +5812,10 @@
       <c r="AD77" s="4"/>
       <c r="AE77" s="4"/>
       <c r="AF77" s="4"/>
-      <c r="AG77" s="43"/>
-    </row>
-    <row r="78" spans="1:33">
+      <c r="AG77" s="4"/>
+      <c r="AI77" s="38"/>
+    </row>
+    <row r="78" spans="1:35">
       <c r="A78" s="8">
         <v>44615</v>
       </c>
@@ -5831,9 +5850,10 @@
       <c r="AD78" s="4"/>
       <c r="AE78" s="4"/>
       <c r="AF78" s="4"/>
-      <c r="AG78" s="43"/>
-    </row>
-    <row r="79" spans="1:33">
+      <c r="AG78" s="4"/>
+      <c r="AI78" s="38"/>
+    </row>
+    <row r="79" spans="1:35">
       <c r="A79" s="8">
         <v>44616</v>
       </c>
@@ -5868,9 +5888,10 @@
       <c r="AD79" s="4"/>
       <c r="AE79" s="4"/>
       <c r="AF79" s="4"/>
-      <c r="AG79" s="43"/>
-    </row>
-    <row r="80" spans="1:33">
+      <c r="AG79" s="4"/>
+      <c r="AI79" s="38"/>
+    </row>
+    <row r="80" spans="1:35">
       <c r="A80" s="8">
         <v>44617</v>
       </c>
@@ -5905,9 +5926,10 @@
       <c r="AD80" s="4"/>
       <c r="AE80" s="4"/>
       <c r="AF80" s="4"/>
-      <c r="AG80" s="43"/>
-    </row>
-    <row r="81" spans="1:33">
+      <c r="AG80" s="4"/>
+      <c r="AI80" s="38"/>
+    </row>
+    <row r="81" spans="1:35">
       <c r="A81" s="8">
         <v>44618</v>
       </c>
@@ -5942,9 +5964,10 @@
       <c r="AD81" s="4"/>
       <c r="AE81" s="4"/>
       <c r="AF81" s="4"/>
-      <c r="AG81" s="43"/>
-    </row>
-    <row r="82" spans="1:33">
+      <c r="AG81" s="4"/>
+      <c r="AI81" s="38"/>
+    </row>
+    <row r="82" spans="1:35">
       <c r="A82" s="8">
         <v>44619</v>
       </c>
@@ -5979,9 +6002,10 @@
       <c r="AD82" s="4"/>
       <c r="AE82" s="4"/>
       <c r="AF82" s="4"/>
-      <c r="AG82" s="43"/>
-    </row>
-    <row r="83" spans="1:33">
+      <c r="AG82" s="4"/>
+      <c r="AI82" s="38"/>
+    </row>
+    <row r="83" spans="1:35">
       <c r="A83" s="8">
         <v>44620</v>
       </c>
@@ -6016,9 +6040,10 @@
       <c r="AD83" s="4"/>
       <c r="AE83" s="4"/>
       <c r="AF83" s="4"/>
-      <c r="AG83" s="43"/>
-    </row>
-    <row r="84" spans="1:33">
+      <c r="AG83" s="4"/>
+      <c r="AI83" s="38"/>
+    </row>
+    <row r="84" spans="1:35">
       <c r="A84" s="8">
         <v>44621</v>
       </c>
@@ -6053,9 +6078,10 @@
       <c r="AD84" s="4"/>
       <c r="AE84" s="4"/>
       <c r="AF84" s="4"/>
-      <c r="AG84" s="43"/>
-    </row>
-    <row r="85" spans="1:33">
+      <c r="AG84" s="4"/>
+      <c r="AI84" s="38"/>
+    </row>
+    <row r="85" spans="1:35">
       <c r="A85" s="8">
         <v>44622</v>
       </c>
@@ -6090,9 +6116,10 @@
       <c r="AD85" s="4"/>
       <c r="AE85" s="4"/>
       <c r="AF85" s="4"/>
-      <c r="AG85" s="43"/>
-    </row>
-    <row r="86" spans="1:33">
+      <c r="AG85" s="4"/>
+      <c r="AI85" s="38"/>
+    </row>
+    <row r="86" spans="1:35">
       <c r="A86" s="8">
         <v>44623</v>
       </c>
@@ -6127,9 +6154,10 @@
       <c r="AD86" s="4"/>
       <c r="AE86" s="4"/>
       <c r="AF86" s="4"/>
-      <c r="AG86" s="43"/>
-    </row>
-    <row r="87" spans="1:33">
+      <c r="AG86" s="4"/>
+      <c r="AI86" s="38"/>
+    </row>
+    <row r="87" spans="1:35">
       <c r="A87" s="8">
         <v>44624</v>
       </c>
@@ -6164,9 +6192,10 @@
       <c r="AD87" s="4"/>
       <c r="AE87" s="4"/>
       <c r="AF87" s="4"/>
-      <c r="AG87" s="43"/>
-    </row>
-    <row r="88" spans="1:33">
+      <c r="AG87" s="4"/>
+      <c r="AI87" s="38"/>
+    </row>
+    <row r="88" spans="1:35">
       <c r="A88" s="8">
         <v>44625</v>
       </c>
@@ -6201,9 +6230,10 @@
       <c r="AD88" s="4"/>
       <c r="AE88" s="4"/>
       <c r="AF88" s="4"/>
-      <c r="AG88" s="43"/>
-    </row>
-    <row r="89" spans="1:33">
+      <c r="AG88" s="4"/>
+      <c r="AI88" s="38"/>
+    </row>
+    <row r="89" spans="1:35">
       <c r="A89" s="8">
         <v>44626</v>
       </c>
@@ -6238,9 +6268,10 @@
       <c r="AD89" s="4"/>
       <c r="AE89" s="4"/>
       <c r="AF89" s="4"/>
-      <c r="AG89" s="43"/>
-    </row>
-    <row r="90" spans="1:33">
+      <c r="AG89" s="4"/>
+      <c r="AI89" s="38"/>
+    </row>
+    <row r="90" spans="1:35">
       <c r="A90" s="8">
         <v>44627</v>
       </c>
@@ -6275,9 +6306,10 @@
       <c r="AD90" s="4"/>
       <c r="AE90" s="4"/>
       <c r="AF90" s="4"/>
-      <c r="AG90" s="43"/>
-    </row>
-    <row r="91" spans="1:33">
+      <c r="AG90" s="4"/>
+      <c r="AI90" s="38"/>
+    </row>
+    <row r="91" spans="1:35">
       <c r="A91" s="8">
         <v>44628</v>
       </c>
@@ -6312,9 +6344,10 @@
       <c r="AD91" s="4"/>
       <c r="AE91" s="4"/>
       <c r="AF91" s="4"/>
-      <c r="AG91" s="43"/>
-    </row>
-    <row r="92" spans="1:33">
+      <c r="AG91" s="4"/>
+      <c r="AI91" s="38"/>
+    </row>
+    <row r="92" spans="1:35">
       <c r="A92" s="8">
         <v>44629</v>
       </c>
@@ -6349,9 +6382,10 @@
       <c r="AD92" s="4"/>
       <c r="AE92" s="4"/>
       <c r="AF92" s="4"/>
-      <c r="AG92" s="43"/>
-    </row>
-    <row r="93" spans="1:33">
+      <c r="AG92" s="4"/>
+      <c r="AI92" s="38"/>
+    </row>
+    <row r="93" spans="1:35">
       <c r="A93" s="8">
         <v>44630</v>
       </c>
@@ -6386,9 +6420,10 @@
       <c r="AD93" s="4"/>
       <c r="AE93" s="4"/>
       <c r="AF93" s="4"/>
-      <c r="AG93" s="43"/>
-    </row>
-    <row r="94" spans="1:33">
+      <c r="AG93" s="4"/>
+      <c r="AI93" s="38"/>
+    </row>
+    <row r="94" spans="1:35">
       <c r="A94" s="8">
         <v>44631</v>
       </c>
@@ -6423,9 +6458,10 @@
       <c r="AD94" s="4"/>
       <c r="AE94" s="4"/>
       <c r="AF94" s="4"/>
-      <c r="AG94" s="43"/>
-    </row>
-    <row r="95" spans="1:33">
+      <c r="AG94" s="4"/>
+      <c r="AI94" s="38"/>
+    </row>
+    <row r="95" spans="1:35">
       <c r="A95" s="8">
         <v>44632</v>
       </c>
@@ -6460,9 +6496,10 @@
       <c r="AD95" s="4"/>
       <c r="AE95" s="4"/>
       <c r="AF95" s="4"/>
-      <c r="AG95" s="43"/>
-    </row>
-    <row r="96" spans="1:33">
+      <c r="AG95" s="4"/>
+      <c r="AI95" s="38"/>
+    </row>
+    <row r="96" spans="1:35">
       <c r="A96" s="8">
         <v>44633</v>
       </c>
@@ -6497,9 +6534,10 @@
       <c r="AD96" s="4"/>
       <c r="AE96" s="4"/>
       <c r="AF96" s="4"/>
-      <c r="AG96" s="43"/>
-    </row>
-    <row r="97" spans="1:33">
+      <c r="AG96" s="4"/>
+      <c r="AI96" s="38"/>
+    </row>
+    <row r="97" spans="1:35">
       <c r="A97" s="8">
         <v>44634</v>
       </c>
@@ -6534,9 +6572,10 @@
       <c r="AD97" s="4"/>
       <c r="AE97" s="4"/>
       <c r="AF97" s="4"/>
-      <c r="AG97" s="43"/>
-    </row>
-    <row r="98" spans="1:33">
+      <c r="AG97" s="4"/>
+      <c r="AI97" s="38"/>
+    </row>
+    <row r="98" spans="1:35">
       <c r="A98" s="8">
         <v>44635</v>
       </c>
@@ -6571,9 +6610,10 @@
       <c r="AD98" s="4"/>
       <c r="AE98" s="4"/>
       <c r="AF98" s="4"/>
-      <c r="AG98" s="43"/>
-    </row>
-    <row r="99" spans="1:33">
+      <c r="AG98" s="4"/>
+      <c r="AI98" s="38"/>
+    </row>
+    <row r="99" spans="1:35">
       <c r="A99" s="8">
         <v>44636</v>
       </c>
@@ -6608,9 +6648,10 @@
       <c r="AD99" s="4"/>
       <c r="AE99" s="4"/>
       <c r="AF99" s="4"/>
-      <c r="AG99" s="43"/>
-    </row>
-    <row r="100" spans="1:33">
+      <c r="AG99" s="4"/>
+      <c r="AI99" s="38"/>
+    </row>
+    <row r="100" spans="1:35">
       <c r="A100" s="8">
         <v>44637</v>
       </c>
@@ -6645,9 +6686,10 @@
       <c r="AD100" s="4"/>
       <c r="AE100" s="4"/>
       <c r="AF100" s="4"/>
-      <c r="AG100" s="43"/>
-    </row>
-    <row r="101" spans="1:33">
+      <c r="AG100" s="4"/>
+      <c r="AI100" s="38"/>
+    </row>
+    <row r="101" spans="1:35">
       <c r="A101" s="8">
         <v>44638</v>
       </c>
@@ -6682,9 +6724,10 @@
       <c r="AD101" s="4"/>
       <c r="AE101" s="4"/>
       <c r="AF101" s="4"/>
-      <c r="AG101" s="43"/>
-    </row>
-    <row r="102" spans="1:33">
+      <c r="AG101" s="4"/>
+      <c r="AI101" s="38"/>
+    </row>
+    <row r="102" spans="1:35">
       <c r="A102" s="8">
         <v>44639</v>
       </c>
@@ -6719,9 +6762,10 @@
       <c r="AD102" s="4"/>
       <c r="AE102" s="4"/>
       <c r="AF102" s="4"/>
-      <c r="AG102" s="43"/>
-    </row>
-    <row r="103" spans="1:33">
+      <c r="AG102" s="4"/>
+      <c r="AI102" s="38"/>
+    </row>
+    <row r="103" spans="1:35">
       <c r="A103" s="8">
         <v>44640</v>
       </c>
@@ -6756,9 +6800,10 @@
       <c r="AD103" s="4"/>
       <c r="AE103" s="4"/>
       <c r="AF103" s="4"/>
-      <c r="AG103" s="43"/>
-    </row>
-    <row r="104" spans="1:33">
+      <c r="AG103" s="4"/>
+      <c r="AI103" s="38"/>
+    </row>
+    <row r="104" spans="1:35">
       <c r="A104" s="8">
         <v>44641</v>
       </c>
@@ -6793,9 +6838,10 @@
       <c r="AD104" s="4"/>
       <c r="AE104" s="4"/>
       <c r="AF104" s="4"/>
-      <c r="AG104" s="43"/>
-    </row>
-    <row r="105" spans="1:33">
+      <c r="AG104" s="4"/>
+      <c r="AI104" s="38"/>
+    </row>
+    <row r="105" spans="1:35">
       <c r="A105" s="8">
         <v>44642</v>
       </c>
@@ -6830,9 +6876,10 @@
       <c r="AD105" s="4"/>
       <c r="AE105" s="4"/>
       <c r="AF105" s="4"/>
-      <c r="AG105" s="43"/>
-    </row>
-    <row r="106" spans="1:33">
+      <c r="AG105" s="4"/>
+      <c r="AI105" s="38"/>
+    </row>
+    <row r="106" spans="1:35">
       <c r="A106" s="8">
         <v>44643</v>
       </c>
@@ -6867,9 +6914,10 @@
       <c r="AD106" s="4"/>
       <c r="AE106" s="4"/>
       <c r="AF106" s="4"/>
-      <c r="AG106" s="43"/>
-    </row>
-    <row r="107" spans="1:33">
+      <c r="AG106" s="4"/>
+      <c r="AI106" s="38"/>
+    </row>
+    <row r="107" spans="1:35">
       <c r="A107" s="8">
         <v>44644</v>
       </c>
@@ -6904,9 +6952,10 @@
       <c r="AD107" s="4"/>
       <c r="AE107" s="4"/>
       <c r="AF107" s="4"/>
-      <c r="AG107" s="43"/>
-    </row>
-    <row r="108" spans="1:33">
+      <c r="AG107" s="4"/>
+      <c r="AI107" s="38"/>
+    </row>
+    <row r="108" spans="1:35">
       <c r="A108" s="8">
         <v>44645</v>
       </c>
@@ -6941,9 +6990,10 @@
       <c r="AD108" s="4"/>
       <c r="AE108" s="4"/>
       <c r="AF108" s="4"/>
-      <c r="AG108" s="43"/>
-    </row>
-    <row r="109" spans="1:33">
+      <c r="AG108" s="4"/>
+      <c r="AI108" s="38"/>
+    </row>
+    <row r="109" spans="1:35">
       <c r="A109" s="8">
         <v>44646</v>
       </c>
@@ -6978,9 +7028,10 @@
       <c r="AD109" s="4"/>
       <c r="AE109" s="4"/>
       <c r="AF109" s="4"/>
-      <c r="AG109" s="43"/>
-    </row>
-    <row r="110" spans="1:33">
+      <c r="AG109" s="4"/>
+      <c r="AI109" s="38"/>
+    </row>
+    <row r="110" spans="1:35">
       <c r="A110" s="8">
         <v>44647</v>
       </c>
@@ -7015,9 +7066,10 @@
       <c r="AD110" s="4"/>
       <c r="AE110" s="4"/>
       <c r="AF110" s="4"/>
-      <c r="AG110" s="43"/>
-    </row>
-    <row r="111" spans="1:33">
+      <c r="AG110" s="4"/>
+      <c r="AI110" s="38"/>
+    </row>
+    <row r="111" spans="1:35">
       <c r="A111" s="8">
         <v>44648</v>
       </c>
@@ -7052,9 +7104,10 @@
       <c r="AD111" s="4"/>
       <c r="AE111" s="4"/>
       <c r="AF111" s="4"/>
-      <c r="AG111" s="43"/>
-    </row>
-    <row r="112" spans="1:33">
+      <c r="AG111" s="4"/>
+      <c r="AI111" s="38"/>
+    </row>
+    <row r="112" spans="1:35">
       <c r="A112" s="8">
         <v>44649</v>
       </c>
@@ -7089,9 +7142,10 @@
       <c r="AD112" s="4"/>
       <c r="AE112" s="4"/>
       <c r="AF112" s="4"/>
-      <c r="AG112" s="43"/>
-    </row>
-    <row r="113" spans="1:24">
+      <c r="AG112" s="4"/>
+      <c r="AI112" s="38"/>
+    </row>
+    <row r="113" spans="1:34">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -7100,11 +7154,11 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="I113" s="1"/>
-      <c r="J113" s="45"/>
-      <c r="K113" s="45"/>
-      <c r="L113" s="45"/>
-      <c r="M113" s="45"/>
-      <c r="N113" s="46"/>
+      <c r="J113" s="39"/>
+      <c r="K113" s="39"/>
+      <c r="L113" s="39"/>
+      <c r="M113" s="39"/>
+      <c r="N113" s="40"/>
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
@@ -7113,6 +7167,7 @@
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
       <c r="X113" s="1"/>
+      <c r="AH113" s="41"/>
     </row>
     <row r="114" spans="1:24">
       <c r="A114" s="1"/>
@@ -7123,11 +7178,11 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="I114" s="1"/>
-      <c r="J114" s="45"/>
-      <c r="K114" s="45"/>
-      <c r="L114" s="45"/>
-      <c r="M114" s="45"/>
-      <c r="N114" s="46"/>
+      <c r="J114" s="39"/>
+      <c r="K114" s="39"/>
+      <c r="L114" s="39"/>
+      <c r="M114" s="39"/>
+      <c r="N114" s="40"/>
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
@@ -7146,11 +7201,11 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="I115" s="1"/>
-      <c r="J115" s="45"/>
-      <c r="K115" s="45"/>
-      <c r="L115" s="45"/>
-      <c r="M115" s="45"/>
-      <c r="N115" s="46"/>
+      <c r="J115" s="39"/>
+      <c r="K115" s="39"/>
+      <c r="L115" s="39"/>
+      <c r="M115" s="39"/>
+      <c r="N115" s="40"/>
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
@@ -7169,11 +7224,11 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="I116" s="1"/>
-      <c r="J116" s="45"/>
-      <c r="K116" s="45"/>
-      <c r="L116" s="45"/>
-      <c r="M116" s="45"/>
-      <c r="N116" s="46"/>
+      <c r="J116" s="39"/>
+      <c r="K116" s="39"/>
+      <c r="L116" s="39"/>
+      <c r="M116" s="39"/>
+      <c r="N116" s="40"/>
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
@@ -7192,11 +7247,11 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="I117" s="1"/>
-      <c r="J117" s="45"/>
-      <c r="K117" s="45"/>
-      <c r="L117" s="45"/>
-      <c r="M117" s="45"/>
-      <c r="N117" s="46"/>
+      <c r="J117" s="39"/>
+      <c r="K117" s="39"/>
+      <c r="L117" s="39"/>
+      <c r="M117" s="39"/>
+      <c r="N117" s="40"/>
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
@@ -7215,11 +7270,11 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="I118" s="1"/>
-      <c r="J118" s="45"/>
-      <c r="K118" s="45"/>
-      <c r="L118" s="45"/>
-      <c r="M118" s="45"/>
-      <c r="N118" s="46"/>
+      <c r="J118" s="39"/>
+      <c r="K118" s="39"/>
+      <c r="L118" s="39"/>
+      <c r="M118" s="39"/>
+      <c r="N118" s="40"/>
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
@@ -7238,11 +7293,11 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="I119" s="1"/>
-      <c r="J119" s="45"/>
-      <c r="K119" s="45"/>
-      <c r="L119" s="45"/>
-      <c r="M119" s="45"/>
-      <c r="N119" s="46"/>
+      <c r="J119" s="39"/>
+      <c r="K119" s="39"/>
+      <c r="L119" s="39"/>
+      <c r="M119" s="39"/>
+      <c r="N119" s="40"/>
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
@@ -7261,11 +7316,11 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="I120" s="1"/>
-      <c r="J120" s="45"/>
-      <c r="K120" s="45"/>
-      <c r="L120" s="45"/>
-      <c r="M120" s="45"/>
-      <c r="N120" s="46"/>
+      <c r="J120" s="39"/>
+      <c r="K120" s="39"/>
+      <c r="L120" s="39"/>
+      <c r="M120" s="39"/>
+      <c r="N120" s="40"/>
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
@@ -7284,11 +7339,11 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="I121" s="1"/>
-      <c r="J121" s="45"/>
-      <c r="K121" s="45"/>
-      <c r="L121" s="45"/>
-      <c r="M121" s="45"/>
-      <c r="N121" s="46"/>
+      <c r="J121" s="39"/>
+      <c r="K121" s="39"/>
+      <c r="L121" s="39"/>
+      <c r="M121" s="39"/>
+      <c r="N121" s="40"/>
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
@@ -7307,11 +7362,11 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="I122" s="1"/>
-      <c r="J122" s="45"/>
-      <c r="K122" s="45"/>
-      <c r="L122" s="45"/>
-      <c r="M122" s="45"/>
-      <c r="N122" s="46"/>
+      <c r="J122" s="39"/>
+      <c r="K122" s="39"/>
+      <c r="L122" s="39"/>
+      <c r="M122" s="39"/>
+      <c r="N122" s="40"/>
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
@@ -7330,11 +7385,11 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="I123" s="1"/>
-      <c r="J123" s="45"/>
-      <c r="K123" s="45"/>
-      <c r="L123" s="45"/>
-      <c r="M123" s="45"/>
-      <c r="N123" s="46"/>
+      <c r="J123" s="39"/>
+      <c r="K123" s="39"/>
+      <c r="L123" s="39"/>
+      <c r="M123" s="39"/>
+      <c r="N123" s="40"/>
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
@@ -7353,11 +7408,11 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="I124" s="1"/>
-      <c r="J124" s="45"/>
-      <c r="K124" s="45"/>
-      <c r="L124" s="45"/>
-      <c r="M124" s="45"/>
-      <c r="N124" s="46"/>
+      <c r="J124" s="39"/>
+      <c r="K124" s="39"/>
+      <c r="L124" s="39"/>
+      <c r="M124" s="39"/>
+      <c r="N124" s="40"/>
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
@@ -7376,11 +7431,11 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="I125" s="1"/>
-      <c r="J125" s="45"/>
-      <c r="K125" s="45"/>
-      <c r="L125" s="45"/>
-      <c r="M125" s="45"/>
-      <c r="N125" s="46"/>
+      <c r="J125" s="39"/>
+      <c r="K125" s="39"/>
+      <c r="L125" s="39"/>
+      <c r="M125" s="39"/>
+      <c r="N125" s="40"/>
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
@@ -7399,11 +7454,11 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="I126" s="1"/>
-      <c r="J126" s="45"/>
-      <c r="K126" s="45"/>
-      <c r="L126" s="45"/>
-      <c r="M126" s="45"/>
-      <c r="N126" s="46"/>
+      <c r="J126" s="39"/>
+      <c r="K126" s="39"/>
+      <c r="L126" s="39"/>
+      <c r="M126" s="39"/>
+      <c r="N126" s="40"/>
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
@@ -7422,11 +7477,11 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="I127" s="1"/>
-      <c r="J127" s="45"/>
-      <c r="K127" s="45"/>
-      <c r="L127" s="45"/>
-      <c r="M127" s="45"/>
-      <c r="N127" s="46"/>
+      <c r="J127" s="39"/>
+      <c r="K127" s="39"/>
+      <c r="L127" s="39"/>
+      <c r="M127" s="39"/>
+      <c r="N127" s="40"/>
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
@@ -7445,11 +7500,11 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="I128" s="1"/>
-      <c r="J128" s="45"/>
-      <c r="K128" s="45"/>
-      <c r="L128" s="45"/>
-      <c r="M128" s="45"/>
-      <c r="N128" s="46"/>
+      <c r="J128" s="39"/>
+      <c r="K128" s="39"/>
+      <c r="L128" s="39"/>
+      <c r="M128" s="39"/>
+      <c r="N128" s="40"/>
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
@@ -7468,11 +7523,11 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="I129" s="1"/>
-      <c r="J129" s="45"/>
-      <c r="K129" s="45"/>
-      <c r="L129" s="45"/>
-      <c r="M129" s="45"/>
-      <c r="N129" s="46"/>
+      <c r="J129" s="39"/>
+      <c r="K129" s="39"/>
+      <c r="L129" s="39"/>
+      <c r="M129" s="39"/>
+      <c r="N129" s="40"/>
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
@@ -7491,11 +7546,11 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="I130" s="1"/>
-      <c r="J130" s="45"/>
-      <c r="K130" s="45"/>
-      <c r="L130" s="45"/>
-      <c r="M130" s="45"/>
-      <c r="N130" s="46"/>
+      <c r="J130" s="39"/>
+      <c r="K130" s="39"/>
+      <c r="L130" s="39"/>
+      <c r="M130" s="39"/>
+      <c r="N130" s="40"/>
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
@@ -7514,11 +7569,11 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="I131" s="1"/>
-      <c r="J131" s="45"/>
-      <c r="K131" s="45"/>
-      <c r="L131" s="45"/>
-      <c r="M131" s="45"/>
-      <c r="N131" s="46"/>
+      <c r="J131" s="39"/>
+      <c r="K131" s="39"/>
+      <c r="L131" s="39"/>
+      <c r="M131" s="39"/>
+      <c r="N131" s="40"/>
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
@@ -7537,11 +7592,11 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="I132" s="1"/>
-      <c r="J132" s="45"/>
-      <c r="K132" s="45"/>
-      <c r="L132" s="45"/>
-      <c r="M132" s="45"/>
-      <c r="N132" s="46"/>
+      <c r="J132" s="39"/>
+      <c r="K132" s="39"/>
+      <c r="L132" s="39"/>
+      <c r="M132" s="39"/>
+      <c r="N132" s="40"/>
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
@@ -7560,11 +7615,11 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="I133" s="1"/>
-      <c r="J133" s="45"/>
-      <c r="K133" s="45"/>
-      <c r="L133" s="45"/>
-      <c r="M133" s="45"/>
-      <c r="N133" s="46"/>
+      <c r="J133" s="39"/>
+      <c r="K133" s="39"/>
+      <c r="L133" s="39"/>
+      <c r="M133" s="39"/>
+      <c r="N133" s="40"/>
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
@@ -7583,11 +7638,11 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="I134" s="1"/>
-      <c r="J134" s="45"/>
-      <c r="K134" s="45"/>
-      <c r="L134" s="45"/>
-      <c r="M134" s="45"/>
-      <c r="N134" s="46"/>
+      <c r="J134" s="39"/>
+      <c r="K134" s="39"/>
+      <c r="L134" s="39"/>
+      <c r="M134" s="39"/>
+      <c r="N134" s="40"/>
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
@@ -7606,11 +7661,11 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="I135" s="1"/>
-      <c r="J135" s="45"/>
-      <c r="K135" s="45"/>
-      <c r="L135" s="45"/>
-      <c r="M135" s="45"/>
-      <c r="N135" s="46"/>
+      <c r="J135" s="39"/>
+      <c r="K135" s="39"/>
+      <c r="L135" s="39"/>
+      <c r="M135" s="39"/>
+      <c r="N135" s="40"/>
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
@@ -7629,11 +7684,11 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="I136" s="1"/>
-      <c r="J136" s="45"/>
-      <c r="K136" s="45"/>
-      <c r="L136" s="45"/>
-      <c r="M136" s="45"/>
-      <c r="N136" s="46"/>
+      <c r="J136" s="39"/>
+      <c r="K136" s="39"/>
+      <c r="L136" s="39"/>
+      <c r="M136" s="39"/>
+      <c r="N136" s="40"/>
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
@@ -7652,11 +7707,11 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="I137" s="1"/>
-      <c r="J137" s="45"/>
-      <c r="K137" s="45"/>
-      <c r="L137" s="45"/>
-      <c r="M137" s="45"/>
-      <c r="N137" s="46"/>
+      <c r="J137" s="39"/>
+      <c r="K137" s="39"/>
+      <c r="L137" s="39"/>
+      <c r="M137" s="39"/>
+      <c r="N137" s="40"/>
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
@@ -7675,11 +7730,11 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="I138" s="1"/>
-      <c r="J138" s="45"/>
-      <c r="K138" s="45"/>
-      <c r="L138" s="45"/>
-      <c r="M138" s="45"/>
-      <c r="N138" s="46"/>
+      <c r="J138" s="39"/>
+      <c r="K138" s="39"/>
+      <c r="L138" s="39"/>
+      <c r="M138" s="39"/>
+      <c r="N138" s="40"/>
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
@@ -7698,11 +7753,11 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="I139" s="1"/>
-      <c r="J139" s="45"/>
-      <c r="K139" s="45"/>
-      <c r="L139" s="45"/>
-      <c r="M139" s="45"/>
-      <c r="N139" s="46"/>
+      <c r="J139" s="39"/>
+      <c r="K139" s="39"/>
+      <c r="L139" s="39"/>
+      <c r="M139" s="39"/>
+      <c r="N139" s="40"/>
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
@@ -7721,11 +7776,11 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="I140" s="1"/>
-      <c r="J140" s="45"/>
-      <c r="K140" s="45"/>
-      <c r="L140" s="45"/>
-      <c r="M140" s="45"/>
-      <c r="N140" s="46"/>
+      <c r="J140" s="39"/>
+      <c r="K140" s="39"/>
+      <c r="L140" s="39"/>
+      <c r="M140" s="39"/>
+      <c r="N140" s="40"/>
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
@@ -7744,11 +7799,11 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="I141" s="1"/>
-      <c r="J141" s="45"/>
-      <c r="K141" s="45"/>
-      <c r="L141" s="45"/>
-      <c r="M141" s="45"/>
-      <c r="N141" s="46"/>
+      <c r="J141" s="39"/>
+      <c r="K141" s="39"/>
+      <c r="L141" s="39"/>
+      <c r="M141" s="39"/>
+      <c r="N141" s="40"/>
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
@@ -7767,11 +7822,11 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="I142" s="1"/>
-      <c r="J142" s="45"/>
-      <c r="K142" s="45"/>
-      <c r="L142" s="45"/>
-      <c r="M142" s="45"/>
-      <c r="N142" s="46"/>
+      <c r="J142" s="39"/>
+      <c r="K142" s="39"/>
+      <c r="L142" s="39"/>
+      <c r="M142" s="39"/>
+      <c r="N142" s="40"/>
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
@@ -7790,11 +7845,11 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="I143" s="1"/>
-      <c r="J143" s="45"/>
-      <c r="K143" s="45"/>
-      <c r="L143" s="45"/>
-      <c r="M143" s="45"/>
-      <c r="N143" s="46"/>
+      <c r="J143" s="39"/>
+      <c r="K143" s="39"/>
+      <c r="L143" s="39"/>
+      <c r="M143" s="39"/>
+      <c r="N143" s="40"/>
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
@@ -7813,11 +7868,11 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="I144" s="1"/>
-      <c r="J144" s="45"/>
-      <c r="K144" s="45"/>
-      <c r="L144" s="45"/>
-      <c r="M144" s="45"/>
-      <c r="N144" s="46"/>
+      <c r="J144" s="39"/>
+      <c r="K144" s="39"/>
+      <c r="L144" s="39"/>
+      <c r="M144" s="39"/>
+      <c r="N144" s="40"/>
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
@@ -7836,11 +7891,11 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="I145" s="1"/>
-      <c r="J145" s="45"/>
-      <c r="K145" s="45"/>
-      <c r="L145" s="45"/>
-      <c r="M145" s="45"/>
-      <c r="N145" s="46"/>
+      <c r="J145" s="39"/>
+      <c r="K145" s="39"/>
+      <c r="L145" s="39"/>
+      <c r="M145" s="39"/>
+      <c r="N145" s="40"/>
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
@@ -7859,11 +7914,11 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="I146" s="1"/>
-      <c r="J146" s="45"/>
-      <c r="K146" s="45"/>
-      <c r="L146" s="45"/>
-      <c r="M146" s="45"/>
-      <c r="N146" s="46"/>
+      <c r="J146" s="39"/>
+      <c r="K146" s="39"/>
+      <c r="L146" s="39"/>
+      <c r="M146" s="39"/>
+      <c r="N146" s="40"/>
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
@@ -7882,11 +7937,11 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="I147" s="1"/>
-      <c r="J147" s="45"/>
-      <c r="K147" s="45"/>
-      <c r="L147" s="45"/>
-      <c r="M147" s="45"/>
-      <c r="N147" s="46"/>
+      <c r="J147" s="39"/>
+      <c r="K147" s="39"/>
+      <c r="L147" s="39"/>
+      <c r="M147" s="39"/>
+      <c r="N147" s="40"/>
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
@@ -7905,11 +7960,11 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="I148" s="1"/>
-      <c r="J148" s="45"/>
-      <c r="K148" s="45"/>
-      <c r="L148" s="45"/>
-      <c r="M148" s="45"/>
-      <c r="N148" s="46"/>
+      <c r="J148" s="39"/>
+      <c r="K148" s="39"/>
+      <c r="L148" s="39"/>
+      <c r="M148" s="39"/>
+      <c r="N148" s="40"/>
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
@@ -7928,11 +7983,11 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="I149" s="1"/>
-      <c r="J149" s="45"/>
-      <c r="K149" s="45"/>
-      <c r="L149" s="45"/>
-      <c r="M149" s="45"/>
-      <c r="N149" s="46"/>
+      <c r="J149" s="39"/>
+      <c r="K149" s="39"/>
+      <c r="L149" s="39"/>
+      <c r="M149" s="39"/>
+      <c r="N149" s="40"/>
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
@@ -7951,11 +8006,11 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="I150" s="1"/>
-      <c r="J150" s="45"/>
-      <c r="K150" s="45"/>
-      <c r="L150" s="45"/>
-      <c r="M150" s="45"/>
-      <c r="N150" s="46"/>
+      <c r="J150" s="39"/>
+      <c r="K150" s="39"/>
+      <c r="L150" s="39"/>
+      <c r="M150" s="39"/>
+      <c r="N150" s="40"/>
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
@@ -7974,11 +8029,11 @@
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="I151" s="1"/>
-      <c r="J151" s="45"/>
-      <c r="K151" s="45"/>
-      <c r="L151" s="45"/>
-      <c r="M151" s="45"/>
-      <c r="N151" s="46"/>
+      <c r="J151" s="39"/>
+      <c r="K151" s="39"/>
+      <c r="L151" s="39"/>
+      <c r="M151" s="39"/>
+      <c r="N151" s="40"/>
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
@@ -7997,11 +8052,11 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="I152" s="1"/>
-      <c r="J152" s="45"/>
-      <c r="K152" s="45"/>
-      <c r="L152" s="45"/>
-      <c r="M152" s="45"/>
-      <c r="N152" s="46"/>
+      <c r="J152" s="39"/>
+      <c r="K152" s="39"/>
+      <c r="L152" s="39"/>
+      <c r="M152" s="39"/>
+      <c r="N152" s="40"/>
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
@@ -8020,11 +8075,11 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="I153" s="1"/>
-      <c r="J153" s="45"/>
-      <c r="K153" s="45"/>
-      <c r="L153" s="45"/>
-      <c r="M153" s="45"/>
-      <c r="N153" s="46"/>
+      <c r="J153" s="39"/>
+      <c r="K153" s="39"/>
+      <c r="L153" s="39"/>
+      <c r="M153" s="39"/>
+      <c r="N153" s="40"/>
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
@@ -8043,11 +8098,11 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="I154" s="1"/>
-      <c r="J154" s="45"/>
-      <c r="K154" s="45"/>
-      <c r="L154" s="45"/>
-      <c r="M154" s="45"/>
-      <c r="N154" s="46"/>
+      <c r="J154" s="39"/>
+      <c r="K154" s="39"/>
+      <c r="L154" s="39"/>
+      <c r="M154" s="39"/>
+      <c r="N154" s="40"/>
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
@@ -8066,11 +8121,11 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="I155" s="1"/>
-      <c r="J155" s="45"/>
-      <c r="K155" s="45"/>
-      <c r="L155" s="45"/>
-      <c r="M155" s="45"/>
-      <c r="N155" s="46"/>
+      <c r="J155" s="39"/>
+      <c r="K155" s="39"/>
+      <c r="L155" s="39"/>
+      <c r="M155" s="39"/>
+      <c r="N155" s="40"/>
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
@@ -8089,11 +8144,11 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="I156" s="1"/>
-      <c r="J156" s="45"/>
-      <c r="K156" s="45"/>
-      <c r="L156" s="45"/>
-      <c r="M156" s="45"/>
-      <c r="N156" s="46"/>
+      <c r="J156" s="39"/>
+      <c r="K156" s="39"/>
+      <c r="L156" s="39"/>
+      <c r="M156" s="39"/>
+      <c r="N156" s="40"/>
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
@@ -8112,11 +8167,11 @@
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="I157" s="1"/>
-      <c r="J157" s="45"/>
-      <c r="K157" s="45"/>
-      <c r="L157" s="45"/>
-      <c r="M157" s="45"/>
-      <c r="N157" s="46"/>
+      <c r="J157" s="39"/>
+      <c r="K157" s="39"/>
+      <c r="L157" s="39"/>
+      <c r="M157" s="39"/>
+      <c r="N157" s="40"/>
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
@@ -8135,11 +8190,11 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="I158" s="1"/>
-      <c r="J158" s="45"/>
-      <c r="K158" s="45"/>
-      <c r="L158" s="45"/>
-      <c r="M158" s="45"/>
-      <c r="N158" s="46"/>
+      <c r="J158" s="39"/>
+      <c r="K158" s="39"/>
+      <c r="L158" s="39"/>
+      <c r="M158" s="39"/>
+      <c r="N158" s="40"/>
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
@@ -8158,11 +8213,11 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="I159" s="1"/>
-      <c r="J159" s="45"/>
-      <c r="K159" s="45"/>
-      <c r="L159" s="45"/>
-      <c r="M159" s="45"/>
-      <c r="N159" s="46"/>
+      <c r="J159" s="39"/>
+      <c r="K159" s="39"/>
+      <c r="L159" s="39"/>
+      <c r="M159" s="39"/>
+      <c r="N159" s="40"/>
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
@@ -8181,11 +8236,11 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="I160" s="1"/>
-      <c r="J160" s="45"/>
-      <c r="K160" s="45"/>
-      <c r="L160" s="45"/>
-      <c r="M160" s="45"/>
-      <c r="N160" s="46"/>
+      <c r="J160" s="39"/>
+      <c r="K160" s="39"/>
+      <c r="L160" s="39"/>
+      <c r="M160" s="39"/>
+      <c r="N160" s="40"/>
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
@@ -8204,11 +8259,11 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="I161" s="1"/>
-      <c r="J161" s="45"/>
-      <c r="K161" s="45"/>
-      <c r="L161" s="45"/>
-      <c r="M161" s="45"/>
-      <c r="N161" s="46"/>
+      <c r="J161" s="39"/>
+      <c r="K161" s="39"/>
+      <c r="L161" s="39"/>
+      <c r="M161" s="39"/>
+      <c r="N161" s="40"/>
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
@@ -8227,11 +8282,11 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="I162" s="1"/>
-      <c r="J162" s="45"/>
-      <c r="K162" s="45"/>
-      <c r="L162" s="45"/>
-      <c r="M162" s="45"/>
-      <c r="N162" s="46"/>
+      <c r="J162" s="39"/>
+      <c r="K162" s="39"/>
+      <c r="L162" s="39"/>
+      <c r="M162" s="39"/>
+      <c r="N162" s="40"/>
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
@@ -8250,11 +8305,11 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="I163" s="1"/>
-      <c r="J163" s="45"/>
-      <c r="K163" s="45"/>
-      <c r="L163" s="45"/>
-      <c r="M163" s="45"/>
-      <c r="N163" s="46"/>
+      <c r="J163" s="39"/>
+      <c r="K163" s="39"/>
+      <c r="L163" s="39"/>
+      <c r="M163" s="39"/>
+      <c r="N163" s="40"/>
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
@@ -8273,11 +8328,11 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="I164" s="1"/>
-      <c r="J164" s="45"/>
-      <c r="K164" s="45"/>
-      <c r="L164" s="45"/>
-      <c r="M164" s="45"/>
-      <c r="N164" s="46"/>
+      <c r="J164" s="39"/>
+      <c r="K164" s="39"/>
+      <c r="L164" s="39"/>
+      <c r="M164" s="39"/>
+      <c r="N164" s="40"/>
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
@@ -8296,11 +8351,11 @@
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="I165" s="1"/>
-      <c r="J165" s="45"/>
-      <c r="K165" s="45"/>
-      <c r="L165" s="45"/>
-      <c r="M165" s="45"/>
-      <c r="N165" s="46"/>
+      <c r="J165" s="39"/>
+      <c r="K165" s="39"/>
+      <c r="L165" s="39"/>
+      <c r="M165" s="39"/>
+      <c r="N165" s="40"/>
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
@@ -8319,11 +8374,11 @@
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="I166" s="1"/>
-      <c r="J166" s="45"/>
-      <c r="K166" s="45"/>
-      <c r="L166" s="45"/>
-      <c r="M166" s="45"/>
-      <c r="N166" s="46"/>
+      <c r="J166" s="39"/>
+      <c r="K166" s="39"/>
+      <c r="L166" s="39"/>
+      <c r="M166" s="39"/>
+      <c r="N166" s="40"/>
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
@@ -8342,11 +8397,11 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="I167" s="1"/>
-      <c r="J167" s="45"/>
-      <c r="K167" s="45"/>
-      <c r="L167" s="45"/>
-      <c r="M167" s="45"/>
-      <c r="N167" s="46"/>
+      <c r="J167" s="39"/>
+      <c r="K167" s="39"/>
+      <c r="L167" s="39"/>
+      <c r="M167" s="39"/>
+      <c r="N167" s="40"/>
       <c r="O167" s="1"/>
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
@@ -8365,11 +8420,11 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="I168" s="1"/>
-      <c r="J168" s="45"/>
-      <c r="K168" s="45"/>
-      <c r="L168" s="45"/>
-      <c r="M168" s="45"/>
-      <c r="N168" s="46"/>
+      <c r="J168" s="39"/>
+      <c r="K168" s="39"/>
+      <c r="L168" s="39"/>
+      <c r="M168" s="39"/>
+      <c r="N168" s="40"/>
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
@@ -8388,11 +8443,11 @@
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="I169" s="1"/>
-      <c r="J169" s="45"/>
-      <c r="K169" s="45"/>
-      <c r="L169" s="45"/>
-      <c r="M169" s="45"/>
-      <c r="N169" s="46"/>
+      <c r="J169" s="39"/>
+      <c r="K169" s="39"/>
+      <c r="L169" s="39"/>
+      <c r="M169" s="39"/>
+      <c r="N169" s="40"/>
       <c r="O169" s="1"/>
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
@@ -8411,11 +8466,11 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="I170" s="1"/>
-      <c r="J170" s="45"/>
-      <c r="K170" s="45"/>
-      <c r="L170" s="45"/>
-      <c r="M170" s="45"/>
-      <c r="N170" s="46"/>
+      <c r="J170" s="39"/>
+      <c r="K170" s="39"/>
+      <c r="L170" s="39"/>
+      <c r="M170" s="39"/>
+      <c r="N170" s="40"/>
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
@@ -8434,11 +8489,11 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="I171" s="1"/>
-      <c r="J171" s="45"/>
-      <c r="K171" s="45"/>
-      <c r="L171" s="45"/>
-      <c r="M171" s="45"/>
-      <c r="N171" s="46"/>
+      <c r="J171" s="39"/>
+      <c r="K171" s="39"/>
+      <c r="L171" s="39"/>
+      <c r="M171" s="39"/>
+      <c r="N171" s="40"/>
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
@@ -8457,11 +8512,11 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="I172" s="1"/>
-      <c r="J172" s="45"/>
-      <c r="K172" s="45"/>
-      <c r="L172" s="45"/>
-      <c r="M172" s="45"/>
-      <c r="N172" s="46"/>
+      <c r="J172" s="39"/>
+      <c r="K172" s="39"/>
+      <c r="L172" s="39"/>
+      <c r="M172" s="39"/>
+      <c r="N172" s="40"/>
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
@@ -8480,11 +8535,11 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="I173" s="1"/>
-      <c r="J173" s="45"/>
-      <c r="K173" s="45"/>
-      <c r="L173" s="45"/>
-      <c r="M173" s="45"/>
-      <c r="N173" s="46"/>
+      <c r="J173" s="39"/>
+      <c r="K173" s="39"/>
+      <c r="L173" s="39"/>
+      <c r="M173" s="39"/>
+      <c r="N173" s="40"/>
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
@@ -8503,11 +8558,11 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="I174" s="1"/>
-      <c r="J174" s="45"/>
-      <c r="K174" s="45"/>
-      <c r="L174" s="45"/>
-      <c r="M174" s="45"/>
-      <c r="N174" s="46"/>
+      <c r="J174" s="39"/>
+      <c r="K174" s="39"/>
+      <c r="L174" s="39"/>
+      <c r="M174" s="39"/>
+      <c r="N174" s="40"/>
       <c r="O174" s="1"/>
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
@@ -8526,11 +8581,11 @@
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="I175" s="1"/>
-      <c r="J175" s="45"/>
-      <c r="K175" s="45"/>
-      <c r="L175" s="45"/>
-      <c r="M175" s="45"/>
-      <c r="N175" s="46"/>
+      <c r="J175" s="39"/>
+      <c r="K175" s="39"/>
+      <c r="L175" s="39"/>
+      <c r="M175" s="39"/>
+      <c r="N175" s="40"/>
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
@@ -8549,11 +8604,11 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="I176" s="1"/>
-      <c r="J176" s="45"/>
-      <c r="K176" s="45"/>
-      <c r="L176" s="45"/>
-      <c r="M176" s="45"/>
-      <c r="N176" s="46"/>
+      <c r="J176" s="39"/>
+      <c r="K176" s="39"/>
+      <c r="L176" s="39"/>
+      <c r="M176" s="39"/>
+      <c r="N176" s="40"/>
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
@@ -8572,11 +8627,11 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="I177" s="1"/>
-      <c r="J177" s="45"/>
-      <c r="K177" s="45"/>
-      <c r="L177" s="45"/>
-      <c r="M177" s="45"/>
-      <c r="N177" s="46"/>
+      <c r="J177" s="39"/>
+      <c r="K177" s="39"/>
+      <c r="L177" s="39"/>
+      <c r="M177" s="39"/>
+      <c r="N177" s="40"/>
       <c r="O177" s="1"/>
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
@@ -8595,11 +8650,11 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="I178" s="1"/>
-      <c r="J178" s="45"/>
-      <c r="K178" s="45"/>
-      <c r="L178" s="45"/>
-      <c r="M178" s="45"/>
-      <c r="N178" s="46"/>
+      <c r="J178" s="39"/>
+      <c r="K178" s="39"/>
+      <c r="L178" s="39"/>
+      <c r="M178" s="39"/>
+      <c r="N178" s="40"/>
       <c r="O178" s="1"/>
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
@@ -8618,11 +8673,11 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="I179" s="1"/>
-      <c r="J179" s="45"/>
-      <c r="K179" s="45"/>
-      <c r="L179" s="45"/>
-      <c r="M179" s="45"/>
-      <c r="N179" s="46"/>
+      <c r="J179" s="39"/>
+      <c r="K179" s="39"/>
+      <c r="L179" s="39"/>
+      <c r="M179" s="39"/>
+      <c r="N179" s="40"/>
       <c r="O179" s="1"/>
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
@@ -8641,11 +8696,11 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="I180" s="1"/>
-      <c r="J180" s="45"/>
-      <c r="K180" s="45"/>
-      <c r="L180" s="45"/>
-      <c r="M180" s="45"/>
-      <c r="N180" s="46"/>
+      <c r="J180" s="39"/>
+      <c r="K180" s="39"/>
+      <c r="L180" s="39"/>
+      <c r="M180" s="39"/>
+      <c r="N180" s="40"/>
       <c r="O180" s="1"/>
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
@@ -8664,11 +8719,11 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="I181" s="1"/>
-      <c r="J181" s="45"/>
-      <c r="K181" s="45"/>
-      <c r="L181" s="45"/>
-      <c r="M181" s="45"/>
-      <c r="N181" s="46"/>
+      <c r="J181" s="39"/>
+      <c r="K181" s="39"/>
+      <c r="L181" s="39"/>
+      <c r="M181" s="39"/>
+      <c r="N181" s="40"/>
       <c r="O181" s="1"/>
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
@@ -8687,11 +8742,11 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="I182" s="1"/>
-      <c r="J182" s="45"/>
-      <c r="K182" s="45"/>
-      <c r="L182" s="45"/>
-      <c r="M182" s="45"/>
-      <c r="N182" s="46"/>
+      <c r="J182" s="39"/>
+      <c r="K182" s="39"/>
+      <c r="L182" s="39"/>
+      <c r="M182" s="39"/>
+      <c r="N182" s="40"/>
       <c r="O182" s="1"/>
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
@@ -8710,11 +8765,11 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="I183" s="1"/>
-      <c r="J183" s="45"/>
-      <c r="K183" s="45"/>
-      <c r="L183" s="45"/>
-      <c r="M183" s="45"/>
-      <c r="N183" s="46"/>
+      <c r="J183" s="39"/>
+      <c r="K183" s="39"/>
+      <c r="L183" s="39"/>
+      <c r="M183" s="39"/>
+      <c r="N183" s="40"/>
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
@@ -8733,11 +8788,11 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="I184" s="1"/>
-      <c r="J184" s="45"/>
-      <c r="K184" s="45"/>
-      <c r="L184" s="45"/>
-      <c r="M184" s="45"/>
-      <c r="N184" s="46"/>
+      <c r="J184" s="39"/>
+      <c r="K184" s="39"/>
+      <c r="L184" s="39"/>
+      <c r="M184" s="39"/>
+      <c r="N184" s="40"/>
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
@@ -8756,11 +8811,11 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="I185" s="1"/>
-      <c r="J185" s="45"/>
-      <c r="K185" s="45"/>
-      <c r="L185" s="45"/>
-      <c r="M185" s="45"/>
-      <c r="N185" s="46"/>
+      <c r="J185" s="39"/>
+      <c r="K185" s="39"/>
+      <c r="L185" s="39"/>
+      <c r="M185" s="39"/>
+      <c r="N185" s="40"/>
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
@@ -8779,11 +8834,11 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="I186" s="1"/>
-      <c r="J186" s="45"/>
-      <c r="K186" s="45"/>
-      <c r="L186" s="45"/>
-      <c r="M186" s="45"/>
-      <c r="N186" s="46"/>
+      <c r="J186" s="39"/>
+      <c r="K186" s="39"/>
+      <c r="L186" s="39"/>
+      <c r="M186" s="39"/>
+      <c r="N186" s="40"/>
       <c r="O186" s="1"/>
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
@@ -8802,11 +8857,11 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="I187" s="1"/>
-      <c r="J187" s="45"/>
-      <c r="K187" s="45"/>
-      <c r="L187" s="45"/>
-      <c r="M187" s="45"/>
-      <c r="N187" s="46"/>
+      <c r="J187" s="39"/>
+      <c r="K187" s="39"/>
+      <c r="L187" s="39"/>
+      <c r="M187" s="39"/>
+      <c r="N187" s="40"/>
       <c r="O187" s="1"/>
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
@@ -8825,11 +8880,11 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="I188" s="1"/>
-      <c r="J188" s="45"/>
-      <c r="K188" s="45"/>
-      <c r="L188" s="45"/>
-      <c r="M188" s="45"/>
-      <c r="N188" s="46"/>
+      <c r="J188" s="39"/>
+      <c r="K188" s="39"/>
+      <c r="L188" s="39"/>
+      <c r="M188" s="39"/>
+      <c r="N188" s="40"/>
       <c r="O188" s="1"/>
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
@@ -8848,11 +8903,11 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="I189" s="1"/>
-      <c r="J189" s="45"/>
-      <c r="K189" s="45"/>
-      <c r="L189" s="45"/>
-      <c r="M189" s="45"/>
-      <c r="N189" s="46"/>
+      <c r="J189" s="39"/>
+      <c r="K189" s="39"/>
+      <c r="L189" s="39"/>
+      <c r="M189" s="39"/>
+      <c r="N189" s="40"/>
       <c r="O189" s="1"/>
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
@@ -8871,11 +8926,11 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="I190" s="1"/>
-      <c r="J190" s="45"/>
-      <c r="K190" s="45"/>
-      <c r="L190" s="45"/>
-      <c r="M190" s="45"/>
-      <c r="N190" s="46"/>
+      <c r="J190" s="39"/>
+      <c r="K190" s="39"/>
+      <c r="L190" s="39"/>
+      <c r="M190" s="39"/>
+      <c r="N190" s="40"/>
       <c r="O190" s="1"/>
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
@@ -8894,11 +8949,11 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="I191" s="1"/>
-      <c r="J191" s="45"/>
-      <c r="K191" s="45"/>
-      <c r="L191" s="45"/>
-      <c r="M191" s="45"/>
-      <c r="N191" s="46"/>
+      <c r="J191" s="39"/>
+      <c r="K191" s="39"/>
+      <c r="L191" s="39"/>
+      <c r="M191" s="39"/>
+      <c r="N191" s="40"/>
       <c r="O191" s="1"/>
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
@@ -8917,11 +8972,11 @@
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="I192" s="1"/>
-      <c r="J192" s="45"/>
-      <c r="K192" s="45"/>
-      <c r="L192" s="45"/>
-      <c r="M192" s="45"/>
-      <c r="N192" s="46"/>
+      <c r="J192" s="39"/>
+      <c r="K192" s="39"/>
+      <c r="L192" s="39"/>
+      <c r="M192" s="39"/>
+      <c r="N192" s="40"/>
       <c r="O192" s="1"/>
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
@@ -8940,11 +8995,11 @@
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="I193" s="1"/>
-      <c r="J193" s="45"/>
-      <c r="K193" s="45"/>
-      <c r="L193" s="45"/>
-      <c r="M193" s="45"/>
-      <c r="N193" s="46"/>
+      <c r="J193" s="39"/>
+      <c r="K193" s="39"/>
+      <c r="L193" s="39"/>
+      <c r="M193" s="39"/>
+      <c r="N193" s="40"/>
       <c r="O193" s="1"/>
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
@@ -8963,11 +9018,11 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="I194" s="1"/>
-      <c r="J194" s="45"/>
-      <c r="K194" s="45"/>
-      <c r="L194" s="45"/>
-      <c r="M194" s="45"/>
-      <c r="N194" s="46"/>
+      <c r="J194" s="39"/>
+      <c r="K194" s="39"/>
+      <c r="L194" s="39"/>
+      <c r="M194" s="39"/>
+      <c r="N194" s="40"/>
       <c r="O194" s="1"/>
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
@@ -8986,11 +9041,11 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="I195" s="1"/>
-      <c r="J195" s="45"/>
-      <c r="K195" s="45"/>
-      <c r="L195" s="45"/>
-      <c r="M195" s="45"/>
-      <c r="N195" s="46"/>
+      <c r="J195" s="39"/>
+      <c r="K195" s="39"/>
+      <c r="L195" s="39"/>
+      <c r="M195" s="39"/>
+      <c r="N195" s="40"/>
       <c r="O195" s="1"/>
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
@@ -9009,11 +9064,11 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="I196" s="1"/>
-      <c r="J196" s="45"/>
-      <c r="K196" s="45"/>
-      <c r="L196" s="45"/>
-      <c r="M196" s="45"/>
-      <c r="N196" s="46"/>
+      <c r="J196" s="39"/>
+      <c r="K196" s="39"/>
+      <c r="L196" s="39"/>
+      <c r="M196" s="39"/>
+      <c r="N196" s="40"/>
       <c r="O196" s="1"/>
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
@@ -9032,11 +9087,11 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="I197" s="1"/>
-      <c r="J197" s="45"/>
-      <c r="K197" s="45"/>
-      <c r="L197" s="45"/>
-      <c r="M197" s="45"/>
-      <c r="N197" s="46"/>
+      <c r="J197" s="39"/>
+      <c r="K197" s="39"/>
+      <c r="L197" s="39"/>
+      <c r="M197" s="39"/>
+      <c r="N197" s="40"/>
       <c r="O197" s="1"/>
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
@@ -9055,11 +9110,11 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="I198" s="1"/>
-      <c r="J198" s="45"/>
-      <c r="K198" s="45"/>
-      <c r="L198" s="45"/>
-      <c r="M198" s="45"/>
-      <c r="N198" s="46"/>
+      <c r="J198" s="39"/>
+      <c r="K198" s="39"/>
+      <c r="L198" s="39"/>
+      <c r="M198" s="39"/>
+      <c r="N198" s="40"/>
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
@@ -9078,11 +9133,11 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="I199" s="1"/>
-      <c r="J199" s="45"/>
-      <c r="K199" s="45"/>
-      <c r="L199" s="45"/>
-      <c r="M199" s="45"/>
-      <c r="N199" s="46"/>
+      <c r="J199" s="39"/>
+      <c r="K199" s="39"/>
+      <c r="L199" s="39"/>
+      <c r="M199" s="39"/>
+      <c r="N199" s="40"/>
       <c r="O199" s="1"/>
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
@@ -9101,11 +9156,11 @@
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="I200" s="1"/>
-      <c r="J200" s="45"/>
-      <c r="K200" s="45"/>
-      <c r="L200" s="45"/>
-      <c r="M200" s="45"/>
-      <c r="N200" s="46"/>
+      <c r="J200" s="39"/>
+      <c r="K200" s="39"/>
+      <c r="L200" s="39"/>
+      <c r="M200" s="39"/>
+      <c r="N200" s="40"/>
       <c r="O200" s="1"/>
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
@@ -9124,11 +9179,11 @@
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="I201" s="1"/>
-      <c r="J201" s="45"/>
-      <c r="K201" s="45"/>
-      <c r="L201" s="45"/>
-      <c r="M201" s="45"/>
-      <c r="N201" s="46"/>
+      <c r="J201" s="39"/>
+      <c r="K201" s="39"/>
+      <c r="L201" s="39"/>
+      <c r="M201" s="39"/>
+      <c r="N201" s="40"/>
       <c r="O201" s="1"/>
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
@@ -9147,11 +9202,11 @@
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="I202" s="1"/>
-      <c r="J202" s="45"/>
-      <c r="K202" s="45"/>
-      <c r="L202" s="45"/>
-      <c r="M202" s="45"/>
-      <c r="N202" s="46"/>
+      <c r="J202" s="39"/>
+      <c r="K202" s="39"/>
+      <c r="L202" s="39"/>
+      <c r="M202" s="39"/>
+      <c r="N202" s="40"/>
       <c r="O202" s="1"/>
       <c r="P202" s="1"/>
       <c r="Q202" s="1"/>
@@ -9170,11 +9225,11 @@
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="I203" s="1"/>
-      <c r="J203" s="45"/>
-      <c r="K203" s="45"/>
-      <c r="L203" s="45"/>
-      <c r="M203" s="45"/>
-      <c r="N203" s="46"/>
+      <c r="J203" s="39"/>
+      <c r="K203" s="39"/>
+      <c r="L203" s="39"/>
+      <c r="M203" s="39"/>
+      <c r="N203" s="40"/>
       <c r="O203" s="1"/>
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
@@ -9193,11 +9248,11 @@
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="I204" s="1"/>
-      <c r="J204" s="45"/>
-      <c r="K204" s="45"/>
-      <c r="L204" s="45"/>
-      <c r="M204" s="45"/>
-      <c r="N204" s="46"/>
+      <c r="J204" s="39"/>
+      <c r="K204" s="39"/>
+      <c r="L204" s="39"/>
+      <c r="M204" s="39"/>
+      <c r="N204" s="40"/>
       <c r="O204" s="1"/>
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
@@ -9216,11 +9271,11 @@
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="I205" s="1"/>
-      <c r="J205" s="45"/>
-      <c r="K205" s="45"/>
-      <c r="L205" s="45"/>
-      <c r="M205" s="45"/>
-      <c r="N205" s="46"/>
+      <c r="J205" s="39"/>
+      <c r="K205" s="39"/>
+      <c r="L205" s="39"/>
+      <c r="M205" s="39"/>
+      <c r="N205" s="40"/>
       <c r="O205" s="1"/>
       <c r="P205" s="1"/>
       <c r="Q205" s="1"/>
@@ -9239,11 +9294,11 @@
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="I206" s="1"/>
-      <c r="J206" s="45"/>
-      <c r="K206" s="45"/>
-      <c r="L206" s="45"/>
-      <c r="M206" s="45"/>
-      <c r="N206" s="46"/>
+      <c r="J206" s="39"/>
+      <c r="K206" s="39"/>
+      <c r="L206" s="39"/>
+      <c r="M206" s="39"/>
+      <c r="N206" s="40"/>
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
       <c r="Q206" s="1"/>
@@ -9262,11 +9317,11 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="I207" s="1"/>
-      <c r="J207" s="45"/>
-      <c r="K207" s="45"/>
-      <c r="L207" s="45"/>
-      <c r="M207" s="45"/>
-      <c r="N207" s="46"/>
+      <c r="J207" s="39"/>
+      <c r="K207" s="39"/>
+      <c r="L207" s="39"/>
+      <c r="M207" s="39"/>
+      <c r="N207" s="40"/>
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
@@ -9285,11 +9340,11 @@
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="I208" s="1"/>
-      <c r="J208" s="45"/>
-      <c r="K208" s="45"/>
-      <c r="L208" s="45"/>
-      <c r="M208" s="45"/>
-      <c r="N208" s="46"/>
+      <c r="J208" s="39"/>
+      <c r="K208" s="39"/>
+      <c r="L208" s="39"/>
+      <c r="M208" s="39"/>
+      <c r="N208" s="40"/>
       <c r="O208" s="1"/>
       <c r="P208" s="1"/>
       <c r="Q208" s="1"/>
@@ -9308,11 +9363,11 @@
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="I209" s="1"/>
-      <c r="J209" s="45"/>
-      <c r="K209" s="45"/>
-      <c r="L209" s="45"/>
-      <c r="M209" s="45"/>
-      <c r="N209" s="46"/>
+      <c r="J209" s="39"/>
+      <c r="K209" s="39"/>
+      <c r="L209" s="39"/>
+      <c r="M209" s="39"/>
+      <c r="N209" s="40"/>
       <c r="O209" s="1"/>
       <c r="P209" s="1"/>
       <c r="Q209" s="1"/>
@@ -9331,11 +9386,11 @@
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="I210" s="1"/>
-      <c r="J210" s="45"/>
-      <c r="K210" s="45"/>
-      <c r="L210" s="45"/>
-      <c r="M210" s="45"/>
-      <c r="N210" s="46"/>
+      <c r="J210" s="39"/>
+      <c r="K210" s="39"/>
+      <c r="L210" s="39"/>
+      <c r="M210" s="39"/>
+      <c r="N210" s="40"/>
       <c r="O210" s="1"/>
       <c r="P210" s="1"/>
       <c r="Q210" s="1"/>
@@ -9354,11 +9409,11 @@
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="I211" s="1"/>
-      <c r="J211" s="45"/>
-      <c r="K211" s="45"/>
-      <c r="L211" s="45"/>
-      <c r="M211" s="45"/>
-      <c r="N211" s="46"/>
+      <c r="J211" s="39"/>
+      <c r="K211" s="39"/>
+      <c r="L211" s="39"/>
+      <c r="M211" s="39"/>
+      <c r="N211" s="40"/>
       <c r="O211" s="1"/>
       <c r="P211" s="1"/>
       <c r="Q211" s="1"/>
@@ -9377,11 +9432,11 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="I212" s="1"/>
-      <c r="J212" s="45"/>
-      <c r="K212" s="45"/>
-      <c r="L212" s="45"/>
-      <c r="M212" s="45"/>
-      <c r="N212" s="46"/>
+      <c r="J212" s="39"/>
+      <c r="K212" s="39"/>
+      <c r="L212" s="39"/>
+      <c r="M212" s="39"/>
+      <c r="N212" s="40"/>
       <c r="O212" s="1"/>
       <c r="P212" s="1"/>
       <c r="Q212" s="1"/>
@@ -9400,11 +9455,11 @@
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
       <c r="I213" s="1"/>
-      <c r="J213" s="45"/>
-      <c r="K213" s="45"/>
-      <c r="L213" s="45"/>
-      <c r="M213" s="45"/>
-      <c r="N213" s="46"/>
+      <c r="J213" s="39"/>
+      <c r="K213" s="39"/>
+      <c r="L213" s="39"/>
+      <c r="M213" s="39"/>
+      <c r="N213" s="40"/>
       <c r="O213" s="1"/>
       <c r="P213" s="1"/>
       <c r="Q213" s="1"/>
@@ -9423,11 +9478,11 @@
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="I214" s="1"/>
-      <c r="J214" s="45"/>
-      <c r="K214" s="45"/>
-      <c r="L214" s="45"/>
-      <c r="M214" s="45"/>
-      <c r="N214" s="46"/>
+      <c r="J214" s="39"/>
+      <c r="K214" s="39"/>
+      <c r="L214" s="39"/>
+      <c r="M214" s="39"/>
+      <c r="N214" s="40"/>
       <c r="O214" s="1"/>
       <c r="P214" s="1"/>
       <c r="Q214" s="1"/>
@@ -9446,11 +9501,11 @@
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="I215" s="1"/>
-      <c r="J215" s="45"/>
-      <c r="K215" s="45"/>
-      <c r="L215" s="45"/>
-      <c r="M215" s="45"/>
-      <c r="N215" s="46"/>
+      <c r="J215" s="39"/>
+      <c r="K215" s="39"/>
+      <c r="L215" s="39"/>
+      <c r="M215" s="39"/>
+      <c r="N215" s="40"/>
       <c r="O215" s="1"/>
       <c r="P215" s="1"/>
       <c r="Q215" s="1"/>
@@ -9469,11 +9524,11 @@
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="I216" s="1"/>
-      <c r="J216" s="45"/>
-      <c r="K216" s="45"/>
-      <c r="L216" s="45"/>
-      <c r="M216" s="45"/>
-      <c r="N216" s="46"/>
+      <c r="J216" s="39"/>
+      <c r="K216" s="39"/>
+      <c r="L216" s="39"/>
+      <c r="M216" s="39"/>
+      <c r="N216" s="40"/>
       <c r="O216" s="1"/>
       <c r="P216" s="1"/>
       <c r="Q216" s="1"/>
@@ -9492,11 +9547,11 @@
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="I217" s="1"/>
-      <c r="J217" s="45"/>
-      <c r="K217" s="45"/>
-      <c r="L217" s="45"/>
-      <c r="M217" s="45"/>
-      <c r="N217" s="46"/>
+      <c r="J217" s="39"/>
+      <c r="K217" s="39"/>
+      <c r="L217" s="39"/>
+      <c r="M217" s="39"/>
+      <c r="N217" s="40"/>
       <c r="O217" s="1"/>
       <c r="P217" s="1"/>
       <c r="Q217" s="1"/>
@@ -9515,11 +9570,11 @@
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="I218" s="1"/>
-      <c r="J218" s="45"/>
-      <c r="K218" s="45"/>
-      <c r="L218" s="45"/>
-      <c r="M218" s="45"/>
-      <c r="N218" s="46"/>
+      <c r="J218" s="39"/>
+      <c r="K218" s="39"/>
+      <c r="L218" s="39"/>
+      <c r="M218" s="39"/>
+      <c r="N218" s="40"/>
       <c r="O218" s="1"/>
       <c r="P218" s="1"/>
       <c r="Q218" s="1"/>
@@ -9538,11 +9593,11 @@
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="I219" s="1"/>
-      <c r="J219" s="45"/>
-      <c r="K219" s="45"/>
-      <c r="L219" s="45"/>
-      <c r="M219" s="45"/>
-      <c r="N219" s="46"/>
+      <c r="J219" s="39"/>
+      <c r="K219" s="39"/>
+      <c r="L219" s="39"/>
+      <c r="M219" s="39"/>
+      <c r="N219" s="40"/>
       <c r="O219" s="1"/>
       <c r="P219" s="1"/>
       <c r="Q219" s="1"/>
@@ -9561,11 +9616,11 @@
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="I220" s="1"/>
-      <c r="J220" s="45"/>
-      <c r="K220" s="45"/>
-      <c r="L220" s="45"/>
-      <c r="M220" s="45"/>
-      <c r="N220" s="46"/>
+      <c r="J220" s="39"/>
+      <c r="K220" s="39"/>
+      <c r="L220" s="39"/>
+      <c r="M220" s="39"/>
+      <c r="N220" s="40"/>
       <c r="O220" s="1"/>
       <c r="P220" s="1"/>
       <c r="Q220" s="1"/>
@@ -9584,11 +9639,11 @@
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="I221" s="1"/>
-      <c r="J221" s="45"/>
-      <c r="K221" s="45"/>
-      <c r="L221" s="45"/>
-      <c r="M221" s="45"/>
-      <c r="N221" s="46"/>
+      <c r="J221" s="39"/>
+      <c r="K221" s="39"/>
+      <c r="L221" s="39"/>
+      <c r="M221" s="39"/>
+      <c r="N221" s="40"/>
       <c r="O221" s="1"/>
       <c r="P221" s="1"/>
       <c r="Q221" s="1"/>
@@ -9607,11 +9662,11 @@
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="I222" s="1"/>
-      <c r="J222" s="45"/>
-      <c r="K222" s="45"/>
-      <c r="L222" s="45"/>
-      <c r="M222" s="45"/>
-      <c r="N222" s="46"/>
+      <c r="J222" s="39"/>
+      <c r="K222" s="39"/>
+      <c r="L222" s="39"/>
+      <c r="M222" s="39"/>
+      <c r="N222" s="40"/>
       <c r="O222" s="1"/>
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
@@ -9630,11 +9685,11 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="I223" s="1"/>
-      <c r="J223" s="45"/>
-      <c r="K223" s="45"/>
-      <c r="L223" s="45"/>
-      <c r="M223" s="45"/>
-      <c r="N223" s="46"/>
+      <c r="J223" s="39"/>
+      <c r="K223" s="39"/>
+      <c r="L223" s="39"/>
+      <c r="M223" s="39"/>
+      <c r="N223" s="40"/>
       <c r="O223" s="1"/>
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
@@ -9653,11 +9708,11 @@
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="I224" s="1"/>
-      <c r="J224" s="45"/>
-      <c r="K224" s="45"/>
-      <c r="L224" s="45"/>
-      <c r="M224" s="45"/>
-      <c r="N224" s="46"/>
+      <c r="J224" s="39"/>
+      <c r="K224" s="39"/>
+      <c r="L224" s="39"/>
+      <c r="M224" s="39"/>
+      <c r="N224" s="40"/>
       <c r="O224" s="1"/>
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
@@ -9676,11 +9731,11 @@
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
       <c r="I225" s="1"/>
-      <c r="J225" s="45"/>
-      <c r="K225" s="45"/>
-      <c r="L225" s="45"/>
-      <c r="M225" s="45"/>
-      <c r="N225" s="46"/>
+      <c r="J225" s="39"/>
+      <c r="K225" s="39"/>
+      <c r="L225" s="39"/>
+      <c r="M225" s="39"/>
+      <c r="N225" s="40"/>
       <c r="O225" s="1"/>
       <c r="P225" s="1"/>
       <c r="Q225" s="1"/>
@@ -9699,11 +9754,11 @@
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
       <c r="I226" s="1"/>
-      <c r="J226" s="45"/>
-      <c r="K226" s="45"/>
-      <c r="L226" s="45"/>
-      <c r="M226" s="45"/>
-      <c r="N226" s="46"/>
+      <c r="J226" s="39"/>
+      <c r="K226" s="39"/>
+      <c r="L226" s="39"/>
+      <c r="M226" s="39"/>
+      <c r="N226" s="40"/>
       <c r="O226" s="1"/>
       <c r="P226" s="1"/>
       <c r="Q226" s="1"/>
@@ -9722,11 +9777,11 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="I227" s="1"/>
-      <c r="J227" s="45"/>
-      <c r="K227" s="45"/>
-      <c r="L227" s="45"/>
-      <c r="M227" s="45"/>
-      <c r="N227" s="46"/>
+      <c r="J227" s="39"/>
+      <c r="K227" s="39"/>
+      <c r="L227" s="39"/>
+      <c r="M227" s="39"/>
+      <c r="N227" s="40"/>
       <c r="O227" s="1"/>
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
@@ -9745,11 +9800,11 @@
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="I228" s="1"/>
-      <c r="J228" s="45"/>
-      <c r="K228" s="45"/>
-      <c r="L228" s="45"/>
-      <c r="M228" s="45"/>
-      <c r="N228" s="46"/>
+      <c r="J228" s="39"/>
+      <c r="K228" s="39"/>
+      <c r="L228" s="39"/>
+      <c r="M228" s="39"/>
+      <c r="N228" s="40"/>
       <c r="O228" s="1"/>
       <c r="P228" s="1"/>
       <c r="Q228" s="1"/>
@@ -9768,11 +9823,11 @@
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
       <c r="I229" s="1"/>
-      <c r="J229" s="45"/>
-      <c r="K229" s="45"/>
-      <c r="L229" s="45"/>
-      <c r="M229" s="45"/>
-      <c r="N229" s="46"/>
+      <c r="J229" s="39"/>
+      <c r="K229" s="39"/>
+      <c r="L229" s="39"/>
+      <c r="M229" s="39"/>
+      <c r="N229" s="40"/>
       <c r="O229" s="1"/>
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
@@ -9791,11 +9846,11 @@
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
       <c r="I230" s="1"/>
-      <c r="J230" s="45"/>
-      <c r="K230" s="45"/>
-      <c r="L230" s="45"/>
-      <c r="M230" s="45"/>
-      <c r="N230" s="46"/>
+      <c r="J230" s="39"/>
+      <c r="K230" s="39"/>
+      <c r="L230" s="39"/>
+      <c r="M230" s="39"/>
+      <c r="N230" s="40"/>
       <c r="O230" s="1"/>
       <c r="P230" s="1"/>
       <c r="Q230" s="1"/>
@@ -9814,11 +9869,11 @@
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="I231" s="1"/>
-      <c r="J231" s="45"/>
-      <c r="K231" s="45"/>
-      <c r="L231" s="45"/>
-      <c r="M231" s="45"/>
-      <c r="N231" s="46"/>
+      <c r="J231" s="39"/>
+      <c r="K231" s="39"/>
+      <c r="L231" s="39"/>
+      <c r="M231" s="39"/>
+      <c r="N231" s="40"/>
       <c r="O231" s="1"/>
       <c r="P231" s="1"/>
       <c r="Q231" s="1"/>
@@ -9837,11 +9892,11 @@
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="I232" s="1"/>
-      <c r="J232" s="45"/>
-      <c r="K232" s="45"/>
-      <c r="L232" s="45"/>
-      <c r="M232" s="45"/>
-      <c r="N232" s="46"/>
+      <c r="J232" s="39"/>
+      <c r="K232" s="39"/>
+      <c r="L232" s="39"/>
+      <c r="M232" s="39"/>
+      <c r="N232" s="40"/>
       <c r="O232" s="1"/>
       <c r="P232" s="1"/>
       <c r="Q232" s="1"/>
@@ -9860,11 +9915,11 @@
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="I233" s="1"/>
-      <c r="J233" s="45"/>
-      <c r="K233" s="45"/>
-      <c r="L233" s="45"/>
-      <c r="M233" s="45"/>
-      <c r="N233" s="46"/>
+      <c r="J233" s="39"/>
+      <c r="K233" s="39"/>
+      <c r="L233" s="39"/>
+      <c r="M233" s="39"/>
+      <c r="N233" s="40"/>
       <c r="O233" s="1"/>
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
@@ -9883,11 +9938,11 @@
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="I234" s="1"/>
-      <c r="J234" s="45"/>
-      <c r="K234" s="45"/>
-      <c r="L234" s="45"/>
-      <c r="M234" s="45"/>
-      <c r="N234" s="46"/>
+      <c r="J234" s="39"/>
+      <c r="K234" s="39"/>
+      <c r="L234" s="39"/>
+      <c r="M234" s="39"/>
+      <c r="N234" s="40"/>
       <c r="O234" s="1"/>
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
@@ -9906,11 +9961,11 @@
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="I235" s="1"/>
-      <c r="J235" s="45"/>
-      <c r="K235" s="45"/>
-      <c r="L235" s="45"/>
-      <c r="M235" s="45"/>
-      <c r="N235" s="46"/>
+      <c r="J235" s="39"/>
+      <c r="K235" s="39"/>
+      <c r="L235" s="39"/>
+      <c r="M235" s="39"/>
+      <c r="N235" s="40"/>
       <c r="O235" s="1"/>
       <c r="P235" s="1"/>
       <c r="Q235" s="1"/>
@@ -9929,11 +9984,11 @@
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="I236" s="1"/>
-      <c r="J236" s="45"/>
-      <c r="K236" s="45"/>
-      <c r="L236" s="45"/>
-      <c r="M236" s="45"/>
-      <c r="N236" s="46"/>
+      <c r="J236" s="39"/>
+      <c r="K236" s="39"/>
+      <c r="L236" s="39"/>
+      <c r="M236" s="39"/>
+      <c r="N236" s="40"/>
       <c r="O236" s="1"/>
       <c r="P236" s="1"/>
       <c r="Q236" s="1"/>
@@ -9952,11 +10007,11 @@
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
       <c r="I237" s="1"/>
-      <c r="J237" s="45"/>
-      <c r="K237" s="45"/>
-      <c r="L237" s="45"/>
-      <c r="M237" s="45"/>
-      <c r="N237" s="46"/>
+      <c r="J237" s="39"/>
+      <c r="K237" s="39"/>
+      <c r="L237" s="39"/>
+      <c r="M237" s="39"/>
+      <c r="N237" s="40"/>
       <c r="O237" s="1"/>
       <c r="P237" s="1"/>
       <c r="Q237" s="1"/>
@@ -9975,11 +10030,11 @@
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
       <c r="I238" s="1"/>
-      <c r="J238" s="45"/>
-      <c r="K238" s="45"/>
-      <c r="L238" s="45"/>
-      <c r="M238" s="45"/>
-      <c r="N238" s="46"/>
+      <c r="J238" s="39"/>
+      <c r="K238" s="39"/>
+      <c r="L238" s="39"/>
+      <c r="M238" s="39"/>
+      <c r="N238" s="40"/>
       <c r="O238" s="1"/>
       <c r="P238" s="1"/>
       <c r="Q238" s="1"/>
@@ -9998,11 +10053,11 @@
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
       <c r="I239" s="1"/>
-      <c r="J239" s="45"/>
-      <c r="K239" s="45"/>
-      <c r="L239" s="45"/>
-      <c r="M239" s="45"/>
-      <c r="N239" s="46"/>
+      <c r="J239" s="39"/>
+      <c r="K239" s="39"/>
+      <c r="L239" s="39"/>
+      <c r="M239" s="39"/>
+      <c r="N239" s="40"/>
       <c r="O239" s="1"/>
       <c r="P239" s="1"/>
       <c r="Q239" s="1"/>
@@ -10021,11 +10076,11 @@
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
       <c r="I240" s="1"/>
-      <c r="J240" s="45"/>
-      <c r="K240" s="45"/>
-      <c r="L240" s="45"/>
-      <c r="M240" s="45"/>
-      <c r="N240" s="46"/>
+      <c r="J240" s="39"/>
+      <c r="K240" s="39"/>
+      <c r="L240" s="39"/>
+      <c r="M240" s="39"/>
+      <c r="N240" s="40"/>
       <c r="O240" s="1"/>
       <c r="P240" s="1"/>
       <c r="Q240" s="1"/>
@@ -10044,11 +10099,11 @@
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
       <c r="I241" s="1"/>
-      <c r="J241" s="45"/>
-      <c r="K241" s="45"/>
-      <c r="L241" s="45"/>
-      <c r="M241" s="45"/>
-      <c r="N241" s="46"/>
+      <c r="J241" s="39"/>
+      <c r="K241" s="39"/>
+      <c r="L241" s="39"/>
+      <c r="M241" s="39"/>
+      <c r="N241" s="40"/>
       <c r="O241" s="1"/>
       <c r="P241" s="1"/>
       <c r="Q241" s="1"/>
@@ -10067,11 +10122,11 @@
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
       <c r="I242" s="1"/>
-      <c r="J242" s="45"/>
-      <c r="K242" s="45"/>
-      <c r="L242" s="45"/>
-      <c r="M242" s="45"/>
-      <c r="N242" s="46"/>
+      <c r="J242" s="39"/>
+      <c r="K242" s="39"/>
+      <c r="L242" s="39"/>
+      <c r="M242" s="39"/>
+      <c r="N242" s="40"/>
       <c r="O242" s="1"/>
       <c r="P242" s="1"/>
       <c r="Q242" s="1"/>
@@ -10090,11 +10145,11 @@
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
       <c r="I243" s="1"/>
-      <c r="J243" s="45"/>
-      <c r="K243" s="45"/>
-      <c r="L243" s="45"/>
-      <c r="M243" s="45"/>
-      <c r="N243" s="46"/>
+      <c r="J243" s="39"/>
+      <c r="K243" s="39"/>
+      <c r="L243" s="39"/>
+      <c r="M243" s="39"/>
+      <c r="N243" s="40"/>
       <c r="O243" s="1"/>
       <c r="P243" s="1"/>
       <c r="Q243" s="1"/>
@@ -10113,11 +10168,11 @@
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
       <c r="I244" s="1"/>
-      <c r="J244" s="45"/>
-      <c r="K244" s="45"/>
-      <c r="L244" s="45"/>
-      <c r="M244" s="45"/>
-      <c r="N244" s="46"/>
+      <c r="J244" s="39"/>
+      <c r="K244" s="39"/>
+      <c r="L244" s="39"/>
+      <c r="M244" s="39"/>
+      <c r="N244" s="40"/>
       <c r="O244" s="1"/>
       <c r="P244" s="1"/>
       <c r="Q244" s="1"/>
@@ -10136,11 +10191,11 @@
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
       <c r="I245" s="1"/>
-      <c r="J245" s="45"/>
-      <c r="K245" s="45"/>
-      <c r="L245" s="45"/>
-      <c r="M245" s="45"/>
-      <c r="N245" s="46"/>
+      <c r="J245" s="39"/>
+      <c r="K245" s="39"/>
+      <c r="L245" s="39"/>
+      <c r="M245" s="39"/>
+      <c r="N245" s="40"/>
       <c r="O245" s="1"/>
       <c r="P245" s="1"/>
       <c r="Q245" s="1"/>
@@ -10159,11 +10214,11 @@
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
       <c r="I246" s="1"/>
-      <c r="J246" s="45"/>
-      <c r="K246" s="45"/>
-      <c r="L246" s="45"/>
-      <c r="M246" s="45"/>
-      <c r="N246" s="46"/>
+      <c r="J246" s="39"/>
+      <c r="K246" s="39"/>
+      <c r="L246" s="39"/>
+      <c r="M246" s="39"/>
+      <c r="N246" s="40"/>
       <c r="O246" s="1"/>
       <c r="P246" s="1"/>
       <c r="Q246" s="1"/>
@@ -10182,11 +10237,11 @@
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
       <c r="I247" s="1"/>
-      <c r="J247" s="45"/>
-      <c r="K247" s="45"/>
-      <c r="L247" s="45"/>
-      <c r="M247" s="45"/>
-      <c r="N247" s="46"/>
+      <c r="J247" s="39"/>
+      <c r="K247" s="39"/>
+      <c r="L247" s="39"/>
+      <c r="M247" s="39"/>
+      <c r="N247" s="40"/>
       <c r="O247" s="1"/>
       <c r="P247" s="1"/>
       <c r="Q247" s="1"/>
@@ -10205,11 +10260,11 @@
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
       <c r="I248" s="1"/>
-      <c r="J248" s="45"/>
-      <c r="K248" s="45"/>
-      <c r="L248" s="45"/>
-      <c r="M248" s="45"/>
-      <c r="N248" s="46"/>
+      <c r="J248" s="39"/>
+      <c r="K248" s="39"/>
+      <c r="L248" s="39"/>
+      <c r="M248" s="39"/>
+      <c r="N248" s="40"/>
       <c r="O248" s="1"/>
       <c r="P248" s="1"/>
       <c r="Q248" s="1"/>
@@ -10228,11 +10283,11 @@
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
       <c r="I249" s="1"/>
-      <c r="J249" s="45"/>
-      <c r="K249" s="45"/>
-      <c r="L249" s="45"/>
-      <c r="M249" s="45"/>
-      <c r="N249" s="46"/>
+      <c r="J249" s="39"/>
+      <c r="K249" s="39"/>
+      <c r="L249" s="39"/>
+      <c r="M249" s="39"/>
+      <c r="N249" s="40"/>
       <c r="O249" s="1"/>
       <c r="P249" s="1"/>
       <c r="Q249" s="1"/>
@@ -10251,11 +10306,11 @@
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
       <c r="I250" s="1"/>
-      <c r="J250" s="45"/>
-      <c r="K250" s="45"/>
-      <c r="L250" s="45"/>
-      <c r="M250" s="45"/>
-      <c r="N250" s="46"/>
+      <c r="J250" s="39"/>
+      <c r="K250" s="39"/>
+      <c r="L250" s="39"/>
+      <c r="M250" s="39"/>
+      <c r="N250" s="40"/>
       <c r="O250" s="1"/>
       <c r="P250" s="1"/>
       <c r="Q250" s="1"/>
@@ -10274,11 +10329,11 @@
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
       <c r="I251" s="1"/>
-      <c r="J251" s="45"/>
-      <c r="K251" s="45"/>
-      <c r="L251" s="45"/>
-      <c r="M251" s="45"/>
-      <c r="N251" s="46"/>
+      <c r="J251" s="39"/>
+      <c r="K251" s="39"/>
+      <c r="L251" s="39"/>
+      <c r="M251" s="39"/>
+      <c r="N251" s="40"/>
       <c r="O251" s="1"/>
       <c r="P251" s="1"/>
       <c r="Q251" s="1"/>
@@ -10297,11 +10352,11 @@
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
       <c r="I252" s="1"/>
-      <c r="J252" s="45"/>
-      <c r="K252" s="45"/>
-      <c r="L252" s="45"/>
-      <c r="M252" s="45"/>
-      <c r="N252" s="46"/>
+      <c r="J252" s="39"/>
+      <c r="K252" s="39"/>
+      <c r="L252" s="39"/>
+      <c r="M252" s="39"/>
+      <c r="N252" s="40"/>
       <c r="O252" s="1"/>
       <c r="P252" s="1"/>
       <c r="Q252" s="1"/>
@@ -10320,11 +10375,11 @@
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
       <c r="I253" s="1"/>
-      <c r="J253" s="45"/>
-      <c r="K253" s="45"/>
-      <c r="L253" s="45"/>
-      <c r="M253" s="45"/>
-      <c r="N253" s="46"/>
+      <c r="J253" s="39"/>
+      <c r="K253" s="39"/>
+      <c r="L253" s="39"/>
+      <c r="M253" s="39"/>
+      <c r="N253" s="40"/>
       <c r="O253" s="1"/>
       <c r="P253" s="1"/>
       <c r="Q253" s="1"/>
@@ -10343,11 +10398,11 @@
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
       <c r="I254" s="1"/>
-      <c r="J254" s="45"/>
-      <c r="K254" s="45"/>
-      <c r="L254" s="45"/>
-      <c r="M254" s="45"/>
-      <c r="N254" s="46"/>
+      <c r="J254" s="39"/>
+      <c r="K254" s="39"/>
+      <c r="L254" s="39"/>
+      <c r="M254" s="39"/>
+      <c r="N254" s="40"/>
       <c r="O254" s="1"/>
       <c r="P254" s="1"/>
       <c r="Q254" s="1"/>
@@ -10366,11 +10421,11 @@
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
       <c r="I255" s="1"/>
-      <c r="J255" s="45"/>
-      <c r="K255" s="45"/>
-      <c r="L255" s="45"/>
-      <c r="M255" s="45"/>
-      <c r="N255" s="46"/>
+      <c r="J255" s="39"/>
+      <c r="K255" s="39"/>
+      <c r="L255" s="39"/>
+      <c r="M255" s="39"/>
+      <c r="N255" s="40"/>
       <c r="O255" s="1"/>
       <c r="P255" s="1"/>
       <c r="Q255" s="1"/>
@@ -10389,11 +10444,11 @@
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
       <c r="I256" s="1"/>
-      <c r="J256" s="45"/>
-      <c r="K256" s="45"/>
-      <c r="L256" s="45"/>
-      <c r="M256" s="45"/>
-      <c r="N256" s="46"/>
+      <c r="J256" s="39"/>
+      <c r="K256" s="39"/>
+      <c r="L256" s="39"/>
+      <c r="M256" s="39"/>
+      <c r="N256" s="40"/>
       <c r="O256" s="1"/>
       <c r="P256" s="1"/>
       <c r="Q256" s="1"/>
@@ -10412,11 +10467,11 @@
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
       <c r="I257" s="1"/>
-      <c r="J257" s="45"/>
-      <c r="K257" s="45"/>
-      <c r="L257" s="45"/>
-      <c r="M257" s="45"/>
-      <c r="N257" s="46"/>
+      <c r="J257" s="39"/>
+      <c r="K257" s="39"/>
+      <c r="L257" s="39"/>
+      <c r="M257" s="39"/>
+      <c r="N257" s="40"/>
       <c r="O257" s="1"/>
       <c r="P257" s="1"/>
       <c r="Q257" s="1"/>
@@ -10435,11 +10490,11 @@
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
       <c r="I258" s="1"/>
-      <c r="J258" s="45"/>
-      <c r="K258" s="45"/>
-      <c r="L258" s="45"/>
-      <c r="M258" s="45"/>
-      <c r="N258" s="46"/>
+      <c r="J258" s="39"/>
+      <c r="K258" s="39"/>
+      <c r="L258" s="39"/>
+      <c r="M258" s="39"/>
+      <c r="N258" s="40"/>
       <c r="O258" s="1"/>
       <c r="P258" s="1"/>
       <c r="Q258" s="1"/>
@@ -10458,11 +10513,11 @@
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
       <c r="I259" s="1"/>
-      <c r="J259" s="45"/>
-      <c r="K259" s="45"/>
-      <c r="L259" s="45"/>
-      <c r="M259" s="45"/>
-      <c r="N259" s="46"/>
+      <c r="J259" s="39"/>
+      <c r="K259" s="39"/>
+      <c r="L259" s="39"/>
+      <c r="M259" s="39"/>
+      <c r="N259" s="40"/>
       <c r="O259" s="1"/>
       <c r="P259" s="1"/>
       <c r="Q259" s="1"/>
@@ -10481,11 +10536,11 @@
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
       <c r="I260" s="1"/>
-      <c r="J260" s="45"/>
-      <c r="K260" s="45"/>
-      <c r="L260" s="45"/>
-      <c r="M260" s="45"/>
-      <c r="N260" s="46"/>
+      <c r="J260" s="39"/>
+      <c r="K260" s="39"/>
+      <c r="L260" s="39"/>
+      <c r="M260" s="39"/>
+      <c r="N260" s="40"/>
       <c r="O260" s="1"/>
       <c r="P260" s="1"/>
       <c r="Q260" s="1"/>
@@ -10504,11 +10559,11 @@
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
       <c r="I261" s="1"/>
-      <c r="J261" s="45"/>
-      <c r="K261" s="45"/>
-      <c r="L261" s="45"/>
-      <c r="M261" s="45"/>
-      <c r="N261" s="46"/>
+      <c r="J261" s="39"/>
+      <c r="K261" s="39"/>
+      <c r="L261" s="39"/>
+      <c r="M261" s="39"/>
+      <c r="N261" s="40"/>
       <c r="O261" s="1"/>
       <c r="P261" s="1"/>
       <c r="Q261" s="1"/>
@@ -10527,11 +10582,11 @@
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
       <c r="I262" s="1"/>
-      <c r="J262" s="45"/>
-      <c r="K262" s="45"/>
-      <c r="L262" s="45"/>
-      <c r="M262" s="45"/>
-      <c r="N262" s="46"/>
+      <c r="J262" s="39"/>
+      <c r="K262" s="39"/>
+      <c r="L262" s="39"/>
+      <c r="M262" s="39"/>
+      <c r="N262" s="40"/>
       <c r="O262" s="1"/>
       <c r="P262" s="1"/>
       <c r="Q262" s="1"/>
@@ -10550,11 +10605,11 @@
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
       <c r="I263" s="1"/>
-      <c r="J263" s="45"/>
-      <c r="K263" s="45"/>
-      <c r="L263" s="45"/>
-      <c r="M263" s="45"/>
-      <c r="N263" s="46"/>
+      <c r="J263" s="39"/>
+      <c r="K263" s="39"/>
+      <c r="L263" s="39"/>
+      <c r="M263" s="39"/>
+      <c r="N263" s="40"/>
       <c r="O263" s="1"/>
       <c r="P263" s="1"/>
       <c r="Q263" s="1"/>
@@ -10573,11 +10628,11 @@
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
       <c r="I264" s="1"/>
-      <c r="J264" s="45"/>
-      <c r="K264" s="45"/>
-      <c r="L264" s="45"/>
-      <c r="M264" s="45"/>
-      <c r="N264" s="46"/>
+      <c r="J264" s="39"/>
+      <c r="K264" s="39"/>
+      <c r="L264" s="39"/>
+      <c r="M264" s="39"/>
+      <c r="N264" s="40"/>
       <c r="O264" s="1"/>
       <c r="P264" s="1"/>
       <c r="Q264" s="1"/>
@@ -10596,11 +10651,11 @@
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
       <c r="I265" s="1"/>
-      <c r="J265" s="45"/>
-      <c r="K265" s="45"/>
-      <c r="L265" s="45"/>
-      <c r="M265" s="45"/>
-      <c r="N265" s="46"/>
+      <c r="J265" s="39"/>
+      <c r="K265" s="39"/>
+      <c r="L265" s="39"/>
+      <c r="M265" s="39"/>
+      <c r="N265" s="40"/>
       <c r="O265" s="1"/>
       <c r="P265" s="1"/>
       <c r="Q265" s="1"/>
@@ -10619,11 +10674,11 @@
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
       <c r="I266" s="1"/>
-      <c r="J266" s="45"/>
-      <c r="K266" s="45"/>
-      <c r="L266" s="45"/>
-      <c r="M266" s="45"/>
-      <c r="N266" s="46"/>
+      <c r="J266" s="39"/>
+      <c r="K266" s="39"/>
+      <c r="L266" s="39"/>
+      <c r="M266" s="39"/>
+      <c r="N266" s="40"/>
       <c r="O266" s="1"/>
       <c r="P266" s="1"/>
       <c r="Q266" s="1"/>
@@ -10642,11 +10697,11 @@
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
       <c r="I267" s="1"/>
-      <c r="J267" s="45"/>
-      <c r="K267" s="45"/>
-      <c r="L267" s="45"/>
-      <c r="M267" s="45"/>
-      <c r="N267" s="46"/>
+      <c r="J267" s="39"/>
+      <c r="K267" s="39"/>
+      <c r="L267" s="39"/>
+      <c r="M267" s="39"/>
+      <c r="N267" s="40"/>
       <c r="O267" s="1"/>
       <c r="P267" s="1"/>
       <c r="Q267" s="1"/>
@@ -10665,11 +10720,11 @@
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
       <c r="I268" s="1"/>
-      <c r="J268" s="45"/>
-      <c r="K268" s="45"/>
-      <c r="L268" s="45"/>
-      <c r="M268" s="45"/>
-      <c r="N268" s="46"/>
+      <c r="J268" s="39"/>
+      <c r="K268" s="39"/>
+      <c r="L268" s="39"/>
+      <c r="M268" s="39"/>
+      <c r="N268" s="40"/>
       <c r="O268" s="1"/>
       <c r="P268" s="1"/>
       <c r="Q268" s="1"/>
@@ -10688,11 +10743,11 @@
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
       <c r="I269" s="1"/>
-      <c r="J269" s="45"/>
-      <c r="K269" s="45"/>
-      <c r="L269" s="45"/>
-      <c r="M269" s="45"/>
-      <c r="N269" s="46"/>
+      <c r="J269" s="39"/>
+      <c r="K269" s="39"/>
+      <c r="L269" s="39"/>
+      <c r="M269" s="39"/>
+      <c r="N269" s="40"/>
       <c r="O269" s="1"/>
       <c r="P269" s="1"/>
       <c r="Q269" s="1"/>
@@ -10711,11 +10766,11 @@
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
       <c r="I270" s="1"/>
-      <c r="J270" s="45"/>
-      <c r="K270" s="45"/>
-      <c r="L270" s="45"/>
-      <c r="M270" s="45"/>
-      <c r="N270" s="46"/>
+      <c r="J270" s="39"/>
+      <c r="K270" s="39"/>
+      <c r="L270" s="39"/>
+      <c r="M270" s="39"/>
+      <c r="N270" s="40"/>
       <c r="O270" s="1"/>
       <c r="P270" s="1"/>
       <c r="Q270" s="1"/>
@@ -10734,11 +10789,11 @@
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
       <c r="I271" s="1"/>
-      <c r="J271" s="45"/>
-      <c r="K271" s="45"/>
-      <c r="L271" s="45"/>
-      <c r="M271" s="45"/>
-      <c r="N271" s="46"/>
+      <c r="J271" s="39"/>
+      <c r="K271" s="39"/>
+      <c r="L271" s="39"/>
+      <c r="M271" s="39"/>
+      <c r="N271" s="40"/>
       <c r="O271" s="1"/>
       <c r="P271" s="1"/>
       <c r="Q271" s="1"/>
@@ -10757,11 +10812,11 @@
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
       <c r="I272" s="1"/>
-      <c r="J272" s="45"/>
-      <c r="K272" s="45"/>
-      <c r="L272" s="45"/>
-      <c r="M272" s="45"/>
-      <c r="N272" s="46"/>
+      <c r="J272" s="39"/>
+      <c r="K272" s="39"/>
+      <c r="L272" s="39"/>
+      <c r="M272" s="39"/>
+      <c r="N272" s="40"/>
       <c r="O272" s="1"/>
       <c r="P272" s="1"/>
       <c r="Q272" s="1"/>
@@ -10780,11 +10835,11 @@
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
       <c r="I273" s="1"/>
-      <c r="J273" s="45"/>
-      <c r="K273" s="45"/>
-      <c r="L273" s="45"/>
-      <c r="M273" s="45"/>
-      <c r="N273" s="46"/>
+      <c r="J273" s="39"/>
+      <c r="K273" s="39"/>
+      <c r="L273" s="39"/>
+      <c r="M273" s="39"/>
+      <c r="N273" s="40"/>
       <c r="O273" s="1"/>
       <c r="P273" s="1"/>
       <c r="Q273" s="1"/>
@@ -10803,11 +10858,11 @@
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
       <c r="I274" s="1"/>
-      <c r="J274" s="45"/>
-      <c r="K274" s="45"/>
-      <c r="L274" s="45"/>
-      <c r="M274" s="45"/>
-      <c r="N274" s="46"/>
+      <c r="J274" s="39"/>
+      <c r="K274" s="39"/>
+      <c r="L274" s="39"/>
+      <c r="M274" s="39"/>
+      <c r="N274" s="40"/>
       <c r="O274" s="1"/>
       <c r="P274" s="1"/>
       <c r="Q274" s="1"/>
@@ -10826,11 +10881,11 @@
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
       <c r="I275" s="1"/>
-      <c r="J275" s="45"/>
-      <c r="K275" s="45"/>
-      <c r="L275" s="45"/>
-      <c r="M275" s="45"/>
-      <c r="N275" s="46"/>
+      <c r="J275" s="39"/>
+      <c r="K275" s="39"/>
+      <c r="L275" s="39"/>
+      <c r="M275" s="39"/>
+      <c r="N275" s="40"/>
       <c r="O275" s="1"/>
       <c r="P275" s="1"/>
       <c r="Q275" s="1"/>
@@ -10849,11 +10904,11 @@
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
       <c r="I276" s="1"/>
-      <c r="J276" s="45"/>
-      <c r="K276" s="45"/>
-      <c r="L276" s="45"/>
-      <c r="M276" s="45"/>
-      <c r="N276" s="46"/>
+      <c r="J276" s="39"/>
+      <c r="K276" s="39"/>
+      <c r="L276" s="39"/>
+      <c r="M276" s="39"/>
+      <c r="N276" s="40"/>
       <c r="O276" s="1"/>
       <c r="P276" s="1"/>
       <c r="Q276" s="1"/>
@@ -10872,11 +10927,11 @@
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
       <c r="I277" s="1"/>
-      <c r="J277" s="45"/>
-      <c r="K277" s="45"/>
-      <c r="L277" s="45"/>
-      <c r="M277" s="45"/>
-      <c r="N277" s="46"/>
+      <c r="J277" s="39"/>
+      <c r="K277" s="39"/>
+      <c r="L277" s="39"/>
+      <c r="M277" s="39"/>
+      <c r="N277" s="40"/>
       <c r="O277" s="1"/>
       <c r="P277" s="1"/>
       <c r="Q277" s="1"/>
@@ -10895,11 +10950,11 @@
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
       <c r="I278" s="1"/>
-      <c r="J278" s="45"/>
-      <c r="K278" s="45"/>
-      <c r="L278" s="45"/>
-      <c r="M278" s="45"/>
-      <c r="N278" s="46"/>
+      <c r="J278" s="39"/>
+      <c r="K278" s="39"/>
+      <c r="L278" s="39"/>
+      <c r="M278" s="39"/>
+      <c r="N278" s="40"/>
       <c r="O278" s="1"/>
       <c r="P278" s="1"/>
       <c r="Q278" s="1"/>
@@ -10918,11 +10973,11 @@
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
       <c r="I279" s="1"/>
-      <c r="J279" s="45"/>
-      <c r="K279" s="45"/>
-      <c r="L279" s="45"/>
-      <c r="M279" s="45"/>
-      <c r="N279" s="46"/>
+      <c r="J279" s="39"/>
+      <c r="K279" s="39"/>
+      <c r="L279" s="39"/>
+      <c r="M279" s="39"/>
+      <c r="N279" s="40"/>
       <c r="O279" s="1"/>
       <c r="P279" s="1"/>
       <c r="Q279" s="1"/>
@@ -10941,11 +10996,11 @@
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
       <c r="I280" s="1"/>
-      <c r="J280" s="45"/>
-      <c r="K280" s="45"/>
-      <c r="L280" s="45"/>
-      <c r="M280" s="45"/>
-      <c r="N280" s="46"/>
+      <c r="J280" s="39"/>
+      <c r="K280" s="39"/>
+      <c r="L280" s="39"/>
+      <c r="M280" s="39"/>
+      <c r="N280" s="40"/>
       <c r="O280" s="1"/>
       <c r="P280" s="1"/>
       <c r="Q280" s="1"/>
@@ -10964,11 +11019,11 @@
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
       <c r="I281" s="1"/>
-      <c r="J281" s="45"/>
-      <c r="K281" s="45"/>
-      <c r="L281" s="45"/>
-      <c r="M281" s="45"/>
-      <c r="N281" s="46"/>
+      <c r="J281" s="39"/>
+      <c r="K281" s="39"/>
+      <c r="L281" s="39"/>
+      <c r="M281" s="39"/>
+      <c r="N281" s="40"/>
       <c r="O281" s="1"/>
       <c r="P281" s="1"/>
       <c r="Q281" s="1"/>
@@ -10987,11 +11042,11 @@
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
       <c r="I282" s="1"/>
-      <c r="J282" s="45"/>
-      <c r="K282" s="45"/>
-      <c r="L282" s="45"/>
-      <c r="M282" s="45"/>
-      <c r="N282" s="46"/>
+      <c r="J282" s="39"/>
+      <c r="K282" s="39"/>
+      <c r="L282" s="39"/>
+      <c r="M282" s="39"/>
+      <c r="N282" s="40"/>
       <c r="O282" s="1"/>
       <c r="P282" s="1"/>
       <c r="Q282" s="1"/>
@@ -11010,11 +11065,11 @@
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
       <c r="I283" s="1"/>
-      <c r="J283" s="45"/>
-      <c r="K283" s="45"/>
-      <c r="L283" s="45"/>
-      <c r="M283" s="45"/>
-      <c r="N283" s="46"/>
+      <c r="J283" s="39"/>
+      <c r="K283" s="39"/>
+      <c r="L283" s="39"/>
+      <c r="M283" s="39"/>
+      <c r="N283" s="40"/>
       <c r="O283" s="1"/>
       <c r="P283" s="1"/>
       <c r="Q283" s="1"/>
@@ -11033,11 +11088,11 @@
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
       <c r="I284" s="1"/>
-      <c r="J284" s="45"/>
-      <c r="K284" s="45"/>
-      <c r="L284" s="45"/>
-      <c r="M284" s="45"/>
-      <c r="N284" s="46"/>
+      <c r="J284" s="39"/>
+      <c r="K284" s="39"/>
+      <c r="L284" s="39"/>
+      <c r="M284" s="39"/>
+      <c r="N284" s="40"/>
       <c r="O284" s="1"/>
       <c r="P284" s="1"/>
       <c r="Q284" s="1"/>
@@ -11056,11 +11111,11 @@
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
       <c r="I285" s="1"/>
-      <c r="J285" s="45"/>
-      <c r="K285" s="45"/>
-      <c r="L285" s="45"/>
-      <c r="M285" s="45"/>
-      <c r="N285" s="46"/>
+      <c r="J285" s="39"/>
+      <c r="K285" s="39"/>
+      <c r="L285" s="39"/>
+      <c r="M285" s="39"/>
+      <c r="N285" s="40"/>
       <c r="O285" s="1"/>
       <c r="P285" s="1"/>
       <c r="Q285" s="1"/>
@@ -11079,11 +11134,11 @@
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
       <c r="I286" s="1"/>
-      <c r="J286" s="45"/>
-      <c r="K286" s="45"/>
-      <c r="L286" s="45"/>
-      <c r="M286" s="45"/>
-      <c r="N286" s="46"/>
+      <c r="J286" s="39"/>
+      <c r="K286" s="39"/>
+      <c r="L286" s="39"/>
+      <c r="M286" s="39"/>
+      <c r="N286" s="40"/>
       <c r="O286" s="1"/>
       <c r="P286" s="1"/>
       <c r="Q286" s="1"/>
@@ -11102,11 +11157,11 @@
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
       <c r="I287" s="1"/>
-      <c r="J287" s="45"/>
-      <c r="K287" s="45"/>
-      <c r="L287" s="45"/>
-      <c r="M287" s="45"/>
-      <c r="N287" s="46"/>
+      <c r="J287" s="39"/>
+      <c r="K287" s="39"/>
+      <c r="L287" s="39"/>
+      <c r="M287" s="39"/>
+      <c r="N287" s="40"/>
       <c r="O287" s="1"/>
       <c r="P287" s="1"/>
       <c r="Q287" s="1"/>
@@ -11125,11 +11180,11 @@
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
       <c r="I288" s="1"/>
-      <c r="J288" s="45"/>
-      <c r="K288" s="45"/>
-      <c r="L288" s="45"/>
-      <c r="M288" s="45"/>
-      <c r="N288" s="46"/>
+      <c r="J288" s="39"/>
+      <c r="K288" s="39"/>
+      <c r="L288" s="39"/>
+      <c r="M288" s="39"/>
+      <c r="N288" s="40"/>
       <c r="O288" s="1"/>
       <c r="P288" s="1"/>
       <c r="Q288" s="1"/>
@@ -11148,11 +11203,11 @@
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
       <c r="I289" s="1"/>
-      <c r="J289" s="45"/>
-      <c r="K289" s="45"/>
-      <c r="L289" s="45"/>
-      <c r="M289" s="45"/>
-      <c r="N289" s="46"/>
+      <c r="J289" s="39"/>
+      <c r="K289" s="39"/>
+      <c r="L289" s="39"/>
+      <c r="M289" s="39"/>
+      <c r="N289" s="40"/>
       <c r="O289" s="1"/>
       <c r="P289" s="1"/>
       <c r="Q289" s="1"/>
@@ -11171,11 +11226,11 @@
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
       <c r="I290" s="1"/>
-      <c r="J290" s="45"/>
-      <c r="K290" s="45"/>
-      <c r="L290" s="45"/>
-      <c r="M290" s="45"/>
-      <c r="N290" s="46"/>
+      <c r="J290" s="39"/>
+      <c r="K290" s="39"/>
+      <c r="L290" s="39"/>
+      <c r="M290" s="39"/>
+      <c r="N290" s="40"/>
       <c r="O290" s="1"/>
       <c r="P290" s="1"/>
       <c r="Q290" s="1"/>
@@ -11194,11 +11249,11 @@
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
       <c r="I291" s="1"/>
-      <c r="J291" s="45"/>
-      <c r="K291" s="45"/>
-      <c r="L291" s="45"/>
-      <c r="M291" s="45"/>
-      <c r="N291" s="46"/>
+      <c r="J291" s="39"/>
+      <c r="K291" s="39"/>
+      <c r="L291" s="39"/>
+      <c r="M291" s="39"/>
+      <c r="N291" s="40"/>
       <c r="O291" s="1"/>
       <c r="P291" s="1"/>
       <c r="Q291" s="1"/>
@@ -11217,11 +11272,11 @@
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
       <c r="I292" s="1"/>
-      <c r="J292" s="45"/>
-      <c r="K292" s="45"/>
-      <c r="L292" s="45"/>
-      <c r="M292" s="45"/>
-      <c r="N292" s="46"/>
+      <c r="J292" s="39"/>
+      <c r="K292" s="39"/>
+      <c r="L292" s="39"/>
+      <c r="M292" s="39"/>
+      <c r="N292" s="40"/>
       <c r="O292" s="1"/>
       <c r="P292" s="1"/>
       <c r="Q292" s="1"/>
@@ -11240,11 +11295,11 @@
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
       <c r="I293" s="1"/>
-      <c r="J293" s="45"/>
-      <c r="K293" s="45"/>
-      <c r="L293" s="45"/>
-      <c r="M293" s="45"/>
-      <c r="N293" s="46"/>
+      <c r="J293" s="39"/>
+      <c r="K293" s="39"/>
+      <c r="L293" s="39"/>
+      <c r="M293" s="39"/>
+      <c r="N293" s="40"/>
       <c r="O293" s="1"/>
       <c r="P293" s="1"/>
       <c r="Q293" s="1"/>
@@ -11263,11 +11318,11 @@
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
       <c r="I294" s="1"/>
-      <c r="J294" s="45"/>
-      <c r="K294" s="45"/>
-      <c r="L294" s="45"/>
-      <c r="M294" s="45"/>
-      <c r="N294" s="46"/>
+      <c r="J294" s="39"/>
+      <c r="K294" s="39"/>
+      <c r="L294" s="39"/>
+      <c r="M294" s="39"/>
+      <c r="N294" s="40"/>
       <c r="O294" s="1"/>
       <c r="P294" s="1"/>
       <c r="Q294" s="1"/>
@@ -11286,11 +11341,11 @@
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
       <c r="I295" s="1"/>
-      <c r="J295" s="45"/>
-      <c r="K295" s="45"/>
-      <c r="L295" s="45"/>
-      <c r="M295" s="45"/>
-      <c r="N295" s="46"/>
+      <c r="J295" s="39"/>
+      <c r="K295" s="39"/>
+      <c r="L295" s="39"/>
+      <c r="M295" s="39"/>
+      <c r="N295" s="40"/>
       <c r="O295" s="1"/>
       <c r="P295" s="1"/>
       <c r="Q295" s="1"/>
@@ -11309,11 +11364,11 @@
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
       <c r="I296" s="1"/>
-      <c r="J296" s="45"/>
-      <c r="K296" s="45"/>
-      <c r="L296" s="45"/>
-      <c r="M296" s="45"/>
-      <c r="N296" s="46"/>
+      <c r="J296" s="39"/>
+      <c r="K296" s="39"/>
+      <c r="L296" s="39"/>
+      <c r="M296" s="39"/>
+      <c r="N296" s="40"/>
       <c r="O296" s="1"/>
       <c r="P296" s="1"/>
       <c r="Q296" s="1"/>
@@ -11332,11 +11387,11 @@
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
       <c r="I297" s="1"/>
-      <c r="J297" s="45"/>
-      <c r="K297" s="45"/>
-      <c r="L297" s="45"/>
-      <c r="M297" s="45"/>
-      <c r="N297" s="46"/>
+      <c r="J297" s="39"/>
+      <c r="K297" s="39"/>
+      <c r="L297" s="39"/>
+      <c r="M297" s="39"/>
+      <c r="N297" s="40"/>
       <c r="O297" s="1"/>
       <c r="P297" s="1"/>
       <c r="Q297" s="1"/>
@@ -11355,11 +11410,11 @@
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
       <c r="I298" s="1"/>
-      <c r="J298" s="45"/>
-      <c r="K298" s="45"/>
-      <c r="L298" s="45"/>
-      <c r="M298" s="45"/>
-      <c r="N298" s="46"/>
+      <c r="J298" s="39"/>
+      <c r="K298" s="39"/>
+      <c r="L298" s="39"/>
+      <c r="M298" s="39"/>
+      <c r="N298" s="40"/>
       <c r="O298" s="1"/>
       <c r="P298" s="1"/>
       <c r="Q298" s="1"/>
@@ -11378,11 +11433,11 @@
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
       <c r="I299" s="1"/>
-      <c r="J299" s="45"/>
-      <c r="K299" s="45"/>
-      <c r="L299" s="45"/>
-      <c r="M299" s="45"/>
-      <c r="N299" s="46"/>
+      <c r="J299" s="39"/>
+      <c r="K299" s="39"/>
+      <c r="L299" s="39"/>
+      <c r="M299" s="39"/>
+      <c r="N299" s="40"/>
       <c r="O299" s="1"/>
       <c r="P299" s="1"/>
       <c r="Q299" s="1"/>
@@ -11401,11 +11456,11 @@
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
       <c r="I300" s="1"/>
-      <c r="J300" s="45"/>
-      <c r="K300" s="45"/>
-      <c r="L300" s="45"/>
-      <c r="M300" s="45"/>
-      <c r="N300" s="46"/>
+      <c r="J300" s="39"/>
+      <c r="K300" s="39"/>
+      <c r="L300" s="39"/>
+      <c r="M300" s="39"/>
+      <c r="N300" s="40"/>
       <c r="O300" s="1"/>
       <c r="P300" s="1"/>
       <c r="Q300" s="1"/>
@@ -11424,11 +11479,11 @@
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
       <c r="I301" s="1"/>
-      <c r="J301" s="45"/>
-      <c r="K301" s="45"/>
-      <c r="L301" s="45"/>
-      <c r="M301" s="45"/>
-      <c r="N301" s="46"/>
+      <c r="J301" s="39"/>
+      <c r="K301" s="39"/>
+      <c r="L301" s="39"/>
+      <c r="M301" s="39"/>
+      <c r="N301" s="40"/>
       <c r="O301" s="1"/>
       <c r="P301" s="1"/>
       <c r="Q301" s="1"/>
@@ -11447,11 +11502,11 @@
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
       <c r="I302" s="1"/>
-      <c r="J302" s="45"/>
-      <c r="K302" s="45"/>
-      <c r="L302" s="45"/>
-      <c r="M302" s="45"/>
-      <c r="N302" s="46"/>
+      <c r="J302" s="39"/>
+      <c r="K302" s="39"/>
+      <c r="L302" s="39"/>
+      <c r="M302" s="39"/>
+      <c r="N302" s="40"/>
       <c r="O302" s="1"/>
       <c r="P302" s="1"/>
       <c r="Q302" s="1"/>
@@ -11470,11 +11525,11 @@
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
       <c r="I303" s="1"/>
-      <c r="J303" s="45"/>
-      <c r="K303" s="45"/>
-      <c r="L303" s="45"/>
-      <c r="M303" s="45"/>
-      <c r="N303" s="46"/>
+      <c r="J303" s="39"/>
+      <c r="K303" s="39"/>
+      <c r="L303" s="39"/>
+      <c r="M303" s="39"/>
+      <c r="N303" s="40"/>
       <c r="O303" s="1"/>
       <c r="P303" s="1"/>
       <c r="Q303" s="1"/>
@@ -11493,11 +11548,11 @@
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
       <c r="I304" s="1"/>
-      <c r="J304" s="45"/>
-      <c r="K304" s="45"/>
-      <c r="L304" s="45"/>
-      <c r="M304" s="45"/>
-      <c r="N304" s="46"/>
+      <c r="J304" s="39"/>
+      <c r="K304" s="39"/>
+      <c r="L304" s="39"/>
+      <c r="M304" s="39"/>
+      <c r="N304" s="40"/>
       <c r="O304" s="1"/>
       <c r="P304" s="1"/>
       <c r="Q304" s="1"/>
@@ -11516,11 +11571,11 @@
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
       <c r="I305" s="1"/>
-      <c r="J305" s="45"/>
-      <c r="K305" s="45"/>
-      <c r="L305" s="45"/>
-      <c r="M305" s="45"/>
-      <c r="N305" s="46"/>
+      <c r="J305" s="39"/>
+      <c r="K305" s="39"/>
+      <c r="L305" s="39"/>
+      <c r="M305" s="39"/>
+      <c r="N305" s="40"/>
       <c r="O305" s="1"/>
       <c r="P305" s="1"/>
       <c r="Q305" s="1"/>
@@ -11539,11 +11594,11 @@
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
       <c r="I306" s="1"/>
-      <c r="J306" s="45"/>
-      <c r="K306" s="45"/>
-      <c r="L306" s="45"/>
-      <c r="M306" s="45"/>
-      <c r="N306" s="46"/>
+      <c r="J306" s="39"/>
+      <c r="K306" s="39"/>
+      <c r="L306" s="39"/>
+      <c r="M306" s="39"/>
+      <c r="N306" s="40"/>
       <c r="O306" s="1"/>
       <c r="P306" s="1"/>
       <c r="Q306" s="1"/>
@@ -11562,11 +11617,11 @@
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
       <c r="I307" s="1"/>
-      <c r="J307" s="45"/>
-      <c r="K307" s="45"/>
-      <c r="L307" s="45"/>
-      <c r="M307" s="45"/>
-      <c r="N307" s="46"/>
+      <c r="J307" s="39"/>
+      <c r="K307" s="39"/>
+      <c r="L307" s="39"/>
+      <c r="M307" s="39"/>
+      <c r="N307" s="40"/>
       <c r="O307" s="1"/>
       <c r="P307" s="1"/>
       <c r="Q307" s="1"/>
@@ -11585,11 +11640,11 @@
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
       <c r="I308" s="1"/>
-      <c r="J308" s="45"/>
-      <c r="K308" s="45"/>
-      <c r="L308" s="45"/>
-      <c r="M308" s="45"/>
-      <c r="N308" s="46"/>
+      <c r="J308" s="39"/>
+      <c r="K308" s="39"/>
+      <c r="L308" s="39"/>
+      <c r="M308" s="39"/>
+      <c r="N308" s="40"/>
       <c r="O308" s="1"/>
       <c r="P308" s="1"/>
       <c r="Q308" s="1"/>
@@ -11608,11 +11663,11 @@
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
       <c r="I309" s="1"/>
-      <c r="J309" s="45"/>
-      <c r="K309" s="45"/>
-      <c r="L309" s="45"/>
-      <c r="M309" s="45"/>
-      <c r="N309" s="46"/>
+      <c r="J309" s="39"/>
+      <c r="K309" s="39"/>
+      <c r="L309" s="39"/>
+      <c r="M309" s="39"/>
+      <c r="N309" s="40"/>
       <c r="O309" s="1"/>
       <c r="P309" s="1"/>
       <c r="Q309" s="1"/>
@@ -11631,11 +11686,11 @@
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
       <c r="I310" s="1"/>
-      <c r="J310" s="45"/>
-      <c r="K310" s="45"/>
-      <c r="L310" s="45"/>
-      <c r="M310" s="45"/>
-      <c r="N310" s="46"/>
+      <c r="J310" s="39"/>
+      <c r="K310" s="39"/>
+      <c r="L310" s="39"/>
+      <c r="M310" s="39"/>
+      <c r="N310" s="40"/>
       <c r="O310" s="1"/>
       <c r="P310" s="1"/>
       <c r="Q310" s="1"/>
@@ -11654,11 +11709,11 @@
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
       <c r="I311" s="1"/>
-      <c r="J311" s="45"/>
-      <c r="K311" s="45"/>
-      <c r="L311" s="45"/>
-      <c r="M311" s="45"/>
-      <c r="N311" s="46"/>
+      <c r="J311" s="39"/>
+      <c r="K311" s="39"/>
+      <c r="L311" s="39"/>
+      <c r="M311" s="39"/>
+      <c r="N311" s="40"/>
       <c r="O311" s="1"/>
       <c r="P311" s="1"/>
       <c r="Q311" s="1"/>
@@ -11677,11 +11732,11 @@
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
       <c r="I312" s="1"/>
-      <c r="J312" s="45"/>
-      <c r="K312" s="45"/>
-      <c r="L312" s="45"/>
-      <c r="M312" s="45"/>
-      <c r="N312" s="46"/>
+      <c r="J312" s="39"/>
+      <c r="K312" s="39"/>
+      <c r="L312" s="39"/>
+      <c r="M312" s="39"/>
+      <c r="N312" s="40"/>
       <c r="O312" s="1"/>
       <c r="P312" s="1"/>
       <c r="Q312" s="1"/>
@@ -11700,11 +11755,11 @@
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
       <c r="I313" s="1"/>
-      <c r="J313" s="45"/>
-      <c r="K313" s="45"/>
-      <c r="L313" s="45"/>
-      <c r="M313" s="45"/>
-      <c r="N313" s="46"/>
+      <c r="J313" s="39"/>
+      <c r="K313" s="39"/>
+      <c r="L313" s="39"/>
+      <c r="M313" s="39"/>
+      <c r="N313" s="40"/>
       <c r="O313" s="1"/>
       <c r="P313" s="1"/>
       <c r="Q313" s="1"/>
@@ -11723,11 +11778,11 @@
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
       <c r="I314" s="1"/>
-      <c r="J314" s="45"/>
-      <c r="K314" s="45"/>
-      <c r="L314" s="45"/>
-      <c r="M314" s="45"/>
-      <c r="N314" s="46"/>
+      <c r="J314" s="39"/>
+      <c r="K314" s="39"/>
+      <c r="L314" s="39"/>
+      <c r="M314" s="39"/>
+      <c r="N314" s="40"/>
       <c r="O314" s="1"/>
       <c r="P314" s="1"/>
       <c r="Q314" s="1"/>
@@ -11746,11 +11801,11 @@
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
       <c r="I315" s="1"/>
-      <c r="J315" s="45"/>
-      <c r="K315" s="45"/>
-      <c r="L315" s="45"/>
-      <c r="M315" s="45"/>
-      <c r="N315" s="46"/>
+      <c r="J315" s="39"/>
+      <c r="K315" s="39"/>
+      <c r="L315" s="39"/>
+      <c r="M315" s="39"/>
+      <c r="N315" s="40"/>
       <c r="O315" s="1"/>
       <c r="P315" s="1"/>
       <c r="Q315" s="1"/>
@@ -11769,11 +11824,11 @@
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
       <c r="I316" s="1"/>
-      <c r="J316" s="45"/>
-      <c r="K316" s="45"/>
-      <c r="L316" s="45"/>
-      <c r="M316" s="45"/>
-      <c r="N316" s="46"/>
+      <c r="J316" s="39"/>
+      <c r="K316" s="39"/>
+      <c r="L316" s="39"/>
+      <c r="M316" s="39"/>
+      <c r="N316" s="40"/>
       <c r="O316" s="1"/>
       <c r="P316" s="1"/>
       <c r="Q316" s="1"/>
@@ -11792,11 +11847,11 @@
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
       <c r="I317" s="1"/>
-      <c r="J317" s="45"/>
-      <c r="K317" s="45"/>
-      <c r="L317" s="45"/>
-      <c r="M317" s="45"/>
-      <c r="N317" s="46"/>
+      <c r="J317" s="39"/>
+      <c r="K317" s="39"/>
+      <c r="L317" s="39"/>
+      <c r="M317" s="39"/>
+      <c r="N317" s="40"/>
       <c r="O317" s="1"/>
       <c r="P317" s="1"/>
       <c r="Q317" s="1"/>
@@ -11815,11 +11870,11 @@
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
       <c r="I318" s="1"/>
-      <c r="J318" s="45"/>
-      <c r="K318" s="45"/>
-      <c r="L318" s="45"/>
-      <c r="M318" s="45"/>
-      <c r="N318" s="46"/>
+      <c r="J318" s="39"/>
+      <c r="K318" s="39"/>
+      <c r="L318" s="39"/>
+      <c r="M318" s="39"/>
+      <c r="N318" s="40"/>
       <c r="O318" s="1"/>
       <c r="P318" s="1"/>
       <c r="Q318" s="1"/>
@@ -11838,11 +11893,11 @@
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
       <c r="I319" s="1"/>
-      <c r="J319" s="45"/>
-      <c r="K319" s="45"/>
-      <c r="L319" s="45"/>
-      <c r="M319" s="45"/>
-      <c r="N319" s="46"/>
+      <c r="J319" s="39"/>
+      <c r="K319" s="39"/>
+      <c r="L319" s="39"/>
+      <c r="M319" s="39"/>
+      <c r="N319" s="40"/>
       <c r="O319" s="1"/>
       <c r="P319" s="1"/>
       <c r="Q319" s="1"/>
@@ -11861,11 +11916,11 @@
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
       <c r="I320" s="1"/>
-      <c r="J320" s="45"/>
-      <c r="K320" s="45"/>
-      <c r="L320" s="45"/>
-      <c r="M320" s="45"/>
-      <c r="N320" s="46"/>
+      <c r="J320" s="39"/>
+      <c r="K320" s="39"/>
+      <c r="L320" s="39"/>
+      <c r="M320" s="39"/>
+      <c r="N320" s="40"/>
       <c r="O320" s="1"/>
       <c r="P320" s="1"/>
       <c r="Q320" s="1"/>
@@ -11884,11 +11939,11 @@
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
       <c r="I321" s="1"/>
-      <c r="J321" s="45"/>
-      <c r="K321" s="45"/>
-      <c r="L321" s="45"/>
-      <c r="M321" s="45"/>
-      <c r="N321" s="46"/>
+      <c r="J321" s="39"/>
+      <c r="K321" s="39"/>
+      <c r="L321" s="39"/>
+      <c r="M321" s="39"/>
+      <c r="N321" s="40"/>
       <c r="O321" s="1"/>
       <c r="P321" s="1"/>
       <c r="Q321" s="1"/>
@@ -11907,11 +11962,11 @@
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
       <c r="I322" s="1"/>
-      <c r="J322" s="45"/>
-      <c r="K322" s="45"/>
-      <c r="L322" s="45"/>
-      <c r="M322" s="45"/>
-      <c r="N322" s="46"/>
+      <c r="J322" s="39"/>
+      <c r="K322" s="39"/>
+      <c r="L322" s="39"/>
+      <c r="M322" s="39"/>
+      <c r="N322" s="40"/>
       <c r="O322" s="1"/>
       <c r="P322" s="1"/>
       <c r="Q322" s="1"/>
@@ -11930,11 +11985,11 @@
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
       <c r="I323" s="1"/>
-      <c r="J323" s="45"/>
-      <c r="K323" s="45"/>
-      <c r="L323" s="45"/>
-      <c r="M323" s="45"/>
-      <c r="N323" s="46"/>
+      <c r="J323" s="39"/>
+      <c r="K323" s="39"/>
+      <c r="L323" s="39"/>
+      <c r="M323" s="39"/>
+      <c r="N323" s="40"/>
       <c r="O323" s="1"/>
       <c r="P323" s="1"/>
       <c r="Q323" s="1"/>
@@ -11953,11 +12008,11 @@
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
       <c r="I324" s="1"/>
-      <c r="J324" s="45"/>
-      <c r="K324" s="45"/>
-      <c r="L324" s="45"/>
-      <c r="M324" s="45"/>
-      <c r="N324" s="46"/>
+      <c r="J324" s="39"/>
+      <c r="K324" s="39"/>
+      <c r="L324" s="39"/>
+      <c r="M324" s="39"/>
+      <c r="N324" s="40"/>
       <c r="O324" s="1"/>
       <c r="P324" s="1"/>
       <c r="Q324" s="1"/>
@@ -11976,11 +12031,11 @@
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
       <c r="I325" s="1"/>
-      <c r="J325" s="45"/>
-      <c r="K325" s="45"/>
-      <c r="L325" s="45"/>
-      <c r="M325" s="45"/>
-      <c r="N325" s="46"/>
+      <c r="J325" s="39"/>
+      <c r="K325" s="39"/>
+      <c r="L325" s="39"/>
+      <c r="M325" s="39"/>
+      <c r="N325" s="40"/>
       <c r="O325" s="1"/>
       <c r="P325" s="1"/>
       <c r="Q325" s="1"/>
@@ -11999,11 +12054,11 @@
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
       <c r="I326" s="1"/>
-      <c r="J326" s="45"/>
-      <c r="K326" s="45"/>
-      <c r="L326" s="45"/>
-      <c r="M326" s="45"/>
-      <c r="N326" s="46"/>
+      <c r="J326" s="39"/>
+      <c r="K326" s="39"/>
+      <c r="L326" s="39"/>
+      <c r="M326" s="39"/>
+      <c r="N326" s="40"/>
       <c r="O326" s="1"/>
       <c r="P326" s="1"/>
       <c r="Q326" s="1"/>
@@ -12022,11 +12077,11 @@
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
       <c r="I327" s="1"/>
-      <c r="J327" s="45"/>
-      <c r="K327" s="45"/>
-      <c r="L327" s="45"/>
-      <c r="M327" s="45"/>
-      <c r="N327" s="46"/>
+      <c r="J327" s="39"/>
+      <c r="K327" s="39"/>
+      <c r="L327" s="39"/>
+      <c r="M327" s="39"/>
+      <c r="N327" s="40"/>
       <c r="O327" s="1"/>
       <c r="P327" s="1"/>
       <c r="Q327" s="1"/>
@@ -12045,11 +12100,11 @@
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
       <c r="I328" s="1"/>
-      <c r="J328" s="45"/>
-      <c r="K328" s="45"/>
-      <c r="L328" s="45"/>
-      <c r="M328" s="45"/>
-      <c r="N328" s="46"/>
+      <c r="J328" s="39"/>
+      <c r="K328" s="39"/>
+      <c r="L328" s="39"/>
+      <c r="M328" s="39"/>
+      <c r="N328" s="40"/>
       <c r="O328" s="1"/>
       <c r="P328" s="1"/>
       <c r="Q328" s="1"/>
@@ -12068,11 +12123,11 @@
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
       <c r="I329" s="1"/>
-      <c r="J329" s="45"/>
-      <c r="K329" s="45"/>
-      <c r="L329" s="45"/>
-      <c r="M329" s="45"/>
-      <c r="N329" s="46"/>
+      <c r="J329" s="39"/>
+      <c r="K329" s="39"/>
+      <c r="L329" s="39"/>
+      <c r="M329" s="39"/>
+      <c r="N329" s="40"/>
       <c r="O329" s="1"/>
       <c r="P329" s="1"/>
       <c r="Q329" s="1"/>
@@ -12091,11 +12146,11 @@
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
       <c r="I330" s="1"/>
-      <c r="J330" s="45"/>
-      <c r="K330" s="45"/>
-      <c r="L330" s="45"/>
-      <c r="M330" s="45"/>
-      <c r="N330" s="46"/>
+      <c r="J330" s="39"/>
+      <c r="K330" s="39"/>
+      <c r="L330" s="39"/>
+      <c r="M330" s="39"/>
+      <c r="N330" s="40"/>
       <c r="O330" s="1"/>
       <c r="P330" s="1"/>
       <c r="Q330" s="1"/>
@@ -12114,11 +12169,11 @@
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
       <c r="I331" s="1"/>
-      <c r="J331" s="45"/>
-      <c r="K331" s="45"/>
-      <c r="L331" s="45"/>
-      <c r="M331" s="45"/>
-      <c r="N331" s="46"/>
+      <c r="J331" s="39"/>
+      <c r="K331" s="39"/>
+      <c r="L331" s="39"/>
+      <c r="M331" s="39"/>
+      <c r="N331" s="40"/>
       <c r="O331" s="1"/>
       <c r="P331" s="1"/>
       <c r="Q331" s="1"/>
@@ -12137,11 +12192,11 @@
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
       <c r="I332" s="1"/>
-      <c r="J332" s="45"/>
-      <c r="K332" s="45"/>
-      <c r="L332" s="45"/>
-      <c r="M332" s="45"/>
-      <c r="N332" s="46"/>
+      <c r="J332" s="39"/>
+      <c r="K332" s="39"/>
+      <c r="L332" s="39"/>
+      <c r="M332" s="39"/>
+      <c r="N332" s="40"/>
       <c r="O332" s="1"/>
       <c r="P332" s="1"/>
       <c r="Q332" s="1"/>
@@ -12160,11 +12215,11 @@
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
       <c r="I333" s="1"/>
-      <c r="J333" s="45"/>
-      <c r="K333" s="45"/>
-      <c r="L333" s="45"/>
-      <c r="M333" s="45"/>
-      <c r="N333" s="46"/>
+      <c r="J333" s="39"/>
+      <c r="K333" s="39"/>
+      <c r="L333" s="39"/>
+      <c r="M333" s="39"/>
+      <c r="N333" s="40"/>
       <c r="O333" s="1"/>
       <c r="P333" s="1"/>
       <c r="Q333" s="1"/>
@@ -12183,11 +12238,11 @@
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
       <c r="I334" s="1"/>
-      <c r="J334" s="45"/>
-      <c r="K334" s="45"/>
-      <c r="L334" s="45"/>
-      <c r="M334" s="45"/>
-      <c r="N334" s="46"/>
+      <c r="J334" s="39"/>
+      <c r="K334" s="39"/>
+      <c r="L334" s="39"/>
+      <c r="M334" s="39"/>
+      <c r="N334" s="40"/>
       <c r="O334" s="1"/>
       <c r="P334" s="1"/>
       <c r="Q334" s="1"/>
@@ -12206,11 +12261,11 @@
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
       <c r="I335" s="1"/>
-      <c r="J335" s="45"/>
-      <c r="K335" s="45"/>
-      <c r="L335" s="45"/>
-      <c r="M335" s="45"/>
-      <c r="N335" s="46"/>
+      <c r="J335" s="39"/>
+      <c r="K335" s="39"/>
+      <c r="L335" s="39"/>
+      <c r="M335" s="39"/>
+      <c r="N335" s="40"/>
       <c r="O335" s="1"/>
       <c r="P335" s="1"/>
       <c r="Q335" s="1"/>
@@ -12229,11 +12284,11 @@
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
       <c r="I336" s="1"/>
-      <c r="J336" s="45"/>
-      <c r="K336" s="45"/>
-      <c r="L336" s="45"/>
-      <c r="M336" s="45"/>
-      <c r="N336" s="46"/>
+      <c r="J336" s="39"/>
+      <c r="K336" s="39"/>
+      <c r="L336" s="39"/>
+      <c r="M336" s="39"/>
+      <c r="N336" s="40"/>
       <c r="O336" s="1"/>
       <c r="P336" s="1"/>
       <c r="Q336" s="1"/>
@@ -12252,11 +12307,11 @@
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
       <c r="I337" s="1"/>
-      <c r="J337" s="45"/>
-      <c r="K337" s="45"/>
-      <c r="L337" s="45"/>
-      <c r="M337" s="45"/>
-      <c r="N337" s="46"/>
+      <c r="J337" s="39"/>
+      <c r="K337" s="39"/>
+      <c r="L337" s="39"/>
+      <c r="M337" s="39"/>
+      <c r="N337" s="40"/>
       <c r="O337" s="1"/>
       <c r="P337" s="1"/>
       <c r="Q337" s="1"/>
@@ -12275,11 +12330,11 @@
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
       <c r="I338" s="1"/>
-      <c r="J338" s="45"/>
-      <c r="K338" s="45"/>
-      <c r="L338" s="45"/>
-      <c r="M338" s="45"/>
-      <c r="N338" s="46"/>
+      <c r="J338" s="39"/>
+      <c r="K338" s="39"/>
+      <c r="L338" s="39"/>
+      <c r="M338" s="39"/>
+      <c r="N338" s="40"/>
       <c r="O338" s="1"/>
       <c r="P338" s="1"/>
       <c r="Q338" s="1"/>
@@ -12298,11 +12353,11 @@
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
       <c r="I339" s="1"/>
-      <c r="J339" s="45"/>
-      <c r="K339" s="45"/>
-      <c r="L339" s="45"/>
-      <c r="M339" s="45"/>
-      <c r="N339" s="46"/>
+      <c r="J339" s="39"/>
+      <c r="K339" s="39"/>
+      <c r="L339" s="39"/>
+      <c r="M339" s="39"/>
+      <c r="N339" s="40"/>
       <c r="O339" s="1"/>
       <c r="P339" s="1"/>
       <c r="Q339" s="1"/>
@@ -12321,11 +12376,11 @@
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
       <c r="I340" s="1"/>
-      <c r="J340" s="45"/>
-      <c r="K340" s="45"/>
-      <c r="L340" s="45"/>
-      <c r="M340" s="45"/>
-      <c r="N340" s="46"/>
+      <c r="J340" s="39"/>
+      <c r="K340" s="39"/>
+      <c r="L340" s="39"/>
+      <c r="M340" s="39"/>
+      <c r="N340" s="40"/>
       <c r="O340" s="1"/>
       <c r="P340" s="1"/>
       <c r="Q340" s="1"/>
@@ -12344,11 +12399,11 @@
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
       <c r="I341" s="1"/>
-      <c r="J341" s="45"/>
-      <c r="K341" s="45"/>
-      <c r="L341" s="45"/>
-      <c r="M341" s="45"/>
-      <c r="N341" s="46"/>
+      <c r="J341" s="39"/>
+      <c r="K341" s="39"/>
+      <c r="L341" s="39"/>
+      <c r="M341" s="39"/>
+      <c r="N341" s="40"/>
       <c r="O341" s="1"/>
       <c r="P341" s="1"/>
       <c r="Q341" s="1"/>
@@ -12367,11 +12422,11 @@
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
       <c r="I342" s="1"/>
-      <c r="J342" s="45"/>
-      <c r="K342" s="45"/>
-      <c r="L342" s="45"/>
-      <c r="M342" s="45"/>
-      <c r="N342" s="46"/>
+      <c r="J342" s="39"/>
+      <c r="K342" s="39"/>
+      <c r="L342" s="39"/>
+      <c r="M342" s="39"/>
+      <c r="N342" s="40"/>
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
       <c r="Q342" s="1"/>
@@ -12390,11 +12445,11 @@
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
       <c r="I343" s="1"/>
-      <c r="J343" s="45"/>
-      <c r="K343" s="45"/>
-      <c r="L343" s="45"/>
-      <c r="M343" s="45"/>
-      <c r="N343" s="46"/>
+      <c r="J343" s="39"/>
+      <c r="K343" s="39"/>
+      <c r="L343" s="39"/>
+      <c r="M343" s="39"/>
+      <c r="N343" s="40"/>
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
       <c r="Q343" s="1"/>
@@ -12413,11 +12468,11 @@
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
       <c r="I344" s="1"/>
-      <c r="J344" s="45"/>
-      <c r="K344" s="45"/>
-      <c r="L344" s="45"/>
-      <c r="M344" s="45"/>
-      <c r="N344" s="46"/>
+      <c r="J344" s="39"/>
+      <c r="K344" s="39"/>
+      <c r="L344" s="39"/>
+      <c r="M344" s="39"/>
+      <c r="N344" s="40"/>
       <c r="O344" s="1"/>
       <c r="P344" s="1"/>
       <c r="Q344" s="1"/>
@@ -12436,11 +12491,11 @@
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
       <c r="I345" s="1"/>
-      <c r="J345" s="45"/>
-      <c r="K345" s="45"/>
-      <c r="L345" s="45"/>
-      <c r="M345" s="45"/>
-      <c r="N345" s="46"/>
+      <c r="J345" s="39"/>
+      <c r="K345" s="39"/>
+      <c r="L345" s="39"/>
+      <c r="M345" s="39"/>
+      <c r="N345" s="40"/>
       <c r="O345" s="1"/>
       <c r="P345" s="1"/>
       <c r="Q345" s="1"/>
@@ -12459,11 +12514,11 @@
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
       <c r="I346" s="1"/>
-      <c r="J346" s="45"/>
-      <c r="K346" s="45"/>
-      <c r="L346" s="45"/>
-      <c r="M346" s="45"/>
-      <c r="N346" s="46"/>
+      <c r="J346" s="39"/>
+      <c r="K346" s="39"/>
+      <c r="L346" s="39"/>
+      <c r="M346" s="39"/>
+      <c r="N346" s="40"/>
       <c r="O346" s="1"/>
       <c r="P346" s="1"/>
       <c r="Q346" s="1"/>
@@ -12482,11 +12537,11 @@
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
       <c r="I347" s="1"/>
-      <c r="J347" s="45"/>
-      <c r="K347" s="45"/>
-      <c r="L347" s="45"/>
-      <c r="M347" s="45"/>
-      <c r="N347" s="46"/>
+      <c r="J347" s="39"/>
+      <c r="K347" s="39"/>
+      <c r="L347" s="39"/>
+      <c r="M347" s="39"/>
+      <c r="N347" s="40"/>
       <c r="O347" s="1"/>
       <c r="P347" s="1"/>
       <c r="Q347" s="1"/>
@@ -12505,11 +12560,11 @@
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
       <c r="I348" s="1"/>
-      <c r="J348" s="45"/>
-      <c r="K348" s="45"/>
-      <c r="L348" s="45"/>
-      <c r="M348" s="45"/>
-      <c r="N348" s="46"/>
+      <c r="J348" s="39"/>
+      <c r="K348" s="39"/>
+      <c r="L348" s="39"/>
+      <c r="M348" s="39"/>
+      <c r="N348" s="40"/>
       <c r="O348" s="1"/>
       <c r="P348" s="1"/>
       <c r="Q348" s="1"/>
@@ -12528,11 +12583,11 @@
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
       <c r="I349" s="1"/>
-      <c r="J349" s="45"/>
-      <c r="K349" s="45"/>
-      <c r="L349" s="45"/>
-      <c r="M349" s="45"/>
-      <c r="N349" s="46"/>
+      <c r="J349" s="39"/>
+      <c r="K349" s="39"/>
+      <c r="L349" s="39"/>
+      <c r="M349" s="39"/>
+      <c r="N349" s="40"/>
       <c r="O349" s="1"/>
       <c r="P349" s="1"/>
       <c r="Q349" s="1"/>
@@ -12551,11 +12606,11 @@
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
       <c r="I350" s="1"/>
-      <c r="J350" s="45"/>
-      <c r="K350" s="45"/>
-      <c r="L350" s="45"/>
-      <c r="M350" s="45"/>
-      <c r="N350" s="46"/>
+      <c r="J350" s="39"/>
+      <c r="K350" s="39"/>
+      <c r="L350" s="39"/>
+      <c r="M350" s="39"/>
+      <c r="N350" s="40"/>
       <c r="O350" s="1"/>
       <c r="P350" s="1"/>
       <c r="Q350" s="1"/>
@@ -12574,11 +12629,11 @@
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
       <c r="I351" s="1"/>
-      <c r="J351" s="45"/>
-      <c r="K351" s="45"/>
-      <c r="L351" s="45"/>
-      <c r="M351" s="45"/>
-      <c r="N351" s="46"/>
+      <c r="J351" s="39"/>
+      <c r="K351" s="39"/>
+      <c r="L351" s="39"/>
+      <c r="M351" s="39"/>
+      <c r="N351" s="40"/>
       <c r="O351" s="1"/>
       <c r="P351" s="1"/>
       <c r="Q351" s="1"/>
@@ -12597,11 +12652,11 @@
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
       <c r="I352" s="1"/>
-      <c r="J352" s="45"/>
-      <c r="K352" s="45"/>
-      <c r="L352" s="45"/>
-      <c r="M352" s="45"/>
-      <c r="N352" s="46"/>
+      <c r="J352" s="39"/>
+      <c r="K352" s="39"/>
+      <c r="L352" s="39"/>
+      <c r="M352" s="39"/>
+      <c r="N352" s="40"/>
       <c r="O352" s="1"/>
       <c r="P352" s="1"/>
       <c r="Q352" s="1"/>
@@ -12620,11 +12675,11 @@
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
       <c r="I353" s="1"/>
-      <c r="J353" s="45"/>
-      <c r="K353" s="45"/>
-      <c r="L353" s="45"/>
-      <c r="M353" s="45"/>
-      <c r="N353" s="46"/>
+      <c r="J353" s="39"/>
+      <c r="K353" s="39"/>
+      <c r="L353" s="39"/>
+      <c r="M353" s="39"/>
+      <c r="N353" s="40"/>
       <c r="O353" s="1"/>
       <c r="P353" s="1"/>
       <c r="Q353" s="1"/>
@@ -12643,11 +12698,11 @@
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
       <c r="I354" s="1"/>
-      <c r="J354" s="45"/>
-      <c r="K354" s="45"/>
-      <c r="L354" s="45"/>
-      <c r="M354" s="45"/>
-      <c r="N354" s="46"/>
+      <c r="J354" s="39"/>
+      <c r="K354" s="39"/>
+      <c r="L354" s="39"/>
+      <c r="M354" s="39"/>
+      <c r="N354" s="40"/>
       <c r="O354" s="1"/>
       <c r="P354" s="1"/>
       <c r="Q354" s="1"/>
@@ -12666,11 +12721,11 @@
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
       <c r="I355" s="1"/>
-      <c r="J355" s="45"/>
-      <c r="K355" s="45"/>
-      <c r="L355" s="45"/>
-      <c r="M355" s="45"/>
-      <c r="N355" s="46"/>
+      <c r="J355" s="39"/>
+      <c r="K355" s="39"/>
+      <c r="L355" s="39"/>
+      <c r="M355" s="39"/>
+      <c r="N355" s="40"/>
       <c r="O355" s="1"/>
       <c r="P355" s="1"/>
       <c r="Q355" s="1"/>
@@ -12689,11 +12744,11 @@
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
       <c r="I356" s="1"/>
-      <c r="J356" s="45"/>
-      <c r="K356" s="45"/>
-      <c r="L356" s="45"/>
-      <c r="M356" s="45"/>
-      <c r="N356" s="46"/>
+      <c r="J356" s="39"/>
+      <c r="K356" s="39"/>
+      <c r="L356" s="39"/>
+      <c r="M356" s="39"/>
+      <c r="N356" s="40"/>
       <c r="O356" s="1"/>
       <c r="P356" s="1"/>
       <c r="Q356" s="1"/>
@@ -12712,11 +12767,11 @@
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
       <c r="I357" s="1"/>
-      <c r="J357" s="45"/>
-      <c r="K357" s="45"/>
-      <c r="L357" s="45"/>
-      <c r="M357" s="45"/>
-      <c r="N357" s="46"/>
+      <c r="J357" s="39"/>
+      <c r="K357" s="39"/>
+      <c r="L357" s="39"/>
+      <c r="M357" s="39"/>
+      <c r="N357" s="40"/>
       <c r="O357" s="1"/>
       <c r="P357" s="1"/>
       <c r="Q357" s="1"/>
@@ -12735,11 +12790,11 @@
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
       <c r="I358" s="1"/>
-      <c r="J358" s="45"/>
-      <c r="K358" s="45"/>
-      <c r="L358" s="45"/>
-      <c r="M358" s="45"/>
-      <c r="N358" s="46"/>
+      <c r="J358" s="39"/>
+      <c r="K358" s="39"/>
+      <c r="L358" s="39"/>
+      <c r="M358" s="39"/>
+      <c r="N358" s="40"/>
       <c r="O358" s="1"/>
       <c r="P358" s="1"/>
       <c r="Q358" s="1"/>
@@ -12758,11 +12813,11 @@
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
       <c r="I359" s="1"/>
-      <c r="J359" s="45"/>
-      <c r="K359" s="45"/>
-      <c r="L359" s="45"/>
-      <c r="M359" s="45"/>
-      <c r="N359" s="46"/>
+      <c r="J359" s="39"/>
+      <c r="K359" s="39"/>
+      <c r="L359" s="39"/>
+      <c r="M359" s="39"/>
+      <c r="N359" s="40"/>
       <c r="O359" s="1"/>
       <c r="P359" s="1"/>
       <c r="Q359" s="1"/>
@@ -12781,11 +12836,11 @@
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
       <c r="I360" s="1"/>
-      <c r="J360" s="45"/>
-      <c r="K360" s="45"/>
-      <c r="L360" s="45"/>
-      <c r="M360" s="45"/>
-      <c r="N360" s="46"/>
+      <c r="J360" s="39"/>
+      <c r="K360" s="39"/>
+      <c r="L360" s="39"/>
+      <c r="M360" s="39"/>
+      <c r="N360" s="40"/>
       <c r="O360" s="1"/>
       <c r="P360" s="1"/>
       <c r="Q360" s="1"/>
@@ -12804,11 +12859,11 @@
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
       <c r="I361" s="1"/>
-      <c r="J361" s="45"/>
-      <c r="K361" s="45"/>
-      <c r="L361" s="45"/>
-      <c r="M361" s="45"/>
-      <c r="N361" s="46"/>
+      <c r="J361" s="39"/>
+      <c r="K361" s="39"/>
+      <c r="L361" s="39"/>
+      <c r="M361" s="39"/>
+      <c r="N361" s="40"/>
       <c r="O361" s="1"/>
       <c r="P361" s="1"/>
       <c r="Q361" s="1"/>
@@ -12827,11 +12882,11 @@
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
       <c r="I362" s="1"/>
-      <c r="J362" s="45"/>
-      <c r="K362" s="45"/>
-      <c r="L362" s="45"/>
-      <c r="M362" s="45"/>
-      <c r="N362" s="46"/>
+      <c r="J362" s="39"/>
+      <c r="K362" s="39"/>
+      <c r="L362" s="39"/>
+      <c r="M362" s="39"/>
+      <c r="N362" s="40"/>
       <c r="O362" s="1"/>
       <c r="P362" s="1"/>
       <c r="Q362" s="1"/>
@@ -12850,11 +12905,11 @@
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
       <c r="I363" s="1"/>
-      <c r="J363" s="45"/>
-      <c r="K363" s="45"/>
-      <c r="L363" s="45"/>
-      <c r="M363" s="45"/>
-      <c r="N363" s="46"/>
+      <c r="J363" s="39"/>
+      <c r="K363" s="39"/>
+      <c r="L363" s="39"/>
+      <c r="M363" s="39"/>
+      <c r="N363" s="40"/>
       <c r="O363" s="1"/>
       <c r="P363" s="1"/>
       <c r="Q363" s="1"/>
@@ -12873,11 +12928,11 @@
       <c r="F364" s="1"/>
       <c r="G364" s="1"/>
       <c r="I364" s="1"/>
-      <c r="J364" s="45"/>
-      <c r="K364" s="45"/>
-      <c r="L364" s="45"/>
-      <c r="M364" s="45"/>
-      <c r="N364" s="46"/>
+      <c r="J364" s="39"/>
+      <c r="K364" s="39"/>
+      <c r="L364" s="39"/>
+      <c r="M364" s="39"/>
+      <c r="N364" s="40"/>
       <c r="O364" s="1"/>
       <c r="P364" s="1"/>
       <c r="Q364" s="1"/>
@@ -12896,11 +12951,11 @@
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
       <c r="I365" s="1"/>
-      <c r="J365" s="45"/>
-      <c r="K365" s="45"/>
-      <c r="L365" s="45"/>
-      <c r="M365" s="45"/>
-      <c r="N365" s="46"/>
+      <c r="J365" s="39"/>
+      <c r="K365" s="39"/>
+      <c r="L365" s="39"/>
+      <c r="M365" s="39"/>
+      <c r="N365" s="40"/>
       <c r="O365" s="1"/>
       <c r="P365" s="1"/>
       <c r="Q365" s="1"/>
@@ -12919,11 +12974,11 @@
       <c r="F366" s="1"/>
       <c r="G366" s="1"/>
       <c r="I366" s="1"/>
-      <c r="J366" s="45"/>
-      <c r="K366" s="45"/>
-      <c r="L366" s="45"/>
-      <c r="M366" s="45"/>
-      <c r="N366" s="46"/>
+      <c r="J366" s="39"/>
+      <c r="K366" s="39"/>
+      <c r="L366" s="39"/>
+      <c r="M366" s="39"/>
+      <c r="N366" s="40"/>
       <c r="O366" s="1"/>
       <c r="P366" s="1"/>
       <c r="Q366" s="1"/>
@@ -12942,11 +12997,11 @@
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
       <c r="I367" s="1"/>
-      <c r="J367" s="45"/>
-      <c r="K367" s="45"/>
-      <c r="L367" s="45"/>
-      <c r="M367" s="45"/>
-      <c r="N367" s="46"/>
+      <c r="J367" s="39"/>
+      <c r="K367" s="39"/>
+      <c r="L367" s="39"/>
+      <c r="M367" s="39"/>
+      <c r="N367" s="40"/>
       <c r="O367" s="1"/>
       <c r="P367" s="1"/>
       <c r="Q367" s="1"/>
@@ -12965,11 +13020,11 @@
       <c r="F368" s="1"/>
       <c r="G368" s="1"/>
       <c r="I368" s="1"/>
-      <c r="J368" s="45"/>
-      <c r="K368" s="45"/>
-      <c r="L368" s="45"/>
-      <c r="M368" s="45"/>
-      <c r="N368" s="46"/>
+      <c r="J368" s="39"/>
+      <c r="K368" s="39"/>
+      <c r="L368" s="39"/>
+      <c r="M368" s="39"/>
+      <c r="N368" s="40"/>
       <c r="O368" s="1"/>
       <c r="P368" s="1"/>
       <c r="Q368" s="1"/>
@@ -12988,11 +13043,11 @@
       <c r="F369" s="1"/>
       <c r="G369" s="1"/>
       <c r="I369" s="1"/>
-      <c r="J369" s="45"/>
-      <c r="K369" s="45"/>
-      <c r="L369" s="45"/>
-      <c r="M369" s="45"/>
-      <c r="N369" s="46"/>
+      <c r="J369" s="39"/>
+      <c r="K369" s="39"/>
+      <c r="L369" s="39"/>
+      <c r="M369" s="39"/>
+      <c r="N369" s="40"/>
       <c r="O369" s="1"/>
       <c r="P369" s="1"/>
       <c r="Q369" s="1"/>
@@ -13011,11 +13066,11 @@
       <c r="F370" s="1"/>
       <c r="G370" s="1"/>
       <c r="I370" s="1"/>
-      <c r="J370" s="45"/>
-      <c r="K370" s="45"/>
-      <c r="L370" s="45"/>
-      <c r="M370" s="45"/>
-      <c r="N370" s="46"/>
+      <c r="J370" s="39"/>
+      <c r="K370" s="39"/>
+      <c r="L370" s="39"/>
+      <c r="M370" s="39"/>
+      <c r="N370" s="40"/>
       <c r="O370" s="1"/>
       <c r="P370" s="1"/>
       <c r="Q370" s="1"/>
@@ -13034,11 +13089,11 @@
       <c r="F371" s="1"/>
       <c r="G371" s="1"/>
       <c r="I371" s="1"/>
-      <c r="J371" s="45"/>
-      <c r="K371" s="45"/>
-      <c r="L371" s="45"/>
-      <c r="M371" s="45"/>
-      <c r="N371" s="46"/>
+      <c r="J371" s="39"/>
+      <c r="K371" s="39"/>
+      <c r="L371" s="39"/>
+      <c r="M371" s="39"/>
+      <c r="N371" s="40"/>
       <c r="O371" s="1"/>
       <c r="P371" s="1"/>
       <c r="Q371" s="1"/>
@@ -13057,11 +13112,11 @@
       <c r="F372" s="1"/>
       <c r="G372" s="1"/>
       <c r="I372" s="1"/>
-      <c r="J372" s="45"/>
-      <c r="K372" s="45"/>
-      <c r="L372" s="45"/>
-      <c r="M372" s="45"/>
-      <c r="N372" s="46"/>
+      <c r="J372" s="39"/>
+      <c r="K372" s="39"/>
+      <c r="L372" s="39"/>
+      <c r="M372" s="39"/>
+      <c r="N372" s="40"/>
       <c r="O372" s="1"/>
       <c r="P372" s="1"/>
       <c r="Q372" s="1"/>
@@ -13080,11 +13135,11 @@
       <c r="F373" s="1"/>
       <c r="G373" s="1"/>
       <c r="I373" s="1"/>
-      <c r="J373" s="45"/>
-      <c r="K373" s="45"/>
-      <c r="L373" s="45"/>
-      <c r="M373" s="45"/>
-      <c r="N373" s="46"/>
+      <c r="J373" s="39"/>
+      <c r="K373" s="39"/>
+      <c r="L373" s="39"/>
+      <c r="M373" s="39"/>
+      <c r="N373" s="40"/>
       <c r="O373" s="1"/>
       <c r="P373" s="1"/>
       <c r="Q373" s="1"/>
@@ -13103,11 +13158,11 @@
       <c r="F374" s="1"/>
       <c r="G374" s="1"/>
       <c r="I374" s="1"/>
-      <c r="J374" s="45"/>
-      <c r="K374" s="45"/>
-      <c r="L374" s="45"/>
-      <c r="M374" s="45"/>
-      <c r="N374" s="46"/>
+      <c r="J374" s="39"/>
+      <c r="K374" s="39"/>
+      <c r="L374" s="39"/>
+      <c r="M374" s="39"/>
+      <c r="N374" s="40"/>
       <c r="O374" s="1"/>
       <c r="P374" s="1"/>
       <c r="Q374" s="1"/>
@@ -13126,11 +13181,11 @@
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
       <c r="I375" s="1"/>
-      <c r="J375" s="45"/>
-      <c r="K375" s="45"/>
-      <c r="L375" s="45"/>
-      <c r="M375" s="45"/>
-      <c r="N375" s="46"/>
+      <c r="J375" s="39"/>
+      <c r="K375" s="39"/>
+      <c r="L375" s="39"/>
+      <c r="M375" s="39"/>
+      <c r="N375" s="40"/>
       <c r="O375" s="1"/>
       <c r="P375" s="1"/>
       <c r="Q375" s="1"/>
@@ -13149,11 +13204,11 @@
       <c r="F376" s="1"/>
       <c r="G376" s="1"/>
       <c r="I376" s="1"/>
-      <c r="J376" s="45"/>
-      <c r="K376" s="45"/>
-      <c r="L376" s="45"/>
-      <c r="M376" s="45"/>
-      <c r="N376" s="46"/>
+      <c r="J376" s="39"/>
+      <c r="K376" s="39"/>
+      <c r="L376" s="39"/>
+      <c r="M376" s="39"/>
+      <c r="N376" s="40"/>
       <c r="O376" s="1"/>
       <c r="P376" s="1"/>
       <c r="Q376" s="1"/>
@@ -13172,11 +13227,11 @@
       <c r="F377" s="1"/>
       <c r="G377" s="1"/>
       <c r="I377" s="1"/>
-      <c r="J377" s="45"/>
-      <c r="K377" s="45"/>
-      <c r="L377" s="45"/>
-      <c r="M377" s="45"/>
-      <c r="N377" s="46"/>
+      <c r="J377" s="39"/>
+      <c r="K377" s="39"/>
+      <c r="L377" s="39"/>
+      <c r="M377" s="39"/>
+      <c r="N377" s="40"/>
       <c r="O377" s="1"/>
       <c r="P377" s="1"/>
       <c r="Q377" s="1"/>
@@ -13195,11 +13250,11 @@
       <c r="F378" s="1"/>
       <c r="G378" s="1"/>
       <c r="I378" s="1"/>
-      <c r="J378" s="45"/>
-      <c r="K378" s="45"/>
-      <c r="L378" s="45"/>
-      <c r="M378" s="45"/>
-      <c r="N378" s="46"/>
+      <c r="J378" s="39"/>
+      <c r="K378" s="39"/>
+      <c r="L378" s="39"/>
+      <c r="M378" s="39"/>
+      <c r="N378" s="40"/>
       <c r="O378" s="1"/>
       <c r="P378" s="1"/>
       <c r="Q378" s="1"/>
@@ -13218,11 +13273,11 @@
       <c r="F379" s="1"/>
       <c r="G379" s="1"/>
       <c r="I379" s="1"/>
-      <c r="J379" s="45"/>
-      <c r="K379" s="45"/>
-      <c r="L379" s="45"/>
-      <c r="M379" s="45"/>
-      <c r="N379" s="46"/>
+      <c r="J379" s="39"/>
+      <c r="K379" s="39"/>
+      <c r="L379" s="39"/>
+      <c r="M379" s="39"/>
+      <c r="N379" s="40"/>
       <c r="O379" s="1"/>
       <c r="P379" s="1"/>
       <c r="Q379" s="1"/>
@@ -13241,11 +13296,11 @@
       <c r="F380" s="1"/>
       <c r="G380" s="1"/>
       <c r="I380" s="1"/>
-      <c r="J380" s="45"/>
-      <c r="K380" s="45"/>
-      <c r="L380" s="45"/>
-      <c r="M380" s="45"/>
-      <c r="N380" s="46"/>
+      <c r="J380" s="39"/>
+      <c r="K380" s="39"/>
+      <c r="L380" s="39"/>
+      <c r="M380" s="39"/>
+      <c r="N380" s="40"/>
       <c r="O380" s="1"/>
       <c r="P380" s="1"/>
       <c r="Q380" s="1"/>
@@ -13264,11 +13319,11 @@
       <c r="F381" s="1"/>
       <c r="G381" s="1"/>
       <c r="I381" s="1"/>
-      <c r="J381" s="45"/>
-      <c r="K381" s="45"/>
-      <c r="L381" s="45"/>
-      <c r="M381" s="45"/>
-      <c r="N381" s="46"/>
+      <c r="J381" s="39"/>
+      <c r="K381" s="39"/>
+      <c r="L381" s="39"/>
+      <c r="M381" s="39"/>
+      <c r="N381" s="40"/>
       <c r="O381" s="1"/>
       <c r="P381" s="1"/>
       <c r="Q381" s="1"/>
@@ -13287,11 +13342,11 @@
       <c r="F382" s="1"/>
       <c r="G382" s="1"/>
       <c r="I382" s="1"/>
-      <c r="J382" s="45"/>
-      <c r="K382" s="45"/>
-      <c r="L382" s="45"/>
-      <c r="M382" s="45"/>
-      <c r="N382" s="46"/>
+      <c r="J382" s="39"/>
+      <c r="K382" s="39"/>
+      <c r="L382" s="39"/>
+      <c r="M382" s="39"/>
+      <c r="N382" s="40"/>
       <c r="O382" s="1"/>
       <c r="P382" s="1"/>
       <c r="Q382" s="1"/>
@@ -13310,11 +13365,11 @@
       <c r="F383" s="1"/>
       <c r="G383" s="1"/>
       <c r="I383" s="1"/>
-      <c r="J383" s="45"/>
-      <c r="K383" s="45"/>
-      <c r="L383" s="45"/>
-      <c r="M383" s="45"/>
-      <c r="N383" s="46"/>
+      <c r="J383" s="39"/>
+      <c r="K383" s="39"/>
+      <c r="L383" s="39"/>
+      <c r="M383" s="39"/>
+      <c r="N383" s="40"/>
       <c r="O383" s="1"/>
       <c r="P383" s="1"/>
       <c r="Q383" s="1"/>
@@ -13333,11 +13388,11 @@
       <c r="F384" s="1"/>
       <c r="G384" s="1"/>
       <c r="I384" s="1"/>
-      <c r="J384" s="45"/>
-      <c r="K384" s="45"/>
-      <c r="L384" s="45"/>
-      <c r="M384" s="45"/>
-      <c r="N384" s="46"/>
+      <c r="J384" s="39"/>
+      <c r="K384" s="39"/>
+      <c r="L384" s="39"/>
+      <c r="M384" s="39"/>
+      <c r="N384" s="40"/>
       <c r="O384" s="1"/>
       <c r="P384" s="1"/>
       <c r="Q384" s="1"/>
@@ -13356,11 +13411,11 @@
       <c r="F385" s="1"/>
       <c r="G385" s="1"/>
       <c r="I385" s="1"/>
-      <c r="J385" s="45"/>
-      <c r="K385" s="45"/>
-      <c r="L385" s="45"/>
-      <c r="M385" s="45"/>
-      <c r="N385" s="46"/>
+      <c r="J385" s="39"/>
+      <c r="K385" s="39"/>
+      <c r="L385" s="39"/>
+      <c r="M385" s="39"/>
+      <c r="N385" s="40"/>
       <c r="O385" s="1"/>
       <c r="P385" s="1"/>
       <c r="Q385" s="1"/>
@@ -13379,11 +13434,11 @@
       <c r="F386" s="1"/>
       <c r="G386" s="1"/>
       <c r="I386" s="1"/>
-      <c r="J386" s="45"/>
-      <c r="K386" s="45"/>
-      <c r="L386" s="45"/>
-      <c r="M386" s="45"/>
-      <c r="N386" s="46"/>
+      <c r="J386" s="39"/>
+      <c r="K386" s="39"/>
+      <c r="L386" s="39"/>
+      <c r="M386" s="39"/>
+      <c r="N386" s="40"/>
       <c r="O386" s="1"/>
       <c r="P386" s="1"/>
       <c r="Q386" s="1"/>
@@ -13402,11 +13457,11 @@
       <c r="F387" s="1"/>
       <c r="G387" s="1"/>
       <c r="I387" s="1"/>
-      <c r="J387" s="45"/>
-      <c r="K387" s="45"/>
-      <c r="L387" s="45"/>
-      <c r="M387" s="45"/>
-      <c r="N387" s="46"/>
+      <c r="J387" s="39"/>
+      <c r="K387" s="39"/>
+      <c r="L387" s="39"/>
+      <c r="M387" s="39"/>
+      <c r="N387" s="40"/>
       <c r="O387" s="1"/>
       <c r="P387" s="1"/>
       <c r="Q387" s="1"/>
@@ -13425,11 +13480,11 @@
       <c r="F388" s="1"/>
       <c r="G388" s="1"/>
       <c r="I388" s="1"/>
-      <c r="J388" s="45"/>
-      <c r="K388" s="45"/>
-      <c r="L388" s="45"/>
-      <c r="M388" s="45"/>
-      <c r="N388" s="46"/>
+      <c r="J388" s="39"/>
+      <c r="K388" s="39"/>
+      <c r="L388" s="39"/>
+      <c r="M388" s="39"/>
+      <c r="N388" s="40"/>
       <c r="O388" s="1"/>
       <c r="P388" s="1"/>
       <c r="Q388" s="1"/>
@@ -13448,11 +13503,11 @@
       <c r="F389" s="1"/>
       <c r="G389" s="1"/>
       <c r="I389" s="1"/>
-      <c r="J389" s="45"/>
-      <c r="K389" s="45"/>
-      <c r="L389" s="45"/>
-      <c r="M389" s="45"/>
-      <c r="N389" s="46"/>
+      <c r="J389" s="39"/>
+      <c r="K389" s="39"/>
+      <c r="L389" s="39"/>
+      <c r="M389" s="39"/>
+      <c r="N389" s="40"/>
       <c r="O389" s="1"/>
       <c r="P389" s="1"/>
       <c r="Q389" s="1"/>
@@ -13471,11 +13526,11 @@
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
       <c r="I390" s="1"/>
-      <c r="J390" s="45"/>
-      <c r="K390" s="45"/>
-      <c r="L390" s="45"/>
-      <c r="M390" s="45"/>
-      <c r="N390" s="46"/>
+      <c r="J390" s="39"/>
+      <c r="K390" s="39"/>
+      <c r="L390" s="39"/>
+      <c r="M390" s="39"/>
+      <c r="N390" s="40"/>
       <c r="O390" s="1"/>
       <c r="P390" s="1"/>
       <c r="Q390" s="1"/>
@@ -13494,11 +13549,11 @@
       <c r="F391" s="1"/>
       <c r="G391" s="1"/>
       <c r="I391" s="1"/>
-      <c r="J391" s="45"/>
-      <c r="K391" s="45"/>
-      <c r="L391" s="45"/>
-      <c r="M391" s="45"/>
-      <c r="N391" s="46"/>
+      <c r="J391" s="39"/>
+      <c r="K391" s="39"/>
+      <c r="L391" s="39"/>
+      <c r="M391" s="39"/>
+      <c r="N391" s="40"/>
       <c r="O391" s="1"/>
       <c r="P391" s="1"/>
       <c r="Q391" s="1"/>
@@ -13517,11 +13572,11 @@
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
       <c r="I392" s="1"/>
-      <c r="J392" s="45"/>
-      <c r="K392" s="45"/>
-      <c r="L392" s="45"/>
-      <c r="M392" s="45"/>
-      <c r="N392" s="46"/>
+      <c r="J392" s="39"/>
+      <c r="K392" s="39"/>
+      <c r="L392" s="39"/>
+      <c r="M392" s="39"/>
+      <c r="N392" s="40"/>
       <c r="O392" s="1"/>
       <c r="P392" s="1"/>
       <c r="Q392" s="1"/>
@@ -13540,11 +13595,11 @@
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
       <c r="I393" s="1"/>
-      <c r="J393" s="45"/>
-      <c r="K393" s="45"/>
-      <c r="L393" s="45"/>
-      <c r="M393" s="45"/>
-      <c r="N393" s="46"/>
+      <c r="J393" s="39"/>
+      <c r="K393" s="39"/>
+      <c r="L393" s="39"/>
+      <c r="M393" s="39"/>
+      <c r="N393" s="40"/>
       <c r="O393" s="1"/>
       <c r="P393" s="1"/>
       <c r="Q393" s="1"/>
@@ -13563,11 +13618,11 @@
       <c r="F394" s="1"/>
       <c r="G394" s="1"/>
       <c r="I394" s="1"/>
-      <c r="J394" s="45"/>
-      <c r="K394" s="45"/>
-      <c r="L394" s="45"/>
-      <c r="M394" s="45"/>
-      <c r="N394" s="46"/>
+      <c r="J394" s="39"/>
+      <c r="K394" s="39"/>
+      <c r="L394" s="39"/>
+      <c r="M394" s="39"/>
+      <c r="N394" s="40"/>
       <c r="O394" s="1"/>
       <c r="P394" s="1"/>
       <c r="Q394" s="1"/>
@@ -13586,11 +13641,11 @@
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
       <c r="I395" s="1"/>
-      <c r="J395" s="45"/>
-      <c r="K395" s="45"/>
-      <c r="L395" s="45"/>
-      <c r="M395" s="45"/>
-      <c r="N395" s="46"/>
+      <c r="J395" s="39"/>
+      <c r="K395" s="39"/>
+      <c r="L395" s="39"/>
+      <c r="M395" s="39"/>
+      <c r="N395" s="40"/>
       <c r="O395" s="1"/>
       <c r="P395" s="1"/>
       <c r="Q395" s="1"/>
@@ -13609,11 +13664,11 @@
       <c r="F396" s="1"/>
       <c r="G396" s="1"/>
       <c r="I396" s="1"/>
-      <c r="J396" s="45"/>
-      <c r="K396" s="45"/>
-      <c r="L396" s="45"/>
-      <c r="M396" s="45"/>
-      <c r="N396" s="46"/>
+      <c r="J396" s="39"/>
+      <c r="K396" s="39"/>
+      <c r="L396" s="39"/>
+      <c r="M396" s="39"/>
+      <c r="N396" s="40"/>
       <c r="O396" s="1"/>
       <c r="P396" s="1"/>
       <c r="Q396" s="1"/>
@@ -13632,11 +13687,11 @@
       <c r="F397" s="1"/>
       <c r="G397" s="1"/>
       <c r="I397" s="1"/>
-      <c r="J397" s="45"/>
-      <c r="K397" s="45"/>
-      <c r="L397" s="45"/>
-      <c r="M397" s="45"/>
-      <c r="N397" s="46"/>
+      <c r="J397" s="39"/>
+      <c r="K397" s="39"/>
+      <c r="L397" s="39"/>
+      <c r="M397" s="39"/>
+      <c r="N397" s="40"/>
       <c r="O397" s="1"/>
       <c r="P397" s="1"/>
       <c r="Q397" s="1"/>
@@ -13655,11 +13710,11 @@
       <c r="F398" s="1"/>
       <c r="G398" s="1"/>
       <c r="I398" s="1"/>
-      <c r="J398" s="45"/>
-      <c r="K398" s="45"/>
-      <c r="L398" s="45"/>
-      <c r="M398" s="45"/>
-      <c r="N398" s="46"/>
+      <c r="J398" s="39"/>
+      <c r="K398" s="39"/>
+      <c r="L398" s="39"/>
+      <c r="M398" s="39"/>
+      <c r="N398" s="40"/>
       <c r="O398" s="1"/>
       <c r="P398" s="1"/>
       <c r="Q398" s="1"/>
@@ -13678,11 +13733,11 @@
       <c r="F399" s="1"/>
       <c r="G399" s="1"/>
       <c r="I399" s="1"/>
-      <c r="J399" s="45"/>
-      <c r="K399" s="45"/>
-      <c r="L399" s="45"/>
-      <c r="M399" s="45"/>
-      <c r="N399" s="46"/>
+      <c r="J399" s="39"/>
+      <c r="K399" s="39"/>
+      <c r="L399" s="39"/>
+      <c r="M399" s="39"/>
+      <c r="N399" s="40"/>
       <c r="O399" s="1"/>
       <c r="P399" s="1"/>
       <c r="Q399" s="1"/>
@@ -13701,11 +13756,11 @@
       <c r="F400" s="1"/>
       <c r="G400" s="1"/>
       <c r="I400" s="1"/>
-      <c r="J400" s="45"/>
-      <c r="K400" s="45"/>
-      <c r="L400" s="45"/>
-      <c r="M400" s="45"/>
-      <c r="N400" s="46"/>
+      <c r="J400" s="39"/>
+      <c r="K400" s="39"/>
+      <c r="L400" s="39"/>
+      <c r="M400" s="39"/>
+      <c r="N400" s="40"/>
       <c r="O400" s="1"/>
       <c r="P400" s="1"/>
       <c r="Q400" s="1"/>
@@ -13724,11 +13779,11 @@
       <c r="F401" s="1"/>
       <c r="G401" s="1"/>
       <c r="I401" s="1"/>
-      <c r="J401" s="45"/>
-      <c r="K401" s="45"/>
-      <c r="L401" s="45"/>
-      <c r="M401" s="45"/>
-      <c r="N401" s="46"/>
+      <c r="J401" s="39"/>
+      <c r="K401" s="39"/>
+      <c r="L401" s="39"/>
+      <c r="M401" s="39"/>
+      <c r="N401" s="40"/>
       <c r="O401" s="1"/>
       <c r="P401" s="1"/>
       <c r="Q401" s="1"/>
@@ -13747,11 +13802,11 @@
       <c r="F402" s="1"/>
       <c r="G402" s="1"/>
       <c r="I402" s="1"/>
-      <c r="J402" s="45"/>
-      <c r="K402" s="45"/>
-      <c r="L402" s="45"/>
-      <c r="M402" s="45"/>
-      <c r="N402" s="46"/>
+      <c r="J402" s="39"/>
+      <c r="K402" s="39"/>
+      <c r="L402" s="39"/>
+      <c r="M402" s="39"/>
+      <c r="N402" s="40"/>
       <c r="O402" s="1"/>
       <c r="P402" s="1"/>
       <c r="Q402" s="1"/>
@@ -13770,11 +13825,11 @@
       <c r="F403" s="1"/>
       <c r="G403" s="1"/>
       <c r="I403" s="1"/>
-      <c r="J403" s="45"/>
-      <c r="K403" s="45"/>
-      <c r="L403" s="45"/>
-      <c r="M403" s="45"/>
-      <c r="N403" s="46"/>
+      <c r="J403" s="39"/>
+      <c r="K403" s="39"/>
+      <c r="L403" s="39"/>
+      <c r="M403" s="39"/>
+      <c r="N403" s="40"/>
       <c r="O403" s="1"/>
       <c r="P403" s="1"/>
       <c r="Q403" s="1"/>
@@ -13793,11 +13848,11 @@
       <c r="F404" s="1"/>
       <c r="G404" s="1"/>
       <c r="I404" s="1"/>
-      <c r="J404" s="45"/>
-      <c r="K404" s="45"/>
-      <c r="L404" s="45"/>
-      <c r="M404" s="45"/>
-      <c r="N404" s="46"/>
+      <c r="J404" s="39"/>
+      <c r="K404" s="39"/>
+      <c r="L404" s="39"/>
+      <c r="M404" s="39"/>
+      <c r="N404" s="40"/>
       <c r="O404" s="1"/>
       <c r="P404" s="1"/>
       <c r="Q404" s="1"/>
@@ -13816,11 +13871,11 @@
       <c r="F405" s="1"/>
       <c r="G405" s="1"/>
       <c r="I405" s="1"/>
-      <c r="J405" s="45"/>
-      <c r="K405" s="45"/>
-      <c r="L405" s="45"/>
-      <c r="M405" s="45"/>
-      <c r="N405" s="46"/>
+      <c r="J405" s="39"/>
+      <c r="K405" s="39"/>
+      <c r="L405" s="39"/>
+      <c r="M405" s="39"/>
+      <c r="N405" s="40"/>
       <c r="O405" s="1"/>
       <c r="P405" s="1"/>
       <c r="Q405" s="1"/>
@@ -13839,11 +13894,11 @@
       <c r="F406" s="1"/>
       <c r="G406" s="1"/>
       <c r="I406" s="1"/>
-      <c r="J406" s="45"/>
-      <c r="K406" s="45"/>
-      <c r="L406" s="45"/>
-      <c r="M406" s="45"/>
-      <c r="N406" s="46"/>
+      <c r="J406" s="39"/>
+      <c r="K406" s="39"/>
+      <c r="L406" s="39"/>
+      <c r="M406" s="39"/>
+      <c r="N406" s="40"/>
       <c r="O406" s="1"/>
       <c r="P406" s="1"/>
       <c r="Q406" s="1"/>
@@ -13862,11 +13917,11 @@
       <c r="F407" s="1"/>
       <c r="G407" s="1"/>
       <c r="I407" s="1"/>
-      <c r="J407" s="45"/>
-      <c r="K407" s="45"/>
-      <c r="L407" s="45"/>
-      <c r="M407" s="45"/>
-      <c r="N407" s="46"/>
+      <c r="J407" s="39"/>
+      <c r="K407" s="39"/>
+      <c r="L407" s="39"/>
+      <c r="M407" s="39"/>
+      <c r="N407" s="40"/>
       <c r="O407" s="1"/>
       <c r="P407" s="1"/>
       <c r="Q407" s="1"/>
@@ -13885,11 +13940,11 @@
       <c r="F408" s="1"/>
       <c r="G408" s="1"/>
       <c r="I408" s="1"/>
-      <c r="J408" s="45"/>
-      <c r="K408" s="45"/>
-      <c r="L408" s="45"/>
-      <c r="M408" s="45"/>
-      <c r="N408" s="46"/>
+      <c r="J408" s="39"/>
+      <c r="K408" s="39"/>
+      <c r="L408" s="39"/>
+      <c r="M408" s="39"/>
+      <c r="N408" s="40"/>
       <c r="O408" s="1"/>
       <c r="P408" s="1"/>
       <c r="Q408" s="1"/>
@@ -13908,11 +13963,11 @@
       <c r="F409" s="1"/>
       <c r="G409" s="1"/>
       <c r="I409" s="1"/>
-      <c r="J409" s="45"/>
-      <c r="K409" s="45"/>
-      <c r="L409" s="45"/>
-      <c r="M409" s="45"/>
-      <c r="N409" s="46"/>
+      <c r="J409" s="39"/>
+      <c r="K409" s="39"/>
+      <c r="L409" s="39"/>
+      <c r="M409" s="39"/>
+      <c r="N409" s="40"/>
       <c r="O409" s="1"/>
       <c r="P409" s="1"/>
       <c r="Q409" s="1"/>
@@ -13931,11 +13986,11 @@
       <c r="F410" s="1"/>
       <c r="G410" s="1"/>
       <c r="I410" s="1"/>
-      <c r="J410" s="45"/>
-      <c r="K410" s="45"/>
-      <c r="L410" s="45"/>
-      <c r="M410" s="45"/>
-      <c r="N410" s="46"/>
+      <c r="J410" s="39"/>
+      <c r="K410" s="39"/>
+      <c r="L410" s="39"/>
+      <c r="M410" s="39"/>
+      <c r="N410" s="40"/>
       <c r="O410" s="1"/>
       <c r="P410" s="1"/>
       <c r="Q410" s="1"/>
@@ -13954,11 +14009,11 @@
       <c r="F411" s="1"/>
       <c r="G411" s="1"/>
       <c r="I411" s="1"/>
-      <c r="J411" s="45"/>
-      <c r="K411" s="45"/>
-      <c r="L411" s="45"/>
-      <c r="M411" s="45"/>
-      <c r="N411" s="46"/>
+      <c r="J411" s="39"/>
+      <c r="K411" s="39"/>
+      <c r="L411" s="39"/>
+      <c r="M411" s="39"/>
+      <c r="N411" s="40"/>
       <c r="O411" s="1"/>
       <c r="P411" s="1"/>
       <c r="Q411" s="1"/>
@@ -13977,11 +14032,11 @@
       <c r="F412" s="1"/>
       <c r="G412" s="1"/>
       <c r="I412" s="1"/>
-      <c r="J412" s="45"/>
-      <c r="K412" s="45"/>
-      <c r="L412" s="45"/>
-      <c r="M412" s="45"/>
-      <c r="N412" s="46"/>
+      <c r="J412" s="39"/>
+      <c r="K412" s="39"/>
+      <c r="L412" s="39"/>
+      <c r="M412" s="39"/>
+      <c r="N412" s="40"/>
       <c r="O412" s="1"/>
       <c r="P412" s="1"/>
       <c r="Q412" s="1"/>
@@ -14000,11 +14055,11 @@
       <c r="F413" s="1"/>
       <c r="G413" s="1"/>
       <c r="I413" s="1"/>
-      <c r="J413" s="45"/>
-      <c r="K413" s="45"/>
-      <c r="L413" s="45"/>
-      <c r="M413" s="45"/>
-      <c r="N413" s="46"/>
+      <c r="J413" s="39"/>
+      <c r="K413" s="39"/>
+      <c r="L413" s="39"/>
+      <c r="M413" s="39"/>
+      <c r="N413" s="40"/>
       <c r="O413" s="1"/>
       <c r="P413" s="1"/>
       <c r="Q413" s="1"/>
@@ -14023,11 +14078,11 @@
       <c r="F414" s="1"/>
       <c r="G414" s="1"/>
       <c r="I414" s="1"/>
-      <c r="J414" s="45"/>
-      <c r="K414" s="45"/>
-      <c r="L414" s="45"/>
-      <c r="M414" s="45"/>
-      <c r="N414" s="46"/>
+      <c r="J414" s="39"/>
+      <c r="K414" s="39"/>
+      <c r="L414" s="39"/>
+      <c r="M414" s="39"/>
+      <c r="N414" s="40"/>
       <c r="O414" s="1"/>
       <c r="P414" s="1"/>
       <c r="Q414" s="1"/>
@@ -14046,11 +14101,11 @@
       <c r="F415" s="1"/>
       <c r="G415" s="1"/>
       <c r="I415" s="1"/>
-      <c r="J415" s="45"/>
-      <c r="K415" s="45"/>
-      <c r="L415" s="45"/>
-      <c r="M415" s="45"/>
-      <c r="N415" s="46"/>
+      <c r="J415" s="39"/>
+      <c r="K415" s="39"/>
+      <c r="L415" s="39"/>
+      <c r="M415" s="39"/>
+      <c r="N415" s="40"/>
       <c r="O415" s="1"/>
       <c r="P415" s="1"/>
       <c r="Q415" s="1"/>
@@ -14069,11 +14124,11 @@
       <c r="F416" s="1"/>
       <c r="G416" s="1"/>
       <c r="I416" s="1"/>
-      <c r="J416" s="45"/>
-      <c r="K416" s="45"/>
-      <c r="L416" s="45"/>
-      <c r="M416" s="45"/>
-      <c r="N416" s="46"/>
+      <c r="J416" s="39"/>
+      <c r="K416" s="39"/>
+      <c r="L416" s="39"/>
+      <c r="M416" s="39"/>
+      <c r="N416" s="40"/>
       <c r="O416" s="1"/>
       <c r="P416" s="1"/>
       <c r="Q416" s="1"/>
@@ -14092,11 +14147,11 @@
       <c r="F417" s="1"/>
       <c r="G417" s="1"/>
       <c r="I417" s="1"/>
-      <c r="J417" s="45"/>
-      <c r="K417" s="45"/>
-      <c r="L417" s="45"/>
-      <c r="M417" s="45"/>
-      <c r="N417" s="46"/>
+      <c r="J417" s="39"/>
+      <c r="K417" s="39"/>
+      <c r="L417" s="39"/>
+      <c r="M417" s="39"/>
+      <c r="N417" s="40"/>
       <c r="O417" s="1"/>
       <c r="P417" s="1"/>
       <c r="Q417" s="1"/>
@@ -14115,11 +14170,11 @@
       <c r="F418" s="1"/>
       <c r="G418" s="1"/>
       <c r="I418" s="1"/>
-      <c r="J418" s="45"/>
-      <c r="K418" s="45"/>
-      <c r="L418" s="45"/>
-      <c r="M418" s="45"/>
-      <c r="N418" s="46"/>
+      <c r="J418" s="39"/>
+      <c r="K418" s="39"/>
+      <c r="L418" s="39"/>
+      <c r="M418" s="39"/>
+      <c r="N418" s="40"/>
       <c r="O418" s="1"/>
       <c r="P418" s="1"/>
       <c r="Q418" s="1"/>
@@ -14138,11 +14193,11 @@
       <c r="F419" s="1"/>
       <c r="G419" s="1"/>
       <c r="I419" s="1"/>
-      <c r="J419" s="45"/>
-      <c r="K419" s="45"/>
-      <c r="L419" s="45"/>
-      <c r="M419" s="45"/>
-      <c r="N419" s="46"/>
+      <c r="J419" s="39"/>
+      <c r="K419" s="39"/>
+      <c r="L419" s="39"/>
+      <c r="M419" s="39"/>
+      <c r="N419" s="40"/>
       <c r="O419" s="1"/>
       <c r="P419" s="1"/>
       <c r="Q419" s="1"/>
@@ -14161,11 +14216,11 @@
       <c r="F420" s="1"/>
       <c r="G420" s="1"/>
       <c r="I420" s="1"/>
-      <c r="J420" s="45"/>
-      <c r="K420" s="45"/>
-      <c r="L420" s="45"/>
-      <c r="M420" s="45"/>
-      <c r="N420" s="46"/>
+      <c r="J420" s="39"/>
+      <c r="K420" s="39"/>
+      <c r="L420" s="39"/>
+      <c r="M420" s="39"/>
+      <c r="N420" s="40"/>
       <c r="O420" s="1"/>
       <c r="P420" s="1"/>
       <c r="Q420" s="1"/>
@@ -14184,11 +14239,11 @@
       <c r="F421" s="1"/>
       <c r="G421" s="1"/>
       <c r="I421" s="1"/>
-      <c r="J421" s="45"/>
-      <c r="K421" s="45"/>
-      <c r="L421" s="45"/>
-      <c r="M421" s="45"/>
-      <c r="N421" s="46"/>
+      <c r="J421" s="39"/>
+      <c r="K421" s="39"/>
+      <c r="L421" s="39"/>
+      <c r="M421" s="39"/>
+      <c r="N421" s="40"/>
       <c r="O421" s="1"/>
       <c r="P421" s="1"/>
       <c r="Q421" s="1"/>
@@ -14207,11 +14262,11 @@
       <c r="F422" s="1"/>
       <c r="G422" s="1"/>
       <c r="I422" s="1"/>
-      <c r="J422" s="45"/>
-      <c r="K422" s="45"/>
-      <c r="L422" s="45"/>
-      <c r="M422" s="45"/>
-      <c r="N422" s="46"/>
+      <c r="J422" s="39"/>
+      <c r="K422" s="39"/>
+      <c r="L422" s="39"/>
+      <c r="M422" s="39"/>
+      <c r="N422" s="40"/>
       <c r="O422" s="1"/>
       <c r="P422" s="1"/>
       <c r="Q422" s="1"/>
@@ -14230,11 +14285,11 @@
       <c r="F423" s="1"/>
       <c r="G423" s="1"/>
       <c r="I423" s="1"/>
-      <c r="J423" s="45"/>
-      <c r="K423" s="45"/>
-      <c r="L423" s="45"/>
-      <c r="M423" s="45"/>
-      <c r="N423" s="46"/>
+      <c r="J423" s="39"/>
+      <c r="K423" s="39"/>
+      <c r="L423" s="39"/>
+      <c r="M423" s="39"/>
+      <c r="N423" s="40"/>
       <c r="O423" s="1"/>
       <c r="P423" s="1"/>
       <c r="Q423" s="1"/>
@@ -14253,11 +14308,11 @@
       <c r="F424" s="1"/>
       <c r="G424" s="1"/>
       <c r="I424" s="1"/>
-      <c r="J424" s="45"/>
-      <c r="K424" s="45"/>
-      <c r="L424" s="45"/>
-      <c r="M424" s="45"/>
-      <c r="N424" s="46"/>
+      <c r="J424" s="39"/>
+      <c r="K424" s="39"/>
+      <c r="L424" s="39"/>
+      <c r="M424" s="39"/>
+      <c r="N424" s="40"/>
       <c r="O424" s="1"/>
       <c r="P424" s="1"/>
       <c r="Q424" s="1"/>
@@ -14276,11 +14331,11 @@
       <c r="F425" s="1"/>
       <c r="G425" s="1"/>
       <c r="I425" s="1"/>
-      <c r="J425" s="45"/>
-      <c r="K425" s="45"/>
-      <c r="L425" s="45"/>
-      <c r="M425" s="45"/>
-      <c r="N425" s="46"/>
+      <c r="J425" s="39"/>
+      <c r="K425" s="39"/>
+      <c r="L425" s="39"/>
+      <c r="M425" s="39"/>
+      <c r="N425" s="40"/>
       <c r="O425" s="1"/>
       <c r="P425" s="1"/>
       <c r="Q425" s="1"/>
@@ -14299,11 +14354,11 @@
       <c r="F426" s="1"/>
       <c r="G426" s="1"/>
       <c r="I426" s="1"/>
-      <c r="J426" s="45"/>
-      <c r="K426" s="45"/>
-      <c r="L426" s="45"/>
-      <c r="M426" s="45"/>
-      <c r="N426" s="46"/>
+      <c r="J426" s="39"/>
+      <c r="K426" s="39"/>
+      <c r="L426" s="39"/>
+      <c r="M426" s="39"/>
+      <c r="N426" s="40"/>
       <c r="O426" s="1"/>
       <c r="P426" s="1"/>
       <c r="Q426" s="1"/>
@@ -14322,11 +14377,11 @@
       <c r="F427" s="1"/>
       <c r="G427" s="1"/>
       <c r="I427" s="1"/>
-      <c r="J427" s="45"/>
-      <c r="K427" s="45"/>
-      <c r="L427" s="45"/>
-      <c r="M427" s="45"/>
-      <c r="N427" s="46"/>
+      <c r="J427" s="39"/>
+      <c r="K427" s="39"/>
+      <c r="L427" s="39"/>
+      <c r="M427" s="39"/>
+      <c r="N427" s="40"/>
       <c r="O427" s="1"/>
       <c r="P427" s="1"/>
       <c r="Q427" s="1"/>
@@ -14345,11 +14400,11 @@
       <c r="F428" s="1"/>
       <c r="G428" s="1"/>
       <c r="I428" s="1"/>
-      <c r="J428" s="45"/>
-      <c r="K428" s="45"/>
-      <c r="L428" s="45"/>
-      <c r="M428" s="45"/>
-      <c r="N428" s="46"/>
+      <c r="J428" s="39"/>
+      <c r="K428" s="39"/>
+      <c r="L428" s="39"/>
+      <c r="M428" s="39"/>
+      <c r="N428" s="40"/>
       <c r="O428" s="1"/>
       <c r="P428" s="1"/>
       <c r="Q428" s="1"/>
@@ -14368,11 +14423,11 @@
       <c r="F429" s="1"/>
       <c r="G429" s="1"/>
       <c r="I429" s="1"/>
-      <c r="J429" s="45"/>
-      <c r="K429" s="45"/>
-      <c r="L429" s="45"/>
-      <c r="M429" s="45"/>
-      <c r="N429" s="46"/>
+      <c r="J429" s="39"/>
+      <c r="K429" s="39"/>
+      <c r="L429" s="39"/>
+      <c r="M429" s="39"/>
+      <c r="N429" s="40"/>
       <c r="O429" s="1"/>
       <c r="P429" s="1"/>
       <c r="Q429" s="1"/>
@@ -14391,11 +14446,11 @@
       <c r="F430" s="1"/>
       <c r="G430" s="1"/>
       <c r="I430" s="1"/>
-      <c r="J430" s="45"/>
-      <c r="K430" s="45"/>
-      <c r="L430" s="45"/>
-      <c r="M430" s="45"/>
-      <c r="N430" s="46"/>
+      <c r="J430" s="39"/>
+      <c r="K430" s="39"/>
+      <c r="L430" s="39"/>
+      <c r="M430" s="39"/>
+      <c r="N430" s="40"/>
       <c r="O430" s="1"/>
       <c r="P430" s="1"/>
       <c r="Q430" s="1"/>
@@ -14414,11 +14469,11 @@
       <c r="F431" s="1"/>
       <c r="G431" s="1"/>
       <c r="I431" s="1"/>
-      <c r="J431" s="45"/>
-      <c r="K431" s="45"/>
-      <c r="L431" s="45"/>
-      <c r="M431" s="45"/>
-      <c r="N431" s="46"/>
+      <c r="J431" s="39"/>
+      <c r="K431" s="39"/>
+      <c r="L431" s="39"/>
+      <c r="M431" s="39"/>
+      <c r="N431" s="40"/>
       <c r="O431" s="1"/>
       <c r="P431" s="1"/>
       <c r="Q431" s="1"/>
@@ -14437,11 +14492,11 @@
       <c r="F432" s="1"/>
       <c r="G432" s="1"/>
       <c r="I432" s="1"/>
-      <c r="J432" s="45"/>
-      <c r="K432" s="45"/>
-      <c r="L432" s="45"/>
-      <c r="M432" s="45"/>
-      <c r="N432" s="46"/>
+      <c r="J432" s="39"/>
+      <c r="K432" s="39"/>
+      <c r="L432" s="39"/>
+      <c r="M432" s="39"/>
+      <c r="N432" s="40"/>
       <c r="O432" s="1"/>
       <c r="P432" s="1"/>
       <c r="Q432" s="1"/>
@@ -14460,11 +14515,11 @@
       <c r="F433" s="1"/>
       <c r="G433" s="1"/>
       <c r="I433" s="1"/>
-      <c r="J433" s="45"/>
-      <c r="K433" s="45"/>
-      <c r="L433" s="45"/>
-      <c r="M433" s="45"/>
-      <c r="N433" s="46"/>
+      <c r="J433" s="39"/>
+      <c r="K433" s="39"/>
+      <c r="L433" s="39"/>
+      <c r="M433" s="39"/>
+      <c r="N433" s="40"/>
       <c r="O433" s="1"/>
       <c r="P433" s="1"/>
       <c r="Q433" s="1"/>
@@ -14483,11 +14538,11 @@
       <c r="F434" s="1"/>
       <c r="G434" s="1"/>
       <c r="I434" s="1"/>
-      <c r="J434" s="45"/>
-      <c r="K434" s="45"/>
-      <c r="L434" s="45"/>
-      <c r="M434" s="45"/>
-      <c r="N434" s="46"/>
+      <c r="J434" s="39"/>
+      <c r="K434" s="39"/>
+      <c r="L434" s="39"/>
+      <c r="M434" s="39"/>
+      <c r="N434" s="40"/>
       <c r="O434" s="1"/>
       <c r="P434" s="1"/>
       <c r="Q434" s="1"/>
@@ -14506,11 +14561,11 @@
       <c r="F435" s="1"/>
       <c r="G435" s="1"/>
       <c r="I435" s="1"/>
-      <c r="J435" s="45"/>
-      <c r="K435" s="45"/>
-      <c r="L435" s="45"/>
-      <c r="M435" s="45"/>
-      <c r="N435" s="46"/>
+      <c r="J435" s="39"/>
+      <c r="K435" s="39"/>
+      <c r="L435" s="39"/>
+      <c r="M435" s="39"/>
+      <c r="N435" s="40"/>
       <c r="O435" s="1"/>
       <c r="P435" s="1"/>
       <c r="Q435" s="1"/>
@@ -14529,11 +14584,11 @@
       <c r="F436" s="1"/>
       <c r="G436" s="1"/>
       <c r="I436" s="1"/>
-      <c r="J436" s="45"/>
-      <c r="K436" s="45"/>
-      <c r="L436" s="45"/>
-      <c r="M436" s="45"/>
-      <c r="N436" s="46"/>
+      <c r="J436" s="39"/>
+      <c r="K436" s="39"/>
+      <c r="L436" s="39"/>
+      <c r="M436" s="39"/>
+      <c r="N436" s="40"/>
       <c r="O436" s="1"/>
       <c r="P436" s="1"/>
       <c r="Q436" s="1"/>
@@ -14552,11 +14607,11 @@
       <c r="F437" s="1"/>
       <c r="G437" s="1"/>
       <c r="I437" s="1"/>
-      <c r="J437" s="45"/>
-      <c r="K437" s="45"/>
-      <c r="L437" s="45"/>
-      <c r="M437" s="45"/>
-      <c r="N437" s="46"/>
+      <c r="J437" s="39"/>
+      <c r="K437" s="39"/>
+      <c r="L437" s="39"/>
+      <c r="M437" s="39"/>
+      <c r="N437" s="40"/>
       <c r="O437" s="1"/>
       <c r="P437" s="1"/>
       <c r="Q437" s="1"/>
@@ -14575,11 +14630,11 @@
       <c r="F438" s="1"/>
       <c r="G438" s="1"/>
       <c r="I438" s="1"/>
-      <c r="J438" s="45"/>
-      <c r="K438" s="45"/>
-      <c r="L438" s="45"/>
-      <c r="M438" s="45"/>
-      <c r="N438" s="46"/>
+      <c r="J438" s="39"/>
+      <c r="K438" s="39"/>
+      <c r="L438" s="39"/>
+      <c r="M438" s="39"/>
+      <c r="N438" s="40"/>
       <c r="O438" s="1"/>
       <c r="P438" s="1"/>
       <c r="Q438" s="1"/>
@@ -14598,11 +14653,11 @@
       <c r="F439" s="1"/>
       <c r="G439" s="1"/>
       <c r="I439" s="1"/>
-      <c r="J439" s="45"/>
-      <c r="K439" s="45"/>
-      <c r="L439" s="45"/>
-      <c r="M439" s="45"/>
-      <c r="N439" s="46"/>
+      <c r="J439" s="39"/>
+      <c r="K439" s="39"/>
+      <c r="L439" s="39"/>
+      <c r="M439" s="39"/>
+      <c r="N439" s="40"/>
       <c r="O439" s="1"/>
       <c r="P439" s="1"/>
       <c r="Q439" s="1"/>
@@ -14621,11 +14676,11 @@
       <c r="F440" s="1"/>
       <c r="G440" s="1"/>
       <c r="I440" s="1"/>
-      <c r="J440" s="45"/>
-      <c r="K440" s="45"/>
-      <c r="L440" s="45"/>
-      <c r="M440" s="45"/>
-      <c r="N440" s="46"/>
+      <c r="J440" s="39"/>
+      <c r="K440" s="39"/>
+      <c r="L440" s="39"/>
+      <c r="M440" s="39"/>
+      <c r="N440" s="40"/>
       <c r="O440" s="1"/>
       <c r="P440" s="1"/>
       <c r="Q440" s="1"/>
@@ -14644,11 +14699,11 @@
       <c r="F441" s="1"/>
       <c r="G441" s="1"/>
       <c r="I441" s="1"/>
-      <c r="J441" s="45"/>
-      <c r="K441" s="45"/>
-      <c r="L441" s="45"/>
-      <c r="M441" s="45"/>
-      <c r="N441" s="46"/>
+      <c r="J441" s="39"/>
+      <c r="K441" s="39"/>
+      <c r="L441" s="39"/>
+      <c r="M441" s="39"/>
+      <c r="N441" s="40"/>
       <c r="O441" s="1"/>
       <c r="P441" s="1"/>
       <c r="Q441" s="1"/>
@@ -14667,11 +14722,11 @@
       <c r="F442" s="1"/>
       <c r="G442" s="1"/>
       <c r="I442" s="1"/>
-      <c r="J442" s="45"/>
-      <c r="K442" s="45"/>
-      <c r="L442" s="45"/>
-      <c r="M442" s="45"/>
-      <c r="N442" s="46"/>
+      <c r="J442" s="39"/>
+      <c r="K442" s="39"/>
+      <c r="L442" s="39"/>
+      <c r="M442" s="39"/>
+      <c r="N442" s="40"/>
       <c r="O442" s="1"/>
       <c r="P442" s="1"/>
       <c r="Q442" s="1"/>
@@ -14690,11 +14745,11 @@
       <c r="F443" s="1"/>
       <c r="G443" s="1"/>
       <c r="I443" s="1"/>
-      <c r="J443" s="45"/>
-      <c r="K443" s="45"/>
-      <c r="L443" s="45"/>
-      <c r="M443" s="45"/>
-      <c r="N443" s="46"/>
+      <c r="J443" s="39"/>
+      <c r="K443" s="39"/>
+      <c r="L443" s="39"/>
+      <c r="M443" s="39"/>
+      <c r="N443" s="40"/>
       <c r="O443" s="1"/>
       <c r="P443" s="1"/>
       <c r="Q443" s="1"/>
@@ -14713,11 +14768,11 @@
       <c r="F444" s="1"/>
       <c r="G444" s="1"/>
       <c r="I444" s="1"/>
-      <c r="J444" s="45"/>
-      <c r="K444" s="45"/>
-      <c r="L444" s="45"/>
-      <c r="M444" s="45"/>
-      <c r="N444" s="46"/>
+      <c r="J444" s="39"/>
+      <c r="K444" s="39"/>
+      <c r="L444" s="39"/>
+      <c r="M444" s="39"/>
+      <c r="N444" s="40"/>
       <c r="O444" s="1"/>
       <c r="P444" s="1"/>
       <c r="Q444" s="1"/>
@@ -14736,11 +14791,11 @@
       <c r="F445" s="1"/>
       <c r="G445" s="1"/>
       <c r="I445" s="1"/>
-      <c r="J445" s="45"/>
-      <c r="K445" s="45"/>
-      <c r="L445" s="45"/>
-      <c r="M445" s="45"/>
-      <c r="N445" s="46"/>
+      <c r="J445" s="39"/>
+      <c r="K445" s="39"/>
+      <c r="L445" s="39"/>
+      <c r="M445" s="39"/>
+      <c r="N445" s="40"/>
       <c r="O445" s="1"/>
       <c r="P445" s="1"/>
       <c r="Q445" s="1"/>
@@ -14759,11 +14814,11 @@
       <c r="F446" s="1"/>
       <c r="G446" s="1"/>
       <c r="I446" s="1"/>
-      <c r="J446" s="45"/>
-      <c r="K446" s="45"/>
-      <c r="L446" s="45"/>
-      <c r="M446" s="45"/>
-      <c r="N446" s="46"/>
+      <c r="J446" s="39"/>
+      <c r="K446" s="39"/>
+      <c r="L446" s="39"/>
+      <c r="M446" s="39"/>
+      <c r="N446" s="40"/>
       <c r="O446" s="1"/>
       <c r="P446" s="1"/>
       <c r="Q446" s="1"/>
@@ -14782,11 +14837,11 @@
       <c r="F447" s="1"/>
       <c r="G447" s="1"/>
       <c r="I447" s="1"/>
-      <c r="J447" s="45"/>
-      <c r="K447" s="45"/>
-      <c r="L447" s="45"/>
-      <c r="M447" s="45"/>
-      <c r="N447" s="46"/>
+      <c r="J447" s="39"/>
+      <c r="K447" s="39"/>
+      <c r="L447" s="39"/>
+      <c r="M447" s="39"/>
+      <c r="N447" s="40"/>
       <c r="O447" s="1"/>
       <c r="P447" s="1"/>
       <c r="Q447" s="1"/>
@@ -14805,11 +14860,11 @@
       <c r="F448" s="1"/>
       <c r="G448" s="1"/>
       <c r="I448" s="1"/>
-      <c r="J448" s="45"/>
-      <c r="K448" s="45"/>
-      <c r="L448" s="45"/>
-      <c r="M448" s="45"/>
-      <c r="N448" s="46"/>
+      <c r="J448" s="39"/>
+      <c r="K448" s="39"/>
+      <c r="L448" s="39"/>
+      <c r="M448" s="39"/>
+      <c r="N448" s="40"/>
       <c r="O448" s="1"/>
       <c r="P448" s="1"/>
       <c r="Q448" s="1"/>
@@ -14828,11 +14883,11 @@
       <c r="F449" s="1"/>
       <c r="G449" s="1"/>
       <c r="I449" s="1"/>
-      <c r="J449" s="45"/>
-      <c r="K449" s="45"/>
-      <c r="L449" s="45"/>
-      <c r="M449" s="45"/>
-      <c r="N449" s="46"/>
+      <c r="J449" s="39"/>
+      <c r="K449" s="39"/>
+      <c r="L449" s="39"/>
+      <c r="M449" s="39"/>
+      <c r="N449" s="40"/>
       <c r="O449" s="1"/>
       <c r="P449" s="1"/>
       <c r="Q449" s="1"/>
@@ -14851,11 +14906,11 @@
       <c r="F450" s="1"/>
       <c r="G450" s="1"/>
       <c r="I450" s="1"/>
-      <c r="J450" s="45"/>
-      <c r="K450" s="45"/>
-      <c r="L450" s="45"/>
-      <c r="M450" s="45"/>
-      <c r="N450" s="46"/>
+      <c r="J450" s="39"/>
+      <c r="K450" s="39"/>
+      <c r="L450" s="39"/>
+      <c r="M450" s="39"/>
+      <c r="N450" s="40"/>
       <c r="O450" s="1"/>
       <c r="P450" s="1"/>
       <c r="Q450" s="1"/>
@@ -14874,11 +14929,11 @@
       <c r="F451" s="1"/>
       <c r="G451" s="1"/>
       <c r="I451" s="1"/>
-      <c r="J451" s="45"/>
-      <c r="K451" s="45"/>
-      <c r="L451" s="45"/>
-      <c r="M451" s="45"/>
-      <c r="N451" s="46"/>
+      <c r="J451" s="39"/>
+      <c r="K451" s="39"/>
+      <c r="L451" s="39"/>
+      <c r="M451" s="39"/>
+      <c r="N451" s="40"/>
       <c r="O451" s="1"/>
       <c r="P451" s="1"/>
       <c r="Q451" s="1"/>
@@ -14897,11 +14952,11 @@
       <c r="F452" s="1"/>
       <c r="G452" s="1"/>
       <c r="I452" s="1"/>
-      <c r="J452" s="45"/>
-      <c r="K452" s="45"/>
-      <c r="L452" s="45"/>
-      <c r="M452" s="45"/>
-      <c r="N452" s="46"/>
+      <c r="J452" s="39"/>
+      <c r="K452" s="39"/>
+      <c r="L452" s="39"/>
+      <c r="M452" s="39"/>
+      <c r="N452" s="40"/>
       <c r="O452" s="1"/>
       <c r="P452" s="1"/>
       <c r="Q452" s="1"/>
@@ -14920,11 +14975,11 @@
       <c r="F453" s="1"/>
       <c r="G453" s="1"/>
       <c r="I453" s="1"/>
-      <c r="J453" s="45"/>
-      <c r="K453" s="45"/>
-      <c r="L453" s="45"/>
-      <c r="M453" s="45"/>
-      <c r="N453" s="46"/>
+      <c r="J453" s="39"/>
+      <c r="K453" s="39"/>
+      <c r="L453" s="39"/>
+      <c r="M453" s="39"/>
+      <c r="N453" s="40"/>
       <c r="O453" s="1"/>
       <c r="P453" s="1"/>
       <c r="Q453" s="1"/>
@@ -14943,11 +14998,11 @@
       <c r="F454" s="1"/>
       <c r="G454" s="1"/>
       <c r="I454" s="1"/>
-      <c r="J454" s="45"/>
-      <c r="K454" s="45"/>
-      <c r="L454" s="45"/>
-      <c r="M454" s="45"/>
-      <c r="N454" s="46"/>
+      <c r="J454" s="39"/>
+      <c r="K454" s="39"/>
+      <c r="L454" s="39"/>
+      <c r="M454" s="39"/>
+      <c r="N454" s="40"/>
       <c r="O454" s="1"/>
       <c r="P454" s="1"/>
       <c r="Q454" s="1"/>
@@ -14966,11 +15021,11 @@
       <c r="F455" s="1"/>
       <c r="G455" s="1"/>
       <c r="I455" s="1"/>
-      <c r="J455" s="45"/>
-      <c r="K455" s="45"/>
-      <c r="L455" s="45"/>
-      <c r="M455" s="45"/>
-      <c r="N455" s="46"/>
+      <c r="J455" s="39"/>
+      <c r="K455" s="39"/>
+      <c r="L455" s="39"/>
+      <c r="M455" s="39"/>
+      <c r="N455" s="40"/>
       <c r="O455" s="1"/>
       <c r="P455" s="1"/>
       <c r="Q455" s="1"/>
@@ -14989,11 +15044,11 @@
       <c r="F456" s="1"/>
       <c r="G456" s="1"/>
       <c r="I456" s="1"/>
-      <c r="J456" s="45"/>
-      <c r="K456" s="45"/>
-      <c r="L456" s="45"/>
-      <c r="M456" s="45"/>
-      <c r="N456" s="46"/>
+      <c r="J456" s="39"/>
+      <c r="K456" s="39"/>
+      <c r="L456" s="39"/>
+      <c r="M456" s="39"/>
+      <c r="N456" s="40"/>
       <c r="O456" s="1"/>
       <c r="P456" s="1"/>
       <c r="Q456" s="1"/>
@@ -15012,11 +15067,11 @@
       <c r="F457" s="1"/>
       <c r="G457" s="1"/>
       <c r="I457" s="1"/>
-      <c r="J457" s="45"/>
-      <c r="K457" s="45"/>
-      <c r="L457" s="45"/>
-      <c r="M457" s="45"/>
-      <c r="N457" s="46"/>
+      <c r="J457" s="39"/>
+      <c r="K457" s="39"/>
+      <c r="L457" s="39"/>
+      <c r="M457" s="39"/>
+      <c r="N457" s="40"/>
       <c r="O457" s="1"/>
       <c r="P457" s="1"/>
       <c r="Q457" s="1"/>
@@ -15035,11 +15090,11 @@
       <c r="F458" s="1"/>
       <c r="G458" s="1"/>
       <c r="I458" s="1"/>
-      <c r="J458" s="45"/>
-      <c r="K458" s="45"/>
-      <c r="L458" s="45"/>
-      <c r="M458" s="45"/>
-      <c r="N458" s="46"/>
+      <c r="J458" s="39"/>
+      <c r="K458" s="39"/>
+      <c r="L458" s="39"/>
+      <c r="M458" s="39"/>
+      <c r="N458" s="40"/>
       <c r="O458" s="1"/>
       <c r="P458" s="1"/>
       <c r="Q458" s="1"/>
@@ -15058,11 +15113,11 @@
       <c r="F459" s="1"/>
       <c r="G459" s="1"/>
       <c r="I459" s="1"/>
-      <c r="J459" s="45"/>
-      <c r="K459" s="45"/>
-      <c r="L459" s="45"/>
-      <c r="M459" s="45"/>
-      <c r="N459" s="46"/>
+      <c r="J459" s="39"/>
+      <c r="K459" s="39"/>
+      <c r="L459" s="39"/>
+      <c r="M459" s="39"/>
+      <c r="N459" s="40"/>
       <c r="O459" s="1"/>
       <c r="P459" s="1"/>
       <c r="Q459" s="1"/>
@@ -15081,11 +15136,11 @@
       <c r="F460" s="1"/>
       <c r="G460" s="1"/>
       <c r="I460" s="1"/>
-      <c r="J460" s="45"/>
-      <c r="K460" s="45"/>
-      <c r="L460" s="45"/>
-      <c r="M460" s="45"/>
-      <c r="N460" s="46"/>
+      <c r="J460" s="39"/>
+      <c r="K460" s="39"/>
+      <c r="L460" s="39"/>
+      <c r="M460" s="39"/>
+      <c r="N460" s="40"/>
       <c r="O460" s="1"/>
       <c r="P460" s="1"/>
       <c r="Q460" s="1"/>
@@ -15104,11 +15159,11 @@
       <c r="F461" s="1"/>
       <c r="G461" s="1"/>
       <c r="I461" s="1"/>
-      <c r="J461" s="45"/>
-      <c r="K461" s="45"/>
-      <c r="L461" s="45"/>
-      <c r="M461" s="45"/>
-      <c r="N461" s="46"/>
+      <c r="J461" s="39"/>
+      <c r="K461" s="39"/>
+      <c r="L461" s="39"/>
+      <c r="M461" s="39"/>
+      <c r="N461" s="40"/>
       <c r="O461" s="1"/>
       <c r="P461" s="1"/>
       <c r="Q461" s="1"/>
@@ -15127,11 +15182,11 @@
       <c r="F462" s="1"/>
       <c r="G462" s="1"/>
       <c r="I462" s="1"/>
-      <c r="J462" s="45"/>
-      <c r="K462" s="45"/>
-      <c r="L462" s="45"/>
-      <c r="M462" s="45"/>
-      <c r="N462" s="46"/>
+      <c r="J462" s="39"/>
+      <c r="K462" s="39"/>
+      <c r="L462" s="39"/>
+      <c r="M462" s="39"/>
+      <c r="N462" s="40"/>
       <c r="O462" s="1"/>
       <c r="P462" s="1"/>
       <c r="Q462" s="1"/>
@@ -15150,11 +15205,11 @@
       <c r="F463" s="1"/>
       <c r="G463" s="1"/>
       <c r="I463" s="1"/>
-      <c r="J463" s="45"/>
-      <c r="K463" s="45"/>
-      <c r="L463" s="45"/>
-      <c r="M463" s="45"/>
-      <c r="N463" s="46"/>
+      <c r="J463" s="39"/>
+      <c r="K463" s="39"/>
+      <c r="L463" s="39"/>
+      <c r="M463" s="39"/>
+      <c r="N463" s="40"/>
       <c r="O463" s="1"/>
       <c r="P463" s="1"/>
       <c r="Q463" s="1"/>
@@ -15173,11 +15228,11 @@
       <c r="F464" s="1"/>
       <c r="G464" s="1"/>
       <c r="I464" s="1"/>
-      <c r="J464" s="45"/>
-      <c r="K464" s="45"/>
-      <c r="L464" s="45"/>
-      <c r="M464" s="45"/>
-      <c r="N464" s="46"/>
+      <c r="J464" s="39"/>
+      <c r="K464" s="39"/>
+      <c r="L464" s="39"/>
+      <c r="M464" s="39"/>
+      <c r="N464" s="40"/>
       <c r="O464" s="1"/>
       <c r="P464" s="1"/>
       <c r="Q464" s="1"/>
@@ -15196,11 +15251,11 @@
       <c r="F465" s="1"/>
       <c r="G465" s="1"/>
       <c r="I465" s="1"/>
-      <c r="J465" s="45"/>
-      <c r="K465" s="45"/>
-      <c r="L465" s="45"/>
-      <c r="M465" s="45"/>
-      <c r="N465" s="46"/>
+      <c r="J465" s="39"/>
+      <c r="K465" s="39"/>
+      <c r="L465" s="39"/>
+      <c r="M465" s="39"/>
+      <c r="N465" s="40"/>
       <c r="O465" s="1"/>
       <c r="P465" s="1"/>
       <c r="Q465" s="1"/>
@@ -15219,11 +15274,11 @@
       <c r="F466" s="1"/>
       <c r="G466" s="1"/>
       <c r="I466" s="1"/>
-      <c r="J466" s="45"/>
-      <c r="K466" s="45"/>
-      <c r="L466" s="45"/>
-      <c r="M466" s="45"/>
-      <c r="N466" s="46"/>
+      <c r="J466" s="39"/>
+      <c r="K466" s="39"/>
+      <c r="L466" s="39"/>
+      <c r="M466" s="39"/>
+      <c r="N466" s="40"/>
       <c r="O466" s="1"/>
       <c r="P466" s="1"/>
       <c r="Q466" s="1"/>
@@ -15242,11 +15297,11 @@
       <c r="F467" s="1"/>
       <c r="G467" s="1"/>
       <c r="I467" s="1"/>
-      <c r="J467" s="45"/>
-      <c r="K467" s="45"/>
-      <c r="L467" s="45"/>
-      <c r="M467" s="45"/>
-      <c r="N467" s="46"/>
+      <c r="J467" s="39"/>
+      <c r="K467" s="39"/>
+      <c r="L467" s="39"/>
+      <c r="M467" s="39"/>
+      <c r="N467" s="40"/>
       <c r="O467" s="1"/>
       <c r="P467" s="1"/>
       <c r="Q467" s="1"/>
@@ -15265,11 +15320,11 @@
       <c r="F468" s="1"/>
       <c r="G468" s="1"/>
       <c r="I468" s="1"/>
-      <c r="J468" s="45"/>
-      <c r="K468" s="45"/>
-      <c r="L468" s="45"/>
-      <c r="M468" s="45"/>
-      <c r="N468" s="46"/>
+      <c r="J468" s="39"/>
+      <c r="K468" s="39"/>
+      <c r="L468" s="39"/>
+      <c r="M468" s="39"/>
+      <c r="N468" s="40"/>
       <c r="O468" s="1"/>
       <c r="P468" s="1"/>
       <c r="Q468" s="1"/>
@@ -15288,11 +15343,11 @@
       <c r="F469" s="1"/>
       <c r="G469" s="1"/>
       <c r="I469" s="1"/>
-      <c r="J469" s="45"/>
-      <c r="K469" s="45"/>
-      <c r="L469" s="45"/>
-      <c r="M469" s="45"/>
-      <c r="N469" s="46"/>
+      <c r="J469" s="39"/>
+      <c r="K469" s="39"/>
+      <c r="L469" s="39"/>
+      <c r="M469" s="39"/>
+      <c r="N469" s="40"/>
       <c r="O469" s="1"/>
       <c r="P469" s="1"/>
       <c r="Q469" s="1"/>
@@ -15311,11 +15366,11 @@
       <c r="F470" s="1"/>
       <c r="G470" s="1"/>
       <c r="I470" s="1"/>
-      <c r="J470" s="45"/>
-      <c r="K470" s="45"/>
-      <c r="L470" s="45"/>
-      <c r="M470" s="45"/>
-      <c r="N470" s="46"/>
+      <c r="J470" s="39"/>
+      <c r="K470" s="39"/>
+      <c r="L470" s="39"/>
+      <c r="M470" s="39"/>
+      <c r="N470" s="40"/>
       <c r="O470" s="1"/>
       <c r="P470" s="1"/>
       <c r="Q470" s="1"/>
@@ -15334,11 +15389,11 @@
       <c r="F471" s="1"/>
       <c r="G471" s="1"/>
       <c r="I471" s="1"/>
-      <c r="J471" s="45"/>
-      <c r="K471" s="45"/>
-      <c r="L471" s="45"/>
-      <c r="M471" s="45"/>
-      <c r="N471" s="46"/>
+      <c r="J471" s="39"/>
+      <c r="K471" s="39"/>
+      <c r="L471" s="39"/>
+      <c r="M471" s="39"/>
+      <c r="N471" s="40"/>
       <c r="O471" s="1"/>
       <c r="P471" s="1"/>
       <c r="Q471" s="1"/>
@@ -15357,11 +15412,11 @@
       <c r="F472" s="1"/>
       <c r="G472" s="1"/>
       <c r="I472" s="1"/>
-      <c r="J472" s="45"/>
-      <c r="K472" s="45"/>
-      <c r="L472" s="45"/>
-      <c r="M472" s="45"/>
-      <c r="N472" s="46"/>
+      <c r="J472" s="39"/>
+      <c r="K472" s="39"/>
+      <c r="L472" s="39"/>
+      <c r="M472" s="39"/>
+      <c r="N472" s="40"/>
       <c r="O472" s="1"/>
       <c r="P472" s="1"/>
       <c r="Q472" s="1"/>
@@ -15380,11 +15435,11 @@
       <c r="F473" s="1"/>
       <c r="G473" s="1"/>
       <c r="I473" s="1"/>
-      <c r="J473" s="45"/>
-      <c r="K473" s="45"/>
-      <c r="L473" s="45"/>
-      <c r="M473" s="45"/>
-      <c r="N473" s="46"/>
+      <c r="J473" s="39"/>
+      <c r="K473" s="39"/>
+      <c r="L473" s="39"/>
+      <c r="M473" s="39"/>
+      <c r="N473" s="40"/>
       <c r="O473" s="1"/>
       <c r="P473" s="1"/>
       <c r="Q473" s="1"/>
@@ -15403,11 +15458,11 @@
       <c r="F474" s="1"/>
       <c r="G474" s="1"/>
       <c r="I474" s="1"/>
-      <c r="J474" s="45"/>
-      <c r="K474" s="45"/>
-      <c r="L474" s="45"/>
-      <c r="M474" s="45"/>
-      <c r="N474" s="46"/>
+      <c r="J474" s="39"/>
+      <c r="K474" s="39"/>
+      <c r="L474" s="39"/>
+      <c r="M474" s="39"/>
+      <c r="N474" s="40"/>
       <c r="O474" s="1"/>
       <c r="P474" s="1"/>
       <c r="Q474" s="1"/>
@@ -15426,11 +15481,11 @@
       <c r="F475" s="1"/>
       <c r="G475" s="1"/>
       <c r="I475" s="1"/>
-      <c r="J475" s="45"/>
-      <c r="K475" s="45"/>
-      <c r="L475" s="45"/>
-      <c r="M475" s="45"/>
-      <c r="N475" s="46"/>
+      <c r="J475" s="39"/>
+      <c r="K475" s="39"/>
+      <c r="L475" s="39"/>
+      <c r="M475" s="39"/>
+      <c r="N475" s="40"/>
       <c r="O475" s="1"/>
       <c r="P475" s="1"/>
       <c r="Q475" s="1"/>
@@ -15449,11 +15504,11 @@
       <c r="F476" s="1"/>
       <c r="G476" s="1"/>
       <c r="I476" s="1"/>
-      <c r="J476" s="45"/>
-      <c r="K476" s="45"/>
-      <c r="L476" s="45"/>
-      <c r="M476" s="45"/>
-      <c r="N476" s="46"/>
+      <c r="J476" s="39"/>
+      <c r="K476" s="39"/>
+      <c r="L476" s="39"/>
+      <c r="M476" s="39"/>
+      <c r="N476" s="40"/>
       <c r="O476" s="1"/>
       <c r="P476" s="1"/>
       <c r="Q476" s="1"/>
@@ -15472,11 +15527,11 @@
       <c r="F477" s="1"/>
       <c r="G477" s="1"/>
       <c r="I477" s="1"/>
-      <c r="J477" s="45"/>
-      <c r="K477" s="45"/>
-      <c r="L477" s="45"/>
-      <c r="M477" s="45"/>
-      <c r="N477" s="46"/>
+      <c r="J477" s="39"/>
+      <c r="K477" s="39"/>
+      <c r="L477" s="39"/>
+      <c r="M477" s="39"/>
+      <c r="N477" s="40"/>
       <c r="O477" s="1"/>
       <c r="P477" s="1"/>
       <c r="Q477" s="1"/>
@@ -15495,11 +15550,11 @@
       <c r="F478" s="1"/>
       <c r="G478" s="1"/>
       <c r="I478" s="1"/>
-      <c r="J478" s="45"/>
-      <c r="K478" s="45"/>
-      <c r="L478" s="45"/>
-      <c r="M478" s="45"/>
-      <c r="N478" s="46"/>
+      <c r="J478" s="39"/>
+      <c r="K478" s="39"/>
+      <c r="L478" s="39"/>
+      <c r="M478" s="39"/>
+      <c r="N478" s="40"/>
       <c r="O478" s="1"/>
       <c r="P478" s="1"/>
       <c r="Q478" s="1"/>
@@ -15518,11 +15573,11 @@
       <c r="F479" s="1"/>
       <c r="G479" s="1"/>
       <c r="I479" s="1"/>
-      <c r="J479" s="45"/>
-      <c r="K479" s="45"/>
-      <c r="L479" s="45"/>
-      <c r="M479" s="45"/>
-      <c r="N479" s="46"/>
+      <c r="J479" s="39"/>
+      <c r="K479" s="39"/>
+      <c r="L479" s="39"/>
+      <c r="M479" s="39"/>
+      <c r="N479" s="40"/>
       <c r="O479" s="1"/>
       <c r="P479" s="1"/>
       <c r="Q479" s="1"/>
@@ -15541,11 +15596,11 @@
       <c r="F480" s="1"/>
       <c r="G480" s="1"/>
       <c r="I480" s="1"/>
-      <c r="J480" s="45"/>
-      <c r="K480" s="45"/>
-      <c r="L480" s="45"/>
-      <c r="M480" s="45"/>
-      <c r="N480" s="46"/>
+      <c r="J480" s="39"/>
+      <c r="K480" s="39"/>
+      <c r="L480" s="39"/>
+      <c r="M480" s="39"/>
+      <c r="N480" s="40"/>
       <c r="O480" s="1"/>
       <c r="P480" s="1"/>
       <c r="Q480" s="1"/>
@@ -15564,11 +15619,11 @@
       <c r="F481" s="1"/>
       <c r="G481" s="1"/>
       <c r="I481" s="1"/>
-      <c r="J481" s="45"/>
-      <c r="K481" s="45"/>
-      <c r="L481" s="45"/>
-      <c r="M481" s="45"/>
-      <c r="N481" s="46"/>
+      <c r="J481" s="39"/>
+      <c r="K481" s="39"/>
+      <c r="L481" s="39"/>
+      <c r="M481" s="39"/>
+      <c r="N481" s="40"/>
       <c r="O481" s="1"/>
       <c r="P481" s="1"/>
       <c r="Q481" s="1"/>
@@ -15587,11 +15642,11 @@
       <c r="F482" s="1"/>
       <c r="G482" s="1"/>
       <c r="I482" s="1"/>
-      <c r="J482" s="45"/>
-      <c r="K482" s="45"/>
-      <c r="L482" s="45"/>
-      <c r="M482" s="45"/>
-      <c r="N482" s="46"/>
+      <c r="J482" s="39"/>
+      <c r="K482" s="39"/>
+      <c r="L482" s="39"/>
+      <c r="M482" s="39"/>
+      <c r="N482" s="40"/>
       <c r="O482" s="1"/>
       <c r="P482" s="1"/>
       <c r="Q482" s="1"/>
@@ -15610,11 +15665,11 @@
       <c r="F483" s="1"/>
       <c r="G483" s="1"/>
       <c r="I483" s="1"/>
-      <c r="J483" s="45"/>
-      <c r="K483" s="45"/>
-      <c r="L483" s="45"/>
-      <c r="M483" s="45"/>
-      <c r="N483" s="46"/>
+      <c r="J483" s="39"/>
+      <c r="K483" s="39"/>
+      <c r="L483" s="39"/>
+      <c r="M483" s="39"/>
+      <c r="N483" s="40"/>
       <c r="O483" s="1"/>
       <c r="P483" s="1"/>
       <c r="Q483" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/浙江新能.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/浙江新能.xlsx
@@ -225,10 +225,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -269,9 +269,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,9 +305,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,13 +331,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -322,16 +345,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,7 +370,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,47 +383,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,7 +437,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,6 +494,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -530,7 +536,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,7 +566,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,7 +620,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,121 +632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,7 +650,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,22 +759,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,24 +805,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,168 +843,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1060,6 +1066,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1078,31 +1087,31 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1190,7 +1199,7 @@
             <v>JG_0000001</v>
           </cell>
           <cell r="B4" t="str">
-            <v>000001</v>
+            <v>JH_00015</v>
           </cell>
           <cell r="C4" t="str">
             <v>003040</v>
@@ -1340,7 +1349,7 @@
             <v>JG_0000003</v>
           </cell>
           <cell r="B6" t="str">
-            <v>000002</v>
+            <v>JH_00001</v>
           </cell>
           <cell r="C6">
             <v>600085</v>
@@ -1391,7 +1400,7 @@
             <v>34.7</v>
           </cell>
           <cell r="S6">
-            <v>-86.9325400000006</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="6">
@@ -1409,13 +1418,16 @@
           <cell r="AD6">
             <v>0</v>
           </cell>
+          <cell r="AE6">
+            <v>0</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
             <v>JG_0000004</v>
           </cell>
           <cell r="B7" t="str">
-            <v>000003</v>
+            <v>JH_00002</v>
           </cell>
           <cell r="C7">
             <v>603867</v>
@@ -1498,8 +1510,9 @@
           <cell r="AC7">
             <v>0.57312252964427</v>
           </cell>
-        </row>
-        <row r="7">
+          <cell r="AD7" t="str">
+            <v>-</v>
+          </cell>
           <cell r="AE7">
             <v>491.0841</v>
           </cell>
@@ -1512,7 +1525,7 @@
             <v>JG_0000005</v>
           </cell>
           <cell r="B8" t="str">
-            <v>000004</v>
+            <v>JH_00012</v>
           </cell>
           <cell r="C8" t="str">
             <v>002932</v>
@@ -1563,7 +1576,7 @@
             <v>67.53</v>
           </cell>
           <cell r="S8">
-            <v>463.999999999999</v>
+            <v>0</v>
           </cell>
           <cell r="T8">
             <v>44543</v>
@@ -1595,8 +1608,9 @@
           <cell r="AC8">
             <v>0.560000000000002</v>
           </cell>
-        </row>
-        <row r="8">
+          <cell r="AD8" t="str">
+            <v>-</v>
+          </cell>
           <cell r="AE8">
             <v>20.755000000001</v>
           </cell>
@@ -1604,7 +1618,8 @@
             <v>0.0299448384554775</v>
           </cell>
           <cell r="AG8" t="str">
-            <v>1.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场</v>
+            <v>1.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场
+2.跳空时，不要入场。不然就有可能入场太早。</v>
           </cell>
         </row>
         <row r="9">
@@ -1612,7 +1627,7 @@
             <v>JG_0000006</v>
           </cell>
           <cell r="B9" t="str">
-            <v>000005</v>
+            <v>JH_00014</v>
           </cell>
           <cell r="C9">
             <v>605016</v>
@@ -1694,8 +1709,9 @@
           <cell r="AC9">
             <v>0.205882352941172</v>
           </cell>
-        </row>
-        <row r="9">
+          <cell r="AD9" t="str">
+            <v>-</v>
+          </cell>
           <cell r="AE9">
             <v>-52.1363799999999</v>
           </cell>
@@ -1711,7 +1727,7 @@
             <v>JG_0000007</v>
           </cell>
           <cell r="B10" t="str">
-            <v>000006</v>
+            <v>JH_00013</v>
           </cell>
           <cell r="C10">
             <v>603010</v>
@@ -1793,8 +1809,9 @@
           <cell r="AC10">
             <v>0.406249999999998</v>
           </cell>
-        </row>
-        <row r="10">
+          <cell r="AD10" t="str">
+            <v>-</v>
+          </cell>
           <cell r="AE10">
             <v>-210.89828</v>
           </cell>
@@ -1810,7 +1827,7 @@
             <v>JG_0000008</v>
           </cell>
           <cell r="B11" t="str">
-            <v>000035</v>
+            <v>JH_00016</v>
           </cell>
           <cell r="C11" t="str">
             <v>002585</v>
@@ -1893,8 +1910,9 @@
           <cell r="AC11">
             <v>0.324200913242009</v>
           </cell>
-        </row>
-        <row r="11">
+          <cell r="AD11" t="str">
+            <v>-</v>
+          </cell>
           <cell r="AE11">
             <v>-179.67</v>
           </cell>
@@ -1913,7 +1931,7 @@
             <v>JG_0000009</v>
           </cell>
           <cell r="B12" t="str">
-            <v>000021</v>
+            <v>JH_00011</v>
           </cell>
           <cell r="C12">
             <v>603867</v>
@@ -1961,10 +1979,10 @@
             <v>0.504273504273506</v>
           </cell>
           <cell r="R12">
-            <v>33.38</v>
+            <v>34.68</v>
           </cell>
           <cell r="S12">
-            <v>880.150919999999</v>
+            <v>620.150919999999</v>
           </cell>
         </row>
         <row r="12">
@@ -1996,7 +2014,7 @@
             <v>JG_0000010</v>
           </cell>
           <cell r="B13" t="str">
-            <v>000027</v>
+            <v>JH_00011</v>
           </cell>
           <cell r="C13">
             <v>603867</v>
@@ -2044,10 +2062,10 @@
             <v>0.28205128205128</v>
           </cell>
           <cell r="R13">
-            <v>33.38</v>
+            <v>34.68</v>
           </cell>
           <cell r="S13">
-            <v>932.15196</v>
+            <v>672.15196</v>
           </cell>
         </row>
         <row r="13">
@@ -2079,7 +2097,7 @@
             <v>JG_0000011</v>
           </cell>
           <cell r="B14" t="str">
-            <v>000028</v>
+            <v>JH_00009</v>
           </cell>
           <cell r="C14" t="str">
             <v>000733</v>
@@ -2130,7 +2148,7 @@
             <v>110.4</v>
           </cell>
           <cell r="S14">
-            <v>566.999999999999</v>
+            <v>0</v>
           </cell>
           <cell r="T14">
             <v>44543</v>
@@ -2162,13 +2180,19 @@
           <cell r="AC14">
             <v>0.267343485617597</v>
           </cell>
-        </row>
-        <row r="14">
+          <cell r="AD14" t="str">
+            <v>-</v>
+          </cell>
           <cell r="AE14">
             <v>-454.3992</v>
           </cell>
           <cell r="AF14">
             <v>-0.166473541908073</v>
+          </cell>
+          <cell r="AG14" t="str">
+            <v>1.对交易减少量缺乏关注；
+2.对网球行为缺乏关注；
+3.对低突破高交易量重回低位缺乏关注;</v>
           </cell>
         </row>
         <row r="15">
@@ -2176,7 +2200,7 @@
             <v>JG_0000012</v>
           </cell>
           <cell r="B15" t="str">
-            <v>000029</v>
+            <v>JH_00008</v>
           </cell>
           <cell r="C15">
             <v>601677</v>
@@ -2243,7 +2267,7 @@
             <v>JG_0000013</v>
           </cell>
           <cell r="B16" t="str">
-            <v>000030</v>
+            <v>JH_00007</v>
           </cell>
           <cell r="C16">
             <v>603688</v>
@@ -2310,7 +2334,7 @@
             <v>JG_0000014</v>
           </cell>
           <cell r="B17" t="str">
-            <v>000031</v>
+            <v>JH_00006</v>
           </cell>
           <cell r="C17">
             <v>600032</v>
@@ -2369,7 +2393,7 @@
             <v>JG_0000015</v>
           </cell>
           <cell r="B18" t="str">
-            <v>000032</v>
+            <v>JH_00006</v>
           </cell>
           <cell r="C18">
             <v>600032</v>
@@ -2427,16 +2451,10 @@
           <cell r="A19" t="str">
             <v>JG_0000016</v>
           </cell>
-          <cell r="B19" t="str">
-            <v>000033</v>
-          </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
             <v>JG_0000017</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>000034</v>
           </cell>
         </row>
       </sheetData>
@@ -2712,7 +2730,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH9" sqref="AH9"/>
+      <selection pane="bottomRight" activeCell="AI6" sqref="AI6:AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2774,28 +2792,28 @@
       <c r="S1" s="18"/>
       <c r="T1" s="18"/>
       <c r="U1" s="18"/>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="W1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="35" t="s">
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="36" t="s">
+      <c r="AH1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="36"/>
+      <c r="AI1" s="38"/>
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="5"/>
@@ -2819,24 +2837,24 @@
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="29" t="s">
+      <c r="V2" s="29"/>
+      <c r="W2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="33" t="s">
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="5"/>
@@ -2858,26 +2876,26 @@
       </c>
       <c r="P3" s="19"/>
       <c r="Q3" s="19"/>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="5"/>
@@ -2927,50 +2945,50 @@
       <c r="Q4" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="25" t="s">
+      <c r="S4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="25" t="s">
+      <c r="T4" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="U4" s="25" t="s">
+      <c r="U4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="V4" s="27"/>
-      <c r="W4" s="30" t="s">
+      <c r="V4" s="29"/>
+      <c r="W4" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="30" t="s">
+      <c r="X4" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="Y4" s="29" t="s">
+      <c r="Y4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="31" t="s">
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="AB4" s="29" t="s">
+      <c r="AB4" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="31" t="s">
+      <c r="AC4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AD4" s="31" t="s">
+      <c r="AD4" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="AE4" s="33" t="s">
+      <c r="AE4" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AF4" s="34" t="s">
+      <c r="AF4" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
     </row>
     <row r="5" ht="56" customHeight="1" spans="1:35">
       <c r="A5" s="5"/>
@@ -2994,30 +3012,30 @@
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="32" t="s">
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="Z5" s="32" t="s">
+      <c r="Z5" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="37" t="s">
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AI5" s="37" t="s">
+      <c r="AI5" s="39" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3081,18 +3099,18 @@
       <c r="R6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="S6" s="26" t="s">
+      <c r="S6" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="T6" s="26" t="str">
+      <c r="T6" s="27" t="str">
         <f>IF(I6/(ROW()-5)&gt;0.5,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="U6" s="26" t="str">
+      <c r="U6" s="27" t="str">
         <f>IF(SUM($N$6:$N6)&gt;0,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="V6" s="26" t="s">
+      <c r="V6" s="28" t="s">
         <v>46</v>
       </c>
       <c r="W6" s="10"/>
@@ -3112,7 +3130,7 @@
         <f>AG6-VLOOKUP([1]交易计划及执行表!$A$17,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
         <v>-1.51</v>
       </c>
-      <c r="AI6" s="38">
+      <c r="AI6" s="4">
         <f>AG6-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
         <v>-1.69</v>
       </c>
@@ -3121,27 +3139,77 @@
       <c r="A7" s="8">
         <v>44544</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
+      <c r="B7" s="9">
+        <v>16.88</v>
+      </c>
+      <c r="C7" s="9">
+        <v>16.84</v>
+      </c>
+      <c r="D7" s="9">
+        <v>17.2</v>
+      </c>
+      <c r="E7" s="9">
+        <v>16.61</v>
+      </c>
+      <c r="F7" s="9">
+        <v>16.43</v>
+      </c>
+      <c r="G7" s="9">
+        <v>15.79</v>
+      </c>
+      <c r="H7" s="10">
+        <v>88.46</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1</v>
+      </c>
+      <c r="J7" s="15">
+        <f>(B7-B6)/B6</f>
+        <v>-0.00705882352941182</v>
+      </c>
+      <c r="K7" s="16">
+        <f>(B7-VLOOKUP([1]交易计划及执行表!$A$17,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$17,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
+        <v>-0.0076425631981189</v>
+      </c>
+      <c r="L7" s="16">
+        <f>(B7-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
+        <v>-0.0180337405468297</v>
+      </c>
+      <c r="M7" s="15">
+        <f>I7/(ROW()-5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="24">
+        <f>IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="O7" s="10" t="str">
+        <f>IF(B7&lt;F7,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="T7" s="28" t="str">
+        <f>IF(I7/(ROW()-5)&gt;0.5,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="U7" s="28" t="str">
+        <f>IF(SUM($N$6:$N7)&gt;0,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="V7" s="28" t="s">
+        <v>46</v>
+      </c>
       <c r="W7" s="10"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="4"/>
@@ -3152,8 +3220,18 @@
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AI7" s="38"/>
+      <c r="AG7" s="4">
+        <f>IF(AND(G7-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE)&gt;0,G7&gt;G6),G7,AG6)</f>
+        <v>15.5</v>
+      </c>
+      <c r="AH7" s="4">
+        <f>AG7-VLOOKUP([1]交易计划及执行表!$A$17,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
+        <v>-1.51</v>
+      </c>
+      <c r="AI7" s="4">
+        <f>AG7-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
+        <v>-1.69</v>
+      </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="8">
@@ -3191,7 +3269,7 @@
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
-      <c r="AI8" s="38"/>
+      <c r="AI8" s="4"/>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="8">
@@ -3229,7 +3307,7 @@
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
-      <c r="AI9" s="38"/>
+      <c r="AI9" s="4"/>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="8">
@@ -3267,7 +3345,7 @@
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
-      <c r="AI10" s="38"/>
+      <c r="AI10" s="4"/>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="8">
@@ -3305,7 +3383,7 @@
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
-      <c r="AI11" s="38"/>
+      <c r="AI11" s="4"/>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="8">
@@ -3343,7 +3421,7 @@
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
-      <c r="AI12" s="38"/>
+      <c r="AI12" s="4"/>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="8">
@@ -3381,7 +3459,7 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
-      <c r="AI13" s="38"/>
+      <c r="AI13" s="4"/>
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="8">
@@ -3419,7 +3497,7 @@
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
-      <c r="AI14" s="38"/>
+      <c r="AI14" s="4"/>
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="8">
@@ -3457,7 +3535,7 @@
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
-      <c r="AI15" s="38"/>
+      <c r="AI15" s="4"/>
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="8">
@@ -3495,7 +3573,7 @@
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
-      <c r="AI16" s="38"/>
+      <c r="AI16" s="4"/>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="8">
@@ -3533,7 +3611,7 @@
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
-      <c r="AI17" s="38"/>
+      <c r="AI17" s="4"/>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="8">
@@ -3571,7 +3649,7 @@
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
-      <c r="AI18" s="38"/>
+      <c r="AI18" s="4"/>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="8">
@@ -3609,7 +3687,7 @@
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
-      <c r="AI19" s="38"/>
+      <c r="AI19" s="4"/>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="8">
@@ -3647,7 +3725,7 @@
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
-      <c r="AI20" s="38"/>
+      <c r="AI20" s="4"/>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="8">
@@ -3685,7 +3763,7 @@
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
-      <c r="AI21" s="38"/>
+      <c r="AI21" s="4"/>
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="8">
@@ -3723,7 +3801,7 @@
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
-      <c r="AI22" s="38"/>
+      <c r="AI22" s="4"/>
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="8">
@@ -3761,7 +3839,7 @@
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
-      <c r="AI23" s="38"/>
+      <c r="AI23" s="4"/>
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="8">
@@ -3799,7 +3877,7 @@
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
-      <c r="AI24" s="38"/>
+      <c r="AI24" s="4"/>
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="8">
@@ -3837,7 +3915,7 @@
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
-      <c r="AI25" s="38"/>
+      <c r="AI25" s="4"/>
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="8">
@@ -3875,7 +3953,7 @@
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
-      <c r="AI26" s="38"/>
+      <c r="AI26" s="4"/>
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="8">
@@ -3913,7 +3991,7 @@
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
       <c r="AG27" s="4"/>
-      <c r="AI27" s="38"/>
+      <c r="AI27" s="4"/>
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="8">
@@ -3951,7 +4029,7 @@
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
       <c r="AG28" s="4"/>
-      <c r="AI28" s="38"/>
+      <c r="AI28" s="4"/>
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="8">
@@ -3989,7 +4067,7 @@
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
-      <c r="AI29" s="38"/>
+      <c r="AI29" s="4"/>
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="8">
@@ -4027,7 +4105,7 @@
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
       <c r="AG30" s="4"/>
-      <c r="AI30" s="38"/>
+      <c r="AI30" s="4"/>
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="8">
@@ -4065,7 +4143,7 @@
       <c r="AE31" s="4"/>
       <c r="AF31" s="4"/>
       <c r="AG31" s="4"/>
-      <c r="AI31" s="38"/>
+      <c r="AI31" s="4"/>
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="8">
@@ -4103,7 +4181,7 @@
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
       <c r="AG32" s="4"/>
-      <c r="AI32" s="38"/>
+      <c r="AI32" s="4"/>
     </row>
     <row r="33" spans="1:35">
       <c r="A33" s="8">
@@ -4141,7 +4219,7 @@
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
       <c r="AG33" s="4"/>
-      <c r="AI33" s="38"/>
+      <c r="AI33" s="4"/>
     </row>
     <row r="34" spans="1:35">
       <c r="A34" s="8">
@@ -4179,7 +4257,7 @@
       <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
       <c r="AG34" s="4"/>
-      <c r="AI34" s="38"/>
+      <c r="AI34" s="4"/>
     </row>
     <row r="35" spans="1:35">
       <c r="A35" s="8">
@@ -4217,7 +4295,7 @@
       <c r="AE35" s="4"/>
       <c r="AF35" s="4"/>
       <c r="AG35" s="4"/>
-      <c r="AI35" s="38"/>
+      <c r="AI35" s="4"/>
     </row>
     <row r="36" spans="1:35">
       <c r="A36" s="8">
@@ -4255,7 +4333,7 @@
       <c r="AE36" s="4"/>
       <c r="AF36" s="4"/>
       <c r="AG36" s="4"/>
-      <c r="AI36" s="38"/>
+      <c r="AI36" s="4"/>
     </row>
     <row r="37" spans="1:35">
       <c r="A37" s="8">
@@ -4293,7 +4371,7 @@
       <c r="AE37" s="4"/>
       <c r="AF37" s="4"/>
       <c r="AG37" s="4"/>
-      <c r="AI37" s="38"/>
+      <c r="AI37" s="4"/>
     </row>
     <row r="38" spans="1:35">
       <c r="A38" s="8">
@@ -4331,7 +4409,7 @@
       <c r="AE38" s="4"/>
       <c r="AF38" s="4"/>
       <c r="AG38" s="4"/>
-      <c r="AI38" s="38"/>
+      <c r="AI38" s="4"/>
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="8">
@@ -4369,7 +4447,7 @@
       <c r="AE39" s="4"/>
       <c r="AF39" s="4"/>
       <c r="AG39" s="4"/>
-      <c r="AI39" s="38"/>
+      <c r="AI39" s="4"/>
     </row>
     <row r="40" spans="1:35">
       <c r="A40" s="8">
@@ -4407,7 +4485,7 @@
       <c r="AE40" s="4"/>
       <c r="AF40" s="4"/>
       <c r="AG40" s="4"/>
-      <c r="AI40" s="38"/>
+      <c r="AI40" s="4"/>
     </row>
     <row r="41" spans="1:35">
       <c r="A41" s="8">
@@ -4445,7 +4523,7 @@
       <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
       <c r="AG41" s="4"/>
-      <c r="AI41" s="38"/>
+      <c r="AI41" s="4"/>
     </row>
     <row r="42" spans="1:35">
       <c r="A42" s="8">
@@ -4483,7 +4561,7 @@
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
       <c r="AG42" s="4"/>
-      <c r="AI42" s="38"/>
+      <c r="AI42" s="4"/>
     </row>
     <row r="43" spans="1:35">
       <c r="A43" s="8">
@@ -4521,7 +4599,7 @@
       <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
       <c r="AG43" s="4"/>
-      <c r="AI43" s="38"/>
+      <c r="AI43" s="4"/>
     </row>
     <row r="44" spans="1:35">
       <c r="A44" s="8">
@@ -4559,7 +4637,7 @@
       <c r="AE44" s="4"/>
       <c r="AF44" s="4"/>
       <c r="AG44" s="4"/>
-      <c r="AI44" s="38"/>
+      <c r="AI44" s="4"/>
     </row>
     <row r="45" spans="1:35">
       <c r="A45" s="8">
@@ -4597,7 +4675,7 @@
       <c r="AE45" s="4"/>
       <c r="AF45" s="4"/>
       <c r="AG45" s="4"/>
-      <c r="AI45" s="38"/>
+      <c r="AI45" s="4"/>
     </row>
     <row r="46" spans="1:35">
       <c r="A46" s="8">
@@ -4635,7 +4713,7 @@
       <c r="AE46" s="4"/>
       <c r="AF46" s="4"/>
       <c r="AG46" s="4"/>
-      <c r="AI46" s="38"/>
+      <c r="AI46" s="4"/>
     </row>
     <row r="47" spans="1:35">
       <c r="A47" s="8">
@@ -4673,7 +4751,7 @@
       <c r="AE47" s="4"/>
       <c r="AF47" s="4"/>
       <c r="AG47" s="4"/>
-      <c r="AI47" s="38"/>
+      <c r="AI47" s="4"/>
     </row>
     <row r="48" spans="1:35">
       <c r="A48" s="8">
@@ -4711,7 +4789,7 @@
       <c r="AE48" s="4"/>
       <c r="AF48" s="4"/>
       <c r="AG48" s="4"/>
-      <c r="AI48" s="38"/>
+      <c r="AI48" s="4"/>
     </row>
     <row r="49" spans="1:35">
       <c r="A49" s="8">
@@ -4749,7 +4827,7 @@
       <c r="AE49" s="4"/>
       <c r="AF49" s="4"/>
       <c r="AG49" s="4"/>
-      <c r="AI49" s="38"/>
+      <c r="AI49" s="4"/>
     </row>
     <row r="50" spans="1:35">
       <c r="A50" s="8">
@@ -4787,7 +4865,7 @@
       <c r="AE50" s="4"/>
       <c r="AF50" s="4"/>
       <c r="AG50" s="4"/>
-      <c r="AI50" s="38"/>
+      <c r="AI50" s="4"/>
     </row>
     <row r="51" spans="1:35">
       <c r="A51" s="8">
@@ -4825,7 +4903,7 @@
       <c r="AE51" s="4"/>
       <c r="AF51" s="4"/>
       <c r="AG51" s="4"/>
-      <c r="AI51" s="38"/>
+      <c r="AI51" s="4"/>
     </row>
     <row r="52" spans="1:35">
       <c r="A52" s="8">
@@ -4863,7 +4941,7 @@
       <c r="AE52" s="4"/>
       <c r="AF52" s="4"/>
       <c r="AG52" s="4"/>
-      <c r="AI52" s="38"/>
+      <c r="AI52" s="4"/>
     </row>
     <row r="53" spans="1:35">
       <c r="A53" s="8">
@@ -4901,7 +4979,7 @@
       <c r="AE53" s="4"/>
       <c r="AF53" s="4"/>
       <c r="AG53" s="4"/>
-      <c r="AI53" s="38"/>
+      <c r="AI53" s="4"/>
     </row>
     <row r="54" spans="1:35">
       <c r="A54" s="8">
@@ -4939,7 +5017,7 @@
       <c r="AE54" s="4"/>
       <c r="AF54" s="4"/>
       <c r="AG54" s="4"/>
-      <c r="AI54" s="38"/>
+      <c r="AI54" s="4"/>
     </row>
     <row r="55" spans="1:35">
       <c r="A55" s="8">
@@ -4977,7 +5055,7 @@
       <c r="AE55" s="4"/>
       <c r="AF55" s="4"/>
       <c r="AG55" s="4"/>
-      <c r="AI55" s="38"/>
+      <c r="AI55" s="4"/>
     </row>
     <row r="56" spans="1:35">
       <c r="A56" s="8">
@@ -5015,7 +5093,7 @@
       <c r="AE56" s="4"/>
       <c r="AF56" s="4"/>
       <c r="AG56" s="4"/>
-      <c r="AI56" s="38"/>
+      <c r="AI56" s="4"/>
     </row>
     <row r="57" spans="1:35">
       <c r="A57" s="8">
@@ -5053,7 +5131,7 @@
       <c r="AE57" s="4"/>
       <c r="AF57" s="4"/>
       <c r="AG57" s="4"/>
-      <c r="AI57" s="38"/>
+      <c r="AI57" s="4"/>
     </row>
     <row r="58" spans="1:35">
       <c r="A58" s="8">
@@ -5091,7 +5169,7 @@
       <c r="AE58" s="4"/>
       <c r="AF58" s="4"/>
       <c r="AG58" s="4"/>
-      <c r="AI58" s="38"/>
+      <c r="AI58" s="4"/>
     </row>
     <row r="59" spans="1:35">
       <c r="A59" s="8">
@@ -5129,7 +5207,7 @@
       <c r="AE59" s="4"/>
       <c r="AF59" s="4"/>
       <c r="AG59" s="4"/>
-      <c r="AI59" s="38"/>
+      <c r="AI59" s="4"/>
     </row>
     <row r="60" spans="1:35">
       <c r="A60" s="8">
@@ -5167,7 +5245,7 @@
       <c r="AE60" s="4"/>
       <c r="AF60" s="4"/>
       <c r="AG60" s="4"/>
-      <c r="AI60" s="38"/>
+      <c r="AI60" s="4"/>
     </row>
     <row r="61" spans="1:35">
       <c r="A61" s="8">
@@ -5205,7 +5283,7 @@
       <c r="AE61" s="4"/>
       <c r="AF61" s="4"/>
       <c r="AG61" s="4"/>
-      <c r="AI61" s="38"/>
+      <c r="AI61" s="4"/>
     </row>
     <row r="62" spans="1:35">
       <c r="A62" s="8">
@@ -5243,7 +5321,7 @@
       <c r="AE62" s="4"/>
       <c r="AF62" s="4"/>
       <c r="AG62" s="4"/>
-      <c r="AI62" s="38"/>
+      <c r="AI62" s="4"/>
     </row>
     <row r="63" spans="1:35">
       <c r="A63" s="8">
@@ -5281,7 +5359,7 @@
       <c r="AE63" s="4"/>
       <c r="AF63" s="4"/>
       <c r="AG63" s="4"/>
-      <c r="AI63" s="38"/>
+      <c r="AI63" s="4"/>
     </row>
     <row r="64" spans="1:35">
       <c r="A64" s="8">
@@ -5319,7 +5397,7 @@
       <c r="AE64" s="4"/>
       <c r="AF64" s="4"/>
       <c r="AG64" s="4"/>
-      <c r="AI64" s="38"/>
+      <c r="AI64" s="4"/>
     </row>
     <row r="65" spans="1:35">
       <c r="A65" s="8">
@@ -5357,7 +5435,7 @@
       <c r="AE65" s="4"/>
       <c r="AF65" s="4"/>
       <c r="AG65" s="4"/>
-      <c r="AI65" s="38"/>
+      <c r="AI65" s="4"/>
     </row>
     <row r="66" spans="1:35">
       <c r="A66" s="8">
@@ -5395,7 +5473,7 @@
       <c r="AE66" s="4"/>
       <c r="AF66" s="4"/>
       <c r="AG66" s="4"/>
-      <c r="AI66" s="38"/>
+      <c r="AI66" s="4"/>
     </row>
     <row r="67" spans="1:35">
       <c r="A67" s="8">
@@ -5433,7 +5511,7 @@
       <c r="AE67" s="4"/>
       <c r="AF67" s="4"/>
       <c r="AG67" s="4"/>
-      <c r="AI67" s="38"/>
+      <c r="AI67" s="4"/>
     </row>
     <row r="68" spans="1:35">
       <c r="A68" s="8">
@@ -5471,7 +5549,7 @@
       <c r="AE68" s="4"/>
       <c r="AF68" s="4"/>
       <c r="AG68" s="4"/>
-      <c r="AI68" s="38"/>
+      <c r="AI68" s="4"/>
     </row>
     <row r="69" spans="1:35">
       <c r="A69" s="8">
@@ -5509,7 +5587,7 @@
       <c r="AE69" s="4"/>
       <c r="AF69" s="4"/>
       <c r="AG69" s="4"/>
-      <c r="AI69" s="38"/>
+      <c r="AI69" s="4"/>
     </row>
     <row r="70" spans="1:35">
       <c r="A70" s="8">
@@ -5547,7 +5625,7 @@
       <c r="AE70" s="4"/>
       <c r="AF70" s="4"/>
       <c r="AG70" s="4"/>
-      <c r="AI70" s="38"/>
+      <c r="AI70" s="4"/>
     </row>
     <row r="71" spans="1:35">
       <c r="A71" s="8">
@@ -5585,7 +5663,7 @@
       <c r="AE71" s="4"/>
       <c r="AF71" s="4"/>
       <c r="AG71" s="4"/>
-      <c r="AI71" s="38"/>
+      <c r="AI71" s="4"/>
     </row>
     <row r="72" spans="1:35">
       <c r="A72" s="8">
@@ -5623,7 +5701,7 @@
       <c r="AE72" s="4"/>
       <c r="AF72" s="4"/>
       <c r="AG72" s="4"/>
-      <c r="AI72" s="38"/>
+      <c r="AI72" s="4"/>
     </row>
     <row r="73" spans="1:35">
       <c r="A73" s="8">
@@ -5661,7 +5739,7 @@
       <c r="AE73" s="4"/>
       <c r="AF73" s="4"/>
       <c r="AG73" s="4"/>
-      <c r="AI73" s="38"/>
+      <c r="AI73" s="4"/>
     </row>
     <row r="74" spans="1:35">
       <c r="A74" s="8">
@@ -5699,7 +5777,7 @@
       <c r="AE74" s="4"/>
       <c r="AF74" s="4"/>
       <c r="AG74" s="4"/>
-      <c r="AI74" s="38"/>
+      <c r="AI74" s="4"/>
     </row>
     <row r="75" spans="1:35">
       <c r="A75" s="8">
@@ -5737,7 +5815,7 @@
       <c r="AE75" s="4"/>
       <c r="AF75" s="4"/>
       <c r="AG75" s="4"/>
-      <c r="AI75" s="38"/>
+      <c r="AI75" s="4"/>
     </row>
     <row r="76" spans="1:35">
       <c r="A76" s="8">
@@ -5775,7 +5853,7 @@
       <c r="AE76" s="4"/>
       <c r="AF76" s="4"/>
       <c r="AG76" s="4"/>
-      <c r="AI76" s="38"/>
+      <c r="AI76" s="4"/>
     </row>
     <row r="77" spans="1:35">
       <c r="A77" s="8">
@@ -5813,7 +5891,7 @@
       <c r="AE77" s="4"/>
       <c r="AF77" s="4"/>
       <c r="AG77" s="4"/>
-      <c r="AI77" s="38"/>
+      <c r="AI77" s="4"/>
     </row>
     <row r="78" spans="1:35">
       <c r="A78" s="8">
@@ -5851,7 +5929,7 @@
       <c r="AE78" s="4"/>
       <c r="AF78" s="4"/>
       <c r="AG78" s="4"/>
-      <c r="AI78" s="38"/>
+      <c r="AI78" s="4"/>
     </row>
     <row r="79" spans="1:35">
       <c r="A79" s="8">
@@ -5889,7 +5967,7 @@
       <c r="AE79" s="4"/>
       <c r="AF79" s="4"/>
       <c r="AG79" s="4"/>
-      <c r="AI79" s="38"/>
+      <c r="AI79" s="4"/>
     </row>
     <row r="80" spans="1:35">
       <c r="A80" s="8">
@@ -5927,7 +6005,7 @@
       <c r="AE80" s="4"/>
       <c r="AF80" s="4"/>
       <c r="AG80" s="4"/>
-      <c r="AI80" s="38"/>
+      <c r="AI80" s="4"/>
     </row>
     <row r="81" spans="1:35">
       <c r="A81" s="8">
@@ -5965,7 +6043,7 @@
       <c r="AE81" s="4"/>
       <c r="AF81" s="4"/>
       <c r="AG81" s="4"/>
-      <c r="AI81" s="38"/>
+      <c r="AI81" s="4"/>
     </row>
     <row r="82" spans="1:35">
       <c r="A82" s="8">
@@ -6003,7 +6081,7 @@
       <c r="AE82" s="4"/>
       <c r="AF82" s="4"/>
       <c r="AG82" s="4"/>
-      <c r="AI82" s="38"/>
+      <c r="AI82" s="4"/>
     </row>
     <row r="83" spans="1:35">
       <c r="A83" s="8">
@@ -6041,7 +6119,7 @@
       <c r="AE83" s="4"/>
       <c r="AF83" s="4"/>
       <c r="AG83" s="4"/>
-      <c r="AI83" s="38"/>
+      <c r="AI83" s="4"/>
     </row>
     <row r="84" spans="1:35">
       <c r="A84" s="8">
@@ -6079,7 +6157,7 @@
       <c r="AE84" s="4"/>
       <c r="AF84" s="4"/>
       <c r="AG84" s="4"/>
-      <c r="AI84" s="38"/>
+      <c r="AI84" s="4"/>
     </row>
     <row r="85" spans="1:35">
       <c r="A85" s="8">
@@ -6117,7 +6195,7 @@
       <c r="AE85" s="4"/>
       <c r="AF85" s="4"/>
       <c r="AG85" s="4"/>
-      <c r="AI85" s="38"/>
+      <c r="AI85" s="4"/>
     </row>
     <row r="86" spans="1:35">
       <c r="A86" s="8">
@@ -6155,7 +6233,7 @@
       <c r="AE86" s="4"/>
       <c r="AF86" s="4"/>
       <c r="AG86" s="4"/>
-      <c r="AI86" s="38"/>
+      <c r="AI86" s="4"/>
     </row>
     <row r="87" spans="1:35">
       <c r="A87" s="8">
@@ -6193,7 +6271,7 @@
       <c r="AE87" s="4"/>
       <c r="AF87" s="4"/>
       <c r="AG87" s="4"/>
-      <c r="AI87" s="38"/>
+      <c r="AI87" s="4"/>
     </row>
     <row r="88" spans="1:35">
       <c r="A88" s="8">
@@ -6231,7 +6309,7 @@
       <c r="AE88" s="4"/>
       <c r="AF88" s="4"/>
       <c r="AG88" s="4"/>
-      <c r="AI88" s="38"/>
+      <c r="AI88" s="4"/>
     </row>
     <row r="89" spans="1:35">
       <c r="A89" s="8">
@@ -6269,7 +6347,7 @@
       <c r="AE89" s="4"/>
       <c r="AF89" s="4"/>
       <c r="AG89" s="4"/>
-      <c r="AI89" s="38"/>
+      <c r="AI89" s="4"/>
     </row>
     <row r="90" spans="1:35">
       <c r="A90" s="8">
@@ -6307,7 +6385,7 @@
       <c r="AE90" s="4"/>
       <c r="AF90" s="4"/>
       <c r="AG90" s="4"/>
-      <c r="AI90" s="38"/>
+      <c r="AI90" s="4"/>
     </row>
     <row r="91" spans="1:35">
       <c r="A91" s="8">
@@ -6345,7 +6423,7 @@
       <c r="AE91" s="4"/>
       <c r="AF91" s="4"/>
       <c r="AG91" s="4"/>
-      <c r="AI91" s="38"/>
+      <c r="AI91" s="4"/>
     </row>
     <row r="92" spans="1:35">
       <c r="A92" s="8">
@@ -6383,7 +6461,7 @@
       <c r="AE92" s="4"/>
       <c r="AF92" s="4"/>
       <c r="AG92" s="4"/>
-      <c r="AI92" s="38"/>
+      <c r="AI92" s="4"/>
     </row>
     <row r="93" spans="1:35">
       <c r="A93" s="8">
@@ -6421,7 +6499,7 @@
       <c r="AE93" s="4"/>
       <c r="AF93" s="4"/>
       <c r="AG93" s="4"/>
-      <c r="AI93" s="38"/>
+      <c r="AI93" s="4"/>
     </row>
     <row r="94" spans="1:35">
       <c r="A94" s="8">
@@ -6459,7 +6537,7 @@
       <c r="AE94" s="4"/>
       <c r="AF94" s="4"/>
       <c r="AG94" s="4"/>
-      <c r="AI94" s="38"/>
+      <c r="AI94" s="4"/>
     </row>
     <row r="95" spans="1:35">
       <c r="A95" s="8">
@@ -6497,7 +6575,7 @@
       <c r="AE95" s="4"/>
       <c r="AF95" s="4"/>
       <c r="AG95" s="4"/>
-      <c r="AI95" s="38"/>
+      <c r="AI95" s="4"/>
     </row>
     <row r="96" spans="1:35">
       <c r="A96" s="8">
@@ -6535,7 +6613,7 @@
       <c r="AE96" s="4"/>
       <c r="AF96" s="4"/>
       <c r="AG96" s="4"/>
-      <c r="AI96" s="38"/>
+      <c r="AI96" s="4"/>
     </row>
     <row r="97" spans="1:35">
       <c r="A97" s="8">
@@ -6573,7 +6651,7 @@
       <c r="AE97" s="4"/>
       <c r="AF97" s="4"/>
       <c r="AG97" s="4"/>
-      <c r="AI97" s="38"/>
+      <c r="AI97" s="4"/>
     </row>
     <row r="98" spans="1:35">
       <c r="A98" s="8">
@@ -6611,7 +6689,7 @@
       <c r="AE98" s="4"/>
       <c r="AF98" s="4"/>
       <c r="AG98" s="4"/>
-      <c r="AI98" s="38"/>
+      <c r="AI98" s="4"/>
     </row>
     <row r="99" spans="1:35">
       <c r="A99" s="8">
@@ -6649,7 +6727,7 @@
       <c r="AE99" s="4"/>
       <c r="AF99" s="4"/>
       <c r="AG99" s="4"/>
-      <c r="AI99" s="38"/>
+      <c r="AI99" s="4"/>
     </row>
     <row r="100" spans="1:35">
       <c r="A100" s="8">
@@ -6687,7 +6765,7 @@
       <c r="AE100" s="4"/>
       <c r="AF100" s="4"/>
       <c r="AG100" s="4"/>
-      <c r="AI100" s="38"/>
+      <c r="AI100" s="4"/>
     </row>
     <row r="101" spans="1:35">
       <c r="A101" s="8">
@@ -6725,7 +6803,7 @@
       <c r="AE101" s="4"/>
       <c r="AF101" s="4"/>
       <c r="AG101" s="4"/>
-      <c r="AI101" s="38"/>
+      <c r="AI101" s="4"/>
     </row>
     <row r="102" spans="1:35">
       <c r="A102" s="8">
@@ -6763,7 +6841,7 @@
       <c r="AE102" s="4"/>
       <c r="AF102" s="4"/>
       <c r="AG102" s="4"/>
-      <c r="AI102" s="38"/>
+      <c r="AI102" s="4"/>
     </row>
     <row r="103" spans="1:35">
       <c r="A103" s="8">
@@ -6801,7 +6879,7 @@
       <c r="AE103" s="4"/>
       <c r="AF103" s="4"/>
       <c r="AG103" s="4"/>
-      <c r="AI103" s="38"/>
+      <c r="AI103" s="4"/>
     </row>
     <row r="104" spans="1:35">
       <c r="A104" s="8">
@@ -6839,7 +6917,7 @@
       <c r="AE104" s="4"/>
       <c r="AF104" s="4"/>
       <c r="AG104" s="4"/>
-      <c r="AI104" s="38"/>
+      <c r="AI104" s="4"/>
     </row>
     <row r="105" spans="1:35">
       <c r="A105" s="8">
@@ -6877,7 +6955,7 @@
       <c r="AE105" s="4"/>
       <c r="AF105" s="4"/>
       <c r="AG105" s="4"/>
-      <c r="AI105" s="38"/>
+      <c r="AI105" s="4"/>
     </row>
     <row r="106" spans="1:35">
       <c r="A106" s="8">
@@ -6915,7 +6993,7 @@
       <c r="AE106" s="4"/>
       <c r="AF106" s="4"/>
       <c r="AG106" s="4"/>
-      <c r="AI106" s="38"/>
+      <c r="AI106" s="4"/>
     </row>
     <row r="107" spans="1:35">
       <c r="A107" s="8">
@@ -6953,7 +7031,7 @@
       <c r="AE107" s="4"/>
       <c r="AF107" s="4"/>
       <c r="AG107" s="4"/>
-      <c r="AI107" s="38"/>
+      <c r="AI107" s="4"/>
     </row>
     <row r="108" spans="1:35">
       <c r="A108" s="8">
@@ -6991,7 +7069,7 @@
       <c r="AE108" s="4"/>
       <c r="AF108" s="4"/>
       <c r="AG108" s="4"/>
-      <c r="AI108" s="38"/>
+      <c r="AI108" s="4"/>
     </row>
     <row r="109" spans="1:35">
       <c r="A109" s="8">
@@ -7029,7 +7107,7 @@
       <c r="AE109" s="4"/>
       <c r="AF109" s="4"/>
       <c r="AG109" s="4"/>
-      <c r="AI109" s="38"/>
+      <c r="AI109" s="4"/>
     </row>
     <row r="110" spans="1:35">
       <c r="A110" s="8">
@@ -7067,7 +7145,7 @@
       <c r="AE110" s="4"/>
       <c r="AF110" s="4"/>
       <c r="AG110" s="4"/>
-      <c r="AI110" s="38"/>
+      <c r="AI110" s="4"/>
     </row>
     <row r="111" spans="1:35">
       <c r="A111" s="8">
@@ -7105,7 +7183,7 @@
       <c r="AE111" s="4"/>
       <c r="AF111" s="4"/>
       <c r="AG111" s="4"/>
-      <c r="AI111" s="38"/>
+      <c r="AI111" s="4"/>
     </row>
     <row r="112" spans="1:35">
       <c r="A112" s="8">
@@ -7143,7 +7221,7 @@
       <c r="AE112" s="4"/>
       <c r="AF112" s="4"/>
       <c r="AG112" s="4"/>
-      <c r="AI112" s="38"/>
+      <c r="AI112" s="4"/>
     </row>
     <row r="113" spans="1:34">
       <c r="A113" s="1"/>
@@ -7154,11 +7232,11 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="I113" s="1"/>
-      <c r="J113" s="39"/>
-      <c r="K113" s="39"/>
-      <c r="L113" s="39"/>
-      <c r="M113" s="39"/>
-      <c r="N113" s="40"/>
+      <c r="J113" s="40"/>
+      <c r="K113" s="40"/>
+      <c r="L113" s="40"/>
+      <c r="M113" s="40"/>
+      <c r="N113" s="41"/>
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
@@ -7167,7 +7245,7 @@
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
       <c r="X113" s="1"/>
-      <c r="AH113" s="41"/>
+      <c r="AH113" s="42"/>
     </row>
     <row r="114" spans="1:24">
       <c r="A114" s="1"/>
@@ -7178,11 +7256,11 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="I114" s="1"/>
-      <c r="J114" s="39"/>
-      <c r="K114" s="39"/>
-      <c r="L114" s="39"/>
-      <c r="M114" s="39"/>
-      <c r="N114" s="40"/>
+      <c r="J114" s="40"/>
+      <c r="K114" s="40"/>
+      <c r="L114" s="40"/>
+      <c r="M114" s="40"/>
+      <c r="N114" s="41"/>
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
@@ -7201,11 +7279,11 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="I115" s="1"/>
-      <c r="J115" s="39"/>
-      <c r="K115" s="39"/>
-      <c r="L115" s="39"/>
-      <c r="M115" s="39"/>
-      <c r="N115" s="40"/>
+      <c r="J115" s="40"/>
+      <c r="K115" s="40"/>
+      <c r="L115" s="40"/>
+      <c r="M115" s="40"/>
+      <c r="N115" s="41"/>
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
@@ -7224,11 +7302,11 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="I116" s="1"/>
-      <c r="J116" s="39"/>
-      <c r="K116" s="39"/>
-      <c r="L116" s="39"/>
-      <c r="M116" s="39"/>
-      <c r="N116" s="40"/>
+      <c r="J116" s="40"/>
+      <c r="K116" s="40"/>
+      <c r="L116" s="40"/>
+      <c r="M116" s="40"/>
+      <c r="N116" s="41"/>
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
@@ -7247,11 +7325,11 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="I117" s="1"/>
-      <c r="J117" s="39"/>
-      <c r="K117" s="39"/>
-      <c r="L117" s="39"/>
-      <c r="M117" s="39"/>
-      <c r="N117" s="40"/>
+      <c r="J117" s="40"/>
+      <c r="K117" s="40"/>
+      <c r="L117" s="40"/>
+      <c r="M117" s="40"/>
+      <c r="N117" s="41"/>
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
@@ -7270,11 +7348,11 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="I118" s="1"/>
-      <c r="J118" s="39"/>
-      <c r="K118" s="39"/>
-      <c r="L118" s="39"/>
-      <c r="M118" s="39"/>
-      <c r="N118" s="40"/>
+      <c r="J118" s="40"/>
+      <c r="K118" s="40"/>
+      <c r="L118" s="40"/>
+      <c r="M118" s="40"/>
+      <c r="N118" s="41"/>
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
@@ -7293,11 +7371,11 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="I119" s="1"/>
-      <c r="J119" s="39"/>
-      <c r="K119" s="39"/>
-      <c r="L119" s="39"/>
-      <c r="M119" s="39"/>
-      <c r="N119" s="40"/>
+      <c r="J119" s="40"/>
+      <c r="K119" s="40"/>
+      <c r="L119" s="40"/>
+      <c r="M119" s="40"/>
+      <c r="N119" s="41"/>
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
@@ -7316,11 +7394,11 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="I120" s="1"/>
-      <c r="J120" s="39"/>
-      <c r="K120" s="39"/>
-      <c r="L120" s="39"/>
-      <c r="M120" s="39"/>
-      <c r="N120" s="40"/>
+      <c r="J120" s="40"/>
+      <c r="K120" s="40"/>
+      <c r="L120" s="40"/>
+      <c r="M120" s="40"/>
+      <c r="N120" s="41"/>
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
@@ -7339,11 +7417,11 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="I121" s="1"/>
-      <c r="J121" s="39"/>
-      <c r="K121" s="39"/>
-      <c r="L121" s="39"/>
-      <c r="M121" s="39"/>
-      <c r="N121" s="40"/>
+      <c r="J121" s="40"/>
+      <c r="K121" s="40"/>
+      <c r="L121" s="40"/>
+      <c r="M121" s="40"/>
+      <c r="N121" s="41"/>
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
@@ -7362,11 +7440,11 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="I122" s="1"/>
-      <c r="J122" s="39"/>
-      <c r="K122" s="39"/>
-      <c r="L122" s="39"/>
-      <c r="M122" s="39"/>
-      <c r="N122" s="40"/>
+      <c r="J122" s="40"/>
+      <c r="K122" s="40"/>
+      <c r="L122" s="40"/>
+      <c r="M122" s="40"/>
+      <c r="N122" s="41"/>
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
@@ -7385,11 +7463,11 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="I123" s="1"/>
-      <c r="J123" s="39"/>
-      <c r="K123" s="39"/>
-      <c r="L123" s="39"/>
-      <c r="M123" s="39"/>
-      <c r="N123" s="40"/>
+      <c r="J123" s="40"/>
+      <c r="K123" s="40"/>
+      <c r="L123" s="40"/>
+      <c r="M123" s="40"/>
+      <c r="N123" s="41"/>
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
@@ -7408,11 +7486,11 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="I124" s="1"/>
-      <c r="J124" s="39"/>
-      <c r="K124" s="39"/>
-      <c r="L124" s="39"/>
-      <c r="M124" s="39"/>
-      <c r="N124" s="40"/>
+      <c r="J124" s="40"/>
+      <c r="K124" s="40"/>
+      <c r="L124" s="40"/>
+      <c r="M124" s="40"/>
+      <c r="N124" s="41"/>
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
@@ -7431,11 +7509,11 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="I125" s="1"/>
-      <c r="J125" s="39"/>
-      <c r="K125" s="39"/>
-      <c r="L125" s="39"/>
-      <c r="M125" s="39"/>
-      <c r="N125" s="40"/>
+      <c r="J125" s="40"/>
+      <c r="K125" s="40"/>
+      <c r="L125" s="40"/>
+      <c r="M125" s="40"/>
+      <c r="N125" s="41"/>
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
@@ -7454,11 +7532,11 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="I126" s="1"/>
-      <c r="J126" s="39"/>
-      <c r="K126" s="39"/>
-      <c r="L126" s="39"/>
-      <c r="M126" s="39"/>
-      <c r="N126" s="40"/>
+      <c r="J126" s="40"/>
+      <c r="K126" s="40"/>
+      <c r="L126" s="40"/>
+      <c r="M126" s="40"/>
+      <c r="N126" s="41"/>
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
@@ -7477,11 +7555,11 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="I127" s="1"/>
-      <c r="J127" s="39"/>
-      <c r="K127" s="39"/>
-      <c r="L127" s="39"/>
-      <c r="M127" s="39"/>
-      <c r="N127" s="40"/>
+      <c r="J127" s="40"/>
+      <c r="K127" s="40"/>
+      <c r="L127" s="40"/>
+      <c r="M127" s="40"/>
+      <c r="N127" s="41"/>
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
@@ -7500,11 +7578,11 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="I128" s="1"/>
-      <c r="J128" s="39"/>
-      <c r="K128" s="39"/>
-      <c r="L128" s="39"/>
-      <c r="M128" s="39"/>
-      <c r="N128" s="40"/>
+      <c r="J128" s="40"/>
+      <c r="K128" s="40"/>
+      <c r="L128" s="40"/>
+      <c r="M128" s="40"/>
+      <c r="N128" s="41"/>
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
@@ -7523,11 +7601,11 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="I129" s="1"/>
-      <c r="J129" s="39"/>
-      <c r="K129" s="39"/>
-      <c r="L129" s="39"/>
-      <c r="M129" s="39"/>
-      <c r="N129" s="40"/>
+      <c r="J129" s="40"/>
+      <c r="K129" s="40"/>
+      <c r="L129" s="40"/>
+      <c r="M129" s="40"/>
+      <c r="N129" s="41"/>
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
@@ -7546,11 +7624,11 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="I130" s="1"/>
-      <c r="J130" s="39"/>
-      <c r="K130" s="39"/>
-      <c r="L130" s="39"/>
-      <c r="M130" s="39"/>
-      <c r="N130" s="40"/>
+      <c r="J130" s="40"/>
+      <c r="K130" s="40"/>
+      <c r="L130" s="40"/>
+      <c r="M130" s="40"/>
+      <c r="N130" s="41"/>
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
@@ -7569,11 +7647,11 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="I131" s="1"/>
-      <c r="J131" s="39"/>
-      <c r="K131" s="39"/>
-      <c r="L131" s="39"/>
-      <c r="M131" s="39"/>
-      <c r="N131" s="40"/>
+      <c r="J131" s="40"/>
+      <c r="K131" s="40"/>
+      <c r="L131" s="40"/>
+      <c r="M131" s="40"/>
+      <c r="N131" s="41"/>
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
@@ -7592,11 +7670,11 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="I132" s="1"/>
-      <c r="J132" s="39"/>
-      <c r="K132" s="39"/>
-      <c r="L132" s="39"/>
-      <c r="M132" s="39"/>
-      <c r="N132" s="40"/>
+      <c r="J132" s="40"/>
+      <c r="K132" s="40"/>
+      <c r="L132" s="40"/>
+      <c r="M132" s="40"/>
+      <c r="N132" s="41"/>
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
@@ -7615,11 +7693,11 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="I133" s="1"/>
-      <c r="J133" s="39"/>
-      <c r="K133" s="39"/>
-      <c r="L133" s="39"/>
-      <c r="M133" s="39"/>
-      <c r="N133" s="40"/>
+      <c r="J133" s="40"/>
+      <c r="K133" s="40"/>
+      <c r="L133" s="40"/>
+      <c r="M133" s="40"/>
+      <c r="N133" s="41"/>
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
@@ -7638,11 +7716,11 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="I134" s="1"/>
-      <c r="J134" s="39"/>
-      <c r="K134" s="39"/>
-      <c r="L134" s="39"/>
-      <c r="M134" s="39"/>
-      <c r="N134" s="40"/>
+      <c r="J134" s="40"/>
+      <c r="K134" s="40"/>
+      <c r="L134" s="40"/>
+      <c r="M134" s="40"/>
+      <c r="N134" s="41"/>
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
@@ -7661,11 +7739,11 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="I135" s="1"/>
-      <c r="J135" s="39"/>
-      <c r="K135" s="39"/>
-      <c r="L135" s="39"/>
-      <c r="M135" s="39"/>
-      <c r="N135" s="40"/>
+      <c r="J135" s="40"/>
+      <c r="K135" s="40"/>
+      <c r="L135" s="40"/>
+      <c r="M135" s="40"/>
+      <c r="N135" s="41"/>
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
@@ -7684,11 +7762,11 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="I136" s="1"/>
-      <c r="J136" s="39"/>
-      <c r="K136" s="39"/>
-      <c r="L136" s="39"/>
-      <c r="M136" s="39"/>
-      <c r="N136" s="40"/>
+      <c r="J136" s="40"/>
+      <c r="K136" s="40"/>
+      <c r="L136" s="40"/>
+      <c r="M136" s="40"/>
+      <c r="N136" s="41"/>
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
@@ -7707,11 +7785,11 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="I137" s="1"/>
-      <c r="J137" s="39"/>
-      <c r="K137" s="39"/>
-      <c r="L137" s="39"/>
-      <c r="M137" s="39"/>
-      <c r="N137" s="40"/>
+      <c r="J137" s="40"/>
+      <c r="K137" s="40"/>
+      <c r="L137" s="40"/>
+      <c r="M137" s="40"/>
+      <c r="N137" s="41"/>
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
@@ -7730,11 +7808,11 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="I138" s="1"/>
-      <c r="J138" s="39"/>
-      <c r="K138" s="39"/>
-      <c r="L138" s="39"/>
-      <c r="M138" s="39"/>
-      <c r="N138" s="40"/>
+      <c r="J138" s="40"/>
+      <c r="K138" s="40"/>
+      <c r="L138" s="40"/>
+      <c r="M138" s="40"/>
+      <c r="N138" s="41"/>
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
@@ -7753,11 +7831,11 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="I139" s="1"/>
-      <c r="J139" s="39"/>
-      <c r="K139" s="39"/>
-      <c r="L139" s="39"/>
-      <c r="M139" s="39"/>
-      <c r="N139" s="40"/>
+      <c r="J139" s="40"/>
+      <c r="K139" s="40"/>
+      <c r="L139" s="40"/>
+      <c r="M139" s="40"/>
+      <c r="N139" s="41"/>
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
@@ -7776,11 +7854,11 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="I140" s="1"/>
-      <c r="J140" s="39"/>
-      <c r="K140" s="39"/>
-      <c r="L140" s="39"/>
-      <c r="M140" s="39"/>
-      <c r="N140" s="40"/>
+      <c r="J140" s="40"/>
+      <c r="K140" s="40"/>
+      <c r="L140" s="40"/>
+      <c r="M140" s="40"/>
+      <c r="N140" s="41"/>
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
@@ -7799,11 +7877,11 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="I141" s="1"/>
-      <c r="J141" s="39"/>
-      <c r="K141" s="39"/>
-      <c r="L141" s="39"/>
-      <c r="M141" s="39"/>
-      <c r="N141" s="40"/>
+      <c r="J141" s="40"/>
+      <c r="K141" s="40"/>
+      <c r="L141" s="40"/>
+      <c r="M141" s="40"/>
+      <c r="N141" s="41"/>
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
@@ -7822,11 +7900,11 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="I142" s="1"/>
-      <c r="J142" s="39"/>
-      <c r="K142" s="39"/>
-      <c r="L142" s="39"/>
-      <c r="M142" s="39"/>
-      <c r="N142" s="40"/>
+      <c r="J142" s="40"/>
+      <c r="K142" s="40"/>
+      <c r="L142" s="40"/>
+      <c r="M142" s="40"/>
+      <c r="N142" s="41"/>
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
@@ -7845,11 +7923,11 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="I143" s="1"/>
-      <c r="J143" s="39"/>
-      <c r="K143" s="39"/>
-      <c r="L143" s="39"/>
-      <c r="M143" s="39"/>
-      <c r="N143" s="40"/>
+      <c r="J143" s="40"/>
+      <c r="K143" s="40"/>
+      <c r="L143" s="40"/>
+      <c r="M143" s="40"/>
+      <c r="N143" s="41"/>
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
@@ -7868,11 +7946,11 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="I144" s="1"/>
-      <c r="J144" s="39"/>
-      <c r="K144" s="39"/>
-      <c r="L144" s="39"/>
-      <c r="M144" s="39"/>
-      <c r="N144" s="40"/>
+      <c r="J144" s="40"/>
+      <c r="K144" s="40"/>
+      <c r="L144" s="40"/>
+      <c r="M144" s="40"/>
+      <c r="N144" s="41"/>
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
@@ -7891,11 +7969,11 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="I145" s="1"/>
-      <c r="J145" s="39"/>
-      <c r="K145" s="39"/>
-      <c r="L145" s="39"/>
-      <c r="M145" s="39"/>
-      <c r="N145" s="40"/>
+      <c r="J145" s="40"/>
+      <c r="K145" s="40"/>
+      <c r="L145" s="40"/>
+      <c r="M145" s="40"/>
+      <c r="N145" s="41"/>
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
@@ -7914,11 +7992,11 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="I146" s="1"/>
-      <c r="J146" s="39"/>
-      <c r="K146" s="39"/>
-      <c r="L146" s="39"/>
-      <c r="M146" s="39"/>
-      <c r="N146" s="40"/>
+      <c r="J146" s="40"/>
+      <c r="K146" s="40"/>
+      <c r="L146" s="40"/>
+      <c r="M146" s="40"/>
+      <c r="N146" s="41"/>
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
@@ -7937,11 +8015,11 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="I147" s="1"/>
-      <c r="J147" s="39"/>
-      <c r="K147" s="39"/>
-      <c r="L147" s="39"/>
-      <c r="M147" s="39"/>
-      <c r="N147" s="40"/>
+      <c r="J147" s="40"/>
+      <c r="K147" s="40"/>
+      <c r="L147" s="40"/>
+      <c r="M147" s="40"/>
+      <c r="N147" s="41"/>
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
@@ -7960,11 +8038,11 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="I148" s="1"/>
-      <c r="J148" s="39"/>
-      <c r="K148" s="39"/>
-      <c r="L148" s="39"/>
-      <c r="M148" s="39"/>
-      <c r="N148" s="40"/>
+      <c r="J148" s="40"/>
+      <c r="K148" s="40"/>
+      <c r="L148" s="40"/>
+      <c r="M148" s="40"/>
+      <c r="N148" s="41"/>
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
@@ -7983,11 +8061,11 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="I149" s="1"/>
-      <c r="J149" s="39"/>
-      <c r="K149" s="39"/>
-      <c r="L149" s="39"/>
-      <c r="M149" s="39"/>
-      <c r="N149" s="40"/>
+      <c r="J149" s="40"/>
+      <c r="K149" s="40"/>
+      <c r="L149" s="40"/>
+      <c r="M149" s="40"/>
+      <c r="N149" s="41"/>
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
@@ -8006,11 +8084,11 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="I150" s="1"/>
-      <c r="J150" s="39"/>
-      <c r="K150" s="39"/>
-      <c r="L150" s="39"/>
-      <c r="M150" s="39"/>
-      <c r="N150" s="40"/>
+      <c r="J150" s="40"/>
+      <c r="K150" s="40"/>
+      <c r="L150" s="40"/>
+      <c r="M150" s="40"/>
+      <c r="N150" s="41"/>
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
@@ -8029,11 +8107,11 @@
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="I151" s="1"/>
-      <c r="J151" s="39"/>
-      <c r="K151" s="39"/>
-      <c r="L151" s="39"/>
-      <c r="M151" s="39"/>
-      <c r="N151" s="40"/>
+      <c r="J151" s="40"/>
+      <c r="K151" s="40"/>
+      <c r="L151" s="40"/>
+      <c r="M151" s="40"/>
+      <c r="N151" s="41"/>
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
@@ -8052,11 +8130,11 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="I152" s="1"/>
-      <c r="J152" s="39"/>
-      <c r="K152" s="39"/>
-      <c r="L152" s="39"/>
-      <c r="M152" s="39"/>
-      <c r="N152" s="40"/>
+      <c r="J152" s="40"/>
+      <c r="K152" s="40"/>
+      <c r="L152" s="40"/>
+      <c r="M152" s="40"/>
+      <c r="N152" s="41"/>
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
@@ -8075,11 +8153,11 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="I153" s="1"/>
-      <c r="J153" s="39"/>
-      <c r="K153" s="39"/>
-      <c r="L153" s="39"/>
-      <c r="M153" s="39"/>
-      <c r="N153" s="40"/>
+      <c r="J153" s="40"/>
+      <c r="K153" s="40"/>
+      <c r="L153" s="40"/>
+      <c r="M153" s="40"/>
+      <c r="N153" s="41"/>
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
@@ -8098,11 +8176,11 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="I154" s="1"/>
-      <c r="J154" s="39"/>
-      <c r="K154" s="39"/>
-      <c r="L154" s="39"/>
-      <c r="M154" s="39"/>
-      <c r="N154" s="40"/>
+      <c r="J154" s="40"/>
+      <c r="K154" s="40"/>
+      <c r="L154" s="40"/>
+      <c r="M154" s="40"/>
+      <c r="N154" s="41"/>
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
@@ -8121,11 +8199,11 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="I155" s="1"/>
-      <c r="J155" s="39"/>
-      <c r="K155" s="39"/>
-      <c r="L155" s="39"/>
-      <c r="M155" s="39"/>
-      <c r="N155" s="40"/>
+      <c r="J155" s="40"/>
+      <c r="K155" s="40"/>
+      <c r="L155" s="40"/>
+      <c r="M155" s="40"/>
+      <c r="N155" s="41"/>
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
@@ -8144,11 +8222,11 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="I156" s="1"/>
-      <c r="J156" s="39"/>
-      <c r="K156" s="39"/>
-      <c r="L156" s="39"/>
-      <c r="M156" s="39"/>
-      <c r="N156" s="40"/>
+      <c r="J156" s="40"/>
+      <c r="K156" s="40"/>
+      <c r="L156" s="40"/>
+      <c r="M156" s="40"/>
+      <c r="N156" s="41"/>
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
@@ -8167,11 +8245,11 @@
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="I157" s="1"/>
-      <c r="J157" s="39"/>
-      <c r="K157" s="39"/>
-      <c r="L157" s="39"/>
-      <c r="M157" s="39"/>
-      <c r="N157" s="40"/>
+      <c r="J157" s="40"/>
+      <c r="K157" s="40"/>
+      <c r="L157" s="40"/>
+      <c r="M157" s="40"/>
+      <c r="N157" s="41"/>
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
@@ -8190,11 +8268,11 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="I158" s="1"/>
-      <c r="J158" s="39"/>
-      <c r="K158" s="39"/>
-      <c r="L158" s="39"/>
-      <c r="M158" s="39"/>
-      <c r="N158" s="40"/>
+      <c r="J158" s="40"/>
+      <c r="K158" s="40"/>
+      <c r="L158" s="40"/>
+      <c r="M158" s="40"/>
+      <c r="N158" s="41"/>
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
@@ -8213,11 +8291,11 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="I159" s="1"/>
-      <c r="J159" s="39"/>
-      <c r="K159" s="39"/>
-      <c r="L159" s="39"/>
-      <c r="M159" s="39"/>
-      <c r="N159" s="40"/>
+      <c r="J159" s="40"/>
+      <c r="K159" s="40"/>
+      <c r="L159" s="40"/>
+      <c r="M159" s="40"/>
+      <c r="N159" s="41"/>
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
@@ -8236,11 +8314,11 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="I160" s="1"/>
-      <c r="J160" s="39"/>
-      <c r="K160" s="39"/>
-      <c r="L160" s="39"/>
-      <c r="M160" s="39"/>
-      <c r="N160" s="40"/>
+      <c r="J160" s="40"/>
+      <c r="K160" s="40"/>
+      <c r="L160" s="40"/>
+      <c r="M160" s="40"/>
+      <c r="N160" s="41"/>
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
@@ -8259,11 +8337,11 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="I161" s="1"/>
-      <c r="J161" s="39"/>
-      <c r="K161" s="39"/>
-      <c r="L161" s="39"/>
-      <c r="M161" s="39"/>
-      <c r="N161" s="40"/>
+      <c r="J161" s="40"/>
+      <c r="K161" s="40"/>
+      <c r="L161" s="40"/>
+      <c r="M161" s="40"/>
+      <c r="N161" s="41"/>
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
@@ -8282,11 +8360,11 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="I162" s="1"/>
-      <c r="J162" s="39"/>
-      <c r="K162" s="39"/>
-      <c r="L162" s="39"/>
-      <c r="M162" s="39"/>
-      <c r="N162" s="40"/>
+      <c r="J162" s="40"/>
+      <c r="K162" s="40"/>
+      <c r="L162" s="40"/>
+      <c r="M162" s="40"/>
+      <c r="N162" s="41"/>
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
@@ -8305,11 +8383,11 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="I163" s="1"/>
-      <c r="J163" s="39"/>
-      <c r="K163" s="39"/>
-      <c r="L163" s="39"/>
-      <c r="M163" s="39"/>
-      <c r="N163" s="40"/>
+      <c r="J163" s="40"/>
+      <c r="K163" s="40"/>
+      <c r="L163" s="40"/>
+      <c r="M163" s="40"/>
+      <c r="N163" s="41"/>
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
@@ -8328,11 +8406,11 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="I164" s="1"/>
-      <c r="J164" s="39"/>
-      <c r="K164" s="39"/>
-      <c r="L164" s="39"/>
-      <c r="M164" s="39"/>
-      <c r="N164" s="40"/>
+      <c r="J164" s="40"/>
+      <c r="K164" s="40"/>
+      <c r="L164" s="40"/>
+      <c r="M164" s="40"/>
+      <c r="N164" s="41"/>
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
@@ -8351,11 +8429,11 @@
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="I165" s="1"/>
-      <c r="J165" s="39"/>
-      <c r="K165" s="39"/>
-      <c r="L165" s="39"/>
-      <c r="M165" s="39"/>
-      <c r="N165" s="40"/>
+      <c r="J165" s="40"/>
+      <c r="K165" s="40"/>
+      <c r="L165" s="40"/>
+      <c r="M165" s="40"/>
+      <c r="N165" s="41"/>
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
@@ -8374,11 +8452,11 @@
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="I166" s="1"/>
-      <c r="J166" s="39"/>
-      <c r="K166" s="39"/>
-      <c r="L166" s="39"/>
-      <c r="M166" s="39"/>
-      <c r="N166" s="40"/>
+      <c r="J166" s="40"/>
+      <c r="K166" s="40"/>
+      <c r="L166" s="40"/>
+      <c r="M166" s="40"/>
+      <c r="N166" s="41"/>
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
@@ -8397,11 +8475,11 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="I167" s="1"/>
-      <c r="J167" s="39"/>
-      <c r="K167" s="39"/>
-      <c r="L167" s="39"/>
-      <c r="M167" s="39"/>
-      <c r="N167" s="40"/>
+      <c r="J167" s="40"/>
+      <c r="K167" s="40"/>
+      <c r="L167" s="40"/>
+      <c r="M167" s="40"/>
+      <c r="N167" s="41"/>
       <c r="O167" s="1"/>
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
@@ -8420,11 +8498,11 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="I168" s="1"/>
-      <c r="J168" s="39"/>
-      <c r="K168" s="39"/>
-      <c r="L168" s="39"/>
-      <c r="M168" s="39"/>
-      <c r="N168" s="40"/>
+      <c r="J168" s="40"/>
+      <c r="K168" s="40"/>
+      <c r="L168" s="40"/>
+      <c r="M168" s="40"/>
+      <c r="N168" s="41"/>
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
@@ -8443,11 +8521,11 @@
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="I169" s="1"/>
-      <c r="J169" s="39"/>
-      <c r="K169" s="39"/>
-      <c r="L169" s="39"/>
-      <c r="M169" s="39"/>
-      <c r="N169" s="40"/>
+      <c r="J169" s="40"/>
+      <c r="K169" s="40"/>
+      <c r="L169" s="40"/>
+      <c r="M169" s="40"/>
+      <c r="N169" s="41"/>
       <c r="O169" s="1"/>
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
@@ -8466,11 +8544,11 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="I170" s="1"/>
-      <c r="J170" s="39"/>
-      <c r="K170" s="39"/>
-      <c r="L170" s="39"/>
-      <c r="M170" s="39"/>
-      <c r="N170" s="40"/>
+      <c r="J170" s="40"/>
+      <c r="K170" s="40"/>
+      <c r="L170" s="40"/>
+      <c r="M170" s="40"/>
+      <c r="N170" s="41"/>
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
@@ -8489,11 +8567,11 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="I171" s="1"/>
-      <c r="J171" s="39"/>
-      <c r="K171" s="39"/>
-      <c r="L171" s="39"/>
-      <c r="M171" s="39"/>
-      <c r="N171" s="40"/>
+      <c r="J171" s="40"/>
+      <c r="K171" s="40"/>
+      <c r="L171" s="40"/>
+      <c r="M171" s="40"/>
+      <c r="N171" s="41"/>
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
@@ -8512,11 +8590,11 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="I172" s="1"/>
-      <c r="J172" s="39"/>
-      <c r="K172" s="39"/>
-      <c r="L172" s="39"/>
-      <c r="M172" s="39"/>
-      <c r="N172" s="40"/>
+      <c r="J172" s="40"/>
+      <c r="K172" s="40"/>
+      <c r="L172" s="40"/>
+      <c r="M172" s="40"/>
+      <c r="N172" s="41"/>
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
@@ -8535,11 +8613,11 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="I173" s="1"/>
-      <c r="J173" s="39"/>
-      <c r="K173" s="39"/>
-      <c r="L173" s="39"/>
-      <c r="M173" s="39"/>
-      <c r="N173" s="40"/>
+      <c r="J173" s="40"/>
+      <c r="K173" s="40"/>
+      <c r="L173" s="40"/>
+      <c r="M173" s="40"/>
+      <c r="N173" s="41"/>
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
@@ -8558,11 +8636,11 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="I174" s="1"/>
-      <c r="J174" s="39"/>
-      <c r="K174" s="39"/>
-      <c r="L174" s="39"/>
-      <c r="M174" s="39"/>
-      <c r="N174" s="40"/>
+      <c r="J174" s="40"/>
+      <c r="K174" s="40"/>
+      <c r="L174" s="40"/>
+      <c r="M174" s="40"/>
+      <c r="N174" s="41"/>
       <c r="O174" s="1"/>
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
@@ -8581,11 +8659,11 @@
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="I175" s="1"/>
-      <c r="J175" s="39"/>
-      <c r="K175" s="39"/>
-      <c r="L175" s="39"/>
-      <c r="M175" s="39"/>
-      <c r="N175" s="40"/>
+      <c r="J175" s="40"/>
+      <c r="K175" s="40"/>
+      <c r="L175" s="40"/>
+      <c r="M175" s="40"/>
+      <c r="N175" s="41"/>
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
@@ -8604,11 +8682,11 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="I176" s="1"/>
-      <c r="J176" s="39"/>
-      <c r="K176" s="39"/>
-      <c r="L176" s="39"/>
-      <c r="M176" s="39"/>
-      <c r="N176" s="40"/>
+      <c r="J176" s="40"/>
+      <c r="K176" s="40"/>
+      <c r="L176" s="40"/>
+      <c r="M176" s="40"/>
+      <c r="N176" s="41"/>
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
@@ -8627,11 +8705,11 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="I177" s="1"/>
-      <c r="J177" s="39"/>
-      <c r="K177" s="39"/>
-      <c r="L177" s="39"/>
-      <c r="M177" s="39"/>
-      <c r="N177" s="40"/>
+      <c r="J177" s="40"/>
+      <c r="K177" s="40"/>
+      <c r="L177" s="40"/>
+      <c r="M177" s="40"/>
+      <c r="N177" s="41"/>
       <c r="O177" s="1"/>
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
@@ -8650,11 +8728,11 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="I178" s="1"/>
-      <c r="J178" s="39"/>
-      <c r="K178" s="39"/>
-      <c r="L178" s="39"/>
-      <c r="M178" s="39"/>
-      <c r="N178" s="40"/>
+      <c r="J178" s="40"/>
+      <c r="K178" s="40"/>
+      <c r="L178" s="40"/>
+      <c r="M178" s="40"/>
+      <c r="N178" s="41"/>
       <c r="O178" s="1"/>
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
@@ -8673,11 +8751,11 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="I179" s="1"/>
-      <c r="J179" s="39"/>
-      <c r="K179" s="39"/>
-      <c r="L179" s="39"/>
-      <c r="M179" s="39"/>
-      <c r="N179" s="40"/>
+      <c r="J179" s="40"/>
+      <c r="K179" s="40"/>
+      <c r="L179" s="40"/>
+      <c r="M179" s="40"/>
+      <c r="N179" s="41"/>
       <c r="O179" s="1"/>
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
@@ -8696,11 +8774,11 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="I180" s="1"/>
-      <c r="J180" s="39"/>
-      <c r="K180" s="39"/>
-      <c r="L180" s="39"/>
-      <c r="M180" s="39"/>
-      <c r="N180" s="40"/>
+      <c r="J180" s="40"/>
+      <c r="K180" s="40"/>
+      <c r="L180" s="40"/>
+      <c r="M180" s="40"/>
+      <c r="N180" s="41"/>
       <c r="O180" s="1"/>
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
@@ -8719,11 +8797,11 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="I181" s="1"/>
-      <c r="J181" s="39"/>
-      <c r="K181" s="39"/>
-      <c r="L181" s="39"/>
-      <c r="M181" s="39"/>
-      <c r="N181" s="40"/>
+      <c r="J181" s="40"/>
+      <c r="K181" s="40"/>
+      <c r="L181" s="40"/>
+      <c r="M181" s="40"/>
+      <c r="N181" s="41"/>
       <c r="O181" s="1"/>
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
@@ -8742,11 +8820,11 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="I182" s="1"/>
-      <c r="J182" s="39"/>
-      <c r="K182" s="39"/>
-      <c r="L182" s="39"/>
-      <c r="M182" s="39"/>
-      <c r="N182" s="40"/>
+      <c r="J182" s="40"/>
+      <c r="K182" s="40"/>
+      <c r="L182" s="40"/>
+      <c r="M182" s="40"/>
+      <c r="N182" s="41"/>
       <c r="O182" s="1"/>
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
@@ -8765,11 +8843,11 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="I183" s="1"/>
-      <c r="J183" s="39"/>
-      <c r="K183" s="39"/>
-      <c r="L183" s="39"/>
-      <c r="M183" s="39"/>
-      <c r="N183" s="40"/>
+      <c r="J183" s="40"/>
+      <c r="K183" s="40"/>
+      <c r="L183" s="40"/>
+      <c r="M183" s="40"/>
+      <c r="N183" s="41"/>
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
@@ -8788,11 +8866,11 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="I184" s="1"/>
-      <c r="J184" s="39"/>
-      <c r="K184" s="39"/>
-      <c r="L184" s="39"/>
-      <c r="M184" s="39"/>
-      <c r="N184" s="40"/>
+      <c r="J184" s="40"/>
+      <c r="K184" s="40"/>
+      <c r="L184" s="40"/>
+      <c r="M184" s="40"/>
+      <c r="N184" s="41"/>
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
@@ -8811,11 +8889,11 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="I185" s="1"/>
-      <c r="J185" s="39"/>
-      <c r="K185" s="39"/>
-      <c r="L185" s="39"/>
-      <c r="M185" s="39"/>
-      <c r="N185" s="40"/>
+      <c r="J185" s="40"/>
+      <c r="K185" s="40"/>
+      <c r="L185" s="40"/>
+      <c r="M185" s="40"/>
+      <c r="N185" s="41"/>
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
@@ -8834,11 +8912,11 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="I186" s="1"/>
-      <c r="J186" s="39"/>
-      <c r="K186" s="39"/>
-      <c r="L186" s="39"/>
-      <c r="M186" s="39"/>
-      <c r="N186" s="40"/>
+      <c r="J186" s="40"/>
+      <c r="K186" s="40"/>
+      <c r="L186" s="40"/>
+      <c r="M186" s="40"/>
+      <c r="N186" s="41"/>
       <c r="O186" s="1"/>
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
@@ -8857,11 +8935,11 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="I187" s="1"/>
-      <c r="J187" s="39"/>
-      <c r="K187" s="39"/>
-      <c r="L187" s="39"/>
-      <c r="M187" s="39"/>
-      <c r="N187" s="40"/>
+      <c r="J187" s="40"/>
+      <c r="K187" s="40"/>
+      <c r="L187" s="40"/>
+      <c r="M187" s="40"/>
+      <c r="N187" s="41"/>
       <c r="O187" s="1"/>
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
@@ -8880,11 +8958,11 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="I188" s="1"/>
-      <c r="J188" s="39"/>
-      <c r="K188" s="39"/>
-      <c r="L188" s="39"/>
-      <c r="M188" s="39"/>
-      <c r="N188" s="40"/>
+      <c r="J188" s="40"/>
+      <c r="K188" s="40"/>
+      <c r="L188" s="40"/>
+      <c r="M188" s="40"/>
+      <c r="N188" s="41"/>
       <c r="O188" s="1"/>
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
@@ -8903,11 +8981,11 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="I189" s="1"/>
-      <c r="J189" s="39"/>
-      <c r="K189" s="39"/>
-      <c r="L189" s="39"/>
-      <c r="M189" s="39"/>
-      <c r="N189" s="40"/>
+      <c r="J189" s="40"/>
+      <c r="K189" s="40"/>
+      <c r="L189" s="40"/>
+      <c r="M189" s="40"/>
+      <c r="N189" s="41"/>
       <c r="O189" s="1"/>
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
@@ -8926,11 +9004,11 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="I190" s="1"/>
-      <c r="J190" s="39"/>
-      <c r="K190" s="39"/>
-      <c r="L190" s="39"/>
-      <c r="M190" s="39"/>
-      <c r="N190" s="40"/>
+      <c r="J190" s="40"/>
+      <c r="K190" s="40"/>
+      <c r="L190" s="40"/>
+      <c r="M190" s="40"/>
+      <c r="N190" s="41"/>
       <c r="O190" s="1"/>
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
@@ -8949,11 +9027,11 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="I191" s="1"/>
-      <c r="J191" s="39"/>
-      <c r="K191" s="39"/>
-      <c r="L191" s="39"/>
-      <c r="M191" s="39"/>
-      <c r="N191" s="40"/>
+      <c r="J191" s="40"/>
+      <c r="K191" s="40"/>
+      <c r="L191" s="40"/>
+      <c r="M191" s="40"/>
+      <c r="N191" s="41"/>
       <c r="O191" s="1"/>
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
@@ -8972,11 +9050,11 @@
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="I192" s="1"/>
-      <c r="J192" s="39"/>
-      <c r="K192" s="39"/>
-      <c r="L192" s="39"/>
-      <c r="M192" s="39"/>
-      <c r="N192" s="40"/>
+      <c r="J192" s="40"/>
+      <c r="K192" s="40"/>
+      <c r="L192" s="40"/>
+      <c r="M192" s="40"/>
+      <c r="N192" s="41"/>
       <c r="O192" s="1"/>
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
@@ -8995,11 +9073,11 @@
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="I193" s="1"/>
-      <c r="J193" s="39"/>
-      <c r="K193" s="39"/>
-      <c r="L193" s="39"/>
-      <c r="M193" s="39"/>
-      <c r="N193" s="40"/>
+      <c r="J193" s="40"/>
+      <c r="K193" s="40"/>
+      <c r="L193" s="40"/>
+      <c r="M193" s="40"/>
+      <c r="N193" s="41"/>
       <c r="O193" s="1"/>
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
@@ -9018,11 +9096,11 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="I194" s="1"/>
-      <c r="J194" s="39"/>
-      <c r="K194" s="39"/>
-      <c r="L194" s="39"/>
-      <c r="M194" s="39"/>
-      <c r="N194" s="40"/>
+      <c r="J194" s="40"/>
+      <c r="K194" s="40"/>
+      <c r="L194" s="40"/>
+      <c r="M194" s="40"/>
+      <c r="N194" s="41"/>
       <c r="O194" s="1"/>
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
@@ -9041,11 +9119,11 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="I195" s="1"/>
-      <c r="J195" s="39"/>
-      <c r="K195" s="39"/>
-      <c r="L195" s="39"/>
-      <c r="M195" s="39"/>
-      <c r="N195" s="40"/>
+      <c r="J195" s="40"/>
+      <c r="K195" s="40"/>
+      <c r="L195" s="40"/>
+      <c r="M195" s="40"/>
+      <c r="N195" s="41"/>
       <c r="O195" s="1"/>
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
@@ -9064,11 +9142,11 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="I196" s="1"/>
-      <c r="J196" s="39"/>
-      <c r="K196" s="39"/>
-      <c r="L196" s="39"/>
-      <c r="M196" s="39"/>
-      <c r="N196" s="40"/>
+      <c r="J196" s="40"/>
+      <c r="K196" s="40"/>
+      <c r="L196" s="40"/>
+      <c r="M196" s="40"/>
+      <c r="N196" s="41"/>
       <c r="O196" s="1"/>
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
@@ -9087,11 +9165,11 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="I197" s="1"/>
-      <c r="J197" s="39"/>
-      <c r="K197" s="39"/>
-      <c r="L197" s="39"/>
-      <c r="M197" s="39"/>
-      <c r="N197" s="40"/>
+      <c r="J197" s="40"/>
+      <c r="K197" s="40"/>
+      <c r="L197" s="40"/>
+      <c r="M197" s="40"/>
+      <c r="N197" s="41"/>
       <c r="O197" s="1"/>
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
@@ -9110,11 +9188,11 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="I198" s="1"/>
-      <c r="J198" s="39"/>
-      <c r="K198" s="39"/>
-      <c r="L198" s="39"/>
-      <c r="M198" s="39"/>
-      <c r="N198" s="40"/>
+      <c r="J198" s="40"/>
+      <c r="K198" s="40"/>
+      <c r="L198" s="40"/>
+      <c r="M198" s="40"/>
+      <c r="N198" s="41"/>
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
@@ -9133,11 +9211,11 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="I199" s="1"/>
-      <c r="J199" s="39"/>
-      <c r="K199" s="39"/>
-      <c r="L199" s="39"/>
-      <c r="M199" s="39"/>
-      <c r="N199" s="40"/>
+      <c r="J199" s="40"/>
+      <c r="K199" s="40"/>
+      <c r="L199" s="40"/>
+      <c r="M199" s="40"/>
+      <c r="N199" s="41"/>
       <c r="O199" s="1"/>
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
@@ -9156,11 +9234,11 @@
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="I200" s="1"/>
-      <c r="J200" s="39"/>
-      <c r="K200" s="39"/>
-      <c r="L200" s="39"/>
-      <c r="M200" s="39"/>
-      <c r="N200" s="40"/>
+      <c r="J200" s="40"/>
+      <c r="K200" s="40"/>
+      <c r="L200" s="40"/>
+      <c r="M200" s="40"/>
+      <c r="N200" s="41"/>
       <c r="O200" s="1"/>
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
@@ -9179,11 +9257,11 @@
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="I201" s="1"/>
-      <c r="J201" s="39"/>
-      <c r="K201" s="39"/>
-      <c r="L201" s="39"/>
-      <c r="M201" s="39"/>
-      <c r="N201" s="40"/>
+      <c r="J201" s="40"/>
+      <c r="K201" s="40"/>
+      <c r="L201" s="40"/>
+      <c r="M201" s="40"/>
+      <c r="N201" s="41"/>
       <c r="O201" s="1"/>
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
@@ -9202,11 +9280,11 @@
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="I202" s="1"/>
-      <c r="J202" s="39"/>
-      <c r="K202" s="39"/>
-      <c r="L202" s="39"/>
-      <c r="M202" s="39"/>
-      <c r="N202" s="40"/>
+      <c r="J202" s="40"/>
+      <c r="K202" s="40"/>
+      <c r="L202" s="40"/>
+      <c r="M202" s="40"/>
+      <c r="N202" s="41"/>
       <c r="O202" s="1"/>
       <c r="P202" s="1"/>
       <c r="Q202" s="1"/>
@@ -9225,11 +9303,11 @@
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="I203" s="1"/>
-      <c r="J203" s="39"/>
-      <c r="K203" s="39"/>
-      <c r="L203" s="39"/>
-      <c r="M203" s="39"/>
-      <c r="N203" s="40"/>
+      <c r="J203" s="40"/>
+      <c r="K203" s="40"/>
+      <c r="L203" s="40"/>
+      <c r="M203" s="40"/>
+      <c r="N203" s="41"/>
       <c r="O203" s="1"/>
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
@@ -9248,11 +9326,11 @@
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="I204" s="1"/>
-      <c r="J204" s="39"/>
-      <c r="K204" s="39"/>
-      <c r="L204" s="39"/>
-      <c r="M204" s="39"/>
-      <c r="N204" s="40"/>
+      <c r="J204" s="40"/>
+      <c r="K204" s="40"/>
+      <c r="L204" s="40"/>
+      <c r="M204" s="40"/>
+      <c r="N204" s="41"/>
       <c r="O204" s="1"/>
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
@@ -9271,11 +9349,11 @@
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="I205" s="1"/>
-      <c r="J205" s="39"/>
-      <c r="K205" s="39"/>
-      <c r="L205" s="39"/>
-      <c r="M205" s="39"/>
-      <c r="N205" s="40"/>
+      <c r="J205" s="40"/>
+      <c r="K205" s="40"/>
+      <c r="L205" s="40"/>
+      <c r="M205" s="40"/>
+      <c r="N205" s="41"/>
       <c r="O205" s="1"/>
       <c r="P205" s="1"/>
       <c r="Q205" s="1"/>
@@ -9294,11 +9372,11 @@
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="I206" s="1"/>
-      <c r="J206" s="39"/>
-      <c r="K206" s="39"/>
-      <c r="L206" s="39"/>
-      <c r="M206" s="39"/>
-      <c r="N206" s="40"/>
+      <c r="J206" s="40"/>
+      <c r="K206" s="40"/>
+      <c r="L206" s="40"/>
+      <c r="M206" s="40"/>
+      <c r="N206" s="41"/>
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
       <c r="Q206" s="1"/>
@@ -9317,11 +9395,11 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="I207" s="1"/>
-      <c r="J207" s="39"/>
-      <c r="K207" s="39"/>
-      <c r="L207" s="39"/>
-      <c r="M207" s="39"/>
-      <c r="N207" s="40"/>
+      <c r="J207" s="40"/>
+      <c r="K207" s="40"/>
+      <c r="L207" s="40"/>
+      <c r="M207" s="40"/>
+      <c r="N207" s="41"/>
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
@@ -9340,11 +9418,11 @@
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="I208" s="1"/>
-      <c r="J208" s="39"/>
-      <c r="K208" s="39"/>
-      <c r="L208" s="39"/>
-      <c r="M208" s="39"/>
-      <c r="N208" s="40"/>
+      <c r="J208" s="40"/>
+      <c r="K208" s="40"/>
+      <c r="L208" s="40"/>
+      <c r="M208" s="40"/>
+      <c r="N208" s="41"/>
       <c r="O208" s="1"/>
       <c r="P208" s="1"/>
       <c r="Q208" s="1"/>
@@ -9363,11 +9441,11 @@
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="I209" s="1"/>
-      <c r="J209" s="39"/>
-      <c r="K209" s="39"/>
-      <c r="L209" s="39"/>
-      <c r="M209" s="39"/>
-      <c r="N209" s="40"/>
+      <c r="J209" s="40"/>
+      <c r="K209" s="40"/>
+      <c r="L209" s="40"/>
+      <c r="M209" s="40"/>
+      <c r="N209" s="41"/>
       <c r="O209" s="1"/>
       <c r="P209" s="1"/>
       <c r="Q209" s="1"/>
@@ -9386,11 +9464,11 @@
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="I210" s="1"/>
-      <c r="J210" s="39"/>
-      <c r="K210" s="39"/>
-      <c r="L210" s="39"/>
-      <c r="M210" s="39"/>
-      <c r="N210" s="40"/>
+      <c r="J210" s="40"/>
+      <c r="K210" s="40"/>
+      <c r="L210" s="40"/>
+      <c r="M210" s="40"/>
+      <c r="N210" s="41"/>
       <c r="O210" s="1"/>
       <c r="P210" s="1"/>
       <c r="Q210" s="1"/>
@@ -9409,11 +9487,11 @@
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="I211" s="1"/>
-      <c r="J211" s="39"/>
-      <c r="K211" s="39"/>
-      <c r="L211" s="39"/>
-      <c r="M211" s="39"/>
-      <c r="N211" s="40"/>
+      <c r="J211" s="40"/>
+      <c r="K211" s="40"/>
+      <c r="L211" s="40"/>
+      <c r="M211" s="40"/>
+      <c r="N211" s="41"/>
       <c r="O211" s="1"/>
       <c r="P211" s="1"/>
       <c r="Q211" s="1"/>
@@ -9432,11 +9510,11 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="I212" s="1"/>
-      <c r="J212" s="39"/>
-      <c r="K212" s="39"/>
-      <c r="L212" s="39"/>
-      <c r="M212" s="39"/>
-      <c r="N212" s="40"/>
+      <c r="J212" s="40"/>
+      <c r="K212" s="40"/>
+      <c r="L212" s="40"/>
+      <c r="M212" s="40"/>
+      <c r="N212" s="41"/>
       <c r="O212" s="1"/>
       <c r="P212" s="1"/>
       <c r="Q212" s="1"/>
@@ -9455,11 +9533,11 @@
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
       <c r="I213" s="1"/>
-      <c r="J213" s="39"/>
-      <c r="K213" s="39"/>
-      <c r="L213" s="39"/>
-      <c r="M213" s="39"/>
-      <c r="N213" s="40"/>
+      <c r="J213" s="40"/>
+      <c r="K213" s="40"/>
+      <c r="L213" s="40"/>
+      <c r="M213" s="40"/>
+      <c r="N213" s="41"/>
       <c r="O213" s="1"/>
       <c r="P213" s="1"/>
       <c r="Q213" s="1"/>
@@ -9478,11 +9556,11 @@
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="I214" s="1"/>
-      <c r="J214" s="39"/>
-      <c r="K214" s="39"/>
-      <c r="L214" s="39"/>
-      <c r="M214" s="39"/>
-      <c r="N214" s="40"/>
+      <c r="J214" s="40"/>
+      <c r="K214" s="40"/>
+      <c r="L214" s="40"/>
+      <c r="M214" s="40"/>
+      <c r="N214" s="41"/>
       <c r="O214" s="1"/>
       <c r="P214" s="1"/>
       <c r="Q214" s="1"/>
@@ -9501,11 +9579,11 @@
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="I215" s="1"/>
-      <c r="J215" s="39"/>
-      <c r="K215" s="39"/>
-      <c r="L215" s="39"/>
-      <c r="M215" s="39"/>
-      <c r="N215" s="40"/>
+      <c r="J215" s="40"/>
+      <c r="K215" s="40"/>
+      <c r="L215" s="40"/>
+      <c r="M215" s="40"/>
+      <c r="N215" s="41"/>
       <c r="O215" s="1"/>
       <c r="P215" s="1"/>
       <c r="Q215" s="1"/>
@@ -9524,11 +9602,11 @@
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="I216" s="1"/>
-      <c r="J216" s="39"/>
-      <c r="K216" s="39"/>
-      <c r="L216" s="39"/>
-      <c r="M216" s="39"/>
-      <c r="N216" s="40"/>
+      <c r="J216" s="40"/>
+      <c r="K216" s="40"/>
+      <c r="L216" s="40"/>
+      <c r="M216" s="40"/>
+      <c r="N216" s="41"/>
       <c r="O216" s="1"/>
       <c r="P216" s="1"/>
       <c r="Q216" s="1"/>
@@ -9547,11 +9625,11 @@
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="I217" s="1"/>
-      <c r="J217" s="39"/>
-      <c r="K217" s="39"/>
-      <c r="L217" s="39"/>
-      <c r="M217" s="39"/>
-      <c r="N217" s="40"/>
+      <c r="J217" s="40"/>
+      <c r="K217" s="40"/>
+      <c r="L217" s="40"/>
+      <c r="M217" s="40"/>
+      <c r="N217" s="41"/>
       <c r="O217" s="1"/>
       <c r="P217" s="1"/>
       <c r="Q217" s="1"/>
@@ -9570,11 +9648,11 @@
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="I218" s="1"/>
-      <c r="J218" s="39"/>
-      <c r="K218" s="39"/>
-      <c r="L218" s="39"/>
-      <c r="M218" s="39"/>
-      <c r="N218" s="40"/>
+      <c r="J218" s="40"/>
+      <c r="K218" s="40"/>
+      <c r="L218" s="40"/>
+      <c r="M218" s="40"/>
+      <c r="N218" s="41"/>
       <c r="O218" s="1"/>
       <c r="P218" s="1"/>
       <c r="Q218" s="1"/>
@@ -9593,11 +9671,11 @@
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="I219" s="1"/>
-      <c r="J219" s="39"/>
-      <c r="K219" s="39"/>
-      <c r="L219" s="39"/>
-      <c r="M219" s="39"/>
-      <c r="N219" s="40"/>
+      <c r="J219" s="40"/>
+      <c r="K219" s="40"/>
+      <c r="L219" s="40"/>
+      <c r="M219" s="40"/>
+      <c r="N219" s="41"/>
       <c r="O219" s="1"/>
       <c r="P219" s="1"/>
       <c r="Q219" s="1"/>
@@ -9616,11 +9694,11 @@
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="I220" s="1"/>
-      <c r="J220" s="39"/>
-      <c r="K220" s="39"/>
-      <c r="L220" s="39"/>
-      <c r="M220" s="39"/>
-      <c r="N220" s="40"/>
+      <c r="J220" s="40"/>
+      <c r="K220" s="40"/>
+      <c r="L220" s="40"/>
+      <c r="M220" s="40"/>
+      <c r="N220" s="41"/>
       <c r="O220" s="1"/>
       <c r="P220" s="1"/>
       <c r="Q220" s="1"/>
@@ -9639,11 +9717,11 @@
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="I221" s="1"/>
-      <c r="J221" s="39"/>
-      <c r="K221" s="39"/>
-      <c r="L221" s="39"/>
-      <c r="M221" s="39"/>
-      <c r="N221" s="40"/>
+      <c r="J221" s="40"/>
+      <c r="K221" s="40"/>
+      <c r="L221" s="40"/>
+      <c r="M221" s="40"/>
+      <c r="N221" s="41"/>
       <c r="O221" s="1"/>
       <c r="P221" s="1"/>
       <c r="Q221" s="1"/>
@@ -9662,11 +9740,11 @@
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="I222" s="1"/>
-      <c r="J222" s="39"/>
-      <c r="K222" s="39"/>
-      <c r="L222" s="39"/>
-      <c r="M222" s="39"/>
-      <c r="N222" s="40"/>
+      <c r="J222" s="40"/>
+      <c r="K222" s="40"/>
+      <c r="L222" s="40"/>
+      <c r="M222" s="40"/>
+      <c r="N222" s="41"/>
       <c r="O222" s="1"/>
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
@@ -9685,11 +9763,11 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="I223" s="1"/>
-      <c r="J223" s="39"/>
-      <c r="K223" s="39"/>
-      <c r="L223" s="39"/>
-      <c r="M223" s="39"/>
-      <c r="N223" s="40"/>
+      <c r="J223" s="40"/>
+      <c r="K223" s="40"/>
+      <c r="L223" s="40"/>
+      <c r="M223" s="40"/>
+      <c r="N223" s="41"/>
       <c r="O223" s="1"/>
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
@@ -9708,11 +9786,11 @@
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="I224" s="1"/>
-      <c r="J224" s="39"/>
-      <c r="K224" s="39"/>
-      <c r="L224" s="39"/>
-      <c r="M224" s="39"/>
-      <c r="N224" s="40"/>
+      <c r="J224" s="40"/>
+      <c r="K224" s="40"/>
+      <c r="L224" s="40"/>
+      <c r="M224" s="40"/>
+      <c r="N224" s="41"/>
       <c r="O224" s="1"/>
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
@@ -9731,11 +9809,11 @@
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
       <c r="I225" s="1"/>
-      <c r="J225" s="39"/>
-      <c r="K225" s="39"/>
-      <c r="L225" s="39"/>
-      <c r="M225" s="39"/>
-      <c r="N225" s="40"/>
+      <c r="J225" s="40"/>
+      <c r="K225" s="40"/>
+      <c r="L225" s="40"/>
+      <c r="M225" s="40"/>
+      <c r="N225" s="41"/>
       <c r="O225" s="1"/>
       <c r="P225" s="1"/>
       <c r="Q225" s="1"/>
@@ -9754,11 +9832,11 @@
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
       <c r="I226" s="1"/>
-      <c r="J226" s="39"/>
-      <c r="K226" s="39"/>
-      <c r="L226" s="39"/>
-      <c r="M226" s="39"/>
-      <c r="N226" s="40"/>
+      <c r="J226" s="40"/>
+      <c r="K226" s="40"/>
+      <c r="L226" s="40"/>
+      <c r="M226" s="40"/>
+      <c r="N226" s="41"/>
       <c r="O226" s="1"/>
       <c r="P226" s="1"/>
       <c r="Q226" s="1"/>
@@ -9777,11 +9855,11 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="I227" s="1"/>
-      <c r="J227" s="39"/>
-      <c r="K227" s="39"/>
-      <c r="L227" s="39"/>
-      <c r="M227" s="39"/>
-      <c r="N227" s="40"/>
+      <c r="J227" s="40"/>
+      <c r="K227" s="40"/>
+      <c r="L227" s="40"/>
+      <c r="M227" s="40"/>
+      <c r="N227" s="41"/>
       <c r="O227" s="1"/>
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
@@ -9800,11 +9878,11 @@
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="I228" s="1"/>
-      <c r="J228" s="39"/>
-      <c r="K228" s="39"/>
-      <c r="L228" s="39"/>
-      <c r="M228" s="39"/>
-      <c r="N228" s="40"/>
+      <c r="J228" s="40"/>
+      <c r="K228" s="40"/>
+      <c r="L228" s="40"/>
+      <c r="M228" s="40"/>
+      <c r="N228" s="41"/>
       <c r="O228" s="1"/>
       <c r="P228" s="1"/>
       <c r="Q228" s="1"/>
@@ -9823,11 +9901,11 @@
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
       <c r="I229" s="1"/>
-      <c r="J229" s="39"/>
-      <c r="K229" s="39"/>
-      <c r="L229" s="39"/>
-      <c r="M229" s="39"/>
-      <c r="N229" s="40"/>
+      <c r="J229" s="40"/>
+      <c r="K229" s="40"/>
+      <c r="L229" s="40"/>
+      <c r="M229" s="40"/>
+      <c r="N229" s="41"/>
       <c r="O229" s="1"/>
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
@@ -9846,11 +9924,11 @@
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
       <c r="I230" s="1"/>
-      <c r="J230" s="39"/>
-      <c r="K230" s="39"/>
-      <c r="L230" s="39"/>
-      <c r="M230" s="39"/>
-      <c r="N230" s="40"/>
+      <c r="J230" s="40"/>
+      <c r="K230" s="40"/>
+      <c r="L230" s="40"/>
+      <c r="M230" s="40"/>
+      <c r="N230" s="41"/>
       <c r="O230" s="1"/>
       <c r="P230" s="1"/>
       <c r="Q230" s="1"/>
@@ -9869,11 +9947,11 @@
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="I231" s="1"/>
-      <c r="J231" s="39"/>
-      <c r="K231" s="39"/>
-      <c r="L231" s="39"/>
-      <c r="M231" s="39"/>
-      <c r="N231" s="40"/>
+      <c r="J231" s="40"/>
+      <c r="K231" s="40"/>
+      <c r="L231" s="40"/>
+      <c r="M231" s="40"/>
+      <c r="N231" s="41"/>
       <c r="O231" s="1"/>
       <c r="P231" s="1"/>
       <c r="Q231" s="1"/>
@@ -9892,11 +9970,11 @@
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="I232" s="1"/>
-      <c r="J232" s="39"/>
-      <c r="K232" s="39"/>
-      <c r="L232" s="39"/>
-      <c r="M232" s="39"/>
-      <c r="N232" s="40"/>
+      <c r="J232" s="40"/>
+      <c r="K232" s="40"/>
+      <c r="L232" s="40"/>
+      <c r="M232" s="40"/>
+      <c r="N232" s="41"/>
       <c r="O232" s="1"/>
       <c r="P232" s="1"/>
       <c r="Q232" s="1"/>
@@ -9915,11 +9993,11 @@
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="I233" s="1"/>
-      <c r="J233" s="39"/>
-      <c r="K233" s="39"/>
-      <c r="L233" s="39"/>
-      <c r="M233" s="39"/>
-      <c r="N233" s="40"/>
+      <c r="J233" s="40"/>
+      <c r="K233" s="40"/>
+      <c r="L233" s="40"/>
+      <c r="M233" s="40"/>
+      <c r="N233" s="41"/>
       <c r="O233" s="1"/>
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
@@ -9938,11 +10016,11 @@
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="I234" s="1"/>
-      <c r="J234" s="39"/>
-      <c r="K234" s="39"/>
-      <c r="L234" s="39"/>
-      <c r="M234" s="39"/>
-      <c r="N234" s="40"/>
+      <c r="J234" s="40"/>
+      <c r="K234" s="40"/>
+      <c r="L234" s="40"/>
+      <c r="M234" s="40"/>
+      <c r="N234" s="41"/>
       <c r="O234" s="1"/>
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
@@ -9961,11 +10039,11 @@
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="I235" s="1"/>
-      <c r="J235" s="39"/>
-      <c r="K235" s="39"/>
-      <c r="L235" s="39"/>
-      <c r="M235" s="39"/>
-      <c r="N235" s="40"/>
+      <c r="J235" s="40"/>
+      <c r="K235" s="40"/>
+      <c r="L235" s="40"/>
+      <c r="M235" s="40"/>
+      <c r="N235" s="41"/>
       <c r="O235" s="1"/>
       <c r="P235" s="1"/>
       <c r="Q235" s="1"/>
@@ -9984,11 +10062,11 @@
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="I236" s="1"/>
-      <c r="J236" s="39"/>
-      <c r="K236" s="39"/>
-      <c r="L236" s="39"/>
-      <c r="M236" s="39"/>
-      <c r="N236" s="40"/>
+      <c r="J236" s="40"/>
+      <c r="K236" s="40"/>
+      <c r="L236" s="40"/>
+      <c r="M236" s="40"/>
+      <c r="N236" s="41"/>
       <c r="O236" s="1"/>
       <c r="P236" s="1"/>
       <c r="Q236" s="1"/>
@@ -10007,11 +10085,11 @@
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
       <c r="I237" s="1"/>
-      <c r="J237" s="39"/>
-      <c r="K237" s="39"/>
-      <c r="L237" s="39"/>
-      <c r="M237" s="39"/>
-      <c r="N237" s="40"/>
+      <c r="J237" s="40"/>
+      <c r="K237" s="40"/>
+      <c r="L237" s="40"/>
+      <c r="M237" s="40"/>
+      <c r="N237" s="41"/>
       <c r="O237" s="1"/>
       <c r="P237" s="1"/>
       <c r="Q237" s="1"/>
@@ -10030,11 +10108,11 @@
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
       <c r="I238" s="1"/>
-      <c r="J238" s="39"/>
-      <c r="K238" s="39"/>
-      <c r="L238" s="39"/>
-      <c r="M238" s="39"/>
-      <c r="N238" s="40"/>
+      <c r="J238" s="40"/>
+      <c r="K238" s="40"/>
+      <c r="L238" s="40"/>
+      <c r="M238" s="40"/>
+      <c r="N238" s="41"/>
       <c r="O238" s="1"/>
       <c r="P238" s="1"/>
       <c r="Q238" s="1"/>
@@ -10053,11 +10131,11 @@
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
       <c r="I239" s="1"/>
-      <c r="J239" s="39"/>
-      <c r="K239" s="39"/>
-      <c r="L239" s="39"/>
-      <c r="M239" s="39"/>
-      <c r="N239" s="40"/>
+      <c r="J239" s="40"/>
+      <c r="K239" s="40"/>
+      <c r="L239" s="40"/>
+      <c r="M239" s="40"/>
+      <c r="N239" s="41"/>
       <c r="O239" s="1"/>
       <c r="P239" s="1"/>
       <c r="Q239" s="1"/>
@@ -10076,11 +10154,11 @@
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
       <c r="I240" s="1"/>
-      <c r="J240" s="39"/>
-      <c r="K240" s="39"/>
-      <c r="L240" s="39"/>
-      <c r="M240" s="39"/>
-      <c r="N240" s="40"/>
+      <c r="J240" s="40"/>
+      <c r="K240" s="40"/>
+      <c r="L240" s="40"/>
+      <c r="M240" s="40"/>
+      <c r="N240" s="41"/>
       <c r="O240" s="1"/>
       <c r="P240" s="1"/>
       <c r="Q240" s="1"/>
@@ -10099,11 +10177,11 @@
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
       <c r="I241" s="1"/>
-      <c r="J241" s="39"/>
-      <c r="K241" s="39"/>
-      <c r="L241" s="39"/>
-      <c r="M241" s="39"/>
-      <c r="N241" s="40"/>
+      <c r="J241" s="40"/>
+      <c r="K241" s="40"/>
+      <c r="L241" s="40"/>
+      <c r="M241" s="40"/>
+      <c r="N241" s="41"/>
       <c r="O241" s="1"/>
       <c r="P241" s="1"/>
       <c r="Q241" s="1"/>
@@ -10122,11 +10200,11 @@
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
       <c r="I242" s="1"/>
-      <c r="J242" s="39"/>
-      <c r="K242" s="39"/>
-      <c r="L242" s="39"/>
-      <c r="M242" s="39"/>
-      <c r="N242" s="40"/>
+      <c r="J242" s="40"/>
+      <c r="K242" s="40"/>
+      <c r="L242" s="40"/>
+      <c r="M242" s="40"/>
+      <c r="N242" s="41"/>
       <c r="O242" s="1"/>
       <c r="P242" s="1"/>
       <c r="Q242" s="1"/>
@@ -10145,11 +10223,11 @@
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
       <c r="I243" s="1"/>
-      <c r="J243" s="39"/>
-      <c r="K243" s="39"/>
-      <c r="L243" s="39"/>
-      <c r="M243" s="39"/>
-      <c r="N243" s="40"/>
+      <c r="J243" s="40"/>
+      <c r="K243" s="40"/>
+      <c r="L243" s="40"/>
+      <c r="M243" s="40"/>
+      <c r="N243" s="41"/>
       <c r="O243" s="1"/>
       <c r="P243" s="1"/>
       <c r="Q243" s="1"/>
@@ -10168,11 +10246,11 @@
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
       <c r="I244" s="1"/>
-      <c r="J244" s="39"/>
-      <c r="K244" s="39"/>
-      <c r="L244" s="39"/>
-      <c r="M244" s="39"/>
-      <c r="N244" s="40"/>
+      <c r="J244" s="40"/>
+      <c r="K244" s="40"/>
+      <c r="L244" s="40"/>
+      <c r="M244" s="40"/>
+      <c r="N244" s="41"/>
       <c r="O244" s="1"/>
       <c r="P244" s="1"/>
       <c r="Q244" s="1"/>
@@ -10191,11 +10269,11 @@
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
       <c r="I245" s="1"/>
-      <c r="J245" s="39"/>
-      <c r="K245" s="39"/>
-      <c r="L245" s="39"/>
-      <c r="M245" s="39"/>
-      <c r="N245" s="40"/>
+      <c r="J245" s="40"/>
+      <c r="K245" s="40"/>
+      <c r="L245" s="40"/>
+      <c r="M245" s="40"/>
+      <c r="N245" s="41"/>
       <c r="O245" s="1"/>
       <c r="P245" s="1"/>
       <c r="Q245" s="1"/>
@@ -10214,11 +10292,11 @@
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
       <c r="I246" s="1"/>
-      <c r="J246" s="39"/>
-      <c r="K246" s="39"/>
-      <c r="L246" s="39"/>
-      <c r="M246" s="39"/>
-      <c r="N246" s="40"/>
+      <c r="J246" s="40"/>
+      <c r="K246" s="40"/>
+      <c r="L246" s="40"/>
+      <c r="M246" s="40"/>
+      <c r="N246" s="41"/>
       <c r="O246" s="1"/>
       <c r="P246" s="1"/>
       <c r="Q246" s="1"/>
@@ -10237,11 +10315,11 @@
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
       <c r="I247" s="1"/>
-      <c r="J247" s="39"/>
-      <c r="K247" s="39"/>
-      <c r="L247" s="39"/>
-      <c r="M247" s="39"/>
-      <c r="N247" s="40"/>
+      <c r="J247" s="40"/>
+      <c r="K247" s="40"/>
+      <c r="L247" s="40"/>
+      <c r="M247" s="40"/>
+      <c r="N247" s="41"/>
       <c r="O247" s="1"/>
       <c r="P247" s="1"/>
       <c r="Q247" s="1"/>
@@ -10260,11 +10338,11 @@
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
       <c r="I248" s="1"/>
-      <c r="J248" s="39"/>
-      <c r="K248" s="39"/>
-      <c r="L248" s="39"/>
-      <c r="M248" s="39"/>
-      <c r="N248" s="40"/>
+      <c r="J248" s="40"/>
+      <c r="K248" s="40"/>
+      <c r="L248" s="40"/>
+      <c r="M248" s="40"/>
+      <c r="N248" s="41"/>
       <c r="O248" s="1"/>
       <c r="P248" s="1"/>
       <c r="Q248" s="1"/>
@@ -10283,11 +10361,11 @@
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
       <c r="I249" s="1"/>
-      <c r="J249" s="39"/>
-      <c r="K249" s="39"/>
-      <c r="L249" s="39"/>
-      <c r="M249" s="39"/>
-      <c r="N249" s="40"/>
+      <c r="J249" s="40"/>
+      <c r="K249" s="40"/>
+      <c r="L249" s="40"/>
+      <c r="M249" s="40"/>
+      <c r="N249" s="41"/>
       <c r="O249" s="1"/>
       <c r="P249" s="1"/>
       <c r="Q249" s="1"/>
@@ -10306,11 +10384,11 @@
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
       <c r="I250" s="1"/>
-      <c r="J250" s="39"/>
-      <c r="K250" s="39"/>
-      <c r="L250" s="39"/>
-      <c r="M250" s="39"/>
-      <c r="N250" s="40"/>
+      <c r="J250" s="40"/>
+      <c r="K250" s="40"/>
+      <c r="L250" s="40"/>
+      <c r="M250" s="40"/>
+      <c r="N250" s="41"/>
       <c r="O250" s="1"/>
       <c r="P250" s="1"/>
       <c r="Q250" s="1"/>
@@ -10329,11 +10407,11 @@
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
       <c r="I251" s="1"/>
-      <c r="J251" s="39"/>
-      <c r="K251" s="39"/>
-      <c r="L251" s="39"/>
-      <c r="M251" s="39"/>
-      <c r="N251" s="40"/>
+      <c r="J251" s="40"/>
+      <c r="K251" s="40"/>
+      <c r="L251" s="40"/>
+      <c r="M251" s="40"/>
+      <c r="N251" s="41"/>
       <c r="O251" s="1"/>
       <c r="P251" s="1"/>
       <c r="Q251" s="1"/>
@@ -10352,11 +10430,11 @@
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
       <c r="I252" s="1"/>
-      <c r="J252" s="39"/>
-      <c r="K252" s="39"/>
-      <c r="L252" s="39"/>
-      <c r="M252" s="39"/>
-      <c r="N252" s="40"/>
+      <c r="J252" s="40"/>
+      <c r="K252" s="40"/>
+      <c r="L252" s="40"/>
+      <c r="M252" s="40"/>
+      <c r="N252" s="41"/>
       <c r="O252" s="1"/>
       <c r="P252" s="1"/>
       <c r="Q252" s="1"/>
@@ -10375,11 +10453,11 @@
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
       <c r="I253" s="1"/>
-      <c r="J253" s="39"/>
-      <c r="K253" s="39"/>
-      <c r="L253" s="39"/>
-      <c r="M253" s="39"/>
-      <c r="N253" s="40"/>
+      <c r="J253" s="40"/>
+      <c r="K253" s="40"/>
+      <c r="L253" s="40"/>
+      <c r="M253" s="40"/>
+      <c r="N253" s="41"/>
       <c r="O253" s="1"/>
       <c r="P253" s="1"/>
       <c r="Q253" s="1"/>
@@ -10398,11 +10476,11 @@
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
       <c r="I254" s="1"/>
-      <c r="J254" s="39"/>
-      <c r="K254" s="39"/>
-      <c r="L254" s="39"/>
-      <c r="M254" s="39"/>
-      <c r="N254" s="40"/>
+      <c r="J254" s="40"/>
+      <c r="K254" s="40"/>
+      <c r="L254" s="40"/>
+      <c r="M254" s="40"/>
+      <c r="N254" s="41"/>
       <c r="O254" s="1"/>
       <c r="P254" s="1"/>
       <c r="Q254" s="1"/>
@@ -10421,11 +10499,11 @@
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
       <c r="I255" s="1"/>
-      <c r="J255" s="39"/>
-      <c r="K255" s="39"/>
-      <c r="L255" s="39"/>
-      <c r="M255" s="39"/>
-      <c r="N255" s="40"/>
+      <c r="J255" s="40"/>
+      <c r="K255" s="40"/>
+      <c r="L255" s="40"/>
+      <c r="M255" s="40"/>
+      <c r="N255" s="41"/>
       <c r="O255" s="1"/>
       <c r="P255" s="1"/>
       <c r="Q255" s="1"/>
@@ -10444,11 +10522,11 @@
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
       <c r="I256" s="1"/>
-      <c r="J256" s="39"/>
-      <c r="K256" s="39"/>
-      <c r="L256" s="39"/>
-      <c r="M256" s="39"/>
-      <c r="N256" s="40"/>
+      <c r="J256" s="40"/>
+      <c r="K256" s="40"/>
+      <c r="L256" s="40"/>
+      <c r="M256" s="40"/>
+      <c r="N256" s="41"/>
       <c r="O256" s="1"/>
       <c r="P256" s="1"/>
       <c r="Q256" s="1"/>
@@ -10467,11 +10545,11 @@
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
       <c r="I257" s="1"/>
-      <c r="J257" s="39"/>
-      <c r="K257" s="39"/>
-      <c r="L257" s="39"/>
-      <c r="M257" s="39"/>
-      <c r="N257" s="40"/>
+      <c r="J257" s="40"/>
+      <c r="K257" s="40"/>
+      <c r="L257" s="40"/>
+      <c r="M257" s="40"/>
+      <c r="N257" s="41"/>
       <c r="O257" s="1"/>
       <c r="P257" s="1"/>
       <c r="Q257" s="1"/>
@@ -10490,11 +10568,11 @@
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
       <c r="I258" s="1"/>
-      <c r="J258" s="39"/>
-      <c r="K258" s="39"/>
-      <c r="L258" s="39"/>
-      <c r="M258" s="39"/>
-      <c r="N258" s="40"/>
+      <c r="J258" s="40"/>
+      <c r="K258" s="40"/>
+      <c r="L258" s="40"/>
+      <c r="M258" s="40"/>
+      <c r="N258" s="41"/>
       <c r="O258" s="1"/>
       <c r="P258" s="1"/>
       <c r="Q258" s="1"/>
@@ -10513,11 +10591,11 @@
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
       <c r="I259" s="1"/>
-      <c r="J259" s="39"/>
-      <c r="K259" s="39"/>
-      <c r="L259" s="39"/>
-      <c r="M259" s="39"/>
-      <c r="N259" s="40"/>
+      <c r="J259" s="40"/>
+      <c r="K259" s="40"/>
+      <c r="L259" s="40"/>
+      <c r="M259" s="40"/>
+      <c r="N259" s="41"/>
       <c r="O259" s="1"/>
       <c r="P259" s="1"/>
       <c r="Q259" s="1"/>
@@ -10536,11 +10614,11 @@
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
       <c r="I260" s="1"/>
-      <c r="J260" s="39"/>
-      <c r="K260" s="39"/>
-      <c r="L260" s="39"/>
-      <c r="M260" s="39"/>
-      <c r="N260" s="40"/>
+      <c r="J260" s="40"/>
+      <c r="K260" s="40"/>
+      <c r="L260" s="40"/>
+      <c r="M260" s="40"/>
+      <c r="N260" s="41"/>
       <c r="O260" s="1"/>
       <c r="P260" s="1"/>
       <c r="Q260" s="1"/>
@@ -10559,11 +10637,11 @@
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
       <c r="I261" s="1"/>
-      <c r="J261" s="39"/>
-      <c r="K261" s="39"/>
-      <c r="L261" s="39"/>
-      <c r="M261" s="39"/>
-      <c r="N261" s="40"/>
+      <c r="J261" s="40"/>
+      <c r="K261" s="40"/>
+      <c r="L261" s="40"/>
+      <c r="M261" s="40"/>
+      <c r="N261" s="41"/>
       <c r="O261" s="1"/>
       <c r="P261" s="1"/>
       <c r="Q261" s="1"/>
@@ -10582,11 +10660,11 @@
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
       <c r="I262" s="1"/>
-      <c r="J262" s="39"/>
-      <c r="K262" s="39"/>
-      <c r="L262" s="39"/>
-      <c r="M262" s="39"/>
-      <c r="N262" s="40"/>
+      <c r="J262" s="40"/>
+      <c r="K262" s="40"/>
+      <c r="L262" s="40"/>
+      <c r="M262" s="40"/>
+      <c r="N262" s="41"/>
       <c r="O262" s="1"/>
       <c r="P262" s="1"/>
       <c r="Q262" s="1"/>
@@ -10605,11 +10683,11 @@
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
       <c r="I263" s="1"/>
-      <c r="J263" s="39"/>
-      <c r="K263" s="39"/>
-      <c r="L263" s="39"/>
-      <c r="M263" s="39"/>
-      <c r="N263" s="40"/>
+      <c r="J263" s="40"/>
+      <c r="K263" s="40"/>
+      <c r="L263" s="40"/>
+      <c r="M263" s="40"/>
+      <c r="N263" s="41"/>
       <c r="O263" s="1"/>
       <c r="P263" s="1"/>
       <c r="Q263" s="1"/>
@@ -10628,11 +10706,11 @@
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
       <c r="I264" s="1"/>
-      <c r="J264" s="39"/>
-      <c r="K264" s="39"/>
-      <c r="L264" s="39"/>
-      <c r="M264" s="39"/>
-      <c r="N264" s="40"/>
+      <c r="J264" s="40"/>
+      <c r="K264" s="40"/>
+      <c r="L264" s="40"/>
+      <c r="M264" s="40"/>
+      <c r="N264" s="41"/>
       <c r="O264" s="1"/>
       <c r="P264" s="1"/>
       <c r="Q264" s="1"/>
@@ -10651,11 +10729,11 @@
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
       <c r="I265" s="1"/>
-      <c r="J265" s="39"/>
-      <c r="K265" s="39"/>
-      <c r="L265" s="39"/>
-      <c r="M265" s="39"/>
-      <c r="N265" s="40"/>
+      <c r="J265" s="40"/>
+      <c r="K265" s="40"/>
+      <c r="L265" s="40"/>
+      <c r="M265" s="40"/>
+      <c r="N265" s="41"/>
       <c r="O265" s="1"/>
       <c r="P265" s="1"/>
       <c r="Q265" s="1"/>
@@ -10674,11 +10752,11 @@
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
       <c r="I266" s="1"/>
-      <c r="J266" s="39"/>
-      <c r="K266" s="39"/>
-      <c r="L266" s="39"/>
-      <c r="M266" s="39"/>
-      <c r="N266" s="40"/>
+      <c r="J266" s="40"/>
+      <c r="K266" s="40"/>
+      <c r="L266" s="40"/>
+      <c r="M266" s="40"/>
+      <c r="N266" s="41"/>
       <c r="O266" s="1"/>
       <c r="P266" s="1"/>
       <c r="Q266" s="1"/>
@@ -10697,11 +10775,11 @@
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
       <c r="I267" s="1"/>
-      <c r="J267" s="39"/>
-      <c r="K267" s="39"/>
-      <c r="L267" s="39"/>
-      <c r="M267" s="39"/>
-      <c r="N267" s="40"/>
+      <c r="J267" s="40"/>
+      <c r="K267" s="40"/>
+      <c r="L267" s="40"/>
+      <c r="M267" s="40"/>
+      <c r="N267" s="41"/>
       <c r="O267" s="1"/>
       <c r="P267" s="1"/>
       <c r="Q267" s="1"/>
@@ -10720,11 +10798,11 @@
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
       <c r="I268" s="1"/>
-      <c r="J268" s="39"/>
-      <c r="K268" s="39"/>
-      <c r="L268" s="39"/>
-      <c r="M268" s="39"/>
-      <c r="N268" s="40"/>
+      <c r="J268" s="40"/>
+      <c r="K268" s="40"/>
+      <c r="L268" s="40"/>
+      <c r="M268" s="40"/>
+      <c r="N268" s="41"/>
       <c r="O268" s="1"/>
       <c r="P268" s="1"/>
       <c r="Q268" s="1"/>
@@ -10743,11 +10821,11 @@
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
       <c r="I269" s="1"/>
-      <c r="J269" s="39"/>
-      <c r="K269" s="39"/>
-      <c r="L269" s="39"/>
-      <c r="M269" s="39"/>
-      <c r="N269" s="40"/>
+      <c r="J269" s="40"/>
+      <c r="K269" s="40"/>
+      <c r="L269" s="40"/>
+      <c r="M269" s="40"/>
+      <c r="N269" s="41"/>
       <c r="O269" s="1"/>
       <c r="P269" s="1"/>
       <c r="Q269" s="1"/>
@@ -10766,11 +10844,11 @@
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
       <c r="I270" s="1"/>
-      <c r="J270" s="39"/>
-      <c r="K270" s="39"/>
-      <c r="L270" s="39"/>
-      <c r="M270" s="39"/>
-      <c r="N270" s="40"/>
+      <c r="J270" s="40"/>
+      <c r="K270" s="40"/>
+      <c r="L270" s="40"/>
+      <c r="M270" s="40"/>
+      <c r="N270" s="41"/>
       <c r="O270" s="1"/>
       <c r="P270" s="1"/>
       <c r="Q270" s="1"/>
@@ -10789,11 +10867,11 @@
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
       <c r="I271" s="1"/>
-      <c r="J271" s="39"/>
-      <c r="K271" s="39"/>
-      <c r="L271" s="39"/>
-      <c r="M271" s="39"/>
-      <c r="N271" s="40"/>
+      <c r="J271" s="40"/>
+      <c r="K271" s="40"/>
+      <c r="L271" s="40"/>
+      <c r="M271" s="40"/>
+      <c r="N271" s="41"/>
       <c r="O271" s="1"/>
       <c r="P271" s="1"/>
       <c r="Q271" s="1"/>
@@ -10812,11 +10890,11 @@
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
       <c r="I272" s="1"/>
-      <c r="J272" s="39"/>
-      <c r="K272" s="39"/>
-      <c r="L272" s="39"/>
-      <c r="M272" s="39"/>
-      <c r="N272" s="40"/>
+      <c r="J272" s="40"/>
+      <c r="K272" s="40"/>
+      <c r="L272" s="40"/>
+      <c r="M272" s="40"/>
+      <c r="N272" s="41"/>
       <c r="O272" s="1"/>
       <c r="P272" s="1"/>
       <c r="Q272" s="1"/>
@@ -10835,11 +10913,11 @@
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
       <c r="I273" s="1"/>
-      <c r="J273" s="39"/>
-      <c r="K273" s="39"/>
-      <c r="L273" s="39"/>
-      <c r="M273" s="39"/>
-      <c r="N273" s="40"/>
+      <c r="J273" s="40"/>
+      <c r="K273" s="40"/>
+      <c r="L273" s="40"/>
+      <c r="M273" s="40"/>
+      <c r="N273" s="41"/>
       <c r="O273" s="1"/>
       <c r="P273" s="1"/>
       <c r="Q273" s="1"/>
@@ -10858,11 +10936,11 @@
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
       <c r="I274" s="1"/>
-      <c r="J274" s="39"/>
-      <c r="K274" s="39"/>
-      <c r="L274" s="39"/>
-      <c r="M274" s="39"/>
-      <c r="N274" s="40"/>
+      <c r="J274" s="40"/>
+      <c r="K274" s="40"/>
+      <c r="L274" s="40"/>
+      <c r="M274" s="40"/>
+      <c r="N274" s="41"/>
       <c r="O274" s="1"/>
       <c r="P274" s="1"/>
       <c r="Q274" s="1"/>
@@ -10881,11 +10959,11 @@
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
       <c r="I275" s="1"/>
-      <c r="J275" s="39"/>
-      <c r="K275" s="39"/>
-      <c r="L275" s="39"/>
-      <c r="M275" s="39"/>
-      <c r="N275" s="40"/>
+      <c r="J275" s="40"/>
+      <c r="K275" s="40"/>
+      <c r="L275" s="40"/>
+      <c r="M275" s="40"/>
+      <c r="N275" s="41"/>
       <c r="O275" s="1"/>
       <c r="P275" s="1"/>
       <c r="Q275" s="1"/>
@@ -10904,11 +10982,11 @@
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
       <c r="I276" s="1"/>
-      <c r="J276" s="39"/>
-      <c r="K276" s="39"/>
-      <c r="L276" s="39"/>
-      <c r="M276" s="39"/>
-      <c r="N276" s="40"/>
+      <c r="J276" s="40"/>
+      <c r="K276" s="40"/>
+      <c r="L276" s="40"/>
+      <c r="M276" s="40"/>
+      <c r="N276" s="41"/>
       <c r="O276" s="1"/>
       <c r="P276" s="1"/>
       <c r="Q276" s="1"/>
@@ -10927,11 +11005,11 @@
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
       <c r="I277" s="1"/>
-      <c r="J277" s="39"/>
-      <c r="K277" s="39"/>
-      <c r="L277" s="39"/>
-      <c r="M277" s="39"/>
-      <c r="N277" s="40"/>
+      <c r="J277" s="40"/>
+      <c r="K277" s="40"/>
+      <c r="L277" s="40"/>
+      <c r="M277" s="40"/>
+      <c r="N277" s="41"/>
       <c r="O277" s="1"/>
       <c r="P277" s="1"/>
       <c r="Q277" s="1"/>
@@ -10950,11 +11028,11 @@
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
       <c r="I278" s="1"/>
-      <c r="J278" s="39"/>
-      <c r="K278" s="39"/>
-      <c r="L278" s="39"/>
-      <c r="M278" s="39"/>
-      <c r="N278" s="40"/>
+      <c r="J278" s="40"/>
+      <c r="K278" s="40"/>
+      <c r="L278" s="40"/>
+      <c r="M278" s="40"/>
+      <c r="N278" s="41"/>
       <c r="O278" s="1"/>
       <c r="P278" s="1"/>
       <c r="Q278" s="1"/>
@@ -10973,11 +11051,11 @@
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
       <c r="I279" s="1"/>
-      <c r="J279" s="39"/>
-      <c r="K279" s="39"/>
-      <c r="L279" s="39"/>
-      <c r="M279" s="39"/>
-      <c r="N279" s="40"/>
+      <c r="J279" s="40"/>
+      <c r="K279" s="40"/>
+      <c r="L279" s="40"/>
+      <c r="M279" s="40"/>
+      <c r="N279" s="41"/>
       <c r="O279" s="1"/>
       <c r="P279" s="1"/>
       <c r="Q279" s="1"/>
@@ -10996,11 +11074,11 @@
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
       <c r="I280" s="1"/>
-      <c r="J280" s="39"/>
-      <c r="K280" s="39"/>
-      <c r="L280" s="39"/>
-      <c r="M280" s="39"/>
-      <c r="N280" s="40"/>
+      <c r="J280" s="40"/>
+      <c r="K280" s="40"/>
+      <c r="L280" s="40"/>
+      <c r="M280" s="40"/>
+      <c r="N280" s="41"/>
       <c r="O280" s="1"/>
       <c r="P280" s="1"/>
       <c r="Q280" s="1"/>
@@ -11019,11 +11097,11 @@
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
       <c r="I281" s="1"/>
-      <c r="J281" s="39"/>
-      <c r="K281" s="39"/>
-      <c r="L281" s="39"/>
-      <c r="M281" s="39"/>
-      <c r="N281" s="40"/>
+      <c r="J281" s="40"/>
+      <c r="K281" s="40"/>
+      <c r="L281" s="40"/>
+      <c r="M281" s="40"/>
+      <c r="N281" s="41"/>
       <c r="O281" s="1"/>
       <c r="P281" s="1"/>
       <c r="Q281" s="1"/>
@@ -11042,11 +11120,11 @@
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
       <c r="I282" s="1"/>
-      <c r="J282" s="39"/>
-      <c r="K282" s="39"/>
-      <c r="L282" s="39"/>
-      <c r="M282" s="39"/>
-      <c r="N282" s="40"/>
+      <c r="J282" s="40"/>
+      <c r="K282" s="40"/>
+      <c r="L282" s="40"/>
+      <c r="M282" s="40"/>
+      <c r="N282" s="41"/>
       <c r="O282" s="1"/>
       <c r="P282" s="1"/>
       <c r="Q282" s="1"/>
@@ -11065,11 +11143,11 @@
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
       <c r="I283" s="1"/>
-      <c r="J283" s="39"/>
-      <c r="K283" s="39"/>
-      <c r="L283" s="39"/>
-      <c r="M283" s="39"/>
-      <c r="N283" s="40"/>
+      <c r="J283" s="40"/>
+      <c r="K283" s="40"/>
+      <c r="L283" s="40"/>
+      <c r="M283" s="40"/>
+      <c r="N283" s="41"/>
       <c r="O283" s="1"/>
       <c r="P283" s="1"/>
       <c r="Q283" s="1"/>
@@ -11088,11 +11166,11 @@
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
       <c r="I284" s="1"/>
-      <c r="J284" s="39"/>
-      <c r="K284" s="39"/>
-      <c r="L284" s="39"/>
-      <c r="M284" s="39"/>
-      <c r="N284" s="40"/>
+      <c r="J284" s="40"/>
+      <c r="K284" s="40"/>
+      <c r="L284" s="40"/>
+      <c r="M284" s="40"/>
+      <c r="N284" s="41"/>
       <c r="O284" s="1"/>
       <c r="P284" s="1"/>
       <c r="Q284" s="1"/>
@@ -11111,11 +11189,11 @@
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
       <c r="I285" s="1"/>
-      <c r="J285" s="39"/>
-      <c r="K285" s="39"/>
-      <c r="L285" s="39"/>
-      <c r="M285" s="39"/>
-      <c r="N285" s="40"/>
+      <c r="J285" s="40"/>
+      <c r="K285" s="40"/>
+      <c r="L285" s="40"/>
+      <c r="M285" s="40"/>
+      <c r="N285" s="41"/>
       <c r="O285" s="1"/>
       <c r="P285" s="1"/>
       <c r="Q285" s="1"/>
@@ -11134,11 +11212,11 @@
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
       <c r="I286" s="1"/>
-      <c r="J286" s="39"/>
-      <c r="K286" s="39"/>
-      <c r="L286" s="39"/>
-      <c r="M286" s="39"/>
-      <c r="N286" s="40"/>
+      <c r="J286" s="40"/>
+      <c r="K286" s="40"/>
+      <c r="L286" s="40"/>
+      <c r="M286" s="40"/>
+      <c r="N286" s="41"/>
       <c r="O286" s="1"/>
       <c r="P286" s="1"/>
       <c r="Q286" s="1"/>
@@ -11157,11 +11235,11 @@
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
       <c r="I287" s="1"/>
-      <c r="J287" s="39"/>
-      <c r="K287" s="39"/>
-      <c r="L287" s="39"/>
-      <c r="M287" s="39"/>
-      <c r="N287" s="40"/>
+      <c r="J287" s="40"/>
+      <c r="K287" s="40"/>
+      <c r="L287" s="40"/>
+      <c r="M287" s="40"/>
+      <c r="N287" s="41"/>
       <c r="O287" s="1"/>
       <c r="P287" s="1"/>
       <c r="Q287" s="1"/>
@@ -11180,11 +11258,11 @@
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
       <c r="I288" s="1"/>
-      <c r="J288" s="39"/>
-      <c r="K288" s="39"/>
-      <c r="L288" s="39"/>
-      <c r="M288" s="39"/>
-      <c r="N288" s="40"/>
+      <c r="J288" s="40"/>
+      <c r="K288" s="40"/>
+      <c r="L288" s="40"/>
+      <c r="M288" s="40"/>
+      <c r="N288" s="41"/>
       <c r="O288" s="1"/>
       <c r="P288" s="1"/>
       <c r="Q288" s="1"/>
@@ -11203,11 +11281,11 @@
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
       <c r="I289" s="1"/>
-      <c r="J289" s="39"/>
-      <c r="K289" s="39"/>
-      <c r="L289" s="39"/>
-      <c r="M289" s="39"/>
-      <c r="N289" s="40"/>
+      <c r="J289" s="40"/>
+      <c r="K289" s="40"/>
+      <c r="L289" s="40"/>
+      <c r="M289" s="40"/>
+      <c r="N289" s="41"/>
       <c r="O289" s="1"/>
       <c r="P289" s="1"/>
       <c r="Q289" s="1"/>
@@ -11226,11 +11304,11 @@
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
       <c r="I290" s="1"/>
-      <c r="J290" s="39"/>
-      <c r="K290" s="39"/>
-      <c r="L290" s="39"/>
-      <c r="M290" s="39"/>
-      <c r="N290" s="40"/>
+      <c r="J290" s="40"/>
+      <c r="K290" s="40"/>
+      <c r="L290" s="40"/>
+      <c r="M290" s="40"/>
+      <c r="N290" s="41"/>
       <c r="O290" s="1"/>
       <c r="P290" s="1"/>
       <c r="Q290" s="1"/>
@@ -11249,11 +11327,11 @@
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
       <c r="I291" s="1"/>
-      <c r="J291" s="39"/>
-      <c r="K291" s="39"/>
-      <c r="L291" s="39"/>
-      <c r="M291" s="39"/>
-      <c r="N291" s="40"/>
+      <c r="J291" s="40"/>
+      <c r="K291" s="40"/>
+      <c r="L291" s="40"/>
+      <c r="M291" s="40"/>
+      <c r="N291" s="41"/>
       <c r="O291" s="1"/>
       <c r="P291" s="1"/>
       <c r="Q291" s="1"/>
@@ -11272,11 +11350,11 @@
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
       <c r="I292" s="1"/>
-      <c r="J292" s="39"/>
-      <c r="K292" s="39"/>
-      <c r="L292" s="39"/>
-      <c r="M292" s="39"/>
-      <c r="N292" s="40"/>
+      <c r="J292" s="40"/>
+      <c r="K292" s="40"/>
+      <c r="L292" s="40"/>
+      <c r="M292" s="40"/>
+      <c r="N292" s="41"/>
       <c r="O292" s="1"/>
       <c r="P292" s="1"/>
       <c r="Q292" s="1"/>
@@ -11295,11 +11373,11 @@
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
       <c r="I293" s="1"/>
-      <c r="J293" s="39"/>
-      <c r="K293" s="39"/>
-      <c r="L293" s="39"/>
-      <c r="M293" s="39"/>
-      <c r="N293" s="40"/>
+      <c r="J293" s="40"/>
+      <c r="K293" s="40"/>
+      <c r="L293" s="40"/>
+      <c r="M293" s="40"/>
+      <c r="N293" s="41"/>
       <c r="O293" s="1"/>
       <c r="P293" s="1"/>
       <c r="Q293" s="1"/>
@@ -11318,11 +11396,11 @@
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
       <c r="I294" s="1"/>
-      <c r="J294" s="39"/>
-      <c r="K294" s="39"/>
-      <c r="L294" s="39"/>
-      <c r="M294" s="39"/>
-      <c r="N294" s="40"/>
+      <c r="J294" s="40"/>
+      <c r="K294" s="40"/>
+      <c r="L294" s="40"/>
+      <c r="M294" s="40"/>
+      <c r="N294" s="41"/>
       <c r="O294" s="1"/>
       <c r="P294" s="1"/>
       <c r="Q294" s="1"/>
@@ -11341,11 +11419,11 @@
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
       <c r="I295" s="1"/>
-      <c r="J295" s="39"/>
-      <c r="K295" s="39"/>
-      <c r="L295" s="39"/>
-      <c r="M295" s="39"/>
-      <c r="N295" s="40"/>
+      <c r="J295" s="40"/>
+      <c r="K295" s="40"/>
+      <c r="L295" s="40"/>
+      <c r="M295" s="40"/>
+      <c r="N295" s="41"/>
       <c r="O295" s="1"/>
       <c r="P295" s="1"/>
       <c r="Q295" s="1"/>
@@ -11364,11 +11442,11 @@
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
       <c r="I296" s="1"/>
-      <c r="J296" s="39"/>
-      <c r="K296" s="39"/>
-      <c r="L296" s="39"/>
-      <c r="M296" s="39"/>
-      <c r="N296" s="40"/>
+      <c r="J296" s="40"/>
+      <c r="K296" s="40"/>
+      <c r="L296" s="40"/>
+      <c r="M296" s="40"/>
+      <c r="N296" s="41"/>
       <c r="O296" s="1"/>
       <c r="P296" s="1"/>
       <c r="Q296" s="1"/>
@@ -11387,11 +11465,11 @@
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
       <c r="I297" s="1"/>
-      <c r="J297" s="39"/>
-      <c r="K297" s="39"/>
-      <c r="L297" s="39"/>
-      <c r="M297" s="39"/>
-      <c r="N297" s="40"/>
+      <c r="J297" s="40"/>
+      <c r="K297" s="40"/>
+      <c r="L297" s="40"/>
+      <c r="M297" s="40"/>
+      <c r="N297" s="41"/>
       <c r="O297" s="1"/>
       <c r="P297" s="1"/>
       <c r="Q297" s="1"/>
@@ -11410,11 +11488,11 @@
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
       <c r="I298" s="1"/>
-      <c r="J298" s="39"/>
-      <c r="K298" s="39"/>
-      <c r="L298" s="39"/>
-      <c r="M298" s="39"/>
-      <c r="N298" s="40"/>
+      <c r="J298" s="40"/>
+      <c r="K298" s="40"/>
+      <c r="L298" s="40"/>
+      <c r="M298" s="40"/>
+      <c r="N298" s="41"/>
       <c r="O298" s="1"/>
       <c r="P298" s="1"/>
       <c r="Q298" s="1"/>
@@ -11433,11 +11511,11 @@
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
       <c r="I299" s="1"/>
-      <c r="J299" s="39"/>
-      <c r="K299" s="39"/>
-      <c r="L299" s="39"/>
-      <c r="M299" s="39"/>
-      <c r="N299" s="40"/>
+      <c r="J299" s="40"/>
+      <c r="K299" s="40"/>
+      <c r="L299" s="40"/>
+      <c r="M299" s="40"/>
+      <c r="N299" s="41"/>
       <c r="O299" s="1"/>
       <c r="P299" s="1"/>
       <c r="Q299" s="1"/>
@@ -11456,11 +11534,11 @@
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
       <c r="I300" s="1"/>
-      <c r="J300" s="39"/>
-      <c r="K300" s="39"/>
-      <c r="L300" s="39"/>
-      <c r="M300" s="39"/>
-      <c r="N300" s="40"/>
+      <c r="J300" s="40"/>
+      <c r="K300" s="40"/>
+      <c r="L300" s="40"/>
+      <c r="M300" s="40"/>
+      <c r="N300" s="41"/>
       <c r="O300" s="1"/>
       <c r="P300" s="1"/>
       <c r="Q300" s="1"/>
@@ -11479,11 +11557,11 @@
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
       <c r="I301" s="1"/>
-      <c r="J301" s="39"/>
-      <c r="K301" s="39"/>
-      <c r="L301" s="39"/>
-      <c r="M301" s="39"/>
-      <c r="N301" s="40"/>
+      <c r="J301" s="40"/>
+      <c r="K301" s="40"/>
+      <c r="L301" s="40"/>
+      <c r="M301" s="40"/>
+      <c r="N301" s="41"/>
       <c r="O301" s="1"/>
       <c r="P301" s="1"/>
       <c r="Q301" s="1"/>
@@ -11502,11 +11580,11 @@
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
       <c r="I302" s="1"/>
-      <c r="J302" s="39"/>
-      <c r="K302" s="39"/>
-      <c r="L302" s="39"/>
-      <c r="M302" s="39"/>
-      <c r="N302" s="40"/>
+      <c r="J302" s="40"/>
+      <c r="K302" s="40"/>
+      <c r="L302" s="40"/>
+      <c r="M302" s="40"/>
+      <c r="N302" s="41"/>
       <c r="O302" s="1"/>
       <c r="P302" s="1"/>
       <c r="Q302" s="1"/>
@@ -11525,11 +11603,11 @@
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
       <c r="I303" s="1"/>
-      <c r="J303" s="39"/>
-      <c r="K303" s="39"/>
-      <c r="L303" s="39"/>
-      <c r="M303" s="39"/>
-      <c r="N303" s="40"/>
+      <c r="J303" s="40"/>
+      <c r="K303" s="40"/>
+      <c r="L303" s="40"/>
+      <c r="M303" s="40"/>
+      <c r="N303" s="41"/>
       <c r="O303" s="1"/>
       <c r="P303" s="1"/>
       <c r="Q303" s="1"/>
@@ -11548,11 +11626,11 @@
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
       <c r="I304" s="1"/>
-      <c r="J304" s="39"/>
-      <c r="K304" s="39"/>
-      <c r="L304" s="39"/>
-      <c r="M304" s="39"/>
-      <c r="N304" s="40"/>
+      <c r="J304" s="40"/>
+      <c r="K304" s="40"/>
+      <c r="L304" s="40"/>
+      <c r="M304" s="40"/>
+      <c r="N304" s="41"/>
       <c r="O304" s="1"/>
       <c r="P304" s="1"/>
       <c r="Q304" s="1"/>
@@ -11571,11 +11649,11 @@
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
       <c r="I305" s="1"/>
-      <c r="J305" s="39"/>
-      <c r="K305" s="39"/>
-      <c r="L305" s="39"/>
-      <c r="M305" s="39"/>
-      <c r="N305" s="40"/>
+      <c r="J305" s="40"/>
+      <c r="K305" s="40"/>
+      <c r="L305" s="40"/>
+      <c r="M305" s="40"/>
+      <c r="N305" s="41"/>
       <c r="O305" s="1"/>
       <c r="P305" s="1"/>
       <c r="Q305" s="1"/>
@@ -11594,11 +11672,11 @@
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
       <c r="I306" s="1"/>
-      <c r="J306" s="39"/>
-      <c r="K306" s="39"/>
-      <c r="L306" s="39"/>
-      <c r="M306" s="39"/>
-      <c r="N306" s="40"/>
+      <c r="J306" s="40"/>
+      <c r="K306" s="40"/>
+      <c r="L306" s="40"/>
+      <c r="M306" s="40"/>
+      <c r="N306" s="41"/>
       <c r="O306" s="1"/>
       <c r="P306" s="1"/>
       <c r="Q306" s="1"/>
@@ -11617,11 +11695,11 @@
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
       <c r="I307" s="1"/>
-      <c r="J307" s="39"/>
-      <c r="K307" s="39"/>
-      <c r="L307" s="39"/>
-      <c r="M307" s="39"/>
-      <c r="N307" s="40"/>
+      <c r="J307" s="40"/>
+      <c r="K307" s="40"/>
+      <c r="L307" s="40"/>
+      <c r="M307" s="40"/>
+      <c r="N307" s="41"/>
       <c r="O307" s="1"/>
       <c r="P307" s="1"/>
       <c r="Q307" s="1"/>
@@ -11640,11 +11718,11 @@
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
       <c r="I308" s="1"/>
-      <c r="J308" s="39"/>
-      <c r="K308" s="39"/>
-      <c r="L308" s="39"/>
-      <c r="M308" s="39"/>
-      <c r="N308" s="40"/>
+      <c r="J308" s="40"/>
+      <c r="K308" s="40"/>
+      <c r="L308" s="40"/>
+      <c r="M308" s="40"/>
+      <c r="N308" s="41"/>
       <c r="O308" s="1"/>
       <c r="P308" s="1"/>
       <c r="Q308" s="1"/>
@@ -11663,11 +11741,11 @@
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
       <c r="I309" s="1"/>
-      <c r="J309" s="39"/>
-      <c r="K309" s="39"/>
-      <c r="L309" s="39"/>
-      <c r="M309" s="39"/>
-      <c r="N309" s="40"/>
+      <c r="J309" s="40"/>
+      <c r="K309" s="40"/>
+      <c r="L309" s="40"/>
+      <c r="M309" s="40"/>
+      <c r="N309" s="41"/>
       <c r="O309" s="1"/>
       <c r="P309" s="1"/>
       <c r="Q309" s="1"/>
@@ -11686,11 +11764,11 @@
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
       <c r="I310" s="1"/>
-      <c r="J310" s="39"/>
-      <c r="K310" s="39"/>
-      <c r="L310" s="39"/>
-      <c r="M310" s="39"/>
-      <c r="N310" s="40"/>
+      <c r="J310" s="40"/>
+      <c r="K310" s="40"/>
+      <c r="L310" s="40"/>
+      <c r="M310" s="40"/>
+      <c r="N310" s="41"/>
       <c r="O310" s="1"/>
       <c r="P310" s="1"/>
       <c r="Q310" s="1"/>
@@ -11709,11 +11787,11 @@
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
       <c r="I311" s="1"/>
-      <c r="J311" s="39"/>
-      <c r="K311" s="39"/>
-      <c r="L311" s="39"/>
-      <c r="M311" s="39"/>
-      <c r="N311" s="40"/>
+      <c r="J311" s="40"/>
+      <c r="K311" s="40"/>
+      <c r="L311" s="40"/>
+      <c r="M311" s="40"/>
+      <c r="N311" s="41"/>
       <c r="O311" s="1"/>
       <c r="P311" s="1"/>
       <c r="Q311" s="1"/>
@@ -11732,11 +11810,11 @@
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
       <c r="I312" s="1"/>
-      <c r="J312" s="39"/>
-      <c r="K312" s="39"/>
-      <c r="L312" s="39"/>
-      <c r="M312" s="39"/>
-      <c r="N312" s="40"/>
+      <c r="J312" s="40"/>
+      <c r="K312" s="40"/>
+      <c r="L312" s="40"/>
+      <c r="M312" s="40"/>
+      <c r="N312" s="41"/>
       <c r="O312" s="1"/>
       <c r="P312" s="1"/>
       <c r="Q312" s="1"/>
@@ -11755,11 +11833,11 @@
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
       <c r="I313" s="1"/>
-      <c r="J313" s="39"/>
-      <c r="K313" s="39"/>
-      <c r="L313" s="39"/>
-      <c r="M313" s="39"/>
-      <c r="N313" s="40"/>
+      <c r="J313" s="40"/>
+      <c r="K313" s="40"/>
+      <c r="L313" s="40"/>
+      <c r="M313" s="40"/>
+      <c r="N313" s="41"/>
       <c r="O313" s="1"/>
       <c r="P313" s="1"/>
       <c r="Q313" s="1"/>
@@ -11778,11 +11856,11 @@
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
       <c r="I314" s="1"/>
-      <c r="J314" s="39"/>
-      <c r="K314" s="39"/>
-      <c r="L314" s="39"/>
-      <c r="M314" s="39"/>
-      <c r="N314" s="40"/>
+      <c r="J314" s="40"/>
+      <c r="K314" s="40"/>
+      <c r="L314" s="40"/>
+      <c r="M314" s="40"/>
+      <c r="N314" s="41"/>
       <c r="O314" s="1"/>
       <c r="P314" s="1"/>
       <c r="Q314" s="1"/>
@@ -11801,11 +11879,11 @@
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
       <c r="I315" s="1"/>
-      <c r="J315" s="39"/>
-      <c r="K315" s="39"/>
-      <c r="L315" s="39"/>
-      <c r="M315" s="39"/>
-      <c r="N315" s="40"/>
+      <c r="J315" s="40"/>
+      <c r="K315" s="40"/>
+      <c r="L315" s="40"/>
+      <c r="M315" s="40"/>
+      <c r="N315" s="41"/>
       <c r="O315" s="1"/>
       <c r="P315" s="1"/>
       <c r="Q315" s="1"/>
@@ -11824,11 +11902,11 @@
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
       <c r="I316" s="1"/>
-      <c r="J316" s="39"/>
-      <c r="K316" s="39"/>
-      <c r="L316" s="39"/>
-      <c r="M316" s="39"/>
-      <c r="N316" s="40"/>
+      <c r="J316" s="40"/>
+      <c r="K316" s="40"/>
+      <c r="L316" s="40"/>
+      <c r="M316" s="40"/>
+      <c r="N316" s="41"/>
       <c r="O316" s="1"/>
       <c r="P316" s="1"/>
       <c r="Q316" s="1"/>
@@ -11847,11 +11925,11 @@
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
       <c r="I317" s="1"/>
-      <c r="J317" s="39"/>
-      <c r="K317" s="39"/>
-      <c r="L317" s="39"/>
-      <c r="M317" s="39"/>
-      <c r="N317" s="40"/>
+      <c r="J317" s="40"/>
+      <c r="K317" s="40"/>
+      <c r="L317" s="40"/>
+      <c r="M317" s="40"/>
+      <c r="N317" s="41"/>
       <c r="O317" s="1"/>
       <c r="P317" s="1"/>
       <c r="Q317" s="1"/>
@@ -11870,11 +11948,11 @@
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
       <c r="I318" s="1"/>
-      <c r="J318" s="39"/>
-      <c r="K318" s="39"/>
-      <c r="L318" s="39"/>
-      <c r="M318" s="39"/>
-      <c r="N318" s="40"/>
+      <c r="J318" s="40"/>
+      <c r="K318" s="40"/>
+      <c r="L318" s="40"/>
+      <c r="M318" s="40"/>
+      <c r="N318" s="41"/>
       <c r="O318" s="1"/>
       <c r="P318" s="1"/>
       <c r="Q318" s="1"/>
@@ -11893,11 +11971,11 @@
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
       <c r="I319" s="1"/>
-      <c r="J319" s="39"/>
-      <c r="K319" s="39"/>
-      <c r="L319" s="39"/>
-      <c r="M319" s="39"/>
-      <c r="N319" s="40"/>
+      <c r="J319" s="40"/>
+      <c r="K319" s="40"/>
+      <c r="L319" s="40"/>
+      <c r="M319" s="40"/>
+      <c r="N319" s="41"/>
       <c r="O319" s="1"/>
       <c r="P319" s="1"/>
       <c r="Q319" s="1"/>
@@ -11916,11 +11994,11 @@
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
       <c r="I320" s="1"/>
-      <c r="J320" s="39"/>
-      <c r="K320" s="39"/>
-      <c r="L320" s="39"/>
-      <c r="M320" s="39"/>
-      <c r="N320" s="40"/>
+      <c r="J320" s="40"/>
+      <c r="K320" s="40"/>
+      <c r="L320" s="40"/>
+      <c r="M320" s="40"/>
+      <c r="N320" s="41"/>
       <c r="O320" s="1"/>
       <c r="P320" s="1"/>
       <c r="Q320" s="1"/>
@@ -11939,11 +12017,11 @@
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
       <c r="I321" s="1"/>
-      <c r="J321" s="39"/>
-      <c r="K321" s="39"/>
-      <c r="L321" s="39"/>
-      <c r="M321" s="39"/>
-      <c r="N321" s="40"/>
+      <c r="J321" s="40"/>
+      <c r="K321" s="40"/>
+      <c r="L321" s="40"/>
+      <c r="M321" s="40"/>
+      <c r="N321" s="41"/>
       <c r="O321" s="1"/>
       <c r="P321" s="1"/>
       <c r="Q321" s="1"/>
@@ -11962,11 +12040,11 @@
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
       <c r="I322" s="1"/>
-      <c r="J322" s="39"/>
-      <c r="K322" s="39"/>
-      <c r="L322" s="39"/>
-      <c r="M322" s="39"/>
-      <c r="N322" s="40"/>
+      <c r="J322" s="40"/>
+      <c r="K322" s="40"/>
+      <c r="L322" s="40"/>
+      <c r="M322" s="40"/>
+      <c r="N322" s="41"/>
       <c r="O322" s="1"/>
       <c r="P322" s="1"/>
       <c r="Q322" s="1"/>
@@ -11985,11 +12063,11 @@
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
       <c r="I323" s="1"/>
-      <c r="J323" s="39"/>
-      <c r="K323" s="39"/>
-      <c r="L323" s="39"/>
-      <c r="M323" s="39"/>
-      <c r="N323" s="40"/>
+      <c r="J323" s="40"/>
+      <c r="K323" s="40"/>
+      <c r="L323" s="40"/>
+      <c r="M323" s="40"/>
+      <c r="N323" s="41"/>
       <c r="O323" s="1"/>
       <c r="P323" s="1"/>
       <c r="Q323" s="1"/>
@@ -12008,11 +12086,11 @@
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
       <c r="I324" s="1"/>
-      <c r="J324" s="39"/>
-      <c r="K324" s="39"/>
-      <c r="L324" s="39"/>
-      <c r="M324" s="39"/>
-      <c r="N324" s="40"/>
+      <c r="J324" s="40"/>
+      <c r="K324" s="40"/>
+      <c r="L324" s="40"/>
+      <c r="M324" s="40"/>
+      <c r="N324" s="41"/>
       <c r="O324" s="1"/>
       <c r="P324" s="1"/>
       <c r="Q324" s="1"/>
@@ -12031,11 +12109,11 @@
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
       <c r="I325" s="1"/>
-      <c r="J325" s="39"/>
-      <c r="K325" s="39"/>
-      <c r="L325" s="39"/>
-      <c r="M325" s="39"/>
-      <c r="N325" s="40"/>
+      <c r="J325" s="40"/>
+      <c r="K325" s="40"/>
+      <c r="L325" s="40"/>
+      <c r="M325" s="40"/>
+      <c r="N325" s="41"/>
       <c r="O325" s="1"/>
       <c r="P325" s="1"/>
       <c r="Q325" s="1"/>
@@ -12054,11 +12132,11 @@
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
       <c r="I326" s="1"/>
-      <c r="J326" s="39"/>
-      <c r="K326" s="39"/>
-      <c r="L326" s="39"/>
-      <c r="M326" s="39"/>
-      <c r="N326" s="40"/>
+      <c r="J326" s="40"/>
+      <c r="K326" s="40"/>
+      <c r="L326" s="40"/>
+      <c r="M326" s="40"/>
+      <c r="N326" s="41"/>
       <c r="O326" s="1"/>
       <c r="P326" s="1"/>
       <c r="Q326" s="1"/>
@@ -12077,11 +12155,11 @@
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
       <c r="I327" s="1"/>
-      <c r="J327" s="39"/>
-      <c r="K327" s="39"/>
-      <c r="L327" s="39"/>
-      <c r="M327" s="39"/>
-      <c r="N327" s="40"/>
+      <c r="J327" s="40"/>
+      <c r="K327" s="40"/>
+      <c r="L327" s="40"/>
+      <c r="M327" s="40"/>
+      <c r="N327" s="41"/>
       <c r="O327" s="1"/>
       <c r="P327" s="1"/>
       <c r="Q327" s="1"/>
@@ -12100,11 +12178,11 @@
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
       <c r="I328" s="1"/>
-      <c r="J328" s="39"/>
-      <c r="K328" s="39"/>
-      <c r="L328" s="39"/>
-      <c r="M328" s="39"/>
-      <c r="N328" s="40"/>
+      <c r="J328" s="40"/>
+      <c r="K328" s="40"/>
+      <c r="L328" s="40"/>
+      <c r="M328" s="40"/>
+      <c r="N328" s="41"/>
       <c r="O328" s="1"/>
       <c r="P328" s="1"/>
       <c r="Q328" s="1"/>
@@ -12123,11 +12201,11 @@
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
       <c r="I329" s="1"/>
-      <c r="J329" s="39"/>
-      <c r="K329" s="39"/>
-      <c r="L329" s="39"/>
-      <c r="M329" s="39"/>
-      <c r="N329" s="40"/>
+      <c r="J329" s="40"/>
+      <c r="K329" s="40"/>
+      <c r="L329" s="40"/>
+      <c r="M329" s="40"/>
+      <c r="N329" s="41"/>
       <c r="O329" s="1"/>
       <c r="P329" s="1"/>
       <c r="Q329" s="1"/>
@@ -12146,11 +12224,11 @@
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
       <c r="I330" s="1"/>
-      <c r="J330" s="39"/>
-      <c r="K330" s="39"/>
-      <c r="L330" s="39"/>
-      <c r="M330" s="39"/>
-      <c r="N330" s="40"/>
+      <c r="J330" s="40"/>
+      <c r="K330" s="40"/>
+      <c r="L330" s="40"/>
+      <c r="M330" s="40"/>
+      <c r="N330" s="41"/>
       <c r="O330" s="1"/>
       <c r="P330" s="1"/>
       <c r="Q330" s="1"/>
@@ -12169,11 +12247,11 @@
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
       <c r="I331" s="1"/>
-      <c r="J331" s="39"/>
-      <c r="K331" s="39"/>
-      <c r="L331" s="39"/>
-      <c r="M331" s="39"/>
-      <c r="N331" s="40"/>
+      <c r="J331" s="40"/>
+      <c r="K331" s="40"/>
+      <c r="L331" s="40"/>
+      <c r="M331" s="40"/>
+      <c r="N331" s="41"/>
       <c r="O331" s="1"/>
       <c r="P331" s="1"/>
       <c r="Q331" s="1"/>
@@ -12192,11 +12270,11 @@
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
       <c r="I332" s="1"/>
-      <c r="J332" s="39"/>
-      <c r="K332" s="39"/>
-      <c r="L332" s="39"/>
-      <c r="M332" s="39"/>
-      <c r="N332" s="40"/>
+      <c r="J332" s="40"/>
+      <c r="K332" s="40"/>
+      <c r="L332" s="40"/>
+      <c r="M332" s="40"/>
+      <c r="N332" s="41"/>
       <c r="O332" s="1"/>
       <c r="P332" s="1"/>
       <c r="Q332" s="1"/>
@@ -12215,11 +12293,11 @@
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
       <c r="I333" s="1"/>
-      <c r="J333" s="39"/>
-      <c r="K333" s="39"/>
-      <c r="L333" s="39"/>
-      <c r="M333" s="39"/>
-      <c r="N333" s="40"/>
+      <c r="J333" s="40"/>
+      <c r="K333" s="40"/>
+      <c r="L333" s="40"/>
+      <c r="M333" s="40"/>
+      <c r="N333" s="41"/>
       <c r="O333" s="1"/>
       <c r="P333" s="1"/>
       <c r="Q333" s="1"/>
@@ -12238,11 +12316,11 @@
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
       <c r="I334" s="1"/>
-      <c r="J334" s="39"/>
-      <c r="K334" s="39"/>
-      <c r="L334" s="39"/>
-      <c r="M334" s="39"/>
-      <c r="N334" s="40"/>
+      <c r="J334" s="40"/>
+      <c r="K334" s="40"/>
+      <c r="L334" s="40"/>
+      <c r="M334" s="40"/>
+      <c r="N334" s="41"/>
       <c r="O334" s="1"/>
       <c r="P334" s="1"/>
       <c r="Q334" s="1"/>
@@ -12261,11 +12339,11 @@
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
       <c r="I335" s="1"/>
-      <c r="J335" s="39"/>
-      <c r="K335" s="39"/>
-      <c r="L335" s="39"/>
-      <c r="M335" s="39"/>
-      <c r="N335" s="40"/>
+      <c r="J335" s="40"/>
+      <c r="K335" s="40"/>
+      <c r="L335" s="40"/>
+      <c r="M335" s="40"/>
+      <c r="N335" s="41"/>
       <c r="O335" s="1"/>
       <c r="P335" s="1"/>
       <c r="Q335" s="1"/>
@@ -12284,11 +12362,11 @@
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
       <c r="I336" s="1"/>
-      <c r="J336" s="39"/>
-      <c r="K336" s="39"/>
-      <c r="L336" s="39"/>
-      <c r="M336" s="39"/>
-      <c r="N336" s="40"/>
+      <c r="J336" s="40"/>
+      <c r="K336" s="40"/>
+      <c r="L336" s="40"/>
+      <c r="M336" s="40"/>
+      <c r="N336" s="41"/>
       <c r="O336" s="1"/>
       <c r="P336" s="1"/>
       <c r="Q336" s="1"/>
@@ -12307,11 +12385,11 @@
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
       <c r="I337" s="1"/>
-      <c r="J337" s="39"/>
-      <c r="K337" s="39"/>
-      <c r="L337" s="39"/>
-      <c r="M337" s="39"/>
-      <c r="N337" s="40"/>
+      <c r="J337" s="40"/>
+      <c r="K337" s="40"/>
+      <c r="L337" s="40"/>
+      <c r="M337" s="40"/>
+      <c r="N337" s="41"/>
       <c r="O337" s="1"/>
       <c r="P337" s="1"/>
       <c r="Q337" s="1"/>
@@ -12330,11 +12408,11 @@
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
       <c r="I338" s="1"/>
-      <c r="J338" s="39"/>
-      <c r="K338" s="39"/>
-      <c r="L338" s="39"/>
-      <c r="M338" s="39"/>
-      <c r="N338" s="40"/>
+      <c r="J338" s="40"/>
+      <c r="K338" s="40"/>
+      <c r="L338" s="40"/>
+      <c r="M338" s="40"/>
+      <c r="N338" s="41"/>
       <c r="O338" s="1"/>
       <c r="P338" s="1"/>
       <c r="Q338" s="1"/>
@@ -12353,11 +12431,11 @@
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
       <c r="I339" s="1"/>
-      <c r="J339" s="39"/>
-      <c r="K339" s="39"/>
-      <c r="L339" s="39"/>
-      <c r="M339" s="39"/>
-      <c r="N339" s="40"/>
+      <c r="J339" s="40"/>
+      <c r="K339" s="40"/>
+      <c r="L339" s="40"/>
+      <c r="M339" s="40"/>
+      <c r="N339" s="41"/>
       <c r="O339" s="1"/>
       <c r="P339" s="1"/>
       <c r="Q339" s="1"/>
@@ -12376,11 +12454,11 @@
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
       <c r="I340" s="1"/>
-      <c r="J340" s="39"/>
-      <c r="K340" s="39"/>
-      <c r="L340" s="39"/>
-      <c r="M340" s="39"/>
-      <c r="N340" s="40"/>
+      <c r="J340" s="40"/>
+      <c r="K340" s="40"/>
+      <c r="L340" s="40"/>
+      <c r="M340" s="40"/>
+      <c r="N340" s="41"/>
       <c r="O340" s="1"/>
       <c r="P340" s="1"/>
       <c r="Q340" s="1"/>
@@ -12399,11 +12477,11 @@
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
       <c r="I341" s="1"/>
-      <c r="J341" s="39"/>
-      <c r="K341" s="39"/>
-      <c r="L341" s="39"/>
-      <c r="M341" s="39"/>
-      <c r="N341" s="40"/>
+      <c r="J341" s="40"/>
+      <c r="K341" s="40"/>
+      <c r="L341" s="40"/>
+      <c r="M341" s="40"/>
+      <c r="N341" s="41"/>
       <c r="O341" s="1"/>
       <c r="P341" s="1"/>
       <c r="Q341" s="1"/>
@@ -12422,11 +12500,11 @@
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
       <c r="I342" s="1"/>
-      <c r="J342" s="39"/>
-      <c r="K342" s="39"/>
-      <c r="L342" s="39"/>
-      <c r="M342" s="39"/>
-      <c r="N342" s="40"/>
+      <c r="J342" s="40"/>
+      <c r="K342" s="40"/>
+      <c r="L342" s="40"/>
+      <c r="M342" s="40"/>
+      <c r="N342" s="41"/>
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
       <c r="Q342" s="1"/>
@@ -12445,11 +12523,11 @@
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
       <c r="I343" s="1"/>
-      <c r="J343" s="39"/>
-      <c r="K343" s="39"/>
-      <c r="L343" s="39"/>
-      <c r="M343" s="39"/>
-      <c r="N343" s="40"/>
+      <c r="J343" s="40"/>
+      <c r="K343" s="40"/>
+      <c r="L343" s="40"/>
+      <c r="M343" s="40"/>
+      <c r="N343" s="41"/>
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
       <c r="Q343" s="1"/>
@@ -12468,11 +12546,11 @@
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
       <c r="I344" s="1"/>
-      <c r="J344" s="39"/>
-      <c r="K344" s="39"/>
-      <c r="L344" s="39"/>
-      <c r="M344" s="39"/>
-      <c r="N344" s="40"/>
+      <c r="J344" s="40"/>
+      <c r="K344" s="40"/>
+      <c r="L344" s="40"/>
+      <c r="M344" s="40"/>
+      <c r="N344" s="41"/>
       <c r="O344" s="1"/>
       <c r="P344" s="1"/>
       <c r="Q344" s="1"/>
@@ -12491,11 +12569,11 @@
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
       <c r="I345" s="1"/>
-      <c r="J345" s="39"/>
-      <c r="K345" s="39"/>
-      <c r="L345" s="39"/>
-      <c r="M345" s="39"/>
-      <c r="N345" s="40"/>
+      <c r="J345" s="40"/>
+      <c r="K345" s="40"/>
+      <c r="L345" s="40"/>
+      <c r="M345" s="40"/>
+      <c r="N345" s="41"/>
       <c r="O345" s="1"/>
       <c r="P345" s="1"/>
       <c r="Q345" s="1"/>
@@ -12514,11 +12592,11 @@
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
       <c r="I346" s="1"/>
-      <c r="J346" s="39"/>
-      <c r="K346" s="39"/>
-      <c r="L346" s="39"/>
-      <c r="M346" s="39"/>
-      <c r="N346" s="40"/>
+      <c r="J346" s="40"/>
+      <c r="K346" s="40"/>
+      <c r="L346" s="40"/>
+      <c r="M346" s="40"/>
+      <c r="N346" s="41"/>
       <c r="O346" s="1"/>
       <c r="P346" s="1"/>
       <c r="Q346" s="1"/>
@@ -12537,11 +12615,11 @@
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
       <c r="I347" s="1"/>
-      <c r="J347" s="39"/>
-      <c r="K347" s="39"/>
-      <c r="L347" s="39"/>
-      <c r="M347" s="39"/>
-      <c r="N347" s="40"/>
+      <c r="J347" s="40"/>
+      <c r="K347" s="40"/>
+      <c r="L347" s="40"/>
+      <c r="M347" s="40"/>
+      <c r="N347" s="41"/>
       <c r="O347" s="1"/>
       <c r="P347" s="1"/>
       <c r="Q347" s="1"/>
@@ -12560,11 +12638,11 @@
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
       <c r="I348" s="1"/>
-      <c r="J348" s="39"/>
-      <c r="K348" s="39"/>
-      <c r="L348" s="39"/>
-      <c r="M348" s="39"/>
-      <c r="N348" s="40"/>
+      <c r="J348" s="40"/>
+      <c r="K348" s="40"/>
+      <c r="L348" s="40"/>
+      <c r="M348" s="40"/>
+      <c r="N348" s="41"/>
       <c r="O348" s="1"/>
       <c r="P348" s="1"/>
       <c r="Q348" s="1"/>
@@ -12583,11 +12661,11 @@
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
       <c r="I349" s="1"/>
-      <c r="J349" s="39"/>
-      <c r="K349" s="39"/>
-      <c r="L349" s="39"/>
-      <c r="M349" s="39"/>
-      <c r="N349" s="40"/>
+      <c r="J349" s="40"/>
+      <c r="K349" s="40"/>
+      <c r="L349" s="40"/>
+      <c r="M349" s="40"/>
+      <c r="N349" s="41"/>
       <c r="O349" s="1"/>
       <c r="P349" s="1"/>
       <c r="Q349" s="1"/>
@@ -12606,11 +12684,11 @@
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
       <c r="I350" s="1"/>
-      <c r="J350" s="39"/>
-      <c r="K350" s="39"/>
-      <c r="L350" s="39"/>
-      <c r="M350" s="39"/>
-      <c r="N350" s="40"/>
+      <c r="J350" s="40"/>
+      <c r="K350" s="40"/>
+      <c r="L350" s="40"/>
+      <c r="M350" s="40"/>
+      <c r="N350" s="41"/>
       <c r="O350" s="1"/>
       <c r="P350" s="1"/>
       <c r="Q350" s="1"/>
@@ -12629,11 +12707,11 @@
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
       <c r="I351" s="1"/>
-      <c r="J351" s="39"/>
-      <c r="K351" s="39"/>
-      <c r="L351" s="39"/>
-      <c r="M351" s="39"/>
-      <c r="N351" s="40"/>
+      <c r="J351" s="40"/>
+      <c r="K351" s="40"/>
+      <c r="L351" s="40"/>
+      <c r="M351" s="40"/>
+      <c r="N351" s="41"/>
       <c r="O351" s="1"/>
       <c r="P351" s="1"/>
       <c r="Q351" s="1"/>
@@ -12652,11 +12730,11 @@
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
       <c r="I352" s="1"/>
-      <c r="J352" s="39"/>
-      <c r="K352" s="39"/>
-      <c r="L352" s="39"/>
-      <c r="M352" s="39"/>
-      <c r="N352" s="40"/>
+      <c r="J352" s="40"/>
+      <c r="K352" s="40"/>
+      <c r="L352" s="40"/>
+      <c r="M352" s="40"/>
+      <c r="N352" s="41"/>
       <c r="O352" s="1"/>
       <c r="P352" s="1"/>
       <c r="Q352" s="1"/>
@@ -12675,11 +12753,11 @@
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
       <c r="I353" s="1"/>
-      <c r="J353" s="39"/>
-      <c r="K353" s="39"/>
-      <c r="L353" s="39"/>
-      <c r="M353" s="39"/>
-      <c r="N353" s="40"/>
+      <c r="J353" s="40"/>
+      <c r="K353" s="40"/>
+      <c r="L353" s="40"/>
+      <c r="M353" s="40"/>
+      <c r="N353" s="41"/>
       <c r="O353" s="1"/>
       <c r="P353" s="1"/>
       <c r="Q353" s="1"/>
@@ -12698,11 +12776,11 @@
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
       <c r="I354" s="1"/>
-      <c r="J354" s="39"/>
-      <c r="K354" s="39"/>
-      <c r="L354" s="39"/>
-      <c r="M354" s="39"/>
-      <c r="N354" s="40"/>
+      <c r="J354" s="40"/>
+      <c r="K354" s="40"/>
+      <c r="L354" s="40"/>
+      <c r="M354" s="40"/>
+      <c r="N354" s="41"/>
       <c r="O354" s="1"/>
       <c r="P354" s="1"/>
       <c r="Q354" s="1"/>
@@ -12721,11 +12799,11 @@
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
       <c r="I355" s="1"/>
-      <c r="J355" s="39"/>
-      <c r="K355" s="39"/>
-      <c r="L355" s="39"/>
-      <c r="M355" s="39"/>
-      <c r="N355" s="40"/>
+      <c r="J355" s="40"/>
+      <c r="K355" s="40"/>
+      <c r="L355" s="40"/>
+      <c r="M355" s="40"/>
+      <c r="N355" s="41"/>
       <c r="O355" s="1"/>
       <c r="P355" s="1"/>
       <c r="Q355" s="1"/>
@@ -12744,11 +12822,11 @@
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
       <c r="I356" s="1"/>
-      <c r="J356" s="39"/>
-      <c r="K356" s="39"/>
-      <c r="L356" s="39"/>
-      <c r="M356" s="39"/>
-      <c r="N356" s="40"/>
+      <c r="J356" s="40"/>
+      <c r="K356" s="40"/>
+      <c r="L356" s="40"/>
+      <c r="M356" s="40"/>
+      <c r="N356" s="41"/>
       <c r="O356" s="1"/>
       <c r="P356" s="1"/>
       <c r="Q356" s="1"/>
@@ -12767,11 +12845,11 @@
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
       <c r="I357" s="1"/>
-      <c r="J357" s="39"/>
-      <c r="K357" s="39"/>
-      <c r="L357" s="39"/>
-      <c r="M357" s="39"/>
-      <c r="N357" s="40"/>
+      <c r="J357" s="40"/>
+      <c r="K357" s="40"/>
+      <c r="L357" s="40"/>
+      <c r="M357" s="40"/>
+      <c r="N357" s="41"/>
       <c r="O357" s="1"/>
       <c r="P357" s="1"/>
       <c r="Q357" s="1"/>
@@ -12790,11 +12868,11 @@
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
       <c r="I358" s="1"/>
-      <c r="J358" s="39"/>
-      <c r="K358" s="39"/>
-      <c r="L358" s="39"/>
-      <c r="M358" s="39"/>
-      <c r="N358" s="40"/>
+      <c r="J358" s="40"/>
+      <c r="K358" s="40"/>
+      <c r="L358" s="40"/>
+      <c r="M358" s="40"/>
+      <c r="N358" s="41"/>
       <c r="O358" s="1"/>
       <c r="P358" s="1"/>
       <c r="Q358" s="1"/>
@@ -12813,11 +12891,11 @@
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
       <c r="I359" s="1"/>
-      <c r="J359" s="39"/>
-      <c r="K359" s="39"/>
-      <c r="L359" s="39"/>
-      <c r="M359" s="39"/>
-      <c r="N359" s="40"/>
+      <c r="J359" s="40"/>
+      <c r="K359" s="40"/>
+      <c r="L359" s="40"/>
+      <c r="M359" s="40"/>
+      <c r="N359" s="41"/>
       <c r="O359" s="1"/>
       <c r="P359" s="1"/>
       <c r="Q359" s="1"/>
@@ -12836,11 +12914,11 @@
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
       <c r="I360" s="1"/>
-      <c r="J360" s="39"/>
-      <c r="K360" s="39"/>
-      <c r="L360" s="39"/>
-      <c r="M360" s="39"/>
-      <c r="N360" s="40"/>
+      <c r="J360" s="40"/>
+      <c r="K360" s="40"/>
+      <c r="L360" s="40"/>
+      <c r="M360" s="40"/>
+      <c r="N360" s="41"/>
       <c r="O360" s="1"/>
       <c r="P360" s="1"/>
       <c r="Q360" s="1"/>
@@ -12859,11 +12937,11 @@
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
       <c r="I361" s="1"/>
-      <c r="J361" s="39"/>
-      <c r="K361" s="39"/>
-      <c r="L361" s="39"/>
-      <c r="M361" s="39"/>
-      <c r="N361" s="40"/>
+      <c r="J361" s="40"/>
+      <c r="K361" s="40"/>
+      <c r="L361" s="40"/>
+      <c r="M361" s="40"/>
+      <c r="N361" s="41"/>
       <c r="O361" s="1"/>
       <c r="P361" s="1"/>
       <c r="Q361" s="1"/>
@@ -12882,11 +12960,11 @@
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
       <c r="I362" s="1"/>
-      <c r="J362" s="39"/>
-      <c r="K362" s="39"/>
-      <c r="L362" s="39"/>
-      <c r="M362" s="39"/>
-      <c r="N362" s="40"/>
+      <c r="J362" s="40"/>
+      <c r="K362" s="40"/>
+      <c r="L362" s="40"/>
+      <c r="M362" s="40"/>
+      <c r="N362" s="41"/>
       <c r="O362" s="1"/>
       <c r="P362" s="1"/>
       <c r="Q362" s="1"/>
@@ -12905,11 +12983,11 @@
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
       <c r="I363" s="1"/>
-      <c r="J363" s="39"/>
-      <c r="K363" s="39"/>
-      <c r="L363" s="39"/>
-      <c r="M363" s="39"/>
-      <c r="N363" s="40"/>
+      <c r="J363" s="40"/>
+      <c r="K363" s="40"/>
+      <c r="L363" s="40"/>
+      <c r="M363" s="40"/>
+      <c r="N363" s="41"/>
       <c r="O363" s="1"/>
       <c r="P363" s="1"/>
       <c r="Q363" s="1"/>
@@ -12928,11 +13006,11 @@
       <c r="F364" s="1"/>
       <c r="G364" s="1"/>
       <c r="I364" s="1"/>
-      <c r="J364" s="39"/>
-      <c r="K364" s="39"/>
-      <c r="L364" s="39"/>
-      <c r="M364" s="39"/>
-      <c r="N364" s="40"/>
+      <c r="J364" s="40"/>
+      <c r="K364" s="40"/>
+      <c r="L364" s="40"/>
+      <c r="M364" s="40"/>
+      <c r="N364" s="41"/>
       <c r="O364" s="1"/>
       <c r="P364" s="1"/>
       <c r="Q364" s="1"/>
@@ -12951,11 +13029,11 @@
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
       <c r="I365" s="1"/>
-      <c r="J365" s="39"/>
-      <c r="K365" s="39"/>
-      <c r="L365" s="39"/>
-      <c r="M365" s="39"/>
-      <c r="N365" s="40"/>
+      <c r="J365" s="40"/>
+      <c r="K365" s="40"/>
+      <c r="L365" s="40"/>
+      <c r="M365" s="40"/>
+      <c r="N365" s="41"/>
       <c r="O365" s="1"/>
       <c r="P365" s="1"/>
       <c r="Q365" s="1"/>
@@ -12974,11 +13052,11 @@
       <c r="F366" s="1"/>
       <c r="G366" s="1"/>
       <c r="I366" s="1"/>
-      <c r="J366" s="39"/>
-      <c r="K366" s="39"/>
-      <c r="L366" s="39"/>
-      <c r="M366" s="39"/>
-      <c r="N366" s="40"/>
+      <c r="J366" s="40"/>
+      <c r="K366" s="40"/>
+      <c r="L366" s="40"/>
+      <c r="M366" s="40"/>
+      <c r="N366" s="41"/>
       <c r="O366" s="1"/>
       <c r="P366" s="1"/>
       <c r="Q366" s="1"/>
@@ -12997,11 +13075,11 @@
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
       <c r="I367" s="1"/>
-      <c r="J367" s="39"/>
-      <c r="K367" s="39"/>
-      <c r="L367" s="39"/>
-      <c r="M367" s="39"/>
-      <c r="N367" s="40"/>
+      <c r="J367" s="40"/>
+      <c r="K367" s="40"/>
+      <c r="L367" s="40"/>
+      <c r="M367" s="40"/>
+      <c r="N367" s="41"/>
       <c r="O367" s="1"/>
       <c r="P367" s="1"/>
       <c r="Q367" s="1"/>
@@ -13020,11 +13098,11 @@
       <c r="F368" s="1"/>
       <c r="G368" s="1"/>
       <c r="I368" s="1"/>
-      <c r="J368" s="39"/>
-      <c r="K368" s="39"/>
-      <c r="L368" s="39"/>
-      <c r="M368" s="39"/>
-      <c r="N368" s="40"/>
+      <c r="J368" s="40"/>
+      <c r="K368" s="40"/>
+      <c r="L368" s="40"/>
+      <c r="M368" s="40"/>
+      <c r="N368" s="41"/>
       <c r="O368" s="1"/>
       <c r="P368" s="1"/>
       <c r="Q368" s="1"/>
@@ -13043,11 +13121,11 @@
       <c r="F369" s="1"/>
       <c r="G369" s="1"/>
       <c r="I369" s="1"/>
-      <c r="J369" s="39"/>
-      <c r="K369" s="39"/>
-      <c r="L369" s="39"/>
-      <c r="M369" s="39"/>
-      <c r="N369" s="40"/>
+      <c r="J369" s="40"/>
+      <c r="K369" s="40"/>
+      <c r="L369" s="40"/>
+      <c r="M369" s="40"/>
+      <c r="N369" s="41"/>
       <c r="O369" s="1"/>
       <c r="P369" s="1"/>
       <c r="Q369" s="1"/>
@@ -13066,11 +13144,11 @@
       <c r="F370" s="1"/>
       <c r="G370" s="1"/>
       <c r="I370" s="1"/>
-      <c r="J370" s="39"/>
-      <c r="K370" s="39"/>
-      <c r="L370" s="39"/>
-      <c r="M370" s="39"/>
-      <c r="N370" s="40"/>
+      <c r="J370" s="40"/>
+      <c r="K370" s="40"/>
+      <c r="L370" s="40"/>
+      <c r="M370" s="40"/>
+      <c r="N370" s="41"/>
       <c r="O370" s="1"/>
       <c r="P370" s="1"/>
       <c r="Q370" s="1"/>
@@ -13089,11 +13167,11 @@
       <c r="F371" s="1"/>
       <c r="G371" s="1"/>
       <c r="I371" s="1"/>
-      <c r="J371" s="39"/>
-      <c r="K371" s="39"/>
-      <c r="L371" s="39"/>
-      <c r="M371" s="39"/>
-      <c r="N371" s="40"/>
+      <c r="J371" s="40"/>
+      <c r="K371" s="40"/>
+      <c r="L371" s="40"/>
+      <c r="M371" s="40"/>
+      <c r="N371" s="41"/>
       <c r="O371" s="1"/>
       <c r="P371" s="1"/>
       <c r="Q371" s="1"/>
@@ -13112,11 +13190,11 @@
       <c r="F372" s="1"/>
       <c r="G372" s="1"/>
       <c r="I372" s="1"/>
-      <c r="J372" s="39"/>
-      <c r="K372" s="39"/>
-      <c r="L372" s="39"/>
-      <c r="M372" s="39"/>
-      <c r="N372" s="40"/>
+      <c r="J372" s="40"/>
+      <c r="K372" s="40"/>
+      <c r="L372" s="40"/>
+      <c r="M372" s="40"/>
+      <c r="N372" s="41"/>
       <c r="O372" s="1"/>
       <c r="P372" s="1"/>
       <c r="Q372" s="1"/>
@@ -13135,11 +13213,11 @@
       <c r="F373" s="1"/>
       <c r="G373" s="1"/>
       <c r="I373" s="1"/>
-      <c r="J373" s="39"/>
-      <c r="K373" s="39"/>
-      <c r="L373" s="39"/>
-      <c r="M373" s="39"/>
-      <c r="N373" s="40"/>
+      <c r="J373" s="40"/>
+      <c r="K373" s="40"/>
+      <c r="L373" s="40"/>
+      <c r="M373" s="40"/>
+      <c r="N373" s="41"/>
       <c r="O373" s="1"/>
       <c r="P373" s="1"/>
       <c r="Q373" s="1"/>
@@ -13158,11 +13236,11 @@
       <c r="F374" s="1"/>
       <c r="G374" s="1"/>
       <c r="I374" s="1"/>
-      <c r="J374" s="39"/>
-      <c r="K374" s="39"/>
-      <c r="L374" s="39"/>
-      <c r="M374" s="39"/>
-      <c r="N374" s="40"/>
+      <c r="J374" s="40"/>
+      <c r="K374" s="40"/>
+      <c r="L374" s="40"/>
+      <c r="M374" s="40"/>
+      <c r="N374" s="41"/>
       <c r="O374" s="1"/>
       <c r="P374" s="1"/>
       <c r="Q374" s="1"/>
@@ -13181,11 +13259,11 @@
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
       <c r="I375" s="1"/>
-      <c r="J375" s="39"/>
-      <c r="K375" s="39"/>
-      <c r="L375" s="39"/>
-      <c r="M375" s="39"/>
-      <c r="N375" s="40"/>
+      <c r="J375" s="40"/>
+      <c r="K375" s="40"/>
+      <c r="L375" s="40"/>
+      <c r="M375" s="40"/>
+      <c r="N375" s="41"/>
       <c r="O375" s="1"/>
       <c r="P375" s="1"/>
       <c r="Q375" s="1"/>
@@ -13204,11 +13282,11 @@
       <c r="F376" s="1"/>
       <c r="G376" s="1"/>
       <c r="I376" s="1"/>
-      <c r="J376" s="39"/>
-      <c r="K376" s="39"/>
-      <c r="L376" s="39"/>
-      <c r="M376" s="39"/>
-      <c r="N376" s="40"/>
+      <c r="J376" s="40"/>
+      <c r="K376" s="40"/>
+      <c r="L376" s="40"/>
+      <c r="M376" s="40"/>
+      <c r="N376" s="41"/>
       <c r="O376" s="1"/>
       <c r="P376" s="1"/>
       <c r="Q376" s="1"/>
@@ -13227,11 +13305,11 @@
       <c r="F377" s="1"/>
       <c r="G377" s="1"/>
       <c r="I377" s="1"/>
-      <c r="J377" s="39"/>
-      <c r="K377" s="39"/>
-      <c r="L377" s="39"/>
-      <c r="M377" s="39"/>
-      <c r="N377" s="40"/>
+      <c r="J377" s="40"/>
+      <c r="K377" s="40"/>
+      <c r="L377" s="40"/>
+      <c r="M377" s="40"/>
+      <c r="N377" s="41"/>
       <c r="O377" s="1"/>
       <c r="P377" s="1"/>
       <c r="Q377" s="1"/>
@@ -13250,11 +13328,11 @@
       <c r="F378" s="1"/>
       <c r="G378" s="1"/>
       <c r="I378" s="1"/>
-      <c r="J378" s="39"/>
-      <c r="K378" s="39"/>
-      <c r="L378" s="39"/>
-      <c r="M378" s="39"/>
-      <c r="N378" s="40"/>
+      <c r="J378" s="40"/>
+      <c r="K378" s="40"/>
+      <c r="L378" s="40"/>
+      <c r="M378" s="40"/>
+      <c r="N378" s="41"/>
       <c r="O378" s="1"/>
       <c r="P378" s="1"/>
       <c r="Q378" s="1"/>
@@ -13273,11 +13351,11 @@
       <c r="F379" s="1"/>
       <c r="G379" s="1"/>
       <c r="I379" s="1"/>
-      <c r="J379" s="39"/>
-      <c r="K379" s="39"/>
-      <c r="L379" s="39"/>
-      <c r="M379" s="39"/>
-      <c r="N379" s="40"/>
+      <c r="J379" s="40"/>
+      <c r="K379" s="40"/>
+      <c r="L379" s="40"/>
+      <c r="M379" s="40"/>
+      <c r="N379" s="41"/>
       <c r="O379" s="1"/>
       <c r="P379" s="1"/>
       <c r="Q379" s="1"/>
@@ -13296,11 +13374,11 @@
       <c r="F380" s="1"/>
       <c r="G380" s="1"/>
       <c r="I380" s="1"/>
-      <c r="J380" s="39"/>
-      <c r="K380" s="39"/>
-      <c r="L380" s="39"/>
-      <c r="M380" s="39"/>
-      <c r="N380" s="40"/>
+      <c r="J380" s="40"/>
+      <c r="K380" s="40"/>
+      <c r="L380" s="40"/>
+      <c r="M380" s="40"/>
+      <c r="N380" s="41"/>
       <c r="O380" s="1"/>
       <c r="P380" s="1"/>
       <c r="Q380" s="1"/>
@@ -13319,11 +13397,11 @@
       <c r="F381" s="1"/>
       <c r="G381" s="1"/>
       <c r="I381" s="1"/>
-      <c r="J381" s="39"/>
-      <c r="K381" s="39"/>
-      <c r="L381" s="39"/>
-      <c r="M381" s="39"/>
-      <c r="N381" s="40"/>
+      <c r="J381" s="40"/>
+      <c r="K381" s="40"/>
+      <c r="L381" s="40"/>
+      <c r="M381" s="40"/>
+      <c r="N381" s="41"/>
       <c r="O381" s="1"/>
       <c r="P381" s="1"/>
       <c r="Q381" s="1"/>
@@ -13342,11 +13420,11 @@
       <c r="F382" s="1"/>
       <c r="G382" s="1"/>
       <c r="I382" s="1"/>
-      <c r="J382" s="39"/>
-      <c r="K382" s="39"/>
-      <c r="L382" s="39"/>
-      <c r="M382" s="39"/>
-      <c r="N382" s="40"/>
+      <c r="J382" s="40"/>
+      <c r="K382" s="40"/>
+      <c r="L382" s="40"/>
+      <c r="M382" s="40"/>
+      <c r="N382" s="41"/>
       <c r="O382" s="1"/>
       <c r="P382" s="1"/>
       <c r="Q382" s="1"/>
@@ -13365,11 +13443,11 @@
       <c r="F383" s="1"/>
       <c r="G383" s="1"/>
       <c r="I383" s="1"/>
-      <c r="J383" s="39"/>
-      <c r="K383" s="39"/>
-      <c r="L383" s="39"/>
-      <c r="M383" s="39"/>
-      <c r="N383" s="40"/>
+      <c r="J383" s="40"/>
+      <c r="K383" s="40"/>
+      <c r="L383" s="40"/>
+      <c r="M383" s="40"/>
+      <c r="N383" s="41"/>
       <c r="O383" s="1"/>
       <c r="P383" s="1"/>
       <c r="Q383" s="1"/>
@@ -13388,11 +13466,11 @@
       <c r="F384" s="1"/>
       <c r="G384" s="1"/>
       <c r="I384" s="1"/>
-      <c r="J384" s="39"/>
-      <c r="K384" s="39"/>
-      <c r="L384" s="39"/>
-      <c r="M384" s="39"/>
-      <c r="N384" s="40"/>
+      <c r="J384" s="40"/>
+      <c r="K384" s="40"/>
+      <c r="L384" s="40"/>
+      <c r="M384" s="40"/>
+      <c r="N384" s="41"/>
       <c r="O384" s="1"/>
       <c r="P384" s="1"/>
       <c r="Q384" s="1"/>
@@ -13411,11 +13489,11 @@
       <c r="F385" s="1"/>
       <c r="G385" s="1"/>
       <c r="I385" s="1"/>
-      <c r="J385" s="39"/>
-      <c r="K385" s="39"/>
-      <c r="L385" s="39"/>
-      <c r="M385" s="39"/>
-      <c r="N385" s="40"/>
+      <c r="J385" s="40"/>
+      <c r="K385" s="40"/>
+      <c r="L385" s="40"/>
+      <c r="M385" s="40"/>
+      <c r="N385" s="41"/>
       <c r="O385" s="1"/>
       <c r="P385" s="1"/>
       <c r="Q385" s="1"/>
@@ -13434,11 +13512,11 @@
       <c r="F386" s="1"/>
       <c r="G386" s="1"/>
       <c r="I386" s="1"/>
-      <c r="J386" s="39"/>
-      <c r="K386" s="39"/>
-      <c r="L386" s="39"/>
-      <c r="M386" s="39"/>
-      <c r="N386" s="40"/>
+      <c r="J386" s="40"/>
+      <c r="K386" s="40"/>
+      <c r="L386" s="40"/>
+      <c r="M386" s="40"/>
+      <c r="N386" s="41"/>
       <c r="O386" s="1"/>
       <c r="P386" s="1"/>
       <c r="Q386" s="1"/>
@@ -13457,11 +13535,11 @@
       <c r="F387" s="1"/>
       <c r="G387" s="1"/>
       <c r="I387" s="1"/>
-      <c r="J387" s="39"/>
-      <c r="K387" s="39"/>
-      <c r="L387" s="39"/>
-      <c r="M387" s="39"/>
-      <c r="N387" s="40"/>
+      <c r="J387" s="40"/>
+      <c r="K387" s="40"/>
+      <c r="L387" s="40"/>
+      <c r="M387" s="40"/>
+      <c r="N387" s="41"/>
       <c r="O387" s="1"/>
       <c r="P387" s="1"/>
       <c r="Q387" s="1"/>
@@ -13480,11 +13558,11 @@
       <c r="F388" s="1"/>
       <c r="G388" s="1"/>
       <c r="I388" s="1"/>
-      <c r="J388" s="39"/>
-      <c r="K388" s="39"/>
-      <c r="L388" s="39"/>
-      <c r="M388" s="39"/>
-      <c r="N388" s="40"/>
+      <c r="J388" s="40"/>
+      <c r="K388" s="40"/>
+      <c r="L388" s="40"/>
+      <c r="M388" s="40"/>
+      <c r="N388" s="41"/>
       <c r="O388" s="1"/>
       <c r="P388" s="1"/>
       <c r="Q388" s="1"/>
@@ -13503,11 +13581,11 @@
       <c r="F389" s="1"/>
       <c r="G389" s="1"/>
       <c r="I389" s="1"/>
-      <c r="J389" s="39"/>
-      <c r="K389" s="39"/>
-      <c r="L389" s="39"/>
-      <c r="M389" s="39"/>
-      <c r="N389" s="40"/>
+      <c r="J389" s="40"/>
+      <c r="K389" s="40"/>
+      <c r="L389" s="40"/>
+      <c r="M389" s="40"/>
+      <c r="N389" s="41"/>
       <c r="O389" s="1"/>
       <c r="P389" s="1"/>
       <c r="Q389" s="1"/>
@@ -13526,11 +13604,11 @@
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
       <c r="I390" s="1"/>
-      <c r="J390" s="39"/>
-      <c r="K390" s="39"/>
-      <c r="L390" s="39"/>
-      <c r="M390" s="39"/>
-      <c r="N390" s="40"/>
+      <c r="J390" s="40"/>
+      <c r="K390" s="40"/>
+      <c r="L390" s="40"/>
+      <c r="M390" s="40"/>
+      <c r="N390" s="41"/>
       <c r="O390" s="1"/>
       <c r="P390" s="1"/>
       <c r="Q390" s="1"/>
@@ -13549,11 +13627,11 @@
       <c r="F391" s="1"/>
       <c r="G391" s="1"/>
       <c r="I391" s="1"/>
-      <c r="J391" s="39"/>
-      <c r="K391" s="39"/>
-      <c r="L391" s="39"/>
-      <c r="M391" s="39"/>
-      <c r="N391" s="40"/>
+      <c r="J391" s="40"/>
+      <c r="K391" s="40"/>
+      <c r="L391" s="40"/>
+      <c r="M391" s="40"/>
+      <c r="N391" s="41"/>
       <c r="O391" s="1"/>
       <c r="P391" s="1"/>
       <c r="Q391" s="1"/>
@@ -13572,11 +13650,11 @@
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
       <c r="I392" s="1"/>
-      <c r="J392" s="39"/>
-      <c r="K392" s="39"/>
-      <c r="L392" s="39"/>
-      <c r="M392" s="39"/>
-      <c r="N392" s="40"/>
+      <c r="J392" s="40"/>
+      <c r="K392" s="40"/>
+      <c r="L392" s="40"/>
+      <c r="M392" s="40"/>
+      <c r="N392" s="41"/>
       <c r="O392" s="1"/>
       <c r="P392" s="1"/>
       <c r="Q392" s="1"/>
@@ -13595,11 +13673,11 @@
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
       <c r="I393" s="1"/>
-      <c r="J393" s="39"/>
-      <c r="K393" s="39"/>
-      <c r="L393" s="39"/>
-      <c r="M393" s="39"/>
-      <c r="N393" s="40"/>
+      <c r="J393" s="40"/>
+      <c r="K393" s="40"/>
+      <c r="L393" s="40"/>
+      <c r="M393" s="40"/>
+      <c r="N393" s="41"/>
       <c r="O393" s="1"/>
       <c r="P393" s="1"/>
       <c r="Q393" s="1"/>
@@ -13618,11 +13696,11 @@
       <c r="F394" s="1"/>
       <c r="G394" s="1"/>
       <c r="I394" s="1"/>
-      <c r="J394" s="39"/>
-      <c r="K394" s="39"/>
-      <c r="L394" s="39"/>
-      <c r="M394" s="39"/>
-      <c r="N394" s="40"/>
+      <c r="J394" s="40"/>
+      <c r="K394" s="40"/>
+      <c r="L394" s="40"/>
+      <c r="M394" s="40"/>
+      <c r="N394" s="41"/>
       <c r="O394" s="1"/>
       <c r="P394" s="1"/>
       <c r="Q394" s="1"/>
@@ -13641,11 +13719,11 @@
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
       <c r="I395" s="1"/>
-      <c r="J395" s="39"/>
-      <c r="K395" s="39"/>
-      <c r="L395" s="39"/>
-      <c r="M395" s="39"/>
-      <c r="N395" s="40"/>
+      <c r="J395" s="40"/>
+      <c r="K395" s="40"/>
+      <c r="L395" s="40"/>
+      <c r="M395" s="40"/>
+      <c r="N395" s="41"/>
       <c r="O395" s="1"/>
       <c r="P395" s="1"/>
       <c r="Q395" s="1"/>
@@ -13664,11 +13742,11 @@
       <c r="F396" s="1"/>
       <c r="G396" s="1"/>
       <c r="I396" s="1"/>
-      <c r="J396" s="39"/>
-      <c r="K396" s="39"/>
-      <c r="L396" s="39"/>
-      <c r="M396" s="39"/>
-      <c r="N396" s="40"/>
+      <c r="J396" s="40"/>
+      <c r="K396" s="40"/>
+      <c r="L396" s="40"/>
+      <c r="M396" s="40"/>
+      <c r="N396" s="41"/>
       <c r="O396" s="1"/>
       <c r="P396" s="1"/>
       <c r="Q396" s="1"/>
@@ -13687,11 +13765,11 @@
       <c r="F397" s="1"/>
       <c r="G397" s="1"/>
       <c r="I397" s="1"/>
-      <c r="J397" s="39"/>
-      <c r="K397" s="39"/>
-      <c r="L397" s="39"/>
-      <c r="M397" s="39"/>
-      <c r="N397" s="40"/>
+      <c r="J397" s="40"/>
+      <c r="K397" s="40"/>
+      <c r="L397" s="40"/>
+      <c r="M397" s="40"/>
+      <c r="N397" s="41"/>
       <c r="O397" s="1"/>
       <c r="P397" s="1"/>
       <c r="Q397" s="1"/>
@@ -13710,11 +13788,11 @@
       <c r="F398" s="1"/>
       <c r="G398" s="1"/>
       <c r="I398" s="1"/>
-      <c r="J398" s="39"/>
-      <c r="K398" s="39"/>
-      <c r="L398" s="39"/>
-      <c r="M398" s="39"/>
-      <c r="N398" s="40"/>
+      <c r="J398" s="40"/>
+      <c r="K398" s="40"/>
+      <c r="L398" s="40"/>
+      <c r="M398" s="40"/>
+      <c r="N398" s="41"/>
       <c r="O398" s="1"/>
       <c r="P398" s="1"/>
       <c r="Q398" s="1"/>
@@ -13733,11 +13811,11 @@
       <c r="F399" s="1"/>
       <c r="G399" s="1"/>
       <c r="I399" s="1"/>
-      <c r="J399" s="39"/>
-      <c r="K399" s="39"/>
-      <c r="L399" s="39"/>
-      <c r="M399" s="39"/>
-      <c r="N399" s="40"/>
+      <c r="J399" s="40"/>
+      <c r="K399" s="40"/>
+      <c r="L399" s="40"/>
+      <c r="M399" s="40"/>
+      <c r="N399" s="41"/>
       <c r="O399" s="1"/>
       <c r="P399" s="1"/>
       <c r="Q399" s="1"/>
@@ -13756,11 +13834,11 @@
       <c r="F400" s="1"/>
       <c r="G400" s="1"/>
       <c r="I400" s="1"/>
-      <c r="J400" s="39"/>
-      <c r="K400" s="39"/>
-      <c r="L400" s="39"/>
-      <c r="M400" s="39"/>
-      <c r="N400" s="40"/>
+      <c r="J400" s="40"/>
+      <c r="K400" s="40"/>
+      <c r="L400" s="40"/>
+      <c r="M400" s="40"/>
+      <c r="N400" s="41"/>
       <c r="O400" s="1"/>
       <c r="P400" s="1"/>
       <c r="Q400" s="1"/>
@@ -13779,11 +13857,11 @@
       <c r="F401" s="1"/>
       <c r="G401" s="1"/>
       <c r="I401" s="1"/>
-      <c r="J401" s="39"/>
-      <c r="K401" s="39"/>
-      <c r="L401" s="39"/>
-      <c r="M401" s="39"/>
-      <c r="N401" s="40"/>
+      <c r="J401" s="40"/>
+      <c r="K401" s="40"/>
+      <c r="L401" s="40"/>
+      <c r="M401" s="40"/>
+      <c r="N401" s="41"/>
       <c r="O401" s="1"/>
       <c r="P401" s="1"/>
       <c r="Q401" s="1"/>
@@ -13802,11 +13880,11 @@
       <c r="F402" s="1"/>
       <c r="G402" s="1"/>
       <c r="I402" s="1"/>
-      <c r="J402" s="39"/>
-      <c r="K402" s="39"/>
-      <c r="L402" s="39"/>
-      <c r="M402" s="39"/>
-      <c r="N402" s="40"/>
+      <c r="J402" s="40"/>
+      <c r="K402" s="40"/>
+      <c r="L402" s="40"/>
+      <c r="M402" s="40"/>
+      <c r="N402" s="41"/>
       <c r="O402" s="1"/>
       <c r="P402" s="1"/>
       <c r="Q402" s="1"/>
@@ -13825,11 +13903,11 @@
       <c r="F403" s="1"/>
       <c r="G403" s="1"/>
       <c r="I403" s="1"/>
-      <c r="J403" s="39"/>
-      <c r="K403" s="39"/>
-      <c r="L403" s="39"/>
-      <c r="M403" s="39"/>
-      <c r="N403" s="40"/>
+      <c r="J403" s="40"/>
+      <c r="K403" s="40"/>
+      <c r="L403" s="40"/>
+      <c r="M403" s="40"/>
+      <c r="N403" s="41"/>
       <c r="O403" s="1"/>
       <c r="P403" s="1"/>
       <c r="Q403" s="1"/>
@@ -13848,11 +13926,11 @@
       <c r="F404" s="1"/>
       <c r="G404" s="1"/>
       <c r="I404" s="1"/>
-      <c r="J404" s="39"/>
-      <c r="K404" s="39"/>
-      <c r="L404" s="39"/>
-      <c r="M404" s="39"/>
-      <c r="N404" s="40"/>
+      <c r="J404" s="40"/>
+      <c r="K404" s="40"/>
+      <c r="L404" s="40"/>
+      <c r="M404" s="40"/>
+      <c r="N404" s="41"/>
       <c r="O404" s="1"/>
       <c r="P404" s="1"/>
       <c r="Q404" s="1"/>
@@ -13871,11 +13949,11 @@
       <c r="F405" s="1"/>
       <c r="G405" s="1"/>
       <c r="I405" s="1"/>
-      <c r="J405" s="39"/>
-      <c r="K405" s="39"/>
-      <c r="L405" s="39"/>
-      <c r="M405" s="39"/>
-      <c r="N405" s="40"/>
+      <c r="J405" s="40"/>
+      <c r="K405" s="40"/>
+      <c r="L405" s="40"/>
+      <c r="M405" s="40"/>
+      <c r="N405" s="41"/>
       <c r="O405" s="1"/>
       <c r="P405" s="1"/>
       <c r="Q405" s="1"/>
@@ -13894,11 +13972,11 @@
       <c r="F406" s="1"/>
       <c r="G406" s="1"/>
       <c r="I406" s="1"/>
-      <c r="J406" s="39"/>
-      <c r="K406" s="39"/>
-      <c r="L406" s="39"/>
-      <c r="M406" s="39"/>
-      <c r="N406" s="40"/>
+      <c r="J406" s="40"/>
+      <c r="K406" s="40"/>
+      <c r="L406" s="40"/>
+      <c r="M406" s="40"/>
+      <c r="N406" s="41"/>
       <c r="O406" s="1"/>
       <c r="P406" s="1"/>
       <c r="Q406" s="1"/>
@@ -13917,11 +13995,11 @@
       <c r="F407" s="1"/>
       <c r="G407" s="1"/>
       <c r="I407" s="1"/>
-      <c r="J407" s="39"/>
-      <c r="K407" s="39"/>
-      <c r="L407" s="39"/>
-      <c r="M407" s="39"/>
-      <c r="N407" s="40"/>
+      <c r="J407" s="40"/>
+      <c r="K407" s="40"/>
+      <c r="L407" s="40"/>
+      <c r="M407" s="40"/>
+      <c r="N407" s="41"/>
       <c r="O407" s="1"/>
       <c r="P407" s="1"/>
       <c r="Q407" s="1"/>
@@ -13940,11 +14018,11 @@
       <c r="F408" s="1"/>
       <c r="G408" s="1"/>
       <c r="I408" s="1"/>
-      <c r="J408" s="39"/>
-      <c r="K408" s="39"/>
-      <c r="L408" s="39"/>
-      <c r="M408" s="39"/>
-      <c r="N408" s="40"/>
+      <c r="J408" s="40"/>
+      <c r="K408" s="40"/>
+      <c r="L408" s="40"/>
+      <c r="M408" s="40"/>
+      <c r="N408" s="41"/>
       <c r="O408" s="1"/>
       <c r="P408" s="1"/>
       <c r="Q408" s="1"/>
@@ -13963,11 +14041,11 @@
       <c r="F409" s="1"/>
       <c r="G409" s="1"/>
       <c r="I409" s="1"/>
-      <c r="J409" s="39"/>
-      <c r="K409" s="39"/>
-      <c r="L409" s="39"/>
-      <c r="M409" s="39"/>
-      <c r="N409" s="40"/>
+      <c r="J409" s="40"/>
+      <c r="K409" s="40"/>
+      <c r="L409" s="40"/>
+      <c r="M409" s="40"/>
+      <c r="N409" s="41"/>
       <c r="O409" s="1"/>
       <c r="P409" s="1"/>
       <c r="Q409" s="1"/>
@@ -13986,11 +14064,11 @@
       <c r="F410" s="1"/>
       <c r="G410" s="1"/>
       <c r="I410" s="1"/>
-      <c r="J410" s="39"/>
-      <c r="K410" s="39"/>
-      <c r="L410" s="39"/>
-      <c r="M410" s="39"/>
-      <c r="N410" s="40"/>
+      <c r="J410" s="40"/>
+      <c r="K410" s="40"/>
+      <c r="L410" s="40"/>
+      <c r="M410" s="40"/>
+      <c r="N410" s="41"/>
       <c r="O410" s="1"/>
       <c r="P410" s="1"/>
       <c r="Q410" s="1"/>
@@ -14009,11 +14087,11 @@
       <c r="F411" s="1"/>
       <c r="G411" s="1"/>
       <c r="I411" s="1"/>
-      <c r="J411" s="39"/>
-      <c r="K411" s="39"/>
-      <c r="L411" s="39"/>
-      <c r="M411" s="39"/>
-      <c r="N411" s="40"/>
+      <c r="J411" s="40"/>
+      <c r="K411" s="40"/>
+      <c r="L411" s="40"/>
+      <c r="M411" s="40"/>
+      <c r="N411" s="41"/>
       <c r="O411" s="1"/>
       <c r="P411" s="1"/>
       <c r="Q411" s="1"/>
@@ -14032,11 +14110,11 @@
       <c r="F412" s="1"/>
       <c r="G412" s="1"/>
       <c r="I412" s="1"/>
-      <c r="J412" s="39"/>
-      <c r="K412" s="39"/>
-      <c r="L412" s="39"/>
-      <c r="M412" s="39"/>
-      <c r="N412" s="40"/>
+      <c r="J412" s="40"/>
+      <c r="K412" s="40"/>
+      <c r="L412" s="40"/>
+      <c r="M412" s="40"/>
+      <c r="N412" s="41"/>
       <c r="O412" s="1"/>
       <c r="P412" s="1"/>
       <c r="Q412" s="1"/>
@@ -14055,11 +14133,11 @@
       <c r="F413" s="1"/>
       <c r="G413" s="1"/>
       <c r="I413" s="1"/>
-      <c r="J413" s="39"/>
-      <c r="K413" s="39"/>
-      <c r="L413" s="39"/>
-      <c r="M413" s="39"/>
-      <c r="N413" s="40"/>
+      <c r="J413" s="40"/>
+      <c r="K413" s="40"/>
+      <c r="L413" s="40"/>
+      <c r="M413" s="40"/>
+      <c r="N413" s="41"/>
       <c r="O413" s="1"/>
       <c r="P413" s="1"/>
       <c r="Q413" s="1"/>
@@ -14078,11 +14156,11 @@
       <c r="F414" s="1"/>
       <c r="G414" s="1"/>
       <c r="I414" s="1"/>
-      <c r="J414" s="39"/>
-      <c r="K414" s="39"/>
-      <c r="L414" s="39"/>
-      <c r="M414" s="39"/>
-      <c r="N414" s="40"/>
+      <c r="J414" s="40"/>
+      <c r="K414" s="40"/>
+      <c r="L414" s="40"/>
+      <c r="M414" s="40"/>
+      <c r="N414" s="41"/>
       <c r="O414" s="1"/>
       <c r="P414" s="1"/>
       <c r="Q414" s="1"/>
@@ -14101,11 +14179,11 @@
       <c r="F415" s="1"/>
       <c r="G415" s="1"/>
       <c r="I415" s="1"/>
-      <c r="J415" s="39"/>
-      <c r="K415" s="39"/>
-      <c r="L415" s="39"/>
-      <c r="M415" s="39"/>
-      <c r="N415" s="40"/>
+      <c r="J415" s="40"/>
+      <c r="K415" s="40"/>
+      <c r="L415" s="40"/>
+      <c r="M415" s="40"/>
+      <c r="N415" s="41"/>
       <c r="O415" s="1"/>
       <c r="P415" s="1"/>
       <c r="Q415" s="1"/>
@@ -14124,11 +14202,11 @@
       <c r="F416" s="1"/>
       <c r="G416" s="1"/>
       <c r="I416" s="1"/>
-      <c r="J416" s="39"/>
-      <c r="K416" s="39"/>
-      <c r="L416" s="39"/>
-      <c r="M416" s="39"/>
-      <c r="N416" s="40"/>
+      <c r="J416" s="40"/>
+      <c r="K416" s="40"/>
+      <c r="L416" s="40"/>
+      <c r="M416" s="40"/>
+      <c r="N416" s="41"/>
       <c r="O416" s="1"/>
       <c r="P416" s="1"/>
       <c r="Q416" s="1"/>
@@ -14147,11 +14225,11 @@
       <c r="F417" s="1"/>
       <c r="G417" s="1"/>
       <c r="I417" s="1"/>
-      <c r="J417" s="39"/>
-      <c r="K417" s="39"/>
-      <c r="L417" s="39"/>
-      <c r="M417" s="39"/>
-      <c r="N417" s="40"/>
+      <c r="J417" s="40"/>
+      <c r="K417" s="40"/>
+      <c r="L417" s="40"/>
+      <c r="M417" s="40"/>
+      <c r="N417" s="41"/>
       <c r="O417" s="1"/>
       <c r="P417" s="1"/>
       <c r="Q417" s="1"/>
@@ -14170,11 +14248,11 @@
       <c r="F418" s="1"/>
       <c r="G418" s="1"/>
       <c r="I418" s="1"/>
-      <c r="J418" s="39"/>
-      <c r="K418" s="39"/>
-      <c r="L418" s="39"/>
-      <c r="M418" s="39"/>
-      <c r="N418" s="40"/>
+      <c r="J418" s="40"/>
+      <c r="K418" s="40"/>
+      <c r="L418" s="40"/>
+      <c r="M418" s="40"/>
+      <c r="N418" s="41"/>
       <c r="O418" s="1"/>
       <c r="P418" s="1"/>
       <c r="Q418" s="1"/>
@@ -14193,11 +14271,11 @@
       <c r="F419" s="1"/>
       <c r="G419" s="1"/>
       <c r="I419" s="1"/>
-      <c r="J419" s="39"/>
-      <c r="K419" s="39"/>
-      <c r="L419" s="39"/>
-      <c r="M419" s="39"/>
-      <c r="N419" s="40"/>
+      <c r="J419" s="40"/>
+      <c r="K419" s="40"/>
+      <c r="L419" s="40"/>
+      <c r="M419" s="40"/>
+      <c r="N419" s="41"/>
       <c r="O419" s="1"/>
       <c r="P419" s="1"/>
       <c r="Q419" s="1"/>
@@ -14216,11 +14294,11 @@
       <c r="F420" s="1"/>
       <c r="G420" s="1"/>
       <c r="I420" s="1"/>
-      <c r="J420" s="39"/>
-      <c r="K420" s="39"/>
-      <c r="L420" s="39"/>
-      <c r="M420" s="39"/>
-      <c r="N420" s="40"/>
+      <c r="J420" s="40"/>
+      <c r="K420" s="40"/>
+      <c r="L420" s="40"/>
+      <c r="M420" s="40"/>
+      <c r="N420" s="41"/>
       <c r="O420" s="1"/>
       <c r="P420" s="1"/>
       <c r="Q420" s="1"/>
@@ -14239,11 +14317,11 @@
       <c r="F421" s="1"/>
       <c r="G421" s="1"/>
       <c r="I421" s="1"/>
-      <c r="J421" s="39"/>
-      <c r="K421" s="39"/>
-      <c r="L421" s="39"/>
-      <c r="M421" s="39"/>
-      <c r="N421" s="40"/>
+      <c r="J421" s="40"/>
+      <c r="K421" s="40"/>
+      <c r="L421" s="40"/>
+      <c r="M421" s="40"/>
+      <c r="N421" s="41"/>
       <c r="O421" s="1"/>
       <c r="P421" s="1"/>
       <c r="Q421" s="1"/>
@@ -14262,11 +14340,11 @@
       <c r="F422" s="1"/>
       <c r="G422" s="1"/>
       <c r="I422" s="1"/>
-      <c r="J422" s="39"/>
-      <c r="K422" s="39"/>
-      <c r="L422" s="39"/>
-      <c r="M422" s="39"/>
-      <c r="N422" s="40"/>
+      <c r="J422" s="40"/>
+      <c r="K422" s="40"/>
+      <c r="L422" s="40"/>
+      <c r="M422" s="40"/>
+      <c r="N422" s="41"/>
       <c r="O422" s="1"/>
       <c r="P422" s="1"/>
       <c r="Q422" s="1"/>
@@ -14285,11 +14363,11 @@
       <c r="F423" s="1"/>
       <c r="G423" s="1"/>
       <c r="I423" s="1"/>
-      <c r="J423" s="39"/>
-      <c r="K423" s="39"/>
-      <c r="L423" s="39"/>
-      <c r="M423" s="39"/>
-      <c r="N423" s="40"/>
+      <c r="J423" s="40"/>
+      <c r="K423" s="40"/>
+      <c r="L423" s="40"/>
+      <c r="M423" s="40"/>
+      <c r="N423" s="41"/>
       <c r="O423" s="1"/>
       <c r="P423" s="1"/>
       <c r="Q423" s="1"/>
@@ -14308,11 +14386,11 @@
       <c r="F424" s="1"/>
       <c r="G424" s="1"/>
       <c r="I424" s="1"/>
-      <c r="J424" s="39"/>
-      <c r="K424" s="39"/>
-      <c r="L424" s="39"/>
-      <c r="M424" s="39"/>
-      <c r="N424" s="40"/>
+      <c r="J424" s="40"/>
+      <c r="K424" s="40"/>
+      <c r="L424" s="40"/>
+      <c r="M424" s="40"/>
+      <c r="N424" s="41"/>
       <c r="O424" s="1"/>
       <c r="P424" s="1"/>
       <c r="Q424" s="1"/>
@@ -14331,11 +14409,11 @@
       <c r="F425" s="1"/>
       <c r="G425" s="1"/>
       <c r="I425" s="1"/>
-      <c r="J425" s="39"/>
-      <c r="K425" s="39"/>
-      <c r="L425" s="39"/>
-      <c r="M425" s="39"/>
-      <c r="N425" s="40"/>
+      <c r="J425" s="40"/>
+      <c r="K425" s="40"/>
+      <c r="L425" s="40"/>
+      <c r="M425" s="40"/>
+      <c r="N425" s="41"/>
       <c r="O425" s="1"/>
       <c r="P425" s="1"/>
       <c r="Q425" s="1"/>
@@ -14354,11 +14432,11 @@
       <c r="F426" s="1"/>
       <c r="G426" s="1"/>
       <c r="I426" s="1"/>
-      <c r="J426" s="39"/>
-      <c r="K426" s="39"/>
-      <c r="L426" s="39"/>
-      <c r="M426" s="39"/>
-      <c r="N426" s="40"/>
+      <c r="J426" s="40"/>
+      <c r="K426" s="40"/>
+      <c r="L426" s="40"/>
+      <c r="M426" s="40"/>
+      <c r="N426" s="41"/>
       <c r="O426" s="1"/>
       <c r="P426" s="1"/>
       <c r="Q426" s="1"/>
@@ -14377,11 +14455,11 @@
       <c r="F427" s="1"/>
       <c r="G427" s="1"/>
       <c r="I427" s="1"/>
-      <c r="J427" s="39"/>
-      <c r="K427" s="39"/>
-      <c r="L427" s="39"/>
-      <c r="M427" s="39"/>
-      <c r="N427" s="40"/>
+      <c r="J427" s="40"/>
+      <c r="K427" s="40"/>
+      <c r="L427" s="40"/>
+      <c r="M427" s="40"/>
+      <c r="N427" s="41"/>
       <c r="O427" s="1"/>
       <c r="P427" s="1"/>
       <c r="Q427" s="1"/>
@@ -14400,11 +14478,11 @@
       <c r="F428" s="1"/>
       <c r="G428" s="1"/>
       <c r="I428" s="1"/>
-      <c r="J428" s="39"/>
-      <c r="K428" s="39"/>
-      <c r="L428" s="39"/>
-      <c r="M428" s="39"/>
-      <c r="N428" s="40"/>
+      <c r="J428" s="40"/>
+      <c r="K428" s="40"/>
+      <c r="L428" s="40"/>
+      <c r="M428" s="40"/>
+      <c r="N428" s="41"/>
       <c r="O428" s="1"/>
       <c r="P428" s="1"/>
       <c r="Q428" s="1"/>
@@ -14423,11 +14501,11 @@
       <c r="F429" s="1"/>
       <c r="G429" s="1"/>
       <c r="I429" s="1"/>
-      <c r="J429" s="39"/>
-      <c r="K429" s="39"/>
-      <c r="L429" s="39"/>
-      <c r="M429" s="39"/>
-      <c r="N429" s="40"/>
+      <c r="J429" s="40"/>
+      <c r="K429" s="40"/>
+      <c r="L429" s="40"/>
+      <c r="M429" s="40"/>
+      <c r="N429" s="41"/>
       <c r="O429" s="1"/>
       <c r="P429" s="1"/>
       <c r="Q429" s="1"/>
@@ -14446,11 +14524,11 @@
       <c r="F430" s="1"/>
       <c r="G430" s="1"/>
       <c r="I430" s="1"/>
-      <c r="J430" s="39"/>
-      <c r="K430" s="39"/>
-      <c r="L430" s="39"/>
-      <c r="M430" s="39"/>
-      <c r="N430" s="40"/>
+      <c r="J430" s="40"/>
+      <c r="K430" s="40"/>
+      <c r="L430" s="40"/>
+      <c r="M430" s="40"/>
+      <c r="N430" s="41"/>
       <c r="O430" s="1"/>
       <c r="P430" s="1"/>
       <c r="Q430" s="1"/>
@@ -14469,11 +14547,11 @@
       <c r="F431" s="1"/>
       <c r="G431" s="1"/>
       <c r="I431" s="1"/>
-      <c r="J431" s="39"/>
-      <c r="K431" s="39"/>
-      <c r="L431" s="39"/>
-      <c r="M431" s="39"/>
-      <c r="N431" s="40"/>
+      <c r="J431" s="40"/>
+      <c r="K431" s="40"/>
+      <c r="L431" s="40"/>
+      <c r="M431" s="40"/>
+      <c r="N431" s="41"/>
       <c r="O431" s="1"/>
       <c r="P431" s="1"/>
       <c r="Q431" s="1"/>
@@ -14492,11 +14570,11 @@
       <c r="F432" s="1"/>
       <c r="G432" s="1"/>
       <c r="I432" s="1"/>
-      <c r="J432" s="39"/>
-      <c r="K432" s="39"/>
-      <c r="L432" s="39"/>
-      <c r="M432" s="39"/>
-      <c r="N432" s="40"/>
+      <c r="J432" s="40"/>
+      <c r="K432" s="40"/>
+      <c r="L432" s="40"/>
+      <c r="M432" s="40"/>
+      <c r="N432" s="41"/>
       <c r="O432" s="1"/>
       <c r="P432" s="1"/>
       <c r="Q432" s="1"/>
@@ -14515,11 +14593,11 @@
       <c r="F433" s="1"/>
       <c r="G433" s="1"/>
       <c r="I433" s="1"/>
-      <c r="J433" s="39"/>
-      <c r="K433" s="39"/>
-      <c r="L433" s="39"/>
-      <c r="M433" s="39"/>
-      <c r="N433" s="40"/>
+      <c r="J433" s="40"/>
+      <c r="K433" s="40"/>
+      <c r="L433" s="40"/>
+      <c r="M433" s="40"/>
+      <c r="N433" s="41"/>
       <c r="O433" s="1"/>
       <c r="P433" s="1"/>
       <c r="Q433" s="1"/>
@@ -14538,11 +14616,11 @@
       <c r="F434" s="1"/>
       <c r="G434" s="1"/>
       <c r="I434" s="1"/>
-      <c r="J434" s="39"/>
-      <c r="K434" s="39"/>
-      <c r="L434" s="39"/>
-      <c r="M434" s="39"/>
-      <c r="N434" s="40"/>
+      <c r="J434" s="40"/>
+      <c r="K434" s="40"/>
+      <c r="L434" s="40"/>
+      <c r="M434" s="40"/>
+      <c r="N434" s="41"/>
       <c r="O434" s="1"/>
       <c r="P434" s="1"/>
       <c r="Q434" s="1"/>
@@ -14561,11 +14639,11 @@
       <c r="F435" s="1"/>
       <c r="G435" s="1"/>
       <c r="I435" s="1"/>
-      <c r="J435" s="39"/>
-      <c r="K435" s="39"/>
-      <c r="L435" s="39"/>
-      <c r="M435" s="39"/>
-      <c r="N435" s="40"/>
+      <c r="J435" s="40"/>
+      <c r="K435" s="40"/>
+      <c r="L435" s="40"/>
+      <c r="M435" s="40"/>
+      <c r="N435" s="41"/>
       <c r="O435" s="1"/>
       <c r="P435" s="1"/>
       <c r="Q435" s="1"/>
@@ -14584,11 +14662,11 @@
       <c r="F436" s="1"/>
       <c r="G436" s="1"/>
       <c r="I436" s="1"/>
-      <c r="J436" s="39"/>
-      <c r="K436" s="39"/>
-      <c r="L436" s="39"/>
-      <c r="M436" s="39"/>
-      <c r="N436" s="40"/>
+      <c r="J436" s="40"/>
+      <c r="K436" s="40"/>
+      <c r="L436" s="40"/>
+      <c r="M436" s="40"/>
+      <c r="N436" s="41"/>
       <c r="O436" s="1"/>
       <c r="P436" s="1"/>
       <c r="Q436" s="1"/>
@@ -14607,11 +14685,11 @@
       <c r="F437" s="1"/>
       <c r="G437" s="1"/>
       <c r="I437" s="1"/>
-      <c r="J437" s="39"/>
-      <c r="K437" s="39"/>
-      <c r="L437" s="39"/>
-      <c r="M437" s="39"/>
-      <c r="N437" s="40"/>
+      <c r="J437" s="40"/>
+      <c r="K437" s="40"/>
+      <c r="L437" s="40"/>
+      <c r="M437" s="40"/>
+      <c r="N437" s="41"/>
       <c r="O437" s="1"/>
       <c r="P437" s="1"/>
       <c r="Q437" s="1"/>
@@ -14630,11 +14708,11 @@
       <c r="F438" s="1"/>
       <c r="G438" s="1"/>
       <c r="I438" s="1"/>
-      <c r="J438" s="39"/>
-      <c r="K438" s="39"/>
-      <c r="L438" s="39"/>
-      <c r="M438" s="39"/>
-      <c r="N438" s="40"/>
+      <c r="J438" s="40"/>
+      <c r="K438" s="40"/>
+      <c r="L438" s="40"/>
+      <c r="M438" s="40"/>
+      <c r="N438" s="41"/>
       <c r="O438" s="1"/>
       <c r="P438" s="1"/>
       <c r="Q438" s="1"/>
@@ -14653,11 +14731,11 @@
       <c r="F439" s="1"/>
       <c r="G439" s="1"/>
       <c r="I439" s="1"/>
-      <c r="J439" s="39"/>
-      <c r="K439" s="39"/>
-      <c r="L439" s="39"/>
-      <c r="M439" s="39"/>
-      <c r="N439" s="40"/>
+      <c r="J439" s="40"/>
+      <c r="K439" s="40"/>
+      <c r="L439" s="40"/>
+      <c r="M439" s="40"/>
+      <c r="N439" s="41"/>
       <c r="O439" s="1"/>
       <c r="P439" s="1"/>
       <c r="Q439" s="1"/>
@@ -14676,11 +14754,11 @@
       <c r="F440" s="1"/>
       <c r="G440" s="1"/>
       <c r="I440" s="1"/>
-      <c r="J440" s="39"/>
-      <c r="K440" s="39"/>
-      <c r="L440" s="39"/>
-      <c r="M440" s="39"/>
-      <c r="N440" s="40"/>
+      <c r="J440" s="40"/>
+      <c r="K440" s="40"/>
+      <c r="L440" s="40"/>
+      <c r="M440" s="40"/>
+      <c r="N440" s="41"/>
       <c r="O440" s="1"/>
       <c r="P440" s="1"/>
       <c r="Q440" s="1"/>
@@ -14699,11 +14777,11 @@
       <c r="F441" s="1"/>
       <c r="G441" s="1"/>
       <c r="I441" s="1"/>
-      <c r="J441" s="39"/>
-      <c r="K441" s="39"/>
-      <c r="L441" s="39"/>
-      <c r="M441" s="39"/>
-      <c r="N441" s="40"/>
+      <c r="J441" s="40"/>
+      <c r="K441" s="40"/>
+      <c r="L441" s="40"/>
+      <c r="M441" s="40"/>
+      <c r="N441" s="41"/>
       <c r="O441" s="1"/>
       <c r="P441" s="1"/>
       <c r="Q441" s="1"/>
@@ -14722,11 +14800,11 @@
       <c r="F442" s="1"/>
       <c r="G442" s="1"/>
       <c r="I442" s="1"/>
-      <c r="J442" s="39"/>
-      <c r="K442" s="39"/>
-      <c r="L442" s="39"/>
-      <c r="M442" s="39"/>
-      <c r="N442" s="40"/>
+      <c r="J442" s="40"/>
+      <c r="K442" s="40"/>
+      <c r="L442" s="40"/>
+      <c r="M442" s="40"/>
+      <c r="N442" s="41"/>
       <c r="O442" s="1"/>
       <c r="P442" s="1"/>
       <c r="Q442" s="1"/>
@@ -14745,11 +14823,11 @@
       <c r="F443" s="1"/>
       <c r="G443" s="1"/>
       <c r="I443" s="1"/>
-      <c r="J443" s="39"/>
-      <c r="K443" s="39"/>
-      <c r="L443" s="39"/>
-      <c r="M443" s="39"/>
-      <c r="N443" s="40"/>
+      <c r="J443" s="40"/>
+      <c r="K443" s="40"/>
+      <c r="L443" s="40"/>
+      <c r="M443" s="40"/>
+      <c r="N443" s="41"/>
       <c r="O443" s="1"/>
       <c r="P443" s="1"/>
       <c r="Q443" s="1"/>
@@ -14768,11 +14846,11 @@
       <c r="F444" s="1"/>
       <c r="G444" s="1"/>
       <c r="I444" s="1"/>
-      <c r="J444" s="39"/>
-      <c r="K444" s="39"/>
-      <c r="L444" s="39"/>
-      <c r="M444" s="39"/>
-      <c r="N444" s="40"/>
+      <c r="J444" s="40"/>
+      <c r="K444" s="40"/>
+      <c r="L444" s="40"/>
+      <c r="M444" s="40"/>
+      <c r="N444" s="41"/>
       <c r="O444" s="1"/>
       <c r="P444" s="1"/>
       <c r="Q444" s="1"/>
@@ -14791,11 +14869,11 @@
       <c r="F445" s="1"/>
       <c r="G445" s="1"/>
       <c r="I445" s="1"/>
-      <c r="J445" s="39"/>
-      <c r="K445" s="39"/>
-      <c r="L445" s="39"/>
-      <c r="M445" s="39"/>
-      <c r="N445" s="40"/>
+      <c r="J445" s="40"/>
+      <c r="K445" s="40"/>
+      <c r="L445" s="40"/>
+      <c r="M445" s="40"/>
+      <c r="N445" s="41"/>
       <c r="O445" s="1"/>
       <c r="P445" s="1"/>
       <c r="Q445" s="1"/>
@@ -14814,11 +14892,11 @@
       <c r="F446" s="1"/>
       <c r="G446" s="1"/>
       <c r="I446" s="1"/>
-      <c r="J446" s="39"/>
-      <c r="K446" s="39"/>
-      <c r="L446" s="39"/>
-      <c r="M446" s="39"/>
-      <c r="N446" s="40"/>
+      <c r="J446" s="40"/>
+      <c r="K446" s="40"/>
+      <c r="L446" s="40"/>
+      <c r="M446" s="40"/>
+      <c r="N446" s="41"/>
       <c r="O446" s="1"/>
       <c r="P446" s="1"/>
       <c r="Q446" s="1"/>
@@ -14837,11 +14915,11 @@
       <c r="F447" s="1"/>
       <c r="G447" s="1"/>
       <c r="I447" s="1"/>
-      <c r="J447" s="39"/>
-      <c r="K447" s="39"/>
-      <c r="L447" s="39"/>
-      <c r="M447" s="39"/>
-      <c r="N447" s="40"/>
+      <c r="J447" s="40"/>
+      <c r="K447" s="40"/>
+      <c r="L447" s="40"/>
+      <c r="M447" s="40"/>
+      <c r="N447" s="41"/>
       <c r="O447" s="1"/>
       <c r="P447" s="1"/>
       <c r="Q447" s="1"/>
@@ -14860,11 +14938,11 @@
       <c r="F448" s="1"/>
       <c r="G448" s="1"/>
       <c r="I448" s="1"/>
-      <c r="J448" s="39"/>
-      <c r="K448" s="39"/>
-      <c r="L448" s="39"/>
-      <c r="M448" s="39"/>
-      <c r="N448" s="40"/>
+      <c r="J448" s="40"/>
+      <c r="K448" s="40"/>
+      <c r="L448" s="40"/>
+      <c r="M448" s="40"/>
+      <c r="N448" s="41"/>
       <c r="O448" s="1"/>
       <c r="P448" s="1"/>
       <c r="Q448" s="1"/>
@@ -14883,11 +14961,11 @@
       <c r="F449" s="1"/>
       <c r="G449" s="1"/>
       <c r="I449" s="1"/>
-      <c r="J449" s="39"/>
-      <c r="K449" s="39"/>
-      <c r="L449" s="39"/>
-      <c r="M449" s="39"/>
-      <c r="N449" s="40"/>
+      <c r="J449" s="40"/>
+      <c r="K449" s="40"/>
+      <c r="L449" s="40"/>
+      <c r="M449" s="40"/>
+      <c r="N449" s="41"/>
       <c r="O449" s="1"/>
       <c r="P449" s="1"/>
       <c r="Q449" s="1"/>
@@ -14906,11 +14984,11 @@
       <c r="F450" s="1"/>
       <c r="G450" s="1"/>
       <c r="I450" s="1"/>
-      <c r="J450" s="39"/>
-      <c r="K450" s="39"/>
-      <c r="L450" s="39"/>
-      <c r="M450" s="39"/>
-      <c r="N450" s="40"/>
+      <c r="J450" s="40"/>
+      <c r="K450" s="40"/>
+      <c r="L450" s="40"/>
+      <c r="M450" s="40"/>
+      <c r="N450" s="41"/>
       <c r="O450" s="1"/>
       <c r="P450" s="1"/>
       <c r="Q450" s="1"/>
@@ -14929,11 +15007,11 @@
       <c r="F451" s="1"/>
       <c r="G451" s="1"/>
       <c r="I451" s="1"/>
-      <c r="J451" s="39"/>
-      <c r="K451" s="39"/>
-      <c r="L451" s="39"/>
-      <c r="M451" s="39"/>
-      <c r="N451" s="40"/>
+      <c r="J451" s="40"/>
+      <c r="K451" s="40"/>
+      <c r="L451" s="40"/>
+      <c r="M451" s="40"/>
+      <c r="N451" s="41"/>
       <c r="O451" s="1"/>
       <c r="P451" s="1"/>
       <c r="Q451" s="1"/>
@@ -14952,11 +15030,11 @@
       <c r="F452" s="1"/>
       <c r="G452" s="1"/>
       <c r="I452" s="1"/>
-      <c r="J452" s="39"/>
-      <c r="K452" s="39"/>
-      <c r="L452" s="39"/>
-      <c r="M452" s="39"/>
-      <c r="N452" s="40"/>
+      <c r="J452" s="40"/>
+      <c r="K452" s="40"/>
+      <c r="L452" s="40"/>
+      <c r="M452" s="40"/>
+      <c r="N452" s="41"/>
       <c r="O452" s="1"/>
       <c r="P452" s="1"/>
       <c r="Q452" s="1"/>
@@ -14975,11 +15053,11 @@
       <c r="F453" s="1"/>
       <c r="G453" s="1"/>
       <c r="I453" s="1"/>
-      <c r="J453" s="39"/>
-      <c r="K453" s="39"/>
-      <c r="L453" s="39"/>
-      <c r="M453" s="39"/>
-      <c r="N453" s="40"/>
+      <c r="J453" s="40"/>
+      <c r="K453" s="40"/>
+      <c r="L453" s="40"/>
+      <c r="M453" s="40"/>
+      <c r="N453" s="41"/>
       <c r="O453" s="1"/>
       <c r="P453" s="1"/>
       <c r="Q453" s="1"/>
@@ -14998,11 +15076,11 @@
       <c r="F454" s="1"/>
       <c r="G454" s="1"/>
       <c r="I454" s="1"/>
-      <c r="J454" s="39"/>
-      <c r="K454" s="39"/>
-      <c r="L454" s="39"/>
-      <c r="M454" s="39"/>
-      <c r="N454" s="40"/>
+      <c r="J454" s="40"/>
+      <c r="K454" s="40"/>
+      <c r="L454" s="40"/>
+      <c r="M454" s="40"/>
+      <c r="N454" s="41"/>
       <c r="O454" s="1"/>
       <c r="P454" s="1"/>
       <c r="Q454" s="1"/>
@@ -15021,11 +15099,11 @@
       <c r="F455" s="1"/>
       <c r="G455" s="1"/>
       <c r="I455" s="1"/>
-      <c r="J455" s="39"/>
-      <c r="K455" s="39"/>
-      <c r="L455" s="39"/>
-      <c r="M455" s="39"/>
-      <c r="N455" s="40"/>
+      <c r="J455" s="40"/>
+      <c r="K455" s="40"/>
+      <c r="L455" s="40"/>
+      <c r="M455" s="40"/>
+      <c r="N455" s="41"/>
       <c r="O455" s="1"/>
       <c r="P455" s="1"/>
       <c r="Q455" s="1"/>
@@ -15044,11 +15122,11 @@
       <c r="F456" s="1"/>
       <c r="G456" s="1"/>
       <c r="I456" s="1"/>
-      <c r="J456" s="39"/>
-      <c r="K456" s="39"/>
-      <c r="L456" s="39"/>
-      <c r="M456" s="39"/>
-      <c r="N456" s="40"/>
+      <c r="J456" s="40"/>
+      <c r="K456" s="40"/>
+      <c r="L456" s="40"/>
+      <c r="M456" s="40"/>
+      <c r="N456" s="41"/>
       <c r="O456" s="1"/>
       <c r="P456" s="1"/>
       <c r="Q456" s="1"/>
@@ -15067,11 +15145,11 @@
       <c r="F457" s="1"/>
       <c r="G457" s="1"/>
       <c r="I457" s="1"/>
-      <c r="J457" s="39"/>
-      <c r="K457" s="39"/>
-      <c r="L457" s="39"/>
-      <c r="M457" s="39"/>
-      <c r="N457" s="40"/>
+      <c r="J457" s="40"/>
+      <c r="K457" s="40"/>
+      <c r="L457" s="40"/>
+      <c r="M457" s="40"/>
+      <c r="N457" s="41"/>
       <c r="O457" s="1"/>
       <c r="P457" s="1"/>
       <c r="Q457" s="1"/>
@@ -15090,11 +15168,11 @@
       <c r="F458" s="1"/>
       <c r="G458" s="1"/>
       <c r="I458" s="1"/>
-      <c r="J458" s="39"/>
-      <c r="K458" s="39"/>
-      <c r="L458" s="39"/>
-      <c r="M458" s="39"/>
-      <c r="N458" s="40"/>
+      <c r="J458" s="40"/>
+      <c r="K458" s="40"/>
+      <c r="L458" s="40"/>
+      <c r="M458" s="40"/>
+      <c r="N458" s="41"/>
       <c r="O458" s="1"/>
       <c r="P458" s="1"/>
       <c r="Q458" s="1"/>
@@ -15113,11 +15191,11 @@
       <c r="F459" s="1"/>
       <c r="G459" s="1"/>
       <c r="I459" s="1"/>
-      <c r="J459" s="39"/>
-      <c r="K459" s="39"/>
-      <c r="L459" s="39"/>
-      <c r="M459" s="39"/>
-      <c r="N459" s="40"/>
+      <c r="J459" s="40"/>
+      <c r="K459" s="40"/>
+      <c r="L459" s="40"/>
+      <c r="M459" s="40"/>
+      <c r="N459" s="41"/>
       <c r="O459" s="1"/>
       <c r="P459" s="1"/>
       <c r="Q459" s="1"/>
@@ -15136,11 +15214,11 @@
       <c r="F460" s="1"/>
       <c r="G460" s="1"/>
       <c r="I460" s="1"/>
-      <c r="J460" s="39"/>
-      <c r="K460" s="39"/>
-      <c r="L460" s="39"/>
-      <c r="M460" s="39"/>
-      <c r="N460" s="40"/>
+      <c r="J460" s="40"/>
+      <c r="K460" s="40"/>
+      <c r="L460" s="40"/>
+      <c r="M460" s="40"/>
+      <c r="N460" s="41"/>
       <c r="O460" s="1"/>
       <c r="P460" s="1"/>
       <c r="Q460" s="1"/>
@@ -15159,11 +15237,11 @@
       <c r="F461" s="1"/>
       <c r="G461" s="1"/>
       <c r="I461" s="1"/>
-      <c r="J461" s="39"/>
-      <c r="K461" s="39"/>
-      <c r="L461" s="39"/>
-      <c r="M461" s="39"/>
-      <c r="N461" s="40"/>
+      <c r="J461" s="40"/>
+      <c r="K461" s="40"/>
+      <c r="L461" s="40"/>
+      <c r="M461" s="40"/>
+      <c r="N461" s="41"/>
       <c r="O461" s="1"/>
       <c r="P461" s="1"/>
       <c r="Q461" s="1"/>
@@ -15182,11 +15260,11 @@
       <c r="F462" s="1"/>
       <c r="G462" s="1"/>
       <c r="I462" s="1"/>
-      <c r="J462" s="39"/>
-      <c r="K462" s="39"/>
-      <c r="L462" s="39"/>
-      <c r="M462" s="39"/>
-      <c r="N462" s="40"/>
+      <c r="J462" s="40"/>
+      <c r="K462" s="40"/>
+      <c r="L462" s="40"/>
+      <c r="M462" s="40"/>
+      <c r="N462" s="41"/>
       <c r="O462" s="1"/>
       <c r="P462" s="1"/>
       <c r="Q462" s="1"/>
@@ -15205,11 +15283,11 @@
       <c r="F463" s="1"/>
       <c r="G463" s="1"/>
       <c r="I463" s="1"/>
-      <c r="J463" s="39"/>
-      <c r="K463" s="39"/>
-      <c r="L463" s="39"/>
-      <c r="M463" s="39"/>
-      <c r="N463" s="40"/>
+      <c r="J463" s="40"/>
+      <c r="K463" s="40"/>
+      <c r="L463" s="40"/>
+      <c r="M463" s="40"/>
+      <c r="N463" s="41"/>
       <c r="O463" s="1"/>
       <c r="P463" s="1"/>
       <c r="Q463" s="1"/>
@@ -15228,11 +15306,11 @@
       <c r="F464" s="1"/>
       <c r="G464" s="1"/>
       <c r="I464" s="1"/>
-      <c r="J464" s="39"/>
-      <c r="K464" s="39"/>
-      <c r="L464" s="39"/>
-      <c r="M464" s="39"/>
-      <c r="N464" s="40"/>
+      <c r="J464" s="40"/>
+      <c r="K464" s="40"/>
+      <c r="L464" s="40"/>
+      <c r="M464" s="40"/>
+      <c r="N464" s="41"/>
       <c r="O464" s="1"/>
       <c r="P464" s="1"/>
       <c r="Q464" s="1"/>
@@ -15251,11 +15329,11 @@
       <c r="F465" s="1"/>
       <c r="G465" s="1"/>
       <c r="I465" s="1"/>
-      <c r="J465" s="39"/>
-      <c r="K465" s="39"/>
-      <c r="L465" s="39"/>
-      <c r="M465" s="39"/>
-      <c r="N465" s="40"/>
+      <c r="J465" s="40"/>
+      <c r="K465" s="40"/>
+      <c r="L465" s="40"/>
+      <c r="M465" s="40"/>
+      <c r="N465" s="41"/>
       <c r="O465" s="1"/>
       <c r="P465" s="1"/>
       <c r="Q465" s="1"/>
@@ -15274,11 +15352,11 @@
       <c r="F466" s="1"/>
       <c r="G466" s="1"/>
       <c r="I466" s="1"/>
-      <c r="J466" s="39"/>
-      <c r="K466" s="39"/>
-      <c r="L466" s="39"/>
-      <c r="M466" s="39"/>
-      <c r="N466" s="40"/>
+      <c r="J466" s="40"/>
+      <c r="K466" s="40"/>
+      <c r="L466" s="40"/>
+      <c r="M466" s="40"/>
+      <c r="N466" s="41"/>
       <c r="O466" s="1"/>
       <c r="P466" s="1"/>
       <c r="Q466" s="1"/>
@@ -15297,11 +15375,11 @@
       <c r="F467" s="1"/>
       <c r="G467" s="1"/>
       <c r="I467" s="1"/>
-      <c r="J467" s="39"/>
-      <c r="K467" s="39"/>
-      <c r="L467" s="39"/>
-      <c r="M467" s="39"/>
-      <c r="N467" s="40"/>
+      <c r="J467" s="40"/>
+      <c r="K467" s="40"/>
+      <c r="L467" s="40"/>
+      <c r="M467" s="40"/>
+      <c r="N467" s="41"/>
       <c r="O467" s="1"/>
       <c r="P467" s="1"/>
       <c r="Q467" s="1"/>
@@ -15320,11 +15398,11 @@
       <c r="F468" s="1"/>
       <c r="G468" s="1"/>
       <c r="I468" s="1"/>
-      <c r="J468" s="39"/>
-      <c r="K468" s="39"/>
-      <c r="L468" s="39"/>
-      <c r="M468" s="39"/>
-      <c r="N468" s="40"/>
+      <c r="J468" s="40"/>
+      <c r="K468" s="40"/>
+      <c r="L468" s="40"/>
+      <c r="M468" s="40"/>
+      <c r="N468" s="41"/>
       <c r="O468" s="1"/>
       <c r="P468" s="1"/>
       <c r="Q468" s="1"/>
@@ -15343,11 +15421,11 @@
       <c r="F469" s="1"/>
       <c r="G469" s="1"/>
       <c r="I469" s="1"/>
-      <c r="J469" s="39"/>
-      <c r="K469" s="39"/>
-      <c r="L469" s="39"/>
-      <c r="M469" s="39"/>
-      <c r="N469" s="40"/>
+      <c r="J469" s="40"/>
+      <c r="K469" s="40"/>
+      <c r="L469" s="40"/>
+      <c r="M469" s="40"/>
+      <c r="N469" s="41"/>
       <c r="O469" s="1"/>
       <c r="P469" s="1"/>
       <c r="Q469" s="1"/>
@@ -15366,11 +15444,11 @@
       <c r="F470" s="1"/>
       <c r="G470" s="1"/>
       <c r="I470" s="1"/>
-      <c r="J470" s="39"/>
-      <c r="K470" s="39"/>
-      <c r="L470" s="39"/>
-      <c r="M470" s="39"/>
-      <c r="N470" s="40"/>
+      <c r="J470" s="40"/>
+      <c r="K470" s="40"/>
+      <c r="L470" s="40"/>
+      <c r="M470" s="40"/>
+      <c r="N470" s="41"/>
       <c r="O470" s="1"/>
       <c r="P470" s="1"/>
       <c r="Q470" s="1"/>
@@ -15389,11 +15467,11 @@
       <c r="F471" s="1"/>
       <c r="G471" s="1"/>
       <c r="I471" s="1"/>
-      <c r="J471" s="39"/>
-      <c r="K471" s="39"/>
-      <c r="L471" s="39"/>
-      <c r="M471" s="39"/>
-      <c r="N471" s="40"/>
+      <c r="J471" s="40"/>
+      <c r="K471" s="40"/>
+      <c r="L471" s="40"/>
+      <c r="M471" s="40"/>
+      <c r="N471" s="41"/>
       <c r="O471" s="1"/>
       <c r="P471" s="1"/>
       <c r="Q471" s="1"/>
@@ -15412,11 +15490,11 @@
       <c r="F472" s="1"/>
       <c r="G472" s="1"/>
       <c r="I472" s="1"/>
-      <c r="J472" s="39"/>
-      <c r="K472" s="39"/>
-      <c r="L472" s="39"/>
-      <c r="M472" s="39"/>
-      <c r="N472" s="40"/>
+      <c r="J472" s="40"/>
+      <c r="K472" s="40"/>
+      <c r="L472" s="40"/>
+      <c r="M472" s="40"/>
+      <c r="N472" s="41"/>
       <c r="O472" s="1"/>
       <c r="P472" s="1"/>
       <c r="Q472" s="1"/>
@@ -15435,11 +15513,11 @@
       <c r="F473" s="1"/>
       <c r="G473" s="1"/>
       <c r="I473" s="1"/>
-      <c r="J473" s="39"/>
-      <c r="K473" s="39"/>
-      <c r="L473" s="39"/>
-      <c r="M473" s="39"/>
-      <c r="N473" s="40"/>
+      <c r="J473" s="40"/>
+      <c r="K473" s="40"/>
+      <c r="L473" s="40"/>
+      <c r="M473" s="40"/>
+      <c r="N473" s="41"/>
       <c r="O473" s="1"/>
       <c r="P473" s="1"/>
       <c r="Q473" s="1"/>
@@ -15458,11 +15536,11 @@
       <c r="F474" s="1"/>
       <c r="G474" s="1"/>
       <c r="I474" s="1"/>
-      <c r="J474" s="39"/>
-      <c r="K474" s="39"/>
-      <c r="L474" s="39"/>
-      <c r="M474" s="39"/>
-      <c r="N474" s="40"/>
+      <c r="J474" s="40"/>
+      <c r="K474" s="40"/>
+      <c r="L474" s="40"/>
+      <c r="M474" s="40"/>
+      <c r="N474" s="41"/>
       <c r="O474" s="1"/>
       <c r="P474" s="1"/>
       <c r="Q474" s="1"/>
@@ -15481,11 +15559,11 @@
       <c r="F475" s="1"/>
       <c r="G475" s="1"/>
       <c r="I475" s="1"/>
-      <c r="J475" s="39"/>
-      <c r="K475" s="39"/>
-      <c r="L475" s="39"/>
-      <c r="M475" s="39"/>
-      <c r="N475" s="40"/>
+      <c r="J475" s="40"/>
+      <c r="K475" s="40"/>
+      <c r="L475" s="40"/>
+      <c r="M475" s="40"/>
+      <c r="N475" s="41"/>
       <c r="O475" s="1"/>
       <c r="P475" s="1"/>
       <c r="Q475" s="1"/>
@@ -15504,11 +15582,11 @@
       <c r="F476" s="1"/>
       <c r="G476" s="1"/>
       <c r="I476" s="1"/>
-      <c r="J476" s="39"/>
-      <c r="K476" s="39"/>
-      <c r="L476" s="39"/>
-      <c r="M476" s="39"/>
-      <c r="N476" s="40"/>
+      <c r="J476" s="40"/>
+      <c r="K476" s="40"/>
+      <c r="L476" s="40"/>
+      <c r="M476" s="40"/>
+      <c r="N476" s="41"/>
       <c r="O476" s="1"/>
       <c r="P476" s="1"/>
       <c r="Q476" s="1"/>
@@ -15527,11 +15605,11 @@
       <c r="F477" s="1"/>
       <c r="G477" s="1"/>
       <c r="I477" s="1"/>
-      <c r="J477" s="39"/>
-      <c r="K477" s="39"/>
-      <c r="L477" s="39"/>
-      <c r="M477" s="39"/>
-      <c r="N477" s="40"/>
+      <c r="J477" s="40"/>
+      <c r="K477" s="40"/>
+      <c r="L477" s="40"/>
+      <c r="M477" s="40"/>
+      <c r="N477" s="41"/>
       <c r="O477" s="1"/>
       <c r="P477" s="1"/>
       <c r="Q477" s="1"/>
@@ -15550,11 +15628,11 @@
       <c r="F478" s="1"/>
       <c r="G478" s="1"/>
       <c r="I478" s="1"/>
-      <c r="J478" s="39"/>
-      <c r="K478" s="39"/>
-      <c r="L478" s="39"/>
-      <c r="M478" s="39"/>
-      <c r="N478" s="40"/>
+      <c r="J478" s="40"/>
+      <c r="K478" s="40"/>
+      <c r="L478" s="40"/>
+      <c r="M478" s="40"/>
+      <c r="N478" s="41"/>
       <c r="O478" s="1"/>
       <c r="P478" s="1"/>
       <c r="Q478" s="1"/>
@@ -15573,11 +15651,11 @@
       <c r="F479" s="1"/>
       <c r="G479" s="1"/>
       <c r="I479" s="1"/>
-      <c r="J479" s="39"/>
-      <c r="K479" s="39"/>
-      <c r="L479" s="39"/>
-      <c r="M479" s="39"/>
-      <c r="N479" s="40"/>
+      <c r="J479" s="40"/>
+      <c r="K479" s="40"/>
+      <c r="L479" s="40"/>
+      <c r="M479" s="40"/>
+      <c r="N479" s="41"/>
       <c r="O479" s="1"/>
       <c r="P479" s="1"/>
       <c r="Q479" s="1"/>
@@ -15596,11 +15674,11 @@
       <c r="F480" s="1"/>
       <c r="G480" s="1"/>
       <c r="I480" s="1"/>
-      <c r="J480" s="39"/>
-      <c r="K480" s="39"/>
-      <c r="L480" s="39"/>
-      <c r="M480" s="39"/>
-      <c r="N480" s="40"/>
+      <c r="J480" s="40"/>
+      <c r="K480" s="40"/>
+      <c r="L480" s="40"/>
+      <c r="M480" s="40"/>
+      <c r="N480" s="41"/>
       <c r="O480" s="1"/>
       <c r="P480" s="1"/>
       <c r="Q480" s="1"/>
@@ -15619,11 +15697,11 @@
       <c r="F481" s="1"/>
       <c r="G481" s="1"/>
       <c r="I481" s="1"/>
-      <c r="J481" s="39"/>
-      <c r="K481" s="39"/>
-      <c r="L481" s="39"/>
-      <c r="M481" s="39"/>
-      <c r="N481" s="40"/>
+      <c r="J481" s="40"/>
+      <c r="K481" s="40"/>
+      <c r="L481" s="40"/>
+      <c r="M481" s="40"/>
+      <c r="N481" s="41"/>
       <c r="O481" s="1"/>
       <c r="P481" s="1"/>
       <c r="Q481" s="1"/>
@@ -15642,11 +15720,11 @@
       <c r="F482" s="1"/>
       <c r="G482" s="1"/>
       <c r="I482" s="1"/>
-      <c r="J482" s="39"/>
-      <c r="K482" s="39"/>
-      <c r="L482" s="39"/>
-      <c r="M482" s="39"/>
-      <c r="N482" s="40"/>
+      <c r="J482" s="40"/>
+      <c r="K482" s="40"/>
+      <c r="L482" s="40"/>
+      <c r="M482" s="40"/>
+      <c r="N482" s="41"/>
       <c r="O482" s="1"/>
       <c r="P482" s="1"/>
       <c r="Q482" s="1"/>
@@ -15665,11 +15743,11 @@
       <c r="F483" s="1"/>
       <c r="G483" s="1"/>
       <c r="I483" s="1"/>
-      <c r="J483" s="39"/>
-      <c r="K483" s="39"/>
-      <c r="L483" s="39"/>
-      <c r="M483" s="39"/>
-      <c r="N483" s="40"/>
+      <c r="J483" s="40"/>
+      <c r="K483" s="40"/>
+      <c r="L483" s="40"/>
+      <c r="M483" s="40"/>
+      <c r="N483" s="41"/>
       <c r="O483" s="1"/>
       <c r="P483" s="1"/>
       <c r="Q483" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/浙江新能.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/浙江新能.xlsx
@@ -2730,7 +2730,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI6" sqref="AI6:AI7"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/浙江新能.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/浙江新能.xlsx
@@ -224,11 +224,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -282,21 +282,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -313,11 +298,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -337,6 +329,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -345,9 +351,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,36 +399,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,13 +542,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,13 +572,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,133 +698,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,56 +759,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -843,147 +793,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1193,7 +1193,7 @@
       <sheetName val="资金曲线"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="4">
           <cell r="A4" t="str">
             <v>JG_0000001</v>
@@ -2458,8 +2458,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2726,11 +2726,11 @@
   <dimension ref="A1:AI483"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H6:H7"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/浙江新能.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/浙江新能.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360"/>
+    <workbookView windowWidth="26500" windowHeight="10720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,11 +224,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -262,14 +262,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,6 +278,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,13 +307,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -314,8 +316,30 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,8 +353,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,16 +368,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,40 +390,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,13 +542,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,37 +608,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,37 +626,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,25 +644,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,31 +674,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,8 +749,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,23 +758,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,13 +820,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,105 +843,90 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -935,61 +935,61 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2726,11 +2726,11 @@
   <dimension ref="A1:AI483"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/浙江新能.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/浙江新能.xlsx
@@ -11,6 +11,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
@@ -224,11 +225,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -261,8 +262,24 @@
       <scheme val="major"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,14 +309,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -307,11 +316,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -323,13 +332,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -338,8 +340,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,7 +384,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -361,40 +391,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -536,7 +537,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,7 +555,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,49 +675,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,25 +687,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,67 +705,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,42 +751,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,21 +767,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,7 +790,57 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,148 +849,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="45" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2460,6 +2461,1575 @@
       </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="交易计划及执行表"/>
+      <sheetName val="交易水平监控表"/>
+      <sheetName val="资金曲线"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>JG_0000001</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>JH_00015</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>003040</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>楚天龙</v>
+          </cell>
+          <cell r="E4">
+            <v>44523</v>
+          </cell>
+          <cell r="F4">
+            <v>26.2</v>
+          </cell>
+          <cell r="G4">
+            <v>200</v>
+          </cell>
+          <cell r="H4">
+            <v>5</v>
+          </cell>
+          <cell r="I4">
+            <v>0</v>
+          </cell>
+          <cell r="J4">
+            <v>5245</v>
+          </cell>
+          <cell r="K4">
+            <v>26.5</v>
+          </cell>
+          <cell r="L4">
+            <v>25.21</v>
+          </cell>
+          <cell r="M4">
+            <v>28.15</v>
+          </cell>
+          <cell r="N4">
+            <v>21.87</v>
+          </cell>
+          <cell r="O4">
+            <v>6.28</v>
+          </cell>
+          <cell r="P4">
+            <v>150.88</v>
+          </cell>
+          <cell r="Q4">
+            <v>0.232558139534884</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="S4">
+            <v>0</v>
+          </cell>
+          <cell r="T4">
+            <v>44526</v>
+          </cell>
+          <cell r="U4">
+            <v>24.89</v>
+          </cell>
+          <cell r="V4">
+            <v>100</v>
+          </cell>
+          <cell r="W4">
+            <v>5</v>
+          </cell>
+          <cell r="X4">
+            <v>2.489</v>
+          </cell>
+          <cell r="Y4">
+            <v>0</v>
+          </cell>
+          <cell r="Z4">
+            <v>2481.511</v>
+          </cell>
+          <cell r="AA4">
+            <v>27.43</v>
+          </cell>
+          <cell r="AB4">
+            <v>24.74</v>
+          </cell>
+          <cell r="AC4">
+            <v>0.0557620817843874</v>
+          </cell>
+          <cell r="AD4">
+            <v>-140.989</v>
+          </cell>
+          <cell r="AE4">
+            <v>-1.25899999999999</v>
+          </cell>
+          <cell r="AF4">
+            <v>-0.20859872611465</v>
+          </cell>
+          <cell r="AG4" t="str">
+            <v>1.入场时，忽略了距离最高点的距离;
+2.入场时，忽略了成交量的情况。
+3.作出出场决定时，一定要立即出场。不然也至少要设置最低的止损线。</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>JG_0000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="S5">
+            <v>0</v>
+          </cell>
+          <cell r="T5">
+            <v>44531</v>
+          </cell>
+          <cell r="U5">
+            <v>27.7</v>
+          </cell>
+          <cell r="V5">
+            <v>100</v>
+          </cell>
+          <cell r="W5">
+            <v>5</v>
+          </cell>
+          <cell r="X5">
+            <v>2.77</v>
+          </cell>
+          <cell r="Y5">
+            <v>0</v>
+          </cell>
+          <cell r="Z5">
+            <v>2762.23</v>
+          </cell>
+          <cell r="AA5">
+            <v>28.7</v>
+          </cell>
+          <cell r="AB5">
+            <v>27.5</v>
+          </cell>
+          <cell r="AC5">
+            <v>0.166666666666666</v>
+          </cell>
+          <cell r="AD5">
+            <v>139.73</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="AF5">
+            <v>0.238853503184713</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>JG_0000003</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>JH_00001</v>
+          </cell>
+          <cell r="C6">
+            <v>600085</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>同仁堂</v>
+          </cell>
+          <cell r="E6">
+            <v>44523</v>
+          </cell>
+          <cell r="F6">
+            <v>33.73</v>
+          </cell>
+          <cell r="G6">
+            <v>100</v>
+          </cell>
+          <cell r="H6">
+            <v>5</v>
+          </cell>
+          <cell r="I6">
+            <v>0.06746</v>
+          </cell>
+          <cell r="J6">
+            <v>3378.06746</v>
+          </cell>
+          <cell r="K6">
+            <v>35.36</v>
+          </cell>
+          <cell r="L6">
+            <v>33.1</v>
+          </cell>
+          <cell r="M6">
+            <v>35.48</v>
+          </cell>
+          <cell r="N6">
+            <v>31.36</v>
+          </cell>
+          <cell r="O6">
+            <v>4.12</v>
+          </cell>
+          <cell r="P6">
+            <v>37.41</v>
+          </cell>
+          <cell r="Q6">
+            <v>0.721238938053099</v>
+          </cell>
+          <cell r="R6">
+            <v>34.7</v>
+          </cell>
+          <cell r="S6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="X6">
+            <v>0</v>
+          </cell>
+          <cell r="Y6">
+            <v>0</v>
+          </cell>
+          <cell r="Z6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="AD6">
+            <v>0</v>
+          </cell>
+          <cell r="AE6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>JG_0000004</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>JH_00002</v>
+          </cell>
+          <cell r="C7">
+            <v>603867</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>新化股份</v>
+          </cell>
+          <cell r="E7">
+            <v>44522</v>
+          </cell>
+          <cell r="F7">
+            <v>32.7</v>
+          </cell>
+          <cell r="G7">
+            <v>100</v>
+          </cell>
+          <cell r="H7">
+            <v>5</v>
+          </cell>
+          <cell r="I7">
+            <v>0.0654</v>
+          </cell>
+          <cell r="J7">
+            <v>3275.0654</v>
+          </cell>
+          <cell r="K7">
+            <v>33.9</v>
+          </cell>
+          <cell r="L7">
+            <v>32.49</v>
+          </cell>
+          <cell r="M7">
+            <v>36.21</v>
+          </cell>
+          <cell r="N7">
+            <v>27.35</v>
+          </cell>
+          <cell r="O7">
+            <v>8.86</v>
+          </cell>
+          <cell r="P7">
+            <v>28.82</v>
+          </cell>
+          <cell r="Q7">
+            <v>0.851063829787233</v>
+          </cell>
+          <cell r="R7">
+            <v>30.89</v>
+          </cell>
+          <cell r="S7">
+            <v>0</v>
+          </cell>
+          <cell r="T7">
+            <v>44539</v>
+          </cell>
+          <cell r="U7">
+            <v>37.75</v>
+          </cell>
+          <cell r="V7">
+            <v>100</v>
+          </cell>
+          <cell r="W7">
+            <v>5</v>
+          </cell>
+          <cell r="X7">
+            <v>3.775</v>
+          </cell>
+          <cell r="Y7">
+            <v>0.0755</v>
+          </cell>
+          <cell r="Z7">
+            <v>3766.1495</v>
+          </cell>
+          <cell r="AA7">
+            <v>38.83</v>
+          </cell>
+          <cell r="AB7">
+            <v>36.3</v>
+          </cell>
+          <cell r="AC7">
+            <v>0.57312252964427</v>
+          </cell>
+          <cell r="AD7" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="AE7">
+            <v>491.0841</v>
+          </cell>
+          <cell r="AF7">
+            <v>0.569977426636569</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>JG_0000005</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>JH_00012</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>002932</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>明德生物</v>
+          </cell>
+          <cell r="E8">
+            <v>44526</v>
+          </cell>
+          <cell r="F8">
+            <v>72.07</v>
+          </cell>
+          <cell r="G8">
+            <v>100</v>
+          </cell>
+          <cell r="H8">
+            <v>5</v>
+          </cell>
+          <cell r="I8">
+            <v>0</v>
+          </cell>
+          <cell r="J8">
+            <v>7212</v>
+          </cell>
+          <cell r="K8">
+            <v>74.5</v>
+          </cell>
+          <cell r="L8">
+            <v>70.4</v>
+          </cell>
+          <cell r="M8">
+            <v>75.02</v>
+          </cell>
+          <cell r="N8">
+            <v>62.33</v>
+          </cell>
+          <cell r="O8">
+            <v>12.69</v>
+          </cell>
+          <cell r="P8">
+            <v>6.49</v>
+          </cell>
+          <cell r="Q8">
+            <v>0.592682926829271</v>
+          </cell>
+          <cell r="R8">
+            <v>67.53</v>
+          </cell>
+          <cell r="S8">
+            <v>0</v>
+          </cell>
+          <cell r="T8">
+            <v>44543</v>
+          </cell>
+          <cell r="U8">
+            <v>72.45</v>
+          </cell>
+          <cell r="V8">
+            <v>100</v>
+          </cell>
+          <cell r="W8">
+            <v>5</v>
+          </cell>
+          <cell r="X8">
+            <v>7.245</v>
+          </cell>
+          <cell r="Y8">
+            <v>0</v>
+          </cell>
+          <cell r="Z8">
+            <v>7232.755</v>
+          </cell>
+          <cell r="AA8">
+            <v>73</v>
+          </cell>
+          <cell r="AB8">
+            <v>71.75</v>
+          </cell>
+          <cell r="AC8">
+            <v>0.560000000000002</v>
+          </cell>
+          <cell r="AD8" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="AE8">
+            <v>20.755000000001</v>
+          </cell>
+          <cell r="AF8">
+            <v>0.0299448384554775</v>
+          </cell>
+          <cell r="AG8" t="str">
+            <v>1.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场
+2.跳空时，不要入场。不然就有可能入场太早。</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>JG_0000006</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>JH_00014</v>
+          </cell>
+          <cell r="C9">
+            <v>605016</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>百龙创园</v>
+          </cell>
+          <cell r="E9">
+            <v>44524</v>
+          </cell>
+          <cell r="F9">
+            <v>30.54</v>
+          </cell>
+          <cell r="G9">
+            <v>100</v>
+          </cell>
+          <cell r="H9">
+            <v>5</v>
+          </cell>
+          <cell r="I9">
+            <v>0.06108</v>
+          </cell>
+          <cell r="J9">
+            <v>3059.06108</v>
+          </cell>
+          <cell r="K9">
+            <v>30.72</v>
+          </cell>
+          <cell r="L9">
+            <v>29.33</v>
+          </cell>
+          <cell r="M9">
+            <v>32.43</v>
+          </cell>
+          <cell r="N9">
+            <v>26.16</v>
+          </cell>
+          <cell r="O9">
+            <v>6.27</v>
+          </cell>
+          <cell r="P9">
+            <v>38.46</v>
+          </cell>
+          <cell r="Q9">
+            <v>0.129496402877698</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="S9">
+            <v>0</v>
+          </cell>
+          <cell r="T9">
+            <v>44525</v>
+          </cell>
+          <cell r="U9">
+            <v>30.15</v>
+          </cell>
+          <cell r="V9">
+            <v>100</v>
+          </cell>
+          <cell r="W9">
+            <v>5</v>
+          </cell>
+          <cell r="X9">
+            <v>3.015</v>
+          </cell>
+          <cell r="Y9">
+            <v>0.0603</v>
+          </cell>
+          <cell r="Z9">
+            <v>3006.9247</v>
+          </cell>
+          <cell r="AA9">
+            <v>30.69</v>
+          </cell>
+          <cell r="AB9">
+            <v>30.01</v>
+          </cell>
+          <cell r="AC9">
+            <v>0.205882352941172</v>
+          </cell>
+          <cell r="AD9" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="AE9">
+            <v>-52.1363799999999</v>
+          </cell>
+          <cell r="AF9">
+            <v>-0.0622009569377991</v>
+          </cell>
+          <cell r="AG9" t="str">
+            <v>1.入场时，忽略了价格的收缩幅度。价格的收缩幅度不够，导致入场过早。</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>JG_0000007</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>JH_00013</v>
+          </cell>
+          <cell r="C10">
+            <v>603010</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>万盛股份</v>
+          </cell>
+          <cell r="E10">
+            <v>44530</v>
+          </cell>
+          <cell r="F10">
+            <v>29.81</v>
+          </cell>
+          <cell r="G10">
+            <v>100</v>
+          </cell>
+          <cell r="H10">
+            <v>5</v>
+          </cell>
+          <cell r="I10">
+            <v>0.05962</v>
+          </cell>
+          <cell r="J10">
+            <v>2986.05962</v>
+          </cell>
+          <cell r="K10">
+            <v>30.32</v>
+          </cell>
+          <cell r="L10">
+            <v>28.81</v>
+          </cell>
+          <cell r="M10">
+            <v>31.18</v>
+          </cell>
+          <cell r="N10">
+            <v>21.1</v>
+          </cell>
+          <cell r="O10">
+            <v>10.08</v>
+          </cell>
+          <cell r="P10">
+            <v>17.95</v>
+          </cell>
+          <cell r="Q10">
+            <v>0.337748344370862</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="S10">
+            <v>0</v>
+          </cell>
+          <cell r="T10">
+            <v>44533</v>
+          </cell>
+          <cell r="U10">
+            <v>27.83</v>
+          </cell>
+          <cell r="V10">
+            <v>100</v>
+          </cell>
+          <cell r="W10">
+            <v>5</v>
+          </cell>
+          <cell r="X10">
+            <v>2.783</v>
+          </cell>
+          <cell r="Y10">
+            <v>0.05566</v>
+          </cell>
+          <cell r="Z10">
+            <v>2775.16134</v>
+          </cell>
+          <cell r="AA10">
+            <v>28.4</v>
+          </cell>
+          <cell r="AB10">
+            <v>27.44</v>
+          </cell>
+          <cell r="AC10">
+            <v>0.406249999999998</v>
+          </cell>
+          <cell r="AD10" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="AE10">
+            <v>-210.89828</v>
+          </cell>
+          <cell r="AF10">
+            <v>-0.196428571428572</v>
+          </cell>
+          <cell r="AG10" t="str">
+            <v>1.入场中枢点错误</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>JG_0000008</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>JH_00016</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>002585</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>双星新材</v>
+          </cell>
+          <cell r="E11">
+            <v>44536</v>
+          </cell>
+          <cell r="F11">
+            <v>28.37</v>
+          </cell>
+          <cell r="G11">
+            <v>100</v>
+          </cell>
+          <cell r="H11">
+            <v>5</v>
+          </cell>
+          <cell r="I11">
+            <v>0</v>
+          </cell>
+          <cell r="J11">
+            <v>2842</v>
+          </cell>
+          <cell r="K11">
+            <v>29.7</v>
+          </cell>
+          <cell r="L11">
+            <v>27.69</v>
+          </cell>
+          <cell r="M11">
+            <v>30.41</v>
+          </cell>
+          <cell r="N11">
+            <v>22.76</v>
+          </cell>
+          <cell r="O11">
+            <v>7.65</v>
+          </cell>
+          <cell r="P11">
+            <v>25.15</v>
+          </cell>
+          <cell r="Q11">
+            <v>0.661691542288557</v>
+          </cell>
+          <cell r="R11">
+            <v>26.31</v>
+          </cell>
+          <cell r="S11">
+            <v>0</v>
+          </cell>
+          <cell r="T11">
+            <v>44537</v>
+          </cell>
+          <cell r="U11">
+            <v>26.7</v>
+          </cell>
+          <cell r="V11">
+            <v>100</v>
+          </cell>
+          <cell r="W11">
+            <v>5</v>
+          </cell>
+          <cell r="X11">
+            <v>2.67</v>
+          </cell>
+          <cell r="Y11">
+            <v>0</v>
+          </cell>
+          <cell r="Z11">
+            <v>2662.33</v>
+          </cell>
+          <cell r="AA11">
+            <v>28.18</v>
+          </cell>
+          <cell r="AB11">
+            <v>25.99</v>
+          </cell>
+          <cell r="AC11">
+            <v>0.324200913242009</v>
+          </cell>
+          <cell r="AD11" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="AE11">
+            <v>-179.67</v>
+          </cell>
+          <cell r="AF11">
+            <v>-0.218300653594771</v>
+          </cell>
+          <cell r="AG11" t="str">
+            <v>1.宁可错过，不要根据临时计划入场。
+2.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场。
+3.作出出场决定是使用止损线倒逼出场。
+</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>JG_0000009</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>JH_00011</v>
+          </cell>
+          <cell r="C12">
+            <v>603867</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>新化股份</v>
+          </cell>
+          <cell r="E12">
+            <v>44540</v>
+          </cell>
+          <cell r="F12">
+            <v>37.73</v>
+          </cell>
+          <cell r="G12">
+            <v>200</v>
+          </cell>
+          <cell r="H12">
+            <v>5</v>
+          </cell>
+          <cell r="I12">
+            <v>0.15092</v>
+          </cell>
+          <cell r="J12">
+            <v>7551.15092</v>
+          </cell>
+          <cell r="K12">
+            <v>38.32</v>
+          </cell>
+          <cell r="L12">
+            <v>37.15</v>
+          </cell>
+          <cell r="M12">
+            <v>40.11</v>
+          </cell>
+          <cell r="N12">
+            <v>30.85</v>
+          </cell>
+          <cell r="O12">
+            <v>9.26</v>
+          </cell>
+          <cell r="P12">
+            <v>33.58</v>
+          </cell>
+          <cell r="Q12">
+            <v>0.504273504273506</v>
+          </cell>
+          <cell r="R12">
+            <v>34.55</v>
+          </cell>
+          <cell r="S12">
+            <v>646.15092</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="X12">
+            <v>0</v>
+          </cell>
+          <cell r="Y12">
+            <v>0</v>
+          </cell>
+          <cell r="Z12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AC12" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AE12">
+            <v>0</v>
+          </cell>
+          <cell r="AF12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>JG_0000010</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>JH_00011</v>
+          </cell>
+          <cell r="C13">
+            <v>603867</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>新化股份</v>
+          </cell>
+          <cell r="E13">
+            <v>44540</v>
+          </cell>
+          <cell r="F13">
+            <v>37.99</v>
+          </cell>
+          <cell r="G13">
+            <v>200</v>
+          </cell>
+          <cell r="H13">
+            <v>5</v>
+          </cell>
+          <cell r="I13">
+            <v>0.15196</v>
+          </cell>
+          <cell r="J13">
+            <v>7603.15196</v>
+          </cell>
+          <cell r="K13">
+            <v>38.32</v>
+          </cell>
+          <cell r="L13">
+            <v>37.15</v>
+          </cell>
+          <cell r="M13">
+            <v>40.11</v>
+          </cell>
+          <cell r="N13">
+            <v>30.85</v>
+          </cell>
+          <cell r="O13">
+            <v>9.26</v>
+          </cell>
+          <cell r="P13">
+            <v>33.58</v>
+          </cell>
+          <cell r="Q13">
+            <v>0.28205128205128</v>
+          </cell>
+          <cell r="R13">
+            <v>34.68</v>
+          </cell>
+          <cell r="S13">
+            <v>672.15196</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="X13">
+            <v>0</v>
+          </cell>
+          <cell r="Y13">
+            <v>0</v>
+          </cell>
+          <cell r="Z13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AC13" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AE13">
+            <v>0</v>
+          </cell>
+          <cell r="AF13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>JG_0000011</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>JH_00009</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>000733</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>振华科技</v>
+          </cell>
+          <cell r="E14">
+            <v>44540</v>
+          </cell>
+          <cell r="F14">
+            <v>115.97</v>
+          </cell>
+          <cell r="G14">
+            <v>100</v>
+          </cell>
+          <cell r="H14">
+            <v>5</v>
+          </cell>
+          <cell r="I14">
+            <v>0</v>
+          </cell>
+          <cell r="J14">
+            <v>11602</v>
+          </cell>
+          <cell r="K14">
+            <v>118</v>
+          </cell>
+          <cell r="L14">
+            <v>113.58</v>
+          </cell>
+          <cell r="M14">
+            <v>128.61</v>
+          </cell>
+          <cell r="N14">
+            <v>102.72</v>
+          </cell>
+          <cell r="O14">
+            <v>25.89</v>
+          </cell>
+          <cell r="P14">
+            <v>50.45</v>
+          </cell>
+          <cell r="Q14">
+            <v>0.459276018099548</v>
+          </cell>
+          <cell r="R14">
+            <v>110.4</v>
+          </cell>
+          <cell r="S14">
+            <v>0</v>
+          </cell>
+          <cell r="T14">
+            <v>44543</v>
+          </cell>
+          <cell r="U14">
+            <v>111.66</v>
+          </cell>
+          <cell r="V14">
+            <v>100</v>
+          </cell>
+          <cell r="W14">
+            <v>5</v>
+          </cell>
+          <cell r="X14">
+            <v>11.166</v>
+          </cell>
+          <cell r="Y14">
+            <v>2.2332</v>
+          </cell>
+          <cell r="Z14">
+            <v>11147.6008</v>
+          </cell>
+          <cell r="AA14">
+            <v>115.99</v>
+          </cell>
+          <cell r="AB14">
+            <v>110.08</v>
+          </cell>
+          <cell r="AC14">
+            <v>0.267343485617597</v>
+          </cell>
+          <cell r="AD14" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="AE14">
+            <v>-454.3992</v>
+          </cell>
+          <cell r="AF14">
+            <v>-0.166473541908073</v>
+          </cell>
+          <cell r="AG14" t="str">
+            <v>1.对交易减少量缺乏关注；
+2.对网球行为缺乏关注；
+3.对低突破高交易量重回低位缺乏关注;</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>JG_0000012</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>JH_00008</v>
+          </cell>
+          <cell r="C15">
+            <v>601677</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>明泰铝业</v>
+          </cell>
+          <cell r="E15">
+            <v>44540</v>
+          </cell>
+          <cell r="F15">
+            <v>39.15</v>
+          </cell>
+          <cell r="G15">
+            <v>100</v>
+          </cell>
+          <cell r="H15">
+            <v>5</v>
+          </cell>
+          <cell r="I15">
+            <v>0.0783</v>
+          </cell>
+          <cell r="J15">
+            <v>3920.0783</v>
+          </cell>
+          <cell r="K15">
+            <v>39.16</v>
+          </cell>
+          <cell r="L15">
+            <v>37.55</v>
+          </cell>
+          <cell r="M15">
+            <v>41.07</v>
+          </cell>
+          <cell r="N15">
+            <v>32.21</v>
+          </cell>
+          <cell r="O15">
+            <v>8.86</v>
+          </cell>
+          <cell r="P15">
+            <v>14.76</v>
+          </cell>
+          <cell r="Q15">
+            <v>0.00621118012422237</v>
+          </cell>
+          <cell r="R15">
+            <v>35.91</v>
+          </cell>
+          <cell r="S15">
+            <v>0</v>
+          </cell>
+          <cell r="T15">
+            <v>44547</v>
+          </cell>
+          <cell r="U15">
+            <v>35.9</v>
+          </cell>
+          <cell r="V15">
+            <v>100</v>
+          </cell>
+          <cell r="W15">
+            <v>5</v>
+          </cell>
+          <cell r="X15">
+            <v>3.59</v>
+          </cell>
+          <cell r="Y15">
+            <v>0.718</v>
+          </cell>
+          <cell r="Z15">
+            <v>3580.692</v>
+          </cell>
+          <cell r="AA15">
+            <v>36.86</v>
+          </cell>
+          <cell r="AB15">
+            <v>35.6</v>
+          </cell>
+          <cell r="AC15">
+            <v>0.238095238095236</v>
+          </cell>
+          <cell r="AD15">
+            <v>0</v>
+          </cell>
+          <cell r="AE15">
+            <v>-339.3863</v>
+          </cell>
+          <cell r="AF15">
+            <v>-0.366817155756208</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>JG_0000013</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>JH_00007</v>
+          </cell>
+          <cell r="C16">
+            <v>603688</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>石英股份</v>
+          </cell>
+          <cell r="E16">
+            <v>44540</v>
+          </cell>
+          <cell r="F16">
+            <v>64.3</v>
+          </cell>
+          <cell r="G16">
+            <v>100</v>
+          </cell>
+          <cell r="H16">
+            <v>5</v>
+          </cell>
+          <cell r="I16">
+            <v>0.1286</v>
+          </cell>
+          <cell r="J16">
+            <v>6435.1286</v>
+          </cell>
+          <cell r="K16">
+            <v>64.47</v>
+          </cell>
+          <cell r="L16">
+            <v>59.34</v>
+          </cell>
+          <cell r="M16">
+            <v>69.25</v>
+          </cell>
+          <cell r="N16">
+            <v>52.2</v>
+          </cell>
+          <cell r="O16">
+            <v>17.05</v>
+          </cell>
+          <cell r="P16">
+            <v>100.55</v>
+          </cell>
+          <cell r="Q16">
+            <v>0.0331384015594546</v>
+          </cell>
+          <cell r="R16">
+            <v>58.51</v>
+          </cell>
+          <cell r="S16">
+            <v>589.1286</v>
+          </cell>
+          <cell r="T16">
+            <v>44545</v>
+          </cell>
+          <cell r="U16">
+            <v>60.67</v>
+          </cell>
+          <cell r="V16">
+            <v>100</v>
+          </cell>
+          <cell r="W16">
+            <v>5</v>
+          </cell>
+          <cell r="X16">
+            <v>6.067</v>
+          </cell>
+          <cell r="Y16">
+            <v>1.2134</v>
+          </cell>
+          <cell r="Z16">
+            <v>6054.7196</v>
+          </cell>
+          <cell r="AA16">
+            <v>64.29</v>
+          </cell>
+          <cell r="AB16">
+            <v>60.28</v>
+          </cell>
+          <cell r="AC16">
+            <v>0.0972568578553616</v>
+          </cell>
+          <cell r="AD16">
+            <v>0</v>
+          </cell>
+          <cell r="AE16">
+            <v>-380.409</v>
+          </cell>
+          <cell r="AF16">
+            <v>-0.212903225806451</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>JG_0000014</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>JH_00006</v>
+          </cell>
+          <cell r="C17">
+            <v>600032</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>浙江新能</v>
+          </cell>
+          <cell r="E17">
+            <v>44543</v>
+          </cell>
+          <cell r="F17">
+            <v>17.01</v>
+          </cell>
+          <cell r="G17">
+            <v>100</v>
+          </cell>
+          <cell r="H17">
+            <v>5</v>
+          </cell>
+          <cell r="I17">
+            <v>0.03402</v>
+          </cell>
+          <cell r="J17">
+            <v>1706.03402</v>
+          </cell>
+          <cell r="K17">
+            <v>17.5</v>
+          </cell>
+          <cell r="L17">
+            <v>16.48</v>
+          </cell>
+          <cell r="M17">
+            <v>18.44</v>
+          </cell>
+          <cell r="N17">
+            <v>14.86</v>
+          </cell>
+          <cell r="O17">
+            <v>3.58</v>
+          </cell>
+          <cell r="P17">
+            <v>85.91</v>
+          </cell>
+          <cell r="Q17">
+            <v>0.480392156862744</v>
+          </cell>
+          <cell r="R17">
+            <v>15.5</v>
+          </cell>
+          <cell r="S17">
+            <v>161.03402</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>JG_0000015</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>JH_00006</v>
+          </cell>
+          <cell r="C18">
+            <v>600032</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>浙江新能</v>
+          </cell>
+          <cell r="E18">
+            <v>44543</v>
+          </cell>
+          <cell r="F18">
+            <v>17.19</v>
+          </cell>
+          <cell r="G18">
+            <v>200</v>
+          </cell>
+          <cell r="H18">
+            <v>5</v>
+          </cell>
+          <cell r="I18">
+            <v>0.06876</v>
+          </cell>
+          <cell r="J18">
+            <v>3443.06876</v>
+          </cell>
+          <cell r="K18">
+            <v>17.5</v>
+          </cell>
+          <cell r="L18">
+            <v>16.48</v>
+          </cell>
+          <cell r="M18">
+            <v>18.44</v>
+          </cell>
+          <cell r="N18">
+            <v>14.86</v>
+          </cell>
+          <cell r="O18">
+            <v>3.58</v>
+          </cell>
+          <cell r="P18">
+            <v>85.91</v>
+          </cell>
+          <cell r="Q18">
+            <v>0.30392156862745</v>
+          </cell>
+          <cell r="R18">
+            <v>15.5</v>
+          </cell>
+          <cell r="S18">
+            <v>348.06876</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>JG_0000016</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>JH_00022</v>
+          </cell>
+          <cell r="C19">
+            <v>600976</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>健民集团</v>
+          </cell>
+          <cell r="E19">
+            <v>44547</v>
+          </cell>
+          <cell r="F19">
+            <v>64.75</v>
+          </cell>
+          <cell r="G19">
+            <v>100</v>
+          </cell>
+          <cell r="H19">
+            <v>5</v>
+          </cell>
+          <cell r="I19">
+            <v>0.1295</v>
+          </cell>
+          <cell r="J19">
+            <v>6480.1295</v>
+          </cell>
+          <cell r="K19">
+            <v>65.9</v>
+          </cell>
+          <cell r="L19">
+            <v>60.17</v>
+          </cell>
+          <cell r="M19">
+            <v>67.42</v>
+          </cell>
+          <cell r="N19">
+            <v>46.04</v>
+          </cell>
+          <cell r="O19">
+            <v>21.38</v>
+          </cell>
+          <cell r="P19">
+            <v>35.75</v>
+          </cell>
+          <cell r="Q19">
+            <v>0.200698080279233</v>
+          </cell>
+          <cell r="R19">
+            <v>59.29</v>
+          </cell>
+          <cell r="S19">
+            <v>556.1295</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>JG_0000017</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>JH_00028</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>002889</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>东方嘉盛</v>
+          </cell>
+          <cell r="E20">
+            <v>44550</v>
+          </cell>
+          <cell r="F20">
+            <v>27.83</v>
+          </cell>
+          <cell r="G20">
+            <v>100</v>
+          </cell>
+          <cell r="H20">
+            <v>5</v>
+          </cell>
+          <cell r="I20">
+            <v>0</v>
+          </cell>
+          <cell r="J20">
+            <v>2788</v>
+          </cell>
+          <cell r="K20">
+            <v>28.87</v>
+          </cell>
+          <cell r="L20">
+            <v>26.48</v>
+          </cell>
+          <cell r="M20">
+            <v>28.31</v>
+          </cell>
+          <cell r="N20">
+            <v>22.8</v>
+          </cell>
+          <cell r="O20">
+            <v>5.51</v>
+          </cell>
+          <cell r="P20">
+            <v>16.09</v>
+          </cell>
+          <cell r="Q20">
+            <v>0.435146443514645</v>
+          </cell>
+          <cell r="R20">
+            <v>26</v>
+          </cell>
+          <cell r="S20">
+            <v>193</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>JG_0000018</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>JH_00029</v>
+          </cell>
+          <cell r="C21">
+            <v>601677</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>明泰铝业</v>
+          </cell>
+          <cell r="E21">
+            <v>44551</v>
+          </cell>
+          <cell r="F21">
+            <v>39.1</v>
+          </cell>
+          <cell r="G21">
+            <v>100</v>
+          </cell>
+          <cell r="H21">
+            <v>5</v>
+          </cell>
+          <cell r="I21">
+            <v>0.0782</v>
+          </cell>
+          <cell r="J21">
+            <v>3915.0782</v>
+          </cell>
+          <cell r="K21">
+            <v>41.2</v>
+          </cell>
+          <cell r="L21">
+            <v>38</v>
+          </cell>
+          <cell r="M21">
+            <v>42.71</v>
+          </cell>
+          <cell r="N21">
+            <v>30.54</v>
+          </cell>
+          <cell r="O21">
+            <v>12.17</v>
+          </cell>
+          <cell r="P21">
+            <v>14.89</v>
+          </cell>
+          <cell r="Q21">
+            <v>0.65625</v>
+          </cell>
+          <cell r="R21">
+            <v>35.6</v>
+          </cell>
+          <cell r="S21">
+            <v>360.0782</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>JG_0000019</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>JH_00017</v>
+          </cell>
+          <cell r="C22">
+            <v>600085</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>同仁堂</v>
+          </cell>
+          <cell r="E22">
+            <v>44546</v>
+          </cell>
+          <cell r="F22">
+            <v>38.9</v>
+          </cell>
+          <cell r="G22">
+            <v>200</v>
+          </cell>
+          <cell r="H22">
+            <v>5</v>
+          </cell>
+          <cell r="I22">
+            <v>0.1556</v>
+          </cell>
+          <cell r="J22">
+            <v>7785.1556</v>
+          </cell>
+          <cell r="K22">
+            <v>38.95</v>
+          </cell>
+          <cell r="L22">
+            <v>37.47</v>
+          </cell>
+          <cell r="M22">
+            <v>40.39</v>
+          </cell>
+          <cell r="N22">
+            <v>32.08</v>
+          </cell>
+          <cell r="O22">
+            <v>8.31</v>
+          </cell>
+          <cell r="P22">
+            <v>41.56</v>
+          </cell>
+          <cell r="Q22">
+            <v>0.0337837837837866</v>
+          </cell>
+          <cell r="R22">
+            <v>37</v>
+          </cell>
+          <cell r="S22">
+            <v>390.1556</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2726,11 +4296,11 @@
   <dimension ref="A1:AI483"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH6" sqref="AH6"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3071,11 +4641,11 @@
         <v>0.0297</v>
       </c>
       <c r="K6" s="16">
-        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$17,[1]交易计划及执行表!$A$4:$BL10004,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$17,[1]交易计划及执行表!$A$4:$BL10004,6,FALSE)</f>
+        <f>($B6-VLOOKUP([2]交易计划及执行表!$A$17,[2]交易计划及执行表!$A$4:$BL10004,6,FALSE))/VLOOKUP([2]交易计划及执行表!$A$17,[2]交易计划及执行表!$A$4:$BL10004,6,FALSE)</f>
         <v>-0.000587889476778458</v>
       </c>
       <c r="L6" s="16">
-        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10004,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10004,6,FALSE)</f>
+        <f>($B6-VLOOKUP([2]交易计划及执行表!$A$18,[2]交易计划及执行表!$A$4:$BL10004,6,FALSE))/VLOOKUP([2]交易计划及执行表!$A$18,[2]交易计划及执行表!$A$4:$BL10004,6,FALSE)</f>
         <v>-0.0110529377545085</v>
       </c>
       <c r="M6" s="15">
@@ -3127,7 +4697,7 @@
         <v>15.5</v>
       </c>
       <c r="AH6" s="4">
-        <f>AG6-VLOOKUP([1]交易计划及执行表!$A$17,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
+        <f>AG6-VLOOKUP([2]交易计划及执行表!$A$17,[2]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
         <v>-1.51</v>
       </c>
       <c r="AI6" s="4">
@@ -3168,11 +4738,11 @@
         <v>-0.00705882352941182</v>
       </c>
       <c r="K7" s="16">
-        <f>(B7-VLOOKUP([1]交易计划及执行表!$A$17,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$17,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
+        <f>($B7-VLOOKUP([2]交易计划及执行表!$A$17,[2]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([2]交易计划及执行表!$A$17,[2]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
         <v>-0.0076425631981189</v>
       </c>
       <c r="L7" s="16">
-        <f>(B7-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
+        <f>($B7-VLOOKUP([2]交易计划及执行表!$A$18,[2]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([2]交易计划及执行表!$A$18,[2]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
         <v>-0.0180337405468297</v>
       </c>
       <c r="M7" s="15">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/浙江新能.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/浙江新能.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="10720"/>
+    <workbookView windowWidth="26500" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
@@ -225,11 +224,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -262,8 +261,22 @@
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -271,15 +284,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,34 +329,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,6 +348,29 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,51 +392,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,7 +536,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,61 +602,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,13 +620,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,73 +704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,22 +750,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,8 +773,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,17 +794,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,11 +814,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,148 +848,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="45" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1186,1287 +1185,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="交易计划及执行表"/>
-      <sheetName val="交易水平监控表"/>
-      <sheetName val="资金曲线"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>JG_0000001</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>JH_00015</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>003040</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>楚天龙</v>
-          </cell>
-          <cell r="E4">
-            <v>44523</v>
-          </cell>
-          <cell r="F4">
-            <v>26.2</v>
-          </cell>
-          <cell r="G4">
-            <v>200</v>
-          </cell>
-          <cell r="H4">
-            <v>5</v>
-          </cell>
-          <cell r="I4">
-            <v>0</v>
-          </cell>
-          <cell r="J4">
-            <v>5245</v>
-          </cell>
-          <cell r="K4">
-            <v>26.5</v>
-          </cell>
-          <cell r="L4">
-            <v>25.21</v>
-          </cell>
-          <cell r="M4">
-            <v>28.15</v>
-          </cell>
-          <cell r="N4">
-            <v>21.87</v>
-          </cell>
-          <cell r="O4">
-            <v>6.28</v>
-          </cell>
-          <cell r="P4">
-            <v>150.88</v>
-          </cell>
-          <cell r="Q4">
-            <v>0.232558139534884</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="S4">
-            <v>0</v>
-          </cell>
-          <cell r="T4">
-            <v>44526</v>
-          </cell>
-          <cell r="U4">
-            <v>24.89</v>
-          </cell>
-          <cell r="V4">
-            <v>100</v>
-          </cell>
-          <cell r="W4">
-            <v>5</v>
-          </cell>
-          <cell r="X4">
-            <v>2.489</v>
-          </cell>
-          <cell r="Y4">
-            <v>0</v>
-          </cell>
-          <cell r="Z4">
-            <v>2481.511</v>
-          </cell>
-          <cell r="AA4">
-            <v>27.43</v>
-          </cell>
-          <cell r="AB4">
-            <v>24.74</v>
-          </cell>
-          <cell r="AC4">
-            <v>0.0557620817843874</v>
-          </cell>
-          <cell r="AD4">
-            <v>-140.989</v>
-          </cell>
-          <cell r="AE4">
-            <v>-1.25900000000001</v>
-          </cell>
-          <cell r="AF4">
-            <v>-0.20859872611465</v>
-          </cell>
-          <cell r="AG4" t="str">
-            <v>1.入场时，忽略了距离最高点的距离;
-2.入场时，忽略了成交量的情况。
-3.作出出场决定时，一定要立即出场。不然也至少要设置最低的止损线。</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>JG_0000002</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="S5">
-            <v>0</v>
-          </cell>
-          <cell r="T5">
-            <v>44531</v>
-          </cell>
-          <cell r="U5">
-            <v>27.7</v>
-          </cell>
-          <cell r="V5">
-            <v>100</v>
-          </cell>
-          <cell r="W5">
-            <v>5</v>
-          </cell>
-          <cell r="X5">
-            <v>2.77</v>
-          </cell>
-          <cell r="Y5">
-            <v>0</v>
-          </cell>
-          <cell r="Z5">
-            <v>2762.23</v>
-          </cell>
-          <cell r="AA5">
-            <v>28.7</v>
-          </cell>
-          <cell r="AB5">
-            <v>27.5</v>
-          </cell>
-          <cell r="AC5">
-            <v>0.166666666666666</v>
-          </cell>
-          <cell r="AD5">
-            <v>139.73</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="AF5">
-            <v>0.238853503184713</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>JG_0000003</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>JH_00001</v>
-          </cell>
-          <cell r="C6">
-            <v>600085</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>同仁堂</v>
-          </cell>
-          <cell r="E6">
-            <v>44523</v>
-          </cell>
-          <cell r="F6">
-            <v>33.73</v>
-          </cell>
-          <cell r="G6">
-            <v>100</v>
-          </cell>
-          <cell r="H6">
-            <v>5</v>
-          </cell>
-          <cell r="I6">
-            <v>0.06746</v>
-          </cell>
-          <cell r="J6">
-            <v>3378.06746</v>
-          </cell>
-          <cell r="K6">
-            <v>35.36</v>
-          </cell>
-          <cell r="L6">
-            <v>33.1</v>
-          </cell>
-          <cell r="M6">
-            <v>35.48</v>
-          </cell>
-          <cell r="N6">
-            <v>31.36</v>
-          </cell>
-          <cell r="O6">
-            <v>4.12</v>
-          </cell>
-          <cell r="P6">
-            <v>37.41</v>
-          </cell>
-          <cell r="Q6">
-            <v>0.721238938053099</v>
-          </cell>
-          <cell r="R6">
-            <v>34.7</v>
-          </cell>
-          <cell r="S6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="X6">
-            <v>0</v>
-          </cell>
-          <cell r="Y6">
-            <v>0</v>
-          </cell>
-          <cell r="Z6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="AD6">
-            <v>0</v>
-          </cell>
-          <cell r="AE6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>JG_0000004</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>JH_00002</v>
-          </cell>
-          <cell r="C7">
-            <v>603867</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>新化股份</v>
-          </cell>
-          <cell r="E7">
-            <v>44522</v>
-          </cell>
-          <cell r="F7">
-            <v>32.7</v>
-          </cell>
-          <cell r="G7">
-            <v>100</v>
-          </cell>
-          <cell r="H7">
-            <v>5</v>
-          </cell>
-          <cell r="I7">
-            <v>0.0654</v>
-          </cell>
-          <cell r="J7">
-            <v>3275.0654</v>
-          </cell>
-          <cell r="K7">
-            <v>33.9</v>
-          </cell>
-          <cell r="L7">
-            <v>32.49</v>
-          </cell>
-          <cell r="M7">
-            <v>36.21</v>
-          </cell>
-          <cell r="N7">
-            <v>27.35</v>
-          </cell>
-          <cell r="O7">
-            <v>8.86</v>
-          </cell>
-          <cell r="P7">
-            <v>28.82</v>
-          </cell>
-          <cell r="Q7">
-            <v>0.851063829787233</v>
-          </cell>
-          <cell r="R7">
-            <v>30.89</v>
-          </cell>
-          <cell r="S7">
-            <v>0</v>
-          </cell>
-          <cell r="T7">
-            <v>44539</v>
-          </cell>
-          <cell r="U7">
-            <v>37.75</v>
-          </cell>
-          <cell r="V7">
-            <v>100</v>
-          </cell>
-          <cell r="W7">
-            <v>5</v>
-          </cell>
-          <cell r="X7">
-            <v>3.775</v>
-          </cell>
-          <cell r="Y7">
-            <v>0.0755</v>
-          </cell>
-          <cell r="Z7">
-            <v>3766.1495</v>
-          </cell>
-          <cell r="AA7">
-            <v>38.83</v>
-          </cell>
-          <cell r="AB7">
-            <v>36.3</v>
-          </cell>
-          <cell r="AC7">
-            <v>0.57312252964427</v>
-          </cell>
-          <cell r="AD7" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="AE7">
-            <v>491.0841</v>
-          </cell>
-          <cell r="AF7">
-            <v>0.569977426636569</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>JG_0000005</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>JH_00012</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>002932</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>明德生物</v>
-          </cell>
-          <cell r="E8">
-            <v>44526</v>
-          </cell>
-          <cell r="F8">
-            <v>72.07</v>
-          </cell>
-          <cell r="G8">
-            <v>100</v>
-          </cell>
-          <cell r="H8">
-            <v>5</v>
-          </cell>
-          <cell r="I8">
-            <v>0</v>
-          </cell>
-          <cell r="J8">
-            <v>7212</v>
-          </cell>
-          <cell r="K8">
-            <v>74.5</v>
-          </cell>
-          <cell r="L8">
-            <v>70.4</v>
-          </cell>
-          <cell r="M8">
-            <v>75.02</v>
-          </cell>
-          <cell r="N8">
-            <v>62.33</v>
-          </cell>
-          <cell r="O8">
-            <v>12.69</v>
-          </cell>
-          <cell r="P8">
-            <v>6.49</v>
-          </cell>
-          <cell r="Q8">
-            <v>0.592682926829271</v>
-          </cell>
-          <cell r="R8">
-            <v>67.53</v>
-          </cell>
-          <cell r="S8">
-            <v>0</v>
-          </cell>
-          <cell r="T8">
-            <v>44543</v>
-          </cell>
-          <cell r="U8">
-            <v>72.45</v>
-          </cell>
-          <cell r="V8">
-            <v>100</v>
-          </cell>
-          <cell r="W8">
-            <v>5</v>
-          </cell>
-          <cell r="X8">
-            <v>7.245</v>
-          </cell>
-          <cell r="Y8">
-            <v>0</v>
-          </cell>
-          <cell r="Z8">
-            <v>7232.755</v>
-          </cell>
-          <cell r="AA8">
-            <v>73</v>
-          </cell>
-          <cell r="AB8">
-            <v>71.75</v>
-          </cell>
-          <cell r="AC8">
-            <v>0.560000000000002</v>
-          </cell>
-          <cell r="AD8" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="AE8">
-            <v>20.755000000001</v>
-          </cell>
-          <cell r="AF8">
-            <v>0.0299448384554775</v>
-          </cell>
-          <cell r="AG8" t="str">
-            <v>1.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场
-2.跳空时，不要入场。不然就有可能入场太早。</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>JG_0000006</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>JH_00014</v>
-          </cell>
-          <cell r="C9">
-            <v>605016</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>百龙创园</v>
-          </cell>
-          <cell r="E9">
-            <v>44524</v>
-          </cell>
-          <cell r="F9">
-            <v>30.54</v>
-          </cell>
-          <cell r="G9">
-            <v>100</v>
-          </cell>
-          <cell r="H9">
-            <v>5</v>
-          </cell>
-          <cell r="I9">
-            <v>0.06108</v>
-          </cell>
-          <cell r="J9">
-            <v>3059.06108</v>
-          </cell>
-          <cell r="K9">
-            <v>30.72</v>
-          </cell>
-          <cell r="L9">
-            <v>29.33</v>
-          </cell>
-          <cell r="M9">
-            <v>32.43</v>
-          </cell>
-          <cell r="N9">
-            <v>26.16</v>
-          </cell>
-          <cell r="O9">
-            <v>6.27</v>
-          </cell>
-          <cell r="P9">
-            <v>38.46</v>
-          </cell>
-          <cell r="Q9">
-            <v>0.129496402877698</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="S9">
-            <v>0</v>
-          </cell>
-          <cell r="T9">
-            <v>44525</v>
-          </cell>
-          <cell r="U9">
-            <v>30.15</v>
-          </cell>
-          <cell r="V9">
-            <v>100</v>
-          </cell>
-          <cell r="W9">
-            <v>5</v>
-          </cell>
-          <cell r="X9">
-            <v>3.015</v>
-          </cell>
-          <cell r="Y9">
-            <v>0.0603</v>
-          </cell>
-          <cell r="Z9">
-            <v>3006.9247</v>
-          </cell>
-          <cell r="AA9">
-            <v>30.69</v>
-          </cell>
-          <cell r="AB9">
-            <v>30.01</v>
-          </cell>
-          <cell r="AC9">
-            <v>0.205882352941172</v>
-          </cell>
-          <cell r="AD9" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="AE9">
-            <v>-52.1363799999999</v>
-          </cell>
-          <cell r="AF9">
-            <v>-0.0622009569377991</v>
-          </cell>
-          <cell r="AG9" t="str">
-            <v>1.入场时，忽略了价格的收缩幅度。价格的收缩幅度不够，导致入场过早。</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>JG_0000007</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>JH_00013</v>
-          </cell>
-          <cell r="C10">
-            <v>603010</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>万盛股份</v>
-          </cell>
-          <cell r="E10">
-            <v>44530</v>
-          </cell>
-          <cell r="F10">
-            <v>29.81</v>
-          </cell>
-          <cell r="G10">
-            <v>100</v>
-          </cell>
-          <cell r="H10">
-            <v>5</v>
-          </cell>
-          <cell r="I10">
-            <v>0.05962</v>
-          </cell>
-          <cell r="J10">
-            <v>2986.05962</v>
-          </cell>
-          <cell r="K10">
-            <v>30.32</v>
-          </cell>
-          <cell r="L10">
-            <v>28.81</v>
-          </cell>
-          <cell r="M10">
-            <v>31.18</v>
-          </cell>
-          <cell r="N10">
-            <v>21.1</v>
-          </cell>
-          <cell r="O10">
-            <v>10.08</v>
-          </cell>
-          <cell r="P10">
-            <v>17.95</v>
-          </cell>
-          <cell r="Q10">
-            <v>0.337748344370862</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="S10">
-            <v>0</v>
-          </cell>
-          <cell r="T10">
-            <v>44533</v>
-          </cell>
-          <cell r="U10">
-            <v>27.83</v>
-          </cell>
-          <cell r="V10">
-            <v>100</v>
-          </cell>
-          <cell r="W10">
-            <v>5</v>
-          </cell>
-          <cell r="X10">
-            <v>2.783</v>
-          </cell>
-          <cell r="Y10">
-            <v>0.05566</v>
-          </cell>
-          <cell r="Z10">
-            <v>2775.16134</v>
-          </cell>
-          <cell r="AA10">
-            <v>28.4</v>
-          </cell>
-          <cell r="AB10">
-            <v>27.44</v>
-          </cell>
-          <cell r="AC10">
-            <v>0.406249999999998</v>
-          </cell>
-          <cell r="AD10" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="AE10">
-            <v>-210.89828</v>
-          </cell>
-          <cell r="AF10">
-            <v>-0.196428571428572</v>
-          </cell>
-          <cell r="AG10" t="str">
-            <v>1.入场中枢点错误</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>JG_0000008</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>JH_00016</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>002585</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>双星新材</v>
-          </cell>
-          <cell r="E11">
-            <v>44536</v>
-          </cell>
-          <cell r="F11">
-            <v>28.37</v>
-          </cell>
-          <cell r="G11">
-            <v>100</v>
-          </cell>
-          <cell r="H11">
-            <v>5</v>
-          </cell>
-          <cell r="I11">
-            <v>0</v>
-          </cell>
-          <cell r="J11">
-            <v>2842</v>
-          </cell>
-          <cell r="K11">
-            <v>29.7</v>
-          </cell>
-          <cell r="L11">
-            <v>27.69</v>
-          </cell>
-          <cell r="M11">
-            <v>30.41</v>
-          </cell>
-          <cell r="N11">
-            <v>22.76</v>
-          </cell>
-          <cell r="O11">
-            <v>7.65</v>
-          </cell>
-          <cell r="P11">
-            <v>25.15</v>
-          </cell>
-          <cell r="Q11">
-            <v>0.661691542288557</v>
-          </cell>
-          <cell r="R11">
-            <v>26.31</v>
-          </cell>
-          <cell r="S11">
-            <v>0</v>
-          </cell>
-          <cell r="T11">
-            <v>44537</v>
-          </cell>
-          <cell r="U11">
-            <v>26.7</v>
-          </cell>
-          <cell r="V11">
-            <v>100</v>
-          </cell>
-          <cell r="W11">
-            <v>5</v>
-          </cell>
-          <cell r="X11">
-            <v>2.67</v>
-          </cell>
-          <cell r="Y11">
-            <v>0</v>
-          </cell>
-          <cell r="Z11">
-            <v>2662.33</v>
-          </cell>
-          <cell r="AA11">
-            <v>28.18</v>
-          </cell>
-          <cell r="AB11">
-            <v>25.99</v>
-          </cell>
-          <cell r="AC11">
-            <v>0.324200913242009</v>
-          </cell>
-          <cell r="AD11" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="AE11">
-            <v>-179.67</v>
-          </cell>
-          <cell r="AF11">
-            <v>-0.218300653594771</v>
-          </cell>
-          <cell r="AG11" t="str">
-            <v>1.宁可错过，不要根据临时计划入场。
-2.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场。
-3.作出出场决定是使用止损线倒逼出场。
-</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>JG_0000009</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>JH_00011</v>
-          </cell>
-          <cell r="C12">
-            <v>603867</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>新化股份</v>
-          </cell>
-          <cell r="E12">
-            <v>44540</v>
-          </cell>
-          <cell r="F12">
-            <v>37.73</v>
-          </cell>
-          <cell r="G12">
-            <v>200</v>
-          </cell>
-          <cell r="H12">
-            <v>5</v>
-          </cell>
-          <cell r="I12">
-            <v>0.15092</v>
-          </cell>
-          <cell r="J12">
-            <v>7551.15092</v>
-          </cell>
-          <cell r="K12">
-            <v>38.32</v>
-          </cell>
-          <cell r="L12">
-            <v>37.15</v>
-          </cell>
-          <cell r="M12">
-            <v>40.11</v>
-          </cell>
-          <cell r="N12">
-            <v>30.85</v>
-          </cell>
-          <cell r="O12">
-            <v>9.26</v>
-          </cell>
-          <cell r="P12">
-            <v>33.58</v>
-          </cell>
-          <cell r="Q12">
-            <v>0.504273504273506</v>
-          </cell>
-          <cell r="R12">
-            <v>34.68</v>
-          </cell>
-          <cell r="S12">
-            <v>620.150919999999</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="X12">
-            <v>0</v>
-          </cell>
-          <cell r="Y12">
-            <v>0</v>
-          </cell>
-          <cell r="Z12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="AC12" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="AE12">
-            <v>0</v>
-          </cell>
-          <cell r="AF12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>JG_0000010</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>JH_00011</v>
-          </cell>
-          <cell r="C13">
-            <v>603867</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>新化股份</v>
-          </cell>
-          <cell r="E13">
-            <v>44540</v>
-          </cell>
-          <cell r="F13">
-            <v>37.99</v>
-          </cell>
-          <cell r="G13">
-            <v>200</v>
-          </cell>
-          <cell r="H13">
-            <v>5</v>
-          </cell>
-          <cell r="I13">
-            <v>0.15196</v>
-          </cell>
-          <cell r="J13">
-            <v>7603.15196</v>
-          </cell>
-          <cell r="K13">
-            <v>38.32</v>
-          </cell>
-          <cell r="L13">
-            <v>37.15</v>
-          </cell>
-          <cell r="M13">
-            <v>40.11</v>
-          </cell>
-          <cell r="N13">
-            <v>30.85</v>
-          </cell>
-          <cell r="O13">
-            <v>9.26</v>
-          </cell>
-          <cell r="P13">
-            <v>33.58</v>
-          </cell>
-          <cell r="Q13">
-            <v>0.28205128205128</v>
-          </cell>
-          <cell r="R13">
-            <v>34.68</v>
-          </cell>
-          <cell r="S13">
-            <v>672.15196</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="X13">
-            <v>0</v>
-          </cell>
-          <cell r="Y13">
-            <v>0</v>
-          </cell>
-          <cell r="Z13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="AC13" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="AE13">
-            <v>0</v>
-          </cell>
-          <cell r="AF13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>JG_0000011</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>JH_00009</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>000733</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>振华科技</v>
-          </cell>
-          <cell r="E14">
-            <v>44540</v>
-          </cell>
-          <cell r="F14">
-            <v>115.97</v>
-          </cell>
-          <cell r="G14">
-            <v>100</v>
-          </cell>
-          <cell r="H14">
-            <v>5</v>
-          </cell>
-          <cell r="I14">
-            <v>0</v>
-          </cell>
-          <cell r="J14">
-            <v>11602</v>
-          </cell>
-          <cell r="K14">
-            <v>118</v>
-          </cell>
-          <cell r="L14">
-            <v>113.58</v>
-          </cell>
-          <cell r="M14">
-            <v>128.61</v>
-          </cell>
-          <cell r="N14">
-            <v>102.72</v>
-          </cell>
-          <cell r="O14">
-            <v>25.89</v>
-          </cell>
-          <cell r="P14">
-            <v>50.45</v>
-          </cell>
-          <cell r="Q14">
-            <v>0.459276018099548</v>
-          </cell>
-          <cell r="R14">
-            <v>110.4</v>
-          </cell>
-          <cell r="S14">
-            <v>0</v>
-          </cell>
-          <cell r="T14">
-            <v>44543</v>
-          </cell>
-          <cell r="U14">
-            <v>111.66</v>
-          </cell>
-          <cell r="V14">
-            <v>100</v>
-          </cell>
-          <cell r="W14">
-            <v>5</v>
-          </cell>
-          <cell r="X14">
-            <v>11.166</v>
-          </cell>
-          <cell r="Y14">
-            <v>2.2332</v>
-          </cell>
-          <cell r="Z14">
-            <v>11147.6008</v>
-          </cell>
-          <cell r="AA14">
-            <v>115.99</v>
-          </cell>
-          <cell r="AB14">
-            <v>110.08</v>
-          </cell>
-          <cell r="AC14">
-            <v>0.267343485617597</v>
-          </cell>
-          <cell r="AD14" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="AE14">
-            <v>-454.3992</v>
-          </cell>
-          <cell r="AF14">
-            <v>-0.166473541908073</v>
-          </cell>
-          <cell r="AG14" t="str">
-            <v>1.对交易减少量缺乏关注；
-2.对网球行为缺乏关注；
-3.对低突破高交易量重回低位缺乏关注;</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>JG_0000012</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>JH_00008</v>
-          </cell>
-          <cell r="C15">
-            <v>601677</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>明泰铝业</v>
-          </cell>
-          <cell r="E15">
-            <v>44540</v>
-          </cell>
-          <cell r="F15">
-            <v>39.15</v>
-          </cell>
-          <cell r="G15">
-            <v>100</v>
-          </cell>
-          <cell r="H15">
-            <v>5</v>
-          </cell>
-          <cell r="I15">
-            <v>0.0783</v>
-          </cell>
-          <cell r="J15">
-            <v>3920.0783</v>
-          </cell>
-          <cell r="K15">
-            <v>39.16</v>
-          </cell>
-          <cell r="L15">
-            <v>37.55</v>
-          </cell>
-          <cell r="M15">
-            <v>41.07</v>
-          </cell>
-          <cell r="N15">
-            <v>32.21</v>
-          </cell>
-          <cell r="O15">
-            <v>8.86</v>
-          </cell>
-          <cell r="P15">
-            <v>14.76</v>
-          </cell>
-          <cell r="Q15">
-            <v>0.00621118012422237</v>
-          </cell>
-          <cell r="R15">
-            <v>35.91</v>
-          </cell>
-          <cell r="S15">
-            <v>334.0783</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="X15">
-            <v>0</v>
-          </cell>
-          <cell r="Y15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>JG_0000013</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>JH_00007</v>
-          </cell>
-          <cell r="C16">
-            <v>603688</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>石英股份</v>
-          </cell>
-          <cell r="E16">
-            <v>44540</v>
-          </cell>
-          <cell r="F16">
-            <v>64.3</v>
-          </cell>
-          <cell r="G16">
-            <v>100</v>
-          </cell>
-          <cell r="H16">
-            <v>5</v>
-          </cell>
-          <cell r="I16">
-            <v>0.1286</v>
-          </cell>
-          <cell r="J16">
-            <v>6435.1286</v>
-          </cell>
-          <cell r="K16">
-            <v>64.47</v>
-          </cell>
-          <cell r="L16">
-            <v>59.34</v>
-          </cell>
-          <cell r="M16">
-            <v>69.25</v>
-          </cell>
-          <cell r="N16">
-            <v>52.2</v>
-          </cell>
-          <cell r="O16">
-            <v>17.05</v>
-          </cell>
-          <cell r="P16">
-            <v>100.55</v>
-          </cell>
-          <cell r="Q16">
-            <v>0.0331384015594546</v>
-          </cell>
-          <cell r="R16">
-            <v>58.51</v>
-          </cell>
-          <cell r="S16">
-            <v>589.1286</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="X16">
-            <v>0</v>
-          </cell>
-          <cell r="Y16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>JG_0000014</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>JH_00006</v>
-          </cell>
-          <cell r="C17">
-            <v>600032</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>浙江新能</v>
-          </cell>
-          <cell r="E17">
-            <v>44543</v>
-          </cell>
-          <cell r="F17">
-            <v>17.01</v>
-          </cell>
-          <cell r="G17">
-            <v>100</v>
-          </cell>
-          <cell r="H17">
-            <v>5</v>
-          </cell>
-          <cell r="I17">
-            <v>0.03402</v>
-          </cell>
-          <cell r="J17">
-            <v>1706.03402</v>
-          </cell>
-          <cell r="K17">
-            <v>17.5</v>
-          </cell>
-          <cell r="L17">
-            <v>16.48</v>
-          </cell>
-          <cell r="M17">
-            <v>18.44</v>
-          </cell>
-          <cell r="N17">
-            <v>14.86</v>
-          </cell>
-          <cell r="O17">
-            <v>3.58</v>
-          </cell>
-          <cell r="P17">
-            <v>85.91</v>
-          </cell>
-          <cell r="Q17">
-            <v>0.480392156862744</v>
-          </cell>
-          <cell r="R17">
-            <v>15.5</v>
-          </cell>
-          <cell r="S17">
-            <v>161.03402</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>JG_0000015</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>JH_00006</v>
-          </cell>
-          <cell r="C18">
-            <v>600032</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>浙江新能</v>
-          </cell>
-          <cell r="E18">
-            <v>44543</v>
-          </cell>
-          <cell r="F18">
-            <v>17.19</v>
-          </cell>
-          <cell r="G18">
-            <v>200</v>
-          </cell>
-          <cell r="H18">
-            <v>5</v>
-          </cell>
-          <cell r="I18">
-            <v>0.06876</v>
-          </cell>
-          <cell r="J18">
-            <v>3443.06876</v>
-          </cell>
-          <cell r="K18">
-            <v>17.5</v>
-          </cell>
-          <cell r="L18">
-            <v>16.48</v>
-          </cell>
-          <cell r="M18">
-            <v>18.44</v>
-          </cell>
-          <cell r="N18">
-            <v>14.86</v>
-          </cell>
-          <cell r="O18">
-            <v>3.58</v>
-          </cell>
-          <cell r="P18">
-            <v>85.91</v>
-          </cell>
-          <cell r="Q18">
-            <v>0.30392156862745</v>
-          </cell>
-          <cell r="R18">
-            <v>15.5</v>
-          </cell>
-          <cell r="S18">
-            <v>348.06876</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>JG_0000016</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>JG_0000017</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4296,11 +3014,11 @@
   <dimension ref="A1:AI483"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -4641,11 +3359,11 @@
         <v>0.0297</v>
       </c>
       <c r="K6" s="16">
-        <f>($B6-VLOOKUP([2]交易计划及执行表!$A$17,[2]交易计划及执行表!$A$4:$BL10004,6,FALSE))/VLOOKUP([2]交易计划及执行表!$A$17,[2]交易计划及执行表!$A$4:$BL10004,6,FALSE)</f>
+        <f>($B6-VLOOKUP([1]交易计划及执行表!$A$17,[1]交易计划及执行表!$A$4:$BL10004,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$17,[1]交易计划及执行表!$A$4:$BL10004,6,FALSE)</f>
         <v>-0.000587889476778458</v>
       </c>
       <c r="L6" s="16">
-        <f>($B6-VLOOKUP([2]交易计划及执行表!$A$18,[2]交易计划及执行表!$A$4:$BL10004,6,FALSE))/VLOOKUP([2]交易计划及执行表!$A$18,[2]交易计划及执行表!$A$4:$BL10004,6,FALSE)</f>
+        <f>($B6-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10004,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10004,6,FALSE)</f>
         <v>-0.0110529377545085</v>
       </c>
       <c r="M6" s="15">
@@ -4697,12 +3415,12 @@
         <v>15.5</v>
       </c>
       <c r="AH6" s="4">
-        <f>AG6-VLOOKUP([2]交易计划及执行表!$A$17,[2]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
-        <v>-1.51</v>
+        <f>($AG6-VLOOKUP([1]交易计划及执行表!$A$17,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))*100</f>
+        <v>-151</v>
       </c>
       <c r="AI6" s="4">
-        <f>AG6-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
-        <v>-1.69</v>
+        <f>($AG6-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))*200</f>
+        <v>-338</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -4738,11 +3456,11 @@
         <v>-0.00705882352941182</v>
       </c>
       <c r="K7" s="16">
-        <f>($B7-VLOOKUP([2]交易计划及执行表!$A$17,[2]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([2]交易计划及执行表!$A$17,[2]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
+        <f>($B7-VLOOKUP([1]交易计划及执行表!$A$17,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$17,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
         <v>-0.0076425631981189</v>
       </c>
       <c r="L7" s="16">
-        <f>($B7-VLOOKUP([2]交易计划及执行表!$A$18,[2]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([2]交易计划及执行表!$A$18,[2]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
+        <f>($B7-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
         <v>-0.0180337405468297</v>
       </c>
       <c r="M7" s="15">
@@ -4795,12 +3513,12 @@
         <v>15.5</v>
       </c>
       <c r="AH7" s="4">
-        <f>AG7-VLOOKUP([1]交易计划及执行表!$A$17,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
-        <v>-1.51</v>
+        <f>($AG7-VLOOKUP([1]交易计划及执行表!$A$17,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))*100</f>
+        <v>-151</v>
       </c>
       <c r="AI7" s="4">
-        <f>AG7-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
-        <v>-1.69</v>
+        <f>($AG7-VLOOKUP([1]交易计划及执行表!$A$18,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))*200</f>
+        <v>-338</v>
       </c>
     </row>
     <row r="8" spans="1:35">
